--- a/CalculePos_quasi_RTK/PosWGS84_code.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_code.xlsx
@@ -53,3214 +53,3726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B400"/>
+  <dimension ref="A1:B464"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="true"/>
-    <col min="2" max="2" width="11.453125" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.712727151243151</v>
+        <v>48.711724088192412</v>
       </c>
       <c r="B1" s="0">
-        <v>2.1979710354592004</v>
+        <v>2.2030150418192833</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.712746148400718</v>
+        <v>48.711806310696964</v>
       </c>
       <c r="B2" s="0">
-        <v>2.1979718182331358</v>
+        <v>2.2028392562735992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.712772890351637</v>
+        <v>48.711879918916182</v>
       </c>
       <c r="B3" s="0">
-        <v>2.1979674214588774</v>
+        <v>2.2026951062097688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.712815012482913</v>
+        <v>48.711925992549091</v>
       </c>
       <c r="B4" s="0">
-        <v>2.1979670868598018</v>
+        <v>2.2025875087840983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.712773910671352</v>
+        <v>48.711943576307199</v>
       </c>
       <c r="B5" s="0">
-        <v>2.1979764577634766</v>
+        <v>2.2025425243255672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.712787549721675</v>
+        <v>48.711939331215064</v>
       </c>
       <c r="B6" s="0">
-        <v>2.197968812929036</v>
+        <v>2.2025564721726689</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.712662887741082</v>
+        <v>48.711900738188838</v>
       </c>
       <c r="B7" s="0">
-        <v>2.1979543377493123</v>
+        <v>2.2026311180287421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.712702701513798</v>
+        <v>48.711971499375544</v>
       </c>
       <c r="B8" s="0">
-        <v>2.1979543649113467</v>
+        <v>2.2024852861621822</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.712793156627143</v>
+        <v>48.711897474834899</v>
       </c>
       <c r="B9" s="0">
-        <v>2.1979592949053126</v>
+        <v>2.2026480021939277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.712738178341077</v>
+        <v>48.711846456567166</v>
       </c>
       <c r="B10" s="0">
-        <v>2.1979616370565589</v>
+        <v>2.20274685458641</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.712792479465478</v>
+        <v>48.711868696315186</v>
       </c>
       <c r="B11" s="0">
-        <v>2.1979654924741294</v>
+        <v>2.2027082418092072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.712703405840315</v>
+        <v>48.711860852804158</v>
       </c>
       <c r="B12" s="0">
-        <v>2.1979579768416859</v>
+        <v>2.2027499512027582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.712743165324142</v>
+        <v>48.711875363974784</v>
       </c>
       <c r="B13" s="0">
-        <v>2.1979550508008501</v>
+        <v>2.2027264285522445</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.712756591607842</v>
+        <v>48.711891140587724</v>
       </c>
       <c r="B14" s="0">
-        <v>2.1979523345878889</v>
+        <v>2.2027055762141852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.712739434376573</v>
+        <v>48.711861154893377</v>
       </c>
       <c r="B15" s="0">
-        <v>2.1979545934549694</v>
+        <v>2.2027527546905898</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.712755648899538</v>
+        <v>48.711639325595272</v>
       </c>
       <c r="B16" s="0">
-        <v>2.1979519895408668</v>
+        <v>2.2032280575998393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.712770075759273</v>
+        <v>48.711604416516579</v>
       </c>
       <c r="B17" s="0">
-        <v>2.1979588075051253</v>
+        <v>2.2032802895174264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.712736395450072</v>
+        <v>48.71175369247149</v>
       </c>
       <c r="B18" s="0">
-        <v>2.1979536118084719</v>
+        <v>2.2029933861605273</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.712674098136184</v>
+        <v>48.711764403232884</v>
       </c>
       <c r="B19" s="0">
-        <v>2.1979484953081676</v>
+        <v>2.2029826086666948</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.712731870329407</v>
+        <v>48.711663005654103</v>
       </c>
       <c r="B20" s="0">
-        <v>2.1979606667299105</v>
+        <v>2.2031982143734252</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.712716635529517</v>
+        <v>48.711596539714613</v>
       </c>
       <c r="B21" s="0">
-        <v>2.1979582069495991</v>
+        <v>2.2033299339267027</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.712685558464962</v>
+        <v>48.711648799161736</v>
       </c>
       <c r="B22" s="0">
-        <v>2.1979591496391464</v>
+        <v>2.2032483101398799</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.712702503099912</v>
+        <v>48.711539449155332</v>
       </c>
       <c r="B23" s="0">
-        <v>2.197958232556068</v>
+        <v>2.2034787543329979</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.712726890352478</v>
+        <v>48.711393767975771</v>
       </c>
       <c r="B24" s="0">
-        <v>2.1979616645612965</v>
+        <v>2.2037665606614647</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.712732587911539</v>
+        <v>48.711346962489913</v>
       </c>
       <c r="B25" s="0">
-        <v>2.19796345510699</v>
+        <v>2.2038558035616651</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.712756828710013</v>
+        <v>48.711422853806475</v>
       </c>
       <c r="B26" s="0">
-        <v>2.1979716633827771</v>
+        <v>2.2037184873160784</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.712748060654796</v>
+        <v>48.711432540012332</v>
       </c>
       <c r="B27" s="0">
-        <v>2.1979642091897023</v>
+        <v>2.2036773238442669</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.712733630853684</v>
+        <v>48.711299319823979</v>
       </c>
       <c r="B28" s="0">
-        <v>2.1979594503431237</v>
+        <v>2.2039463471920726</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.712757494293378</v>
+        <v>48.711151002358676</v>
       </c>
       <c r="B29" s="0">
-        <v>2.1979638961725079</v>
+        <v>2.2042336474333015</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.712784786829822</v>
+        <v>48.711728592234714</v>
       </c>
       <c r="B30" s="0">
-        <v>2.1979682077210732</v>
+        <v>2.2030703596306762</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.712786071565496</v>
+        <v>48.711703285067699</v>
       </c>
       <c r="B31" s="0">
-        <v>2.1979672228128444</v>
+        <v>2.2031359650548224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.712793015261532</v>
+        <v>48.711935917281586</v>
       </c>
       <c r="B32" s="0">
-        <v>2.1979659457768088</v>
+        <v>2.2026502946972477</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.71284072558614</v>
+        <v>48.711707397688784</v>
       </c>
       <c r="B33" s="0">
-        <v>2.1979626040500278</v>
+        <v>2.2031128468417025</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.712875803273931</v>
+        <v>48.711744869470287</v>
       </c>
       <c r="B34" s="0">
-        <v>2.1979703848640266</v>
+        <v>2.2030463201457096</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.71290154146876</v>
+        <v>48.711898628451898</v>
       </c>
       <c r="B35" s="0">
-        <v>2.1979714882246739</v>
+        <v>2.2027295312784316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.712897706059664</v>
+        <v>48.711861230916362</v>
       </c>
       <c r="B36" s="0">
-        <v>2.197977452350071</v>
+        <v>2.2027798106693313</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.712875831847512</v>
+        <v>48.71197395151038</v>
       </c>
       <c r="B37" s="0">
-        <v>2.1979761072428037</v>
+        <v>2.2025598019918733</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.712910645463126</v>
+        <v>48.711646528585</v>
       </c>
       <c r="B38" s="0">
-        <v>2.1979809466578675</v>
+        <v>2.2032266675925105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.712809334006465</v>
+        <v>48.71204010310705</v>
       </c>
       <c r="B39" s="0">
-        <v>2.1979663503071114</v>
+        <v>2.202411100192446</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.712778656827474</v>
+        <v>48.711961340103109</v>
       </c>
       <c r="B40" s="0">
-        <v>2.1979669492283338</v>
+        <v>2.2025920493995814</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.712797770210699</v>
+        <v>48.712003211719825</v>
       </c>
       <c r="B41" s="0">
-        <v>2.1979669843104634</v>
+        <v>2.20248991836668</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.71277746974431</v>
+        <v>48.712038036445804</v>
       </c>
       <c r="B42" s="0">
-        <v>2.1979533752187459</v>
+        <v>2.2024472721678921</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.712762948303514</v>
+        <v>48.712006966916114</v>
       </c>
       <c r="B43" s="0">
-        <v>2.1979524091615272</v>
+        <v>2.202513027068993</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.71274379523399</v>
+        <v>48.712168412673499</v>
       </c>
       <c r="B44" s="0">
-        <v>2.1979409163151749</v>
+        <v>2.2021723345738291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.712774233225694</v>
+        <v>48.712517192228233</v>
       </c>
       <c r="B45" s="0">
-        <v>2.1979469721921072</v>
+        <v>2.2014672694193975</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.712796030131912</v>
+        <v>48.712204095585683</v>
       </c>
       <c r="B46" s="0">
-        <v>2.1979505887768904</v>
+        <v>2.2020772828512887</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.712808130422069</v>
+        <v>48.712487442066831</v>
       </c>
       <c r="B47" s="0">
-        <v>2.1979473266803229</v>
+        <v>2.2015063473173462</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.712751307266252</v>
+        <v>48.712554108635011</v>
       </c>
       <c r="B48" s="0">
-        <v>2.1979447646103836</v>
+        <v>2.2013533630868492</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.712833819065352</v>
+        <v>48.71284585059113</v>
       </c>
       <c r="B49" s="0">
-        <v>2.1979530063873849</v>
+        <v>2.2007622092571815</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.712765323916443</v>
+        <v>48.712820677331145</v>
       </c>
       <c r="B50" s="0">
-        <v>2.1979436792320306</v>
+        <v>2.2008348094244843</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.712682158047301</v>
+        <v>48.712914088924187</v>
       </c>
       <c r="B51" s="0">
-        <v>2.1979480719640416</v>
+        <v>2.2006477795272237</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.712663719132365</v>
+        <v>48.712891059445489</v>
       </c>
       <c r="B52" s="0">
-        <v>2.1979532961803026</v>
+        <v>2.2006736969915668</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.712663745584571</v>
+        <v>48.712461662924007</v>
       </c>
       <c r="B53" s="0">
-        <v>2.1979524634293655</v>
+        <v>2.2015477992648558</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.712650099655704</v>
+        <v>48.712462154648449</v>
       </c>
       <c r="B54" s="0">
-        <v>2.197956677379223</v>
+        <v>2.2015278122217543</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.712652850418849</v>
+        <v>48.712574336257674</v>
       </c>
       <c r="B55" s="0">
-        <v>2.197954586122814</v>
+        <v>2.2013148203942734</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.712718160754776</v>
+        <v>48.712754084307711</v>
       </c>
       <c r="B56" s="0">
-        <v>2.1979590811620047</v>
+        <v>2.2009533258018137</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.712681501746339</v>
+        <v>48.712713526464192</v>
       </c>
       <c r="B57" s="0">
-        <v>2.1979660134267198</v>
+        <v>2.2010225386698803</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.712681954517905</v>
+        <v>48.712666361580077</v>
       </c>
       <c r="B58" s="0">
-        <v>2.1979606661756845</v>
+        <v>2.2011157272253521</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.712695104068487</v>
+        <v>48.712772928664258</v>
       </c>
       <c r="B59" s="0">
-        <v>2.1979724583983407</v>
+        <v>2.2008941378395099</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.712652538508763</v>
+        <v>48.712694700222329</v>
       </c>
       <c r="B60" s="0">
-        <v>2.1979545414098567</v>
+        <v>2.2010669556413416</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.712746136056673</v>
+        <v>48.712761820257413</v>
       </c>
       <c r="B61" s="0">
-        <v>2.1979610426460607</v>
+        <v>2.2009330553339983</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.712829506609609</v>
+        <v>48.712864799963782</v>
       </c>
       <c r="B62" s="0">
-        <v>2.1979668798809473</v>
+        <v>2.2007355732956828</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.712767454542359</v>
+        <v>48.712822333190537</v>
       </c>
       <c r="B63" s="0">
-        <v>2.1979540957038144</v>
+        <v>2.2008338064015578</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.712777190603916</v>
+        <v>48.712933570442274</v>
       </c>
       <c r="B64" s="0">
-        <v>2.19795404543666</v>
+        <v>2.2005747254901431</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.712815391408647</v>
+        <v>48.712896516601369</v>
       </c>
       <c r="B65" s="0">
-        <v>2.1979465705982038</v>
+        <v>2.2006700436906996</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.712813140141122</v>
+        <v>48.71287910237124</v>
       </c>
       <c r="B66" s="0">
-        <v>2.1979467976370417</v>
+        <v>2.2007368084377128</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.712849643633461</v>
+        <v>48.712921358735848</v>
       </c>
       <c r="B67" s="0">
-        <v>2.1979517899273358</v>
+        <v>2.2006538996312153</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.712922486591324</v>
+        <v>48.712941552254186</v>
       </c>
       <c r="B68" s="0">
-        <v>2.1979671061537522</v>
+        <v>2.2005754731683229</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.712876603869219</v>
+        <v>48.712908689582157</v>
       </c>
       <c r="B69" s="0">
-        <v>2.197958340167788</v>
+        <v>2.2006884797361597</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.712853172775418</v>
+        <v>48.712894714290158</v>
       </c>
       <c r="B70" s="0">
-        <v>2.1979620726078495</v>
+        <v>2.2006886159574988</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.712753189831339</v>
+        <v>48.712876604973509</v>
       </c>
       <c r="B71" s="0">
-        <v>2.1979590333647687</v>
+        <v>2.2007534307875236</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.712828081852152</v>
+        <v>48.712843260648192</v>
       </c>
       <c r="B72" s="0">
-        <v>2.1979653139448723</v>
+        <v>2.2008126616626638</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.712848316864523</v>
+        <v>48.712856965921532</v>
       </c>
       <c r="B73" s="0">
-        <v>2.1979621815379309</v>
+        <v>2.2007957142645038</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.712769657957153</v>
+        <v>48.712825962858936</v>
       </c>
       <c r="B74" s="0">
-        <v>2.1979682974381562</v>
+        <v>2.200848851044253</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.712806357853673</v>
+        <v>48.712835742334562</v>
       </c>
       <c r="B75" s="0">
-        <v>2.1979622142901092</v>
+        <v>2.2008478663330804</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.712809802623113</v>
+        <v>48.712848761585157</v>
       </c>
       <c r="B76" s="0">
-        <v>2.1979601933763626</v>
+        <v>2.2008097407986633</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.712756150382639</v>
+        <v>48.712822095000441</v>
       </c>
       <c r="B77" s="0">
-        <v>2.197952288729109</v>
+        <v>2.2008576728898177</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.712754515669218</v>
+        <v>48.712855659398492</v>
       </c>
       <c r="B78" s="0">
-        <v>2.1979655941054137</v>
+        <v>2.2007923712133195</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.712696307760972</v>
+        <v>48.712834809402899</v>
       </c>
       <c r="B79" s="0">
-        <v>2.1979629424226146</v>
+        <v>2.2008563439559614</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.712666444440295</v>
+        <v>48.712833435519031</v>
       </c>
       <c r="B80" s="0">
-        <v>2.1979548848121433</v>
+        <v>2.2008517095642595</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.712710855398576</v>
+        <v>48.712816109321409</v>
       </c>
       <c r="B81" s="0">
-        <v>2.1979564480304594</v>
+        <v>2.2008883729727158</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.712684495457971</v>
+        <v>48.712800809611672</v>
       </c>
       <c r="B82" s="0">
-        <v>2.1979569680115447</v>
+        <v>2.2009315027054042</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.712650927857077</v>
+        <v>48.712802938303561</v>
       </c>
       <c r="B83" s="0">
-        <v>2.1979527099855059</v>
+        <v>2.2009141815297144</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.712715916411696</v>
+        <v>48.712733289353217</v>
       </c>
       <c r="B84" s="0">
-        <v>2.197962202313565</v>
+        <v>2.2010655371015475</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.712745889443632</v>
+        <v>48.712514397095788</v>
       </c>
       <c r="B85" s="0">
-        <v>2.1979552049475566</v>
+        <v>2.2014991967432014</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.712704647665412</v>
+        <v>48.712617958842166</v>
       </c>
       <c r="B86" s="0">
-        <v>2.1979610281480362</v>
+        <v>2.2012839578760817</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.712695699761099</v>
+        <v>48.712253924616057</v>
       </c>
       <c r="B87" s="0">
-        <v>2.1979613007181103</v>
+        <v>2.2020229497235917</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.712702296904602</v>
+        <v>48.712253924616057</v>
       </c>
       <c r="B88" s="0">
-        <v>2.1979681536458644</v>
+        <v>2.2020229497235917</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.712705943628279</v>
+        <v>48.71268032165397</v>
       </c>
       <c r="B89" s="0">
-        <v>2.1979710371056713</v>
+        <v>2.2011901218358099</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.712678018243707</v>
+        <v>48.712051663065594</v>
       </c>
       <c r="B90" s="0">
-        <v>2.1979743710589879</v>
+        <v>2.202455783596891</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.712633402123025</v>
+        <v>48.712051663065594</v>
       </c>
       <c r="B91" s="0">
-        <v>2.1979696935197626</v>
+        <v>2.202455783596891</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.71269520945674</v>
+        <v>48.712051663065594</v>
       </c>
       <c r="B92" s="0">
-        <v>2.1979789567924439</v>
+        <v>2.202455783596891</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.712659276159052</v>
+        <v>48.711459374673687</v>
       </c>
       <c r="B93" s="0">
-        <v>2.1979848802449498</v>
+        <v>2.2036474053581867</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.712656380701184</v>
+        <v>48.711471472828293</v>
       </c>
       <c r="B94" s="0">
-        <v>2.1979782261216774</v>
+        <v>2.2036496989405157</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.712589457256357</v>
+        <v>48.711610330809222</v>
       </c>
       <c r="B95" s="0">
-        <v>2.197969860139847</v>
+        <v>2.2033488275559563</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.712646240920108</v>
+        <v>48.711907260392408</v>
       </c>
       <c r="B96" s="0">
-        <v>2.1979689263707529</v>
+        <v>2.2027279724433835</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.712571391502444</v>
+        <v>48.71202287952768</v>
       </c>
       <c r="B97" s="0">
-        <v>2.1979625397382394</v>
+        <v>2.2025213502412178</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.712596253707098</v>
+        <v>48.711479072221692</v>
       </c>
       <c r="B98" s="0">
-        <v>2.1979463180709526</v>
+        <v>2.2036161486397354</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.71262795970565</v>
+        <v>48.711921534579027</v>
       </c>
       <c r="B99" s="0">
-        <v>2.1979570260903412</v>
+        <v>2.2027009507762268</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.712618904523644</v>
+        <v>48.711973107027269</v>
       </c>
       <c r="B100" s="0">
-        <v>2.1979538901196265</v>
+        <v>2.2025870746968006</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.712571269400989</v>
+        <v>48.712137356605908</v>
       </c>
       <c r="B101" s="0">
-        <v>2.1979524917086262</v>
+        <v>2.2022573849118956</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.712645722906054</v>
+        <v>48.712208450036066</v>
       </c>
       <c r="B102" s="0">
-        <v>2.1979598528287858</v>
+        <v>2.2021176778426486</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.712668991799511</v>
+        <v>48.712015741322588</v>
       </c>
       <c r="B103" s="0">
-        <v>2.197958881820373</v>
+        <v>2.2025093010664652</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.712622737612378</v>
+        <v>48.712208728654694</v>
       </c>
       <c r="B104" s="0">
-        <v>2.1979557072765434</v>
+        <v>2.2020892503832688</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.712646657041468</v>
+        <v>48.712343875347898</v>
       </c>
       <c r="B105" s="0">
-        <v>2.1979535379277517</v>
+        <v>2.2018384331439496</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.712689159820371</v>
+        <v>48.712405182306497</v>
       </c>
       <c r="B106" s="0">
-        <v>2.1979600623959801</v>
+        <v>2.2016598162947725</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.71272867087206</v>
+        <v>48.712254860452603</v>
       </c>
       <c r="B107" s="0">
-        <v>2.1979566749992738</v>
+        <v>2.2020351209310443</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.712780544490045</v>
+        <v>48.712667664917945</v>
       </c>
       <c r="B108" s="0">
-        <v>2.1979499801112996</v>
+        <v>2.2011709717005878</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.712792304062106</v>
+        <v>48.712466565863565</v>
       </c>
       <c r="B109" s="0">
-        <v>2.1979561519212418</v>
+        <v>2.2015753479309144</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.712825882349357</v>
+        <v>48.712523235651112</v>
       </c>
       <c r="B110" s="0">
-        <v>2.1979628212338693</v>
+        <v>2.2014156912593439</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.712869694820171</v>
+        <v>48.712685072267185</v>
       </c>
       <c r="B111" s="0">
-        <v>2.1979523342163558</v>
+        <v>2.201071616376709</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.712882238600642</v>
+        <v>48.712792460216939</v>
       </c>
       <c r="B112" s="0">
-        <v>2.1979570099342123</v>
+        <v>2.2008492717542598</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.712812851581887</v>
+        <v>48.71255774438486</v>
       </c>
       <c r="B113" s="0">
-        <v>2.1979494970920661</v>
+        <v>2.2013456455612603</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.712860153095541</v>
+        <v>48.712657209432408</v>
       </c>
       <c r="B114" s="0">
-        <v>2.1979571775732167</v>
+        <v>2.2011128733220304</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.712804992060143</v>
+        <v>48.712700624700723</v>
       </c>
       <c r="B115" s="0">
-        <v>2.1979487699662661</v>
+        <v>2.2010729949938233</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.712914216896884</v>
+        <v>48.712693505915183</v>
       </c>
       <c r="B116" s="0">
-        <v>2.1979601676122882</v>
+        <v>2.2011149049249927</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.712785983098883</v>
+        <v>48.712780516355124</v>
       </c>
       <c r="B117" s="0">
-        <v>2.1979580748930245</v>
+        <v>2.2009055987987347</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.712740314835045</v>
+        <v>48.71262903260358</v>
       </c>
       <c r="B118" s="0">
-        <v>2.1979511105918928</v>
+        <v>2.2012478671492812</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.712727013994268</v>
+        <v>48.712891102490524</v>
       </c>
       <c r="B119" s="0">
-        <v>2.1979592696900077</v>
+        <v>2.2006627756167117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.712739819274624</v>
+        <v>48.712932702936755</v>
       </c>
       <c r="B120" s="0">
-        <v>2.1979621290147699</v>
+        <v>2.2005910393893542</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.712805825236622</v>
+        <v>48.712885427112873</v>
       </c>
       <c r="B121" s="0">
-        <v>2.197966500747206</v>
+        <v>2.200738177513665</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.7128092655391</v>
+        <v>48.71301255551969</v>
       </c>
       <c r="B122" s="0">
-        <v>2.197965720893015</v>
+        <v>2.2004153827239845</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.712742106969813</v>
+        <v>48.712872453767005</v>
       </c>
       <c r="B123" s="0">
-        <v>2.1979674111203349</v>
+        <v>2.2007690554062145</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.712684249349607</v>
+        <v>48.712866410306027</v>
       </c>
       <c r="B124" s="0">
-        <v>2.197956064109261</v>
+        <v>2.200776194964615</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.712729724165264</v>
+        <v>48.712890765817107</v>
       </c>
       <c r="B125" s="0">
-        <v>2.1979622946521129</v>
+        <v>2.2007402302477592</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.712681613261829</v>
+        <v>48.712893822133012</v>
       </c>
       <c r="B126" s="0">
-        <v>2.1979530156371645</v>
+        <v>2.2007332444896575</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.712677946487041</v>
+        <v>48.712890299773854</v>
       </c>
       <c r="B127" s="0">
-        <v>2.1979629407584409</v>
+        <v>2.2007173496049819</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.712676079337804</v>
+        <v>48.712867178043418</v>
       </c>
       <c r="B128" s="0">
-        <v>2.19796355848045</v>
+        <v>2.200774407482847</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.712646312184731</v>
+        <v>48.712873207384107</v>
       </c>
       <c r="B129" s="0">
-        <v>2.1979564294366609</v>
+        <v>2.2007566350676084</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.712656171013109</v>
+        <v>48.712869464792306</v>
       </c>
       <c r="B130" s="0">
-        <v>2.1979603571664805</v>
+        <v>2.2007749663029395</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.712649678486557</v>
+        <v>48.712881978628964</v>
       </c>
       <c r="B131" s="0">
-        <v>2.1979599741830112</v>
+        <v>2.2007500410409611</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.712653137112319</v>
+        <v>48.712862099494004</v>
       </c>
       <c r="B132" s="0">
-        <v>2.1979695329045326</v>
+        <v>2.2007965242581369</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.712696601623947</v>
+        <v>48.712853328300369</v>
       </c>
       <c r="B133" s="0">
-        <v>2.1979662615779714</v>
+        <v>2.2008113767160018</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.712662705704119</v>
+        <v>48.712827368055521</v>
       </c>
       <c r="B134" s="0">
-        <v>2.1979688310818597</v>
+        <v>2.2008668661150943</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.712699861571068</v>
+        <v>48.712836097785875</v>
       </c>
       <c r="B135" s="0">
-        <v>2.1979736641610557</v>
+        <v>2.2008468533337782</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.712765827648582</v>
+        <v>48.712838981789766</v>
       </c>
       <c r="B136" s="0">
-        <v>2.1979729702862065</v>
+        <v>2.200861707280295</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.712717955395931</v>
+        <v>48.712807263852923</v>
       </c>
       <c r="B137" s="0">
-        <v>2.1979738367399437</v>
+        <v>2.2009176764978209</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.712699559581196</v>
+        <v>48.712805043361698</v>
       </c>
       <c r="B138" s="0">
-        <v>2.1979728969423817</v>
+        <v>2.2009184882522108</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.712682608439948</v>
+        <v>48.712800085573271</v>
       </c>
       <c r="B139" s="0">
-        <v>2.1979719341753192</v>
+        <v>2.2009536094056834</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.712732352358806</v>
+        <v>48.712762416782894</v>
       </c>
       <c r="B140" s="0">
-        <v>2.1979719602742067</v>
+        <v>2.2010220987496085</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.712742725892411</v>
+        <v>48.712300867420993</v>
       </c>
       <c r="B141" s="0">
-        <v>2.1979703322418414</v>
+        <v>2.2019554329135827</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.712667661310121</v>
+        <v>48.7124716888952</v>
       </c>
       <c r="B142" s="0">
-        <v>2.1979659841583703</v>
+        <v>2.201606226293209</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.712678157266701</v>
+        <v>48.711801504162089</v>
       </c>
       <c r="B143" s="0">
-        <v>2.1979711475413968</v>
+        <v>2.2029620218598094</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.712688530039713</v>
+        <v>48.711958298242571</v>
       </c>
       <c r="B144" s="0">
-        <v>2.1979667317912455</v>
+        <v>2.2026518139048368</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.712738462238484</v>
+        <v>48.711859094913706</v>
       </c>
       <c r="B145" s="0">
-        <v>2.1979773487971106</v>
+        <v>2.2028599106734625</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.712699071501078</v>
+        <v>48.711717962565146</v>
       </c>
       <c r="B146" s="0">
-        <v>2.197975468566276</v>
+        <v>2.2031430892531128</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.712678778418478</v>
+        <v>48.711683925778267</v>
       </c>
       <c r="B147" s="0">
-        <v>2.197977679643099</v>
+        <v>2.2032122670860788</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.712854772478003</v>
+        <v>48.711778832373803</v>
       </c>
       <c r="B148" s="0">
-        <v>2.1979889176696976</v>
+        <v>2.2030194237152179</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.712869826726703</v>
+        <v>48.711549824236983</v>
       </c>
       <c r="B149" s="0">
-        <v>2.1979921372662914</v>
+        <v>2.2034843557222796</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.712897461263054</v>
+        <v>48.711789660201767</v>
       </c>
       <c r="B150" s="0">
-        <v>2.1979853146619357</v>
+        <v>2.2029917105551049</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.712863134814292</v>
+        <v>48.711736812962741</v>
       </c>
       <c r="B151" s="0">
-        <v>2.1979861363082365</v>
+        <v>2.2030880449654626</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.712859005845615</v>
+        <v>48.711648109204845</v>
       </c>
       <c r="B152" s="0">
-        <v>2.1979831490279693</v>
+        <v>2.20328338779884</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.712821110580386</v>
+        <v>48.712110301023976</v>
       </c>
       <c r="B153" s="0">
-        <v>2.1979849210870976</v>
+        <v>2.2023257033938206</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.712803535154663</v>
+        <v>48.711878276842548</v>
       </c>
       <c r="B154" s="0">
-        <v>2.1979811423447289</v>
+        <v>2.2028204398493885</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.712801233739349</v>
+        <v>48.712235537616515</v>
       </c>
       <c r="B155" s="0">
-        <v>2.197979809477665</v>
+        <v>2.2020793758114721</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.712650527042371</v>
+        <v>48.712188256936401</v>
       </c>
       <c r="B156" s="0">
-        <v>2.1979749764720906</v>
+        <v>2.2021920459012709</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.712641538608096</v>
+        <v>48.712446132650051</v>
       </c>
       <c r="B157" s="0">
-        <v>2.197972780451666</v>
+        <v>2.2016384837491256</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.712614821404529</v>
+        <v>48.712491116519125</v>
       </c>
       <c r="B158" s="0">
-        <v>2.1979597794905978</v>
+        <v>2.2015754995444521</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.712599122994291</v>
+        <v>48.712695169963524</v>
       </c>
       <c r="B159" s="0">
-        <v>2.19796006590059</v>
+        <v>2.201138574248259</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.712573071746618</v>
+        <v>48.712534718816592</v>
       </c>
       <c r="B160" s="0">
-        <v>2.1979573321828987</v>
+        <v>2.2014690700737569</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.712568992161899</v>
+        <v>48.71250496115222</v>
       </c>
       <c r="B161" s="0">
-        <v>2.1979523445614366</v>
+        <v>2.2015256019713099</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.712596078042786</v>
+        <v>48.712613895458048</v>
       </c>
       <c r="B162" s="0">
-        <v>2.1979499822999125</v>
+        <v>2.2013111735368121</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.712608017239255</v>
+        <v>48.712771819412566</v>
       </c>
       <c r="B163" s="0">
-        <v>2.197946793021913</v>
+        <v>2.2009787612388361</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.712580884302703</v>
+        <v>48.712435314217757</v>
       </c>
       <c r="B164" s="0">
-        <v>2.1979417896862747</v>
+        <v>2.2016542813681883</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.712562744663615</v>
+        <v>48.712486385574813</v>
       </c>
       <c r="B165" s="0">
-        <v>2.1979446631648312</v>
+        <v>2.2015411276902861</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.712640323447097</v>
+        <v>48.712486385574813</v>
       </c>
       <c r="B166" s="0">
-        <v>2.1979384406804239</v>
+        <v>2.2015411276902861</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.712686662743813</v>
+        <v>48.712600890677401</v>
       </c>
       <c r="B167" s="0">
-        <v>2.1979443469041002</v>
+        <v>2.2013167681829411</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.712743374390399</v>
+        <v>48.712748320264503</v>
       </c>
       <c r="B168" s="0">
-        <v>2.1979412306505615</v>
+        <v>2.201017953455314</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.712776314602145</v>
+        <v>48.712634445325186</v>
       </c>
       <c r="B169" s="0">
-        <v>2.197951771288456</v>
+        <v>2.2012375848427199</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.712753965458191</v>
+        <v>48.712655315810721</v>
       </c>
       <c r="B170" s="0">
-        <v>2.1979450957686497</v>
+        <v>2.2011911851250745</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.712798034532803</v>
+        <v>48.712863619380599</v>
       </c>
       <c r="B171" s="0">
-        <v>2.1979410858313218</v>
+        <v>2.2007707614266039</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.712798831352714</v>
+        <v>48.712787160200442</v>
       </c>
       <c r="B172" s="0">
-        <v>2.1979429654939984</v>
+        <v>2.200927237335002</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.712743861637108</v>
+        <v>48.712974340049613</v>
       </c>
       <c r="B173" s="0">
-        <v>2.1979434753376546</v>
+        <v>2.2005370057697049</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.712766546954541</v>
+        <v>48.713019509349557</v>
       </c>
       <c r="B174" s="0">
-        <v>2.197946911620829</v>
+        <v>2.2004673460159219</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.712789347321731</v>
+        <v>48.712970648966611</v>
       </c>
       <c r="B175" s="0">
-        <v>2.1979479536586628</v>
+        <v>2.2005723569110049</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.712824735637632</v>
+        <v>48.712952601593685</v>
       </c>
       <c r="B176" s="0">
-        <v>2.1979568990198564</v>
+        <v>2.200586557965341</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.712721112499445</v>
+        <v>48.712925909498985</v>
       </c>
       <c r="B177" s="0">
-        <v>2.1979456515230034</v>
+        <v>2.200654940467262</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.712689325472546</v>
+        <v>48.712859697865163</v>
       </c>
       <c r="B178" s="0">
-        <v>2.1979509068897132</v>
+        <v>2.2007960333910774</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.712656586106384</v>
+        <v>48.712894301425635</v>
       </c>
       <c r="B179" s="0">
-        <v>2.1979435167701822</v>
+        <v>2.2007354383376954</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.712729873486232</v>
+        <v>48.71289929613468</v>
       </c>
       <c r="B180" s="0">
-        <v>2.197938265554702</v>
+        <v>2.2007109478299385</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.712738038770354</v>
+        <v>48.712862513572773</v>
       </c>
       <c r="B181" s="0">
-        <v>2.1979487657584413</v>
+        <v>2.2008108336146539</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.712738710822983</v>
+        <v>48.712870519509259</v>
       </c>
       <c r="B182" s="0">
-        <v>2.1979426990049964</v>
+        <v>2.2007787541988462</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.712747030225778</v>
+        <v>48.712870477848817</v>
       </c>
       <c r="B183" s="0">
-        <v>2.1979432550841453</v>
+        <v>2.2007888404288338</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.712735432088195</v>
+        <v>48.712865602686257</v>
       </c>
       <c r="B184" s="0">
-        <v>2.197946014083993</v>
+        <v>2.2008077918249951</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.712709753215613</v>
+        <v>48.712879670036315</v>
       </c>
       <c r="B185" s="0">
-        <v>2.1979487877547443</v>
+        <v>2.2007675739019703</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.712754933356216</v>
+        <v>48.712871912154633</v>
       </c>
       <c r="B186" s="0">
-        <v>2.1979479660781518</v>
+        <v>2.2007905150803642</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.712678824717756</v>
+        <v>48.712876272255997</v>
       </c>
       <c r="B187" s="0">
-        <v>2.1979533005517196</v>
+        <v>2.2007913391535308</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.712715882560268</v>
+        <v>48.712849191448413</v>
       </c>
       <c r="B188" s="0">
-        <v>2.1979392309205053</v>
+        <v>2.2008474612165241</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.712705858895703</v>
+        <v>48.712813433779509</v>
       </c>
       <c r="B189" s="0">
-        <v>2.1979365128901076</v>
+        <v>2.2009125693235947</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.712768436444684</v>
+        <v>48.712748016738488</v>
       </c>
       <c r="B190" s="0">
-        <v>2.1979358256746657</v>
+        <v>2.2010474271482643</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.712813213548138</v>
+        <v>48.712797237727528</v>
       </c>
       <c r="B191" s="0">
-        <v>2.1979316806920064</v>
+        <v>2.2009463238262055</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.712759411389151</v>
+        <v>48.712766368213622</v>
       </c>
       <c r="B192" s="0">
-        <v>2.1979320700997866</v>
+        <v>2.2010049354271208</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.712745763520296</v>
+        <v>48.712487394976591</v>
       </c>
       <c r="B193" s="0">
-        <v>2.1979359897986992</v>
+        <v>2.2015647602270256</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.712698527074942</v>
+        <v>48.712487394976591</v>
       </c>
       <c r="B194" s="0">
-        <v>2.1979334788842837</v>
+        <v>2.2015647602270256</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.712718144978652</v>
+        <v>48.712314055664869</v>
       </c>
       <c r="B195" s="0">
-        <v>2.1979423486428558</v>
+        <v>2.2019470505775098</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.712638569514972</v>
+        <v>48.712245313063001</v>
       </c>
       <c r="B196" s="0">
-        <v>2.1979460584086907</v>
+        <v>2.2020839471526998</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.712642288881895</v>
+        <v>48.711937578754288</v>
       </c>
       <c r="B197" s="0">
-        <v>2.1979589772722092</v>
+        <v>2.2027055553111437</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.712602093931743</v>
+        <v>48.711937578754288</v>
       </c>
       <c r="B198" s="0">
-        <v>2.1979594791931389</v>
+        <v>2.2027055553111437</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.712652504038061</v>
+        <v>48.711937578754288</v>
       </c>
       <c r="B199" s="0">
-        <v>2.1979587965488685</v>
+        <v>2.2027055553111437</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.712587505260601</v>
+        <v>48.711937578754288</v>
       </c>
       <c r="B200" s="0">
-        <v>2.1979508710738402</v>
+        <v>2.2027055553111437</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.712681820654417</v>
+        <v>48.711622724401494</v>
       </c>
       <c r="B201" s="0">
-        <v>2.1979622058535688</v>
+        <v>2.2033521108736043</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.71264310089375</v>
+        <v>48.71186342232464</v>
       </c>
       <c r="B202" s="0">
-        <v>2.1979598911728337</v>
+        <v>2.2028564238410011</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.712642140589864</v>
+        <v>48.71186342232464</v>
       </c>
       <c r="B203" s="0">
-        <v>2.1979593641645119</v>
+        <v>2.2028564238410011</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.712663864585544</v>
+        <v>48.711955458470165</v>
       </c>
       <c r="B204" s="0">
-        <v>2.1979637063386583</v>
+        <v>2.2026755898690342</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.712657089926552</v>
+        <v>48.711955458470165</v>
       </c>
       <c r="B205" s="0">
-        <v>2.1979516793402483</v>
+        <v>2.2026755898690342</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.712697701695461</v>
+        <v>48.711906150506408</v>
       </c>
       <c r="B206" s="0">
-        <v>2.1979551920931235</v>
+        <v>2.2027854594390628</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.712674292752134</v>
+        <v>48.712025552333067</v>
       </c>
       <c r="B207" s="0">
-        <v>2.1979520624268592</v>
+        <v>2.2025415043420007</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.7126859431459</v>
+        <v>48.712043074378976</v>
       </c>
       <c r="B208" s="0">
-        <v>2.1979552981789667</v>
+        <v>2.2025127178293897</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.712753786255234</v>
+        <v>48.712051941797128</v>
       </c>
       <c r="B209" s="0">
-        <v>2.197954505471861</v>
+        <v>2.2024973299654218</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.712795805575084</v>
+        <v>48.712292838684974</v>
       </c>
       <c r="B210" s="0">
-        <v>2.1979463492022715</v>
+        <v>2.2019955091678391</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.712766290128499</v>
+        <v>48.712085738306548</v>
       </c>
       <c r="B211" s="0">
-        <v>2.1979422606787291</v>
+        <v>2.2024096402914344</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.712777028178579</v>
+        <v>48.712362810696838</v>
       </c>
       <c r="B212" s="0">
-        <v>2.1979393138038197</v>
+        <v>2.2018122462497996</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.712798765966447</v>
+        <v>48.712263843527111</v>
       </c>
       <c r="B213" s="0">
-        <v>2.1979394717619352</v>
+        <v>2.2020323831386861</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.712759252452571</v>
+        <v>48.712698600358856</v>
       </c>
       <c r="B214" s="0">
-        <v>2.1979410237760764</v>
+        <v>2.2011279203187622</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.712736492953518</v>
+        <v>48.712628242700852</v>
       </c>
       <c r="B215" s="0">
-        <v>2.1979458711900031</v>
+        <v>2.2012764337077786</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.712813926606124</v>
+        <v>48.712475235494189</v>
       </c>
       <c r="B216" s="0">
-        <v>2.1979409981952483</v>
+        <v>2.2015824640696828</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.712839978763462</v>
+        <v>48.71256699036617</v>
       </c>
       <c r="B217" s="0">
-        <v>2.1979389385628361</v>
+        <v>2.2013905519481645</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.712771385572374</v>
+        <v>48.712527086735875</v>
       </c>
       <c r="B218" s="0">
-        <v>2.1979375118387954</v>
+        <v>2.2014827732463216</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.71285796424776</v>
+        <v>48.712540077720561</v>
       </c>
       <c r="B219" s="0">
-        <v>2.1979367372640524</v>
+        <v>2.2014753147057866</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.712796480895456</v>
+        <v>48.712500682841849</v>
       </c>
       <c r="B220" s="0">
-        <v>2.197931586550542</v>
+        <v>2.2015333452753714</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.712831432724151</v>
+        <v>48.712667825780542</v>
       </c>
       <c r="B221" s="0">
-        <v>2.1979297579699537</v>
+        <v>2.2011727921624056</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.712871880525682</v>
+        <v>48.712815857599914</v>
       </c>
       <c r="B222" s="0">
-        <v>2.1979411131653328</v>
+        <v>2.2008690075363573</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.712864501369971</v>
+        <v>48.713053957045808</v>
       </c>
       <c r="B223" s="0">
-        <v>2.1979302957973004</v>
+        <v>2.2003958325710768</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.712849498184916</v>
+        <v>48.712912338539397</v>
       </c>
       <c r="B224" s="0">
-        <v>2.1979385317604661</v>
+        <v>2.2006649465234362</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.712872965321296</v>
+        <v>48.712989337927674</v>
       </c>
       <c r="B225" s="0">
-        <v>2.197940281776682</v>
+        <v>2.2005098428298204</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.712951858494023</v>
+        <v>48.713099159334895</v>
       </c>
       <c r="B226" s="0">
-        <v>2.1979435297787213</v>
+        <v>2.2002985074018344</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.712916286745269</v>
+        <v>48.712943010461075</v>
       </c>
       <c r="B227" s="0">
-        <v>2.1979433586796335</v>
+        <v>2.2006224176996736</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.712842099454001</v>
+        <v>48.712893341897917</v>
       </c>
       <c r="B228" s="0">
-        <v>2.1979431768680548</v>
+        <v>2.2007415281545235</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.712874405150807</v>
+        <v>48.712941593549687</v>
       </c>
       <c r="B229" s="0">
-        <v>2.1979453723836251</v>
+        <v>2.2006326034121186</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.712873982323323</v>
+        <v>48.712952434998947</v>
       </c>
       <c r="B230" s="0">
-        <v>2.1979424158320486</v>
+        <v>2.2006218490630829</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.712850791525092</v>
+        <v>48.712895176303718</v>
       </c>
       <c r="B231" s="0">
-        <v>2.1979395395214207</v>
+        <v>2.2007323690623872</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.712879284966142</v>
+        <v>48.712901407641937</v>
       </c>
       <c r="B232" s="0">
-        <v>2.1979394130685401</v>
+        <v>2.2007092567861442</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.712882831281277</v>
+        <v>48.712870601817151</v>
       </c>
       <c r="B233" s="0">
-        <v>2.1979402818325489</v>
+        <v>2.200793045330717</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.712824103966042</v>
+        <v>48.712864008517961</v>
       </c>
       <c r="B234" s="0">
-        <v>2.1979422620990561</v>
+        <v>2.2008014994932394</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.71286388892981</v>
+        <v>48.712874586958328</v>
       </c>
       <c r="B235" s="0">
-        <v>2.1979362917893437</v>
+        <v>2.2007857720007369</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.712888874973778</v>
+        <v>48.71286791235584</v>
       </c>
       <c r="B236" s="0">
-        <v>2.1979449341156152</v>
+        <v>2.2007875098751009</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.712897001441981</v>
+        <v>48.71282824303249</v>
       </c>
       <c r="B237" s="0">
-        <v>2.1979470975219875</v>
+        <v>2.2008943486977253</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.712849547917415</v>
+        <v>48.712837225830164</v>
       </c>
       <c r="B238" s="0">
-        <v>2.1979509170394138</v>
+        <v>2.2008639049431955</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.71282328108709</v>
+        <v>48.712844556991684</v>
       </c>
       <c r="B239" s="0">
-        <v>2.1979468368395168</v>
+        <v>2.2008540763531723</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.712825210186452</v>
+        <v>48.712845467208695</v>
       </c>
       <c r="B240" s="0">
-        <v>2.1979504639912406</v>
+        <v>2.2008437352744696</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.712868825060397</v>
+        <v>48.712823719566209</v>
       </c>
       <c r="B241" s="0">
-        <v>2.1979487665978366</v>
+        <v>2.2008884449838546</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.71288471025867</v>
+        <v>48.71282192989753</v>
       </c>
       <c r="B242" s="0">
-        <v>2.1979551428845423</v>
+        <v>2.2008949335544576</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.71286429133086</v>
+        <v>48.712807701741546</v>
       </c>
       <c r="B243" s="0">
-        <v>2.1979594492528371</v>
+        <v>2.2009365780967705</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.712918770608738</v>
+        <v>48.712736729606903</v>
       </c>
       <c r="B244" s="0">
-        <v>2.1979680335521596</v>
+        <v>2.2010757027321985</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.712889013111052</v>
+        <v>48.712586459382869</v>
       </c>
       <c r="B245" s="0">
-        <v>2.1979651871176107</v>
+        <v>2.2013792220287698</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.71284469269218</v>
+        <v>48.712145860323588</v>
       </c>
       <c r="B246" s="0">
-        <v>2.1979542255879054</v>
+        <v>2.2023021424322882</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.712960578519486</v>
+        <v>48.712006762891853</v>
       </c>
       <c r="B247" s="0">
-        <v>2.1979594212004319</v>
+        <v>2.2025813411521447</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.712930030863518</v>
+        <v>48.712059801016878</v>
       </c>
       <c r="B248" s="0">
-        <v>2.1979564860540646</v>
+        <v>2.2024618486824976</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.712944304301423</v>
+        <v>48.711837027775942</v>
       </c>
       <c r="B249" s="0">
-        <v>2.1979544395184152</v>
+        <v>2.2029555936769003</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.712918602987685</v>
+        <v>48.711737935824814</v>
       </c>
       <c r="B250" s="0">
-        <v>2.1979390339034728</v>
+        <v>2.2031653812311336</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.713030494278456</v>
+        <v>48.711381836992629</v>
       </c>
       <c r="B251" s="0">
-        <v>2.1979315314082855</v>
+        <v>2.2038743515836616</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.71309560458451</v>
+        <v>48.711678551436378</v>
       </c>
       <c r="B252" s="0">
-        <v>2.1979322005524966</v>
+        <v>2.2032645592929874</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.71314131545082</v>
+        <v>48.711952371019351</v>
       </c>
       <c r="B253" s="0">
-        <v>2.1979310035409263</v>
+        <v>2.2026971690257193</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.713077877154355</v>
+        <v>48.711759446166333</v>
       </c>
       <c r="B254" s="0">
-        <v>2.1979247138709699</v>
+        <v>2.203090848502669</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.71299934431314</v>
+        <v>48.711867517361441</v>
       </c>
       <c r="B255" s="0">
-        <v>2.1979154834154722</v>
+        <v>2.2028587445864276</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.713018616162501</v>
+        <v>48.711759614351699</v>
       </c>
       <c r="B256" s="0">
-        <v>2.1979125744647701</v>
+        <v>2.2030870021211166</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.713018978484591</v>
+        <v>48.711936952766052</v>
       </c>
       <c r="B257" s="0">
-        <v>2.1979197131914123</v>
+        <v>2.202730037438835</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.712984762197728</v>
+        <v>48.712079617653103</v>
       </c>
       <c r="B258" s="0">
-        <v>2.1979249064056003</v>
+        <v>2.202434533778054</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.713028732230335</v>
+        <v>48.712002695185326</v>
       </c>
       <c r="B259" s="0">
-        <v>2.1979355704250696</v>
+        <v>2.2025903879981121</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.71293429899923</v>
+        <v>48.712010226588447</v>
       </c>
       <c r="B260" s="0">
-        <v>2.1979349997504354</v>
+        <v>2.2025832742922695</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.712976403603399</v>
+        <v>48.712029010976373</v>
       </c>
       <c r="B261" s="0">
-        <v>2.1979402782122786</v>
+        <v>2.202531884771437</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.712983464495508</v>
+        <v>48.712190601682742</v>
       </c>
       <c r="B262" s="0">
-        <v>2.1979434170305807</v>
+        <v>2.2021854099224907</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.712916444772965</v>
+        <v>48.712125531706427</v>
       </c>
       <c r="B263" s="0">
-        <v>2.1979445748336168</v>
+        <v>2.2023342104236643</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.712915409742791</v>
+        <v>48.71224516223112</v>
       </c>
       <c r="B264" s="0">
-        <v>2.1979412105544802</v>
+        <v>2.2020760601715654</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.712862117501416</v>
+        <v>48.712537952447526</v>
       </c>
       <c r="B265" s="0">
-        <v>2.1979377937487481</v>
+        <v>2.2014637134194821</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.712868438295487</v>
+        <v>48.712571590062289</v>
       </c>
       <c r="B266" s="0">
-        <v>2.1979391097025776</v>
+        <v>2.2013775749194275</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.712851427327386</v>
+        <v>48.712467995955272</v>
       </c>
       <c r="B267" s="0">
-        <v>2.1979365756887184</v>
+        <v>2.2015873609883001</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.712887509085562</v>
+        <v>48.712571864894386</v>
       </c>
       <c r="B268" s="0">
-        <v>2.1979524518416675</v>
+        <v>2.2013635691944011</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.712958985647006</v>
+        <v>48.712820310739758</v>
       </c>
       <c r="B269" s="0">
-        <v>2.1979440014555482</v>
+        <v>2.200837494399003</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.712943023138941</v>
+        <v>48.712825330457356</v>
       </c>
       <c r="B270" s="0">
-        <v>2.1979444075154597</v>
+        <v>2.2008573258025783</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.712969009975012</v>
+        <v>48.712897849075773</v>
       </c>
       <c r="B271" s="0">
-        <v>2.1979463397494152</v>
+        <v>2.2007069155299952</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.712948365220299</v>
+        <v>48.712885736234718</v>
       </c>
       <c r="B272" s="0">
-        <v>2.1979481824629508</v>
+        <v>2.2007205112656347</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.712988525583327</v>
+        <v>48.713005383718482</v>
       </c>
       <c r="B273" s="0">
-        <v>2.1979382660432005</v>
+        <v>2.2004692058046214</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.712976591194931</v>
+        <v>48.713055443284233</v>
       </c>
       <c r="B274" s="0">
-        <v>2.1979397937829628</v>
+        <v>2.2003556027522659</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.712968636190624</v>
+        <v>48.712866174489662</v>
       </c>
       <c r="B275" s="0">
-        <v>2.1979349011509246</v>
+        <v>2.2007525888491997</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.712994483097809</v>
+        <v>48.712997033991662</v>
       </c>
       <c r="B276" s="0">
-        <v>2.1979378627938653</v>
+        <v>2.2004809449132021</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.712985883326475</v>
+        <v>48.712954006502265</v>
       </c>
       <c r="B277" s="0">
-        <v>2.1979349028323654</v>
+        <v>2.2005888567620873</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.712998277542802</v>
+        <v>48.712961122802035</v>
       </c>
       <c r="B278" s="0">
-        <v>2.1979449011399885</v>
+        <v>2.2005861713443338</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.712999976704026</v>
+        <v>48.71298679656708</v>
       </c>
       <c r="B279" s="0">
-        <v>2.197941163999567</v>
+        <v>2.2005163551866436</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.713066911271035</v>
+        <v>48.712905631045345</v>
       </c>
       <c r="B280" s="0">
-        <v>2.1979489106379213</v>
+        <v>2.2006854027641567</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.713056658645655</v>
+        <v>48.712961810374637</v>
       </c>
       <c r="B281" s="0">
-        <v>2.1979486198076423</v>
+        <v>2.2005755303610433</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.713123032399992</v>
+        <v>48.712910436596935</v>
       </c>
       <c r="B282" s="0">
-        <v>2.1979540407049334</v>
+        <v>2.200692604222176</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.713069140343777</v>
+        <v>48.712883512162321</v>
       </c>
       <c r="B283" s="0">
-        <v>2.1979508228765594</v>
+        <v>2.2007600591805083</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.713042702262591</v>
+        <v>48.712902013351837</v>
       </c>
       <c r="B284" s="0">
-        <v>2.1979379985571499</v>
+        <v>2.2007216939509888</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.713140760636542</v>
+        <v>48.712927340527806</v>
       </c>
       <c r="B285" s="0">
-        <v>2.1979441705490261</v>
+        <v>2.2006532499601916</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.713126360623093</v>
+        <v>48.7128943848913</v>
       </c>
       <c r="B286" s="0">
-        <v>2.197939395532218</v>
+        <v>2.2007411430931523</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.713039247640289</v>
+        <v>48.712882020758137</v>
       </c>
       <c r="B287" s="0">
-        <v>2.1979406361658076</v>
+        <v>2.2007665582542337</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.713071268191541</v>
+        <v>48.712845667719307</v>
       </c>
       <c r="B288" s="0">
-        <v>2.1979348051987753</v>
+        <v>2.2008387572529946</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.713082187469361</v>
+        <v>48.712824776207768</v>
       </c>
       <c r="B289" s="0">
-        <v>2.1979329696028991</v>
+        <v>2.200878789475472</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.713120925925729</v>
+        <v>48.712829684066975</v>
       </c>
       <c r="B290" s="0">
-        <v>2.197930811619897</v>
+        <v>2.2008717012911205</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.71311848409654</v>
+        <v>48.71283669846062</v>
       </c>
       <c r="B291" s="0">
-        <v>2.1979287706455022</v>
+        <v>2.2008535518518082</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.713173470438932</v>
+        <v>48.712830773826589</v>
       </c>
       <c r="B292" s="0">
-        <v>2.1979283302598316</v>
+        <v>2.2008516253440917</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.713184591631176</v>
+        <v>48.712805274706895</v>
       </c>
       <c r="B293" s="0">
-        <v>2.1979201209357431</v>
+        <v>2.2009180050507502</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.713176077000718</v>
+        <v>48.712802944936982</v>
       </c>
       <c r="B294" s="0">
-        <v>2.1979169748348983</v>
+        <v>2.2009222676260691</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.713217257972886</v>
+        <v>48.712569086539546</v>
       </c>
       <c r="B295" s="0">
-        <v>2.1979137291687301</v>
+        <v>2.201411403276718</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.71318287407729</v>
+        <v>48.712478239109331</v>
       </c>
       <c r="B296" s="0">
-        <v>2.19791025483859</v>
+        <v>2.2015920256041466</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.713170140392173</v>
+        <v>48.712406501880985</v>
       </c>
       <c r="B297" s="0">
-        <v>2.1979181453293712</v>
+        <v>2.2017506869146728</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.713171490192792</v>
+        <v>48.712130046817272</v>
       </c>
       <c r="B298" s="0">
-        <v>2.1979152250227552</v>
+        <v>2.2023216522443385</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.713102528314757</v>
+        <v>48.712222752527787</v>
       </c>
       <c r="B299" s="0">
-        <v>2.1979277628640599</v>
+        <v>2.2021414781546751</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.712992454776717</v>
+        <v>48.71210597641528</v>
       </c>
       <c r="B300" s="0">
-        <v>2.1979211906081115</v>
+        <v>2.202371222663988</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.712983759686701</v>
+        <v>48.711833800281056</v>
       </c>
       <c r="B301" s="0">
-        <v>2.1979313949326018</v>
+        <v>2.2029385033000217</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.712867997491777</v>
+        <v>48.711833800281056</v>
       </c>
       <c r="B302" s="0">
-        <v>2.1979428836737744</v>
+        <v>2.2029385033000217</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.712865810949253</v>
+        <v>48.711745364005338</v>
       </c>
       <c r="B303" s="0">
-        <v>2.1979413225650744</v>
+        <v>2.2031120238908302</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.712863515182555</v>
+        <v>48.711741811881758</v>
       </c>
       <c r="B304" s="0">
-        <v>2.1979396957697541</v>
+        <v>2.2031131608538219</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.712792229448567</v>
+        <v>48.711909923999961</v>
       </c>
       <c r="B305" s="0">
-        <v>2.1979330139384654</v>
+        <v>2.2027834831406645</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.712743900473505</v>
+        <v>48.711889209125459</v>
       </c>
       <c r="B306" s="0">
-        <v>2.1979340372374052</v>
+        <v>2.2028076392609251</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.712692508294815</v>
+        <v>48.711889209125459</v>
       </c>
       <c r="B307" s="0">
-        <v>2.197945470398373</v>
+        <v>2.2028076392609251</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.712738284114991</v>
+        <v>48.71185623095765</v>
       </c>
       <c r="B308" s="0">
-        <v>2.1979319003210365</v>
+        <v>2.2028868455844717</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.712772394593401</v>
+        <v>48.711990117478948</v>
       </c>
       <c r="B309" s="0">
-        <v>2.1979335605496861</v>
+        <v>2.2026194851861707</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.712807818322624</v>
+        <v>48.712039331913147</v>
       </c>
       <c r="B310" s="0">
-        <v>2.1979413597061059</v>
+        <v>2.2025058651540785</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.712914384285604</v>
+        <v>48.712295451557111</v>
       </c>
       <c r="B311" s="0">
-        <v>2.1979334636679484</v>
+        <v>2.2019907804447891</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.712872999537851</v>
+        <v>48.712070585198639</v>
       </c>
       <c r="B312" s="0">
-        <v>2.1979427730780645</v>
+        <v>2.2024390027982896</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.712921765563372</v>
+        <v>48.712053319551984</v>
       </c>
       <c r="B313" s="0">
-        <v>2.197938127982912</v>
+        <v>2.202468631714027</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.712912861679811</v>
+        <v>48.711979998462567</v>
       </c>
       <c r="B314" s="0">
-        <v>2.1979330058583546</v>
+        <v>2.2026111255198022</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.71291197561947</v>
+        <v>48.712423109083908</v>
       </c>
       <c r="B315" s="0">
-        <v>2.1979329517969477</v>
+        <v>2.2016862586016095</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.712889662600155</v>
+        <v>48.712640573852013</v>
       </c>
       <c r="B316" s="0">
-        <v>2.1979404775455111</v>
+        <v>2.2012538207686689</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.712908265463703</v>
+        <v>48.712861614390796</v>
       </c>
       <c r="B317" s="0">
-        <v>2.1979422824045725</v>
+        <v>2.2007968600234866</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.712897746352979</v>
+        <v>48.712768723851298</v>
       </c>
       <c r="B318" s="0">
-        <v>2.1979331255841275</v>
+        <v>2.2009808278494711</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.712888768260051</v>
+        <v>48.712569168396883</v>
       </c>
       <c r="B319" s="0">
-        <v>2.1979443624442059</v>
+        <v>2.2013743521384903</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.712897522010159</v>
+        <v>48.712895540027297</v>
       </c>
       <c r="B320" s="0">
-        <v>2.1979404127285465</v>
+        <v>2.2006998368474817</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.712917663872346</v>
+        <v>48.712961725902723</v>
       </c>
       <c r="B321" s="0">
-        <v>2.1979389925521784</v>
+        <v>2.2005673387912119</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.712895705945876</v>
+        <v>48.712706538527492</v>
       </c>
       <c r="B322" s="0">
-        <v>2.1979370928908595</v>
+        <v>2.2010884841154819</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.712869193024773</v>
+        <v>48.712703642829332</v>
       </c>
       <c r="B323" s="0">
-        <v>2.1979417164740838</v>
+        <v>2.2011097997192115</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.71285303404283</v>
+        <v>48.712687616680192</v>
       </c>
       <c r="B324" s="0">
-        <v>2.1979410653700309</v>
+        <v>2.2011376236713427</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.712938742776224</v>
+        <v>48.712647523694145</v>
       </c>
       <c r="B325" s="0">
-        <v>2.197942671393943</v>
+        <v>2.2012180191833188</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.71296721238879</v>
+        <v>48.712720530134185</v>
       </c>
       <c r="B326" s="0">
-        <v>2.1979382422291813</v>
+        <v>2.2010677579939642</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.712969301026924</v>
+        <v>48.712876770193255</v>
       </c>
       <c r="B327" s="0">
-        <v>2.1979421150562728</v>
+        <v>2.200723541348721</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.712909496048958</v>
+        <v>48.71273989092348</v>
       </c>
       <c r="B328" s="0">
-        <v>2.1979380671505058</v>
+        <v>2.2010318516793075</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.712955541042405</v>
+        <v>48.712904786809041</v>
       </c>
       <c r="B329" s="0">
-        <v>2.197937486666004</v>
+        <v>2.2006887450656443</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.712939899026324</v>
+        <v>48.712950051858783</v>
       </c>
       <c r="B330" s="0">
-        <v>2.1979333243622654</v>
+        <v>2.2006050340515455</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.712876000522158</v>
+        <v>48.712942632528723</v>
       </c>
       <c r="B331" s="0">
-        <v>2.19792171261625</v>
+        <v>2.2006317093487651</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.712887195011923</v>
+        <v>48.712971160533087</v>
       </c>
       <c r="B332" s="0">
-        <v>2.1979234781793693</v>
+        <v>2.2005737935287715</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.712795769312706</v>
+        <v>48.712908152609231</v>
       </c>
       <c r="B333" s="0">
-        <v>2.1979214051003244</v>
+        <v>2.2006957333350945</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.712718577275666</v>
+        <v>48.712895400101722</v>
       </c>
       <c r="B334" s="0">
-        <v>2.1979134702996692</v>
+        <v>2.200715336583928</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.712689938504582</v>
+        <v>48.712913906170101</v>
       </c>
       <c r="B335" s="0">
-        <v>2.1979269036951363</v>
+        <v>2.2006976032875203</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.712753129718706</v>
+        <v>48.712886601770805</v>
       </c>
       <c r="B336" s="0">
-        <v>2.197932443962177</v>
+        <v>2.2007328136378779</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.712610279111587</v>
+        <v>48.71287544580283</v>
       </c>
       <c r="B337" s="0">
-        <v>2.1979290524469199</v>
+        <v>2.2007663967026536</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.712573170863429</v>
+        <v>48.712854600599272</v>
       </c>
       <c r="B338" s="0">
-        <v>2.1979280618081973</v>
+        <v>2.2008077157001709</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.712509458744954</v>
+        <v>48.712860684309575</v>
       </c>
       <c r="B339" s="0">
-        <v>2.1979356586076873</v>
+        <v>2.200808816384463</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.712517571976363</v>
+        <v>48.712856347356222</v>
       </c>
       <c r="B340" s="0">
-        <v>2.1979314037103372</v>
+        <v>2.2007987480160498</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.712479876560408</v>
+        <v>48.712840722720387</v>
       </c>
       <c r="B341" s="0">
-        <v>2.1979326852299868</v>
+        <v>2.2008355848835843</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.712463640132668</v>
+        <v>48.71284631620194</v>
       </c>
       <c r="B342" s="0">
-        <v>2.1979368755579691</v>
+        <v>2.2008251236631939</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.712476975473614</v>
+        <v>48.712834906648261</v>
       </c>
       <c r="B343" s="0">
-        <v>2.197940963213012</v>
+        <v>2.2008514715000547</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.712516259998779</v>
+        <v>48.712845408641329</v>
       </c>
       <c r="B344" s="0">
-        <v>2.197936461970412</v>
+        <v>2.2008303552822701</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.712475321548311</v>
+        <v>48.712824745873441</v>
       </c>
       <c r="B345" s="0">
-        <v>2.19793051934698</v>
+        <v>2.2008908187730594</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.712480192951929</v>
+        <v>48.712835345289676</v>
       </c>
       <c r="B346" s="0">
-        <v>2.1979367346168455</v>
+        <v>2.2008562258908508</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.71252217793824</v>
+        <v>48.712766754855153</v>
       </c>
       <c r="B347" s="0">
-        <v>2.1979345073943515</v>
+        <v>2.2010100590878832</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.712649064763397</v>
+        <v>48.71270406110758</v>
       </c>
       <c r="B348" s="0">
-        <v>2.1979352659597464</v>
+        <v>2.2011335053713363</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.712718491172758</v>
+        <v>48.712523492896686</v>
       </c>
       <c r="B349" s="0">
-        <v>2.1979422063211009</v>
+        <v>2.2015075201970764</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.712728291640396</v>
+        <v>48.71231812042911</v>
       </c>
       <c r="B350" s="0">
-        <v>2.1979440639524932</v>
+        <v>2.2019234903227201</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.71273548152616</v>
+        <v>48.711900392245468</v>
       </c>
       <c r="B351" s="0">
-        <v>2.1979446277096688</v>
+        <v>2.2028087189870513</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.71276938405989</v>
+        <v>48.711952706741251</v>
       </c>
       <c r="B352" s="0">
-        <v>2.1979347238518718</v>
+        <v>2.2026923005016892</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.712796028744584</v>
+        <v>48.711728869116726</v>
       </c>
       <c r="B353" s="0">
-        <v>2.1979352934314522</v>
+        <v>2.203162143913429</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.712817369049318</v>
+        <v>48.711822424510125</v>
       </c>
       <c r="B354" s="0">
-        <v>2.197941140985852</v>
+        <v>2.2029574931117098</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.712707381305073</v>
+        <v>48.711892216820679</v>
       </c>
       <c r="B355" s="0">
-        <v>2.1979408893546224</v>
+        <v>2.2028199110696138</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.712718545051388</v>
+        <v>48.711736208790441</v>
       </c>
       <c r="B356" s="0">
-        <v>2.1979431600174553</v>
+        <v>2.2031411906656024</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.712650732181551</v>
+        <v>48.71164709510186</v>
       </c>
       <c r="B357" s="0">
-        <v>2.1979419348350144</v>
+        <v>2.2033174040551096</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.712613141297325</v>
+        <v>48.711531594491362</v>
       </c>
       <c r="B358" s="0">
-        <v>2.1979424313442002</v>
+        <v>2.2035650071302295</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.712655713433918</v>
+        <v>48.711786219456549</v>
       </c>
       <c r="B359" s="0">
-        <v>2.1979488959392022</v>
+        <v>2.2030298141184343</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.712541012938168</v>
+        <v>48.712013347515416</v>
       </c>
       <c r="B360" s="0">
-        <v>2.1979554889624535</v>
+        <v>2.2025641683001083</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.712526673556482</v>
+        <v>48.71195391898177</v>
       </c>
       <c r="B361" s="0">
-        <v>2.1979606887577505</v>
+        <v>2.2026973366328786</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.712699444625272</v>
+        <v>48.712169304895305</v>
       </c>
       <c r="B362" s="0">
-        <v>2.1979554084335189</v>
+        <v>2.2022380784456561</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.712601748064728</v>
+        <v>48.711990260103086</v>
       </c>
       <c r="B363" s="0">
-        <v>2.1979545004991348</v>
+        <v>2.2026208045569589</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.712615627071998</v>
+        <v>48.711980169572364</v>
       </c>
       <c r="B364" s="0">
-        <v>2.197951681417933</v>
+        <v>2.2026208340122677</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.712658785061251</v>
+        <v>48.712254035155382</v>
       </c>
       <c r="B365" s="0">
-        <v>2.197943816900441</v>
+        <v>2.2020728148514408</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.712643993348358</v>
+        <v>48.712121408107727</v>
       </c>
       <c r="B366" s="0">
-        <v>2.1979321818805442</v>
+        <v>2.2023444577499998</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.712624594556466</v>
+        <v>48.712125162894765</v>
       </c>
       <c r="B367" s="0">
-        <v>2.197937228679558</v>
+        <v>2.2023187919048612</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.712633200293418</v>
+        <v>48.712378910413037</v>
       </c>
       <c r="B368" s="0">
-        <v>2.1979392581722244</v>
+        <v>2.2017917381870862</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.712677510757985</v>
+        <v>48.712768836024843</v>
       </c>
       <c r="B369" s="0">
-        <v>2.1979505288014338</v>
+        <v>2.2009797594100213</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.712715087809073</v>
+        <v>48.712745773495378</v>
       </c>
       <c r="B370" s="0">
-        <v>2.1979556490782013</v>
+        <v>2.2010200800390125</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.712677785309481</v>
+        <v>48.71251292720121</v>
       </c>
       <c r="B371" s="0">
-        <v>2.1979559745548234</v>
+        <v>2.2014911638588019</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.712588998094276</v>
+        <v>48.712691623921685</v>
       </c>
       <c r="B372" s="0">
-        <v>2.197960411058526</v>
+        <v>2.2011531975887393</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.712599059623905</v>
+        <v>48.712831717562388</v>
       </c>
       <c r="B373" s="0">
-        <v>2.1979630519083839</v>
+        <v>2.2008652338660029</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.712572309939276</v>
+        <v>48.712720054087839</v>
       </c>
       <c r="B374" s="0">
-        <v>2.1979608672665134</v>
+        <v>2.2010284012186729</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.712474173502045</v>
+        <v>48.712663486578592</v>
       </c>
       <c r="B375" s="0">
-        <v>2.1979703020173727</v>
+        <v>2.2011498372934208</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.712469772805783</v>
+        <v>48.712417623000341</v>
       </c>
       <c r="B376" s="0">
-        <v>2.197962063337116</v>
+        <v>2.2017656876619278</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.712413973302617</v>
+        <v>48.712742521637715</v>
       </c>
       <c r="B377" s="0">
-        <v>2.1979697066766382</v>
+        <v>2.2010132112949141</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.712406545847379</v>
+        <v>48.712790503212069</v>
       </c>
       <c r="B378" s="0">
-        <v>2.1979613707008081</v>
+        <v>2.2009118798152718</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.712357493842248</v>
+        <v>48.712862711258417</v>
       </c>
       <c r="B379" s="0">
-        <v>2.1979579047087698</v>
+        <v>2.2007940768713121</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.712293822561463</v>
+        <v>48.712878304308603</v>
       </c>
       <c r="B380" s="0">
-        <v>2.1979558438911244</v>
+        <v>2.2007032509189712</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.712298399460387</v>
+        <v>48.712722172512009</v>
       </c>
       <c r="B381" s="0">
-        <v>2.197965206958878</v>
+        <v>2.2011218118243052</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.71234027405977</v>
+        <v>48.71285677349654</v>
       </c>
       <c r="B382" s="0">
-        <v>2.1979659585847742</v>
+        <v>2.2008058799751264</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.712273220635147</v>
+        <v>48.712907400183568</v>
       </c>
       <c r="B383" s="0">
-        <v>2.1979664983640719</v>
+        <v>2.2006978766034058</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.712330764927898</v>
+        <v>48.712912841675625</v>
       </c>
       <c r="B384" s="0">
-        <v>2.1979643099809612</v>
+        <v>2.2006961999277559</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.71224933328498</v>
+        <v>48.712929921840932</v>
       </c>
       <c r="B385" s="0">
-        <v>2.1979796783903973</v>
+        <v>2.2006568352334717</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>48.712286474414341</v>
+        <v>48.712867702335288</v>
       </c>
       <c r="B386" s="0">
-        <v>2.1979738459569664</v>
+        <v>2.2007594482803712</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>48.71231519744795</v>
+        <v>48.712880767546594</v>
       </c>
       <c r="B387" s="0">
-        <v>2.1979774858304753</v>
+        <v>2.2007492583939126</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>48.712260589172018</v>
+        <v>48.712901818836933</v>
       </c>
       <c r="B388" s="0">
-        <v>2.1979720992903107</v>
+        <v>2.2007127584301616</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>48.712271193747299</v>
+        <v>48.712888893061184</v>
       </c>
       <c r="B389" s="0">
-        <v>2.1979808235851741</v>
+        <v>2.20073658616493</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>48.712262259225021</v>
+        <v>48.712889648966275</v>
       </c>
       <c r="B390" s="0">
-        <v>2.1979814114325582</v>
+        <v>2.200739165758157</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>48.712286172751163</v>
+        <v>48.712870940165189</v>
       </c>
       <c r="B391" s="0">
-        <v>2.1979815887611229</v>
+        <v>2.2007715166527984</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>48.71235961360486</v>
+        <v>48.712872668528291</v>
       </c>
       <c r="B392" s="0">
-        <v>2.197970080188393</v>
+        <v>2.2007891289023514</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>48.71240133863445</v>
+        <v>48.71287254439833</v>
       </c>
       <c r="B393" s="0">
-        <v>2.1979717366734897</v>
+        <v>2.2007821713044415</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>48.712472308342605</v>
+        <v>48.712853317339324</v>
       </c>
       <c r="B394" s="0">
-        <v>2.1979605851760042</v>
+        <v>2.200807434422384</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>48.712502743661425</v>
+        <v>48.712847653501669</v>
       </c>
       <c r="B395" s="0">
-        <v>2.1979519367935709</v>
+        <v>2.2008229889192052</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>48.712513701430595</v>
+        <v>48.712835957495471</v>
       </c>
       <c r="B396" s="0">
-        <v>2.1979501692056505</v>
+        <v>2.2008423336157681</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>48.712593051380516</v>
+        <v>48.712837413580786</v>
       </c>
       <c r="B397" s="0">
-        <v>2.1979473894510599</v>
+        <v>2.2008389138341649</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>48.712549552080887</v>
+        <v>48.712812089224734</v>
       </c>
       <c r="B398" s="0">
-        <v>2.1979515210839367</v>
+        <v>2.2009039381854993</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>48.712588256724565</v>
+        <v>48.712814279238458</v>
       </c>
       <c r="B399" s="0">
-        <v>2.1979446511216208</v>
+        <v>2.2008991863583982</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>48.712574771893905</v>
+        <v>48.712716578871422</v>
       </c>
       <c r="B400" s="0">
-        <v>2.1979522429113612</v>
+        <v>2.2010956748665942</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>48.712618416964041</v>
+      </c>
+      <c r="B401" s="0">
+        <v>2.2012975568456383</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>48.712180083993907</v>
+      </c>
+      <c r="B402" s="0">
+        <v>2.2022198399846</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>48.712298042393456</v>
+      </c>
+      <c r="B403" s="0">
+        <v>2.2019852539695326</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>48.712071493903991</v>
+      </c>
+      <c r="B404" s="0">
+        <v>2.2024623327414092</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>48.711888903050443</v>
+      </c>
+      <c r="B405" s="0">
+        <v>2.2028389945758749</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>48.711842683155929</v>
+      </c>
+      <c r="B406" s="0">
+        <v>2.2029341669646643</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>48.712023912404923</v>
+      </c>
+      <c r="B407" s="0">
+        <v>2.2025545568311968</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>48.712101331918198</v>
+      </c>
+      <c r="B408" s="0">
+        <v>2.202391675696818</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>48.711876840756808</v>
+      </c>
+      <c r="B409" s="0">
+        <v>2.2028683497734067</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>48.711726346228325</v>
+      </c>
+      <c r="B410" s="0">
+        <v>2.2031807845455291</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>48.711601752013053</v>
+      </c>
+      <c r="B411" s="0">
+        <v>2.2034264028352708</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>48.711832376201251</v>
+      </c>
+      <c r="B412" s="0">
+        <v>2.2029290019501531</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>48.711901574822171</v>
+      </c>
+      <c r="B413" s="0">
+        <v>2.2027950510278678</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>48.711927574268856</v>
+      </c>
+      <c r="B414" s="0">
+        <v>2.2027549589079283</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>48.712106760561163</v>
+      </c>
+      <c r="B415" s="0">
+        <v>2.2023700658245602</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>48.712049327705707</v>
+      </c>
+      <c r="B416" s="0">
+        <v>2.2025002472137438</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>48.711950511462796</v>
+      </c>
+      <c r="B417" s="0">
+        <v>2.2027147680538306</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>48.712085904532579</v>
+      </c>
+      <c r="B418" s="0">
+        <v>2.2024231716909681</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>48.712022234193839</v>
+      </c>
+      <c r="B419" s="0">
+        <v>2.2025475435998203</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>48.711877474604954</v>
+      </c>
+      <c r="B420" s="0">
+        <v>2.2028391019837028</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>48.712397255978431</v>
+      </c>
+      <c r="B421" s="0">
+        <v>2.2017364795349375</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>48.712492528664264</v>
+      </c>
+      <c r="B422" s="0">
+        <v>2.2015247305742891</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>48.712598147762783</v>
+      </c>
+      <c r="B423" s="0">
+        <v>2.2013044392147148</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>48.712567073556365</v>
+      </c>
+      <c r="B424" s="0">
+        <v>2.2013736928277572</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>48.712909918856468</v>
+      </c>
+      <c r="B425" s="0">
+        <v>2.2006366609017314</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>48.712866697723619</v>
+      </c>
+      <c r="B426" s="0">
+        <v>2.2007880798835529</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>48.712874952921084</v>
+      </c>
+      <c r="B427" s="0">
+        <v>2.2007034019984135</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>48.712797822207172</v>
+      </c>
+      <c r="B428" s="0">
+        <v>2.2008605127711367</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>48.712907314397697</v>
+      </c>
+      <c r="B429" s="0">
+        <v>2.2006504979986508</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>48.712817648122957</v>
+      </c>
+      <c r="B430" s="0">
+        <v>2.2008674511438131</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>48.712998826745448</v>
+      </c>
+      <c r="B431" s="0">
+        <v>2.200434254045962</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>48.712998826745448</v>
+      </c>
+      <c r="B432" s="0">
+        <v>2.200434254045962</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>48.713251571254539</v>
+      </c>
+      <c r="B433" s="0">
+        <v>2.1998135739216007</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>48.713040158536359</v>
+      </c>
+      <c r="B434" s="0">
+        <v>2.2004259195513254</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>48.713110954961891</v>
+      </c>
+      <c r="B435" s="0">
+        <v>2.2002121848806571</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>48.712829903767691</v>
+      </c>
+      <c r="B436" s="0">
+        <v>2.2008499512864801</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0">
+        <v>48.712837024047786</v>
+      </c>
+      <c r="B437" s="0">
+        <v>2.2008686350382902</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0">
+        <v>48.713006789361643</v>
+      </c>
+      <c r="B438" s="0">
+        <v>2.2005099444611997</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0">
+        <v>48.712917064552691</v>
+      </c>
+      <c r="B439" s="0">
+        <v>2.2006868628269425</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0">
+        <v>48.712842814631308</v>
+      </c>
+      <c r="B440" s="0">
+        <v>2.2008422472857983</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0">
+        <v>48.71289730020375</v>
+      </c>
+      <c r="B441" s="0">
+        <v>2.2007136267997085</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0">
+        <v>48.712883486004436</v>
+      </c>
+      <c r="B442" s="0">
+        <v>2.2007659494620651</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0">
+        <v>48.71286914889204</v>
+      </c>
+      <c r="B443" s="0">
+        <v>2.2007824105984151</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0">
+        <v>48.712880661461817</v>
+      </c>
+      <c r="B444" s="0">
+        <v>2.2007595456343463</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0">
+        <v>48.712845379927259</v>
+      </c>
+      <c r="B445" s="0">
+        <v>2.2008315607661824</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0">
+        <v>48.712845077005362</v>
+      </c>
+      <c r="B446" s="0">
+        <v>2.2008370324033897</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0">
+        <v>48.712830597987107</v>
+      </c>
+      <c r="B447" s="0">
+        <v>2.2008522062448335</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0">
+        <v>48.712823719361459</v>
+      </c>
+      <c r="B448" s="0">
+        <v>2.2008791650815831</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0">
+        <v>48.712844796242763</v>
+      </c>
+      <c r="B449" s="0">
+        <v>2.2008552336358211</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0">
+        <v>48.712820245179572</v>
+      </c>
+      <c r="B450" s="0">
+        <v>2.2008990892669309</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0">
+        <v>48.712794728204607</v>
+      </c>
+      <c r="B451" s="0">
+        <v>2.2009537283055676</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0">
+        <v>48.712793674031218</v>
+      </c>
+      <c r="B452" s="0">
+        <v>2.2009521456888432</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0">
+        <v>48.712747493003263</v>
+      </c>
+      <c r="B453" s="0">
+        <v>2.2010570394571154</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0">
+        <v>48.712638405628233</v>
+      </c>
+      <c r="B454" s="0">
+        <v>2.2012884489060451</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0">
+        <v>48.712303942016824</v>
+      </c>
+      <c r="B455" s="0">
+        <v>2.2019748006984457</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0">
+        <v>48.712570119624949</v>
+      </c>
+      <c r="B456" s="0">
+        <v>2.2014133344502591</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0">
+        <v>48.711977005189681</v>
+      </c>
+      <c r="B457" s="0">
+        <v>2.2026699706719093</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0">
+        <v>48.712139442653012</v>
+      </c>
+      <c r="B458" s="0">
+        <v>2.2023394730116435</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0">
+        <v>48.711573985620987</v>
+      </c>
+      <c r="B459" s="0">
+        <v>2.2035254939761133</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0">
+        <v>48.711640934960698</v>
+      </c>
+      <c r="B460" s="0">
+        <v>2.2033610924510327</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0">
+        <v>48.711783062335428</v>
+      </c>
+      <c r="B461" s="0">
+        <v>2.2030565849473223</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0">
+        <v>48.711737926875124</v>
+      </c>
+      <c r="B462" s="0">
+        <v>2.203166293214982</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0">
+        <v>48.711831603984521</v>
+      </c>
+      <c r="B463" s="0">
+        <v>2.2029579526727772</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0">
+        <v>48.711597518795273</v>
+      </c>
+      <c r="B464" s="0">
+        <v>2.203433234663903</v>
       </c>
     </row>
   </sheetData>

--- a/CalculePos_quasi_RTK/PosWGS84_code.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_code.xlsx
@@ -53,3726 +53,3286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B464"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.453125" customWidth="true"/>
+    <col min="2" max="2" width="11.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.711724088192412</v>
+        <v>48.713013206816868</v>
       </c>
       <c r="B1" s="0">
-        <v>2.2030150418192833</v>
+        <v>2.2000280214173609</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.711806310696964</v>
+        <v>48.713029113174485</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2028392562735992</v>
+        <v>2.2000456980346086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.711879918916182</v>
+        <v>48.71304700681609</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2026951062097688</v>
+        <v>2.2001339036843577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.711925992549091</v>
+        <v>48.713082592374086</v>
       </c>
       <c r="B4" s="0">
-        <v>2.2025875087840983</v>
+        <v>2.2001515668241285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.711943576307199</v>
+        <v>48.713061007413756</v>
       </c>
       <c r="B5" s="0">
-        <v>2.2025425243255672</v>
+        <v>2.2001264128374318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.711939331215064</v>
+        <v>48.713067354049294</v>
       </c>
       <c r="B6" s="0">
-        <v>2.2025564721726689</v>
+        <v>2.2001859882568957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.711900738188838</v>
+        <v>48.713057542440026</v>
       </c>
       <c r="B7" s="0">
-        <v>2.2026311180287421</v>
+        <v>2.2001864405724456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.711971499375544</v>
+        <v>48.713029555737535</v>
       </c>
       <c r="B8" s="0">
-        <v>2.2024852861621822</v>
+        <v>2.2002432125661722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.711897474834899</v>
+        <v>48.71302140197124</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2026480021939277</v>
+        <v>2.2002963125266475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.711846456567166</v>
+        <v>48.712995653196955</v>
       </c>
       <c r="B10" s="0">
-        <v>2.20274685458641</v>
+        <v>2.2002510584191359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.711868696315186</v>
+        <v>48.713024503090068</v>
       </c>
       <c r="B11" s="0">
-        <v>2.2027082418092072</v>
+        <v>2.2002123870614026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.711860852804158</v>
+        <v>48.713024121229822</v>
       </c>
       <c r="B12" s="0">
-        <v>2.2027499512027582</v>
+        <v>2.2002621077709246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.711875363974784</v>
+        <v>48.713050321404914</v>
       </c>
       <c r="B13" s="0">
-        <v>2.2027264285522445</v>
+        <v>2.2003127395988624</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.711891140587724</v>
+        <v>48.713076013022402</v>
       </c>
       <c r="B14" s="0">
-        <v>2.2027055762141852</v>
+        <v>2.2003583188716025</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.711861154893377</v>
+        <v>48.713066313870307</v>
       </c>
       <c r="B15" s="0">
-        <v>2.2027527546905898</v>
+        <v>2.2003547135585984</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.711639325595272</v>
+        <v>48.713054559964476</v>
       </c>
       <c r="B16" s="0">
-        <v>2.2032280575998393</v>
+        <v>2.200314757466304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.711604416516579</v>
+        <v>48.713025464838132</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2032802895174264</v>
+        <v>2.2003743777784024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.71175369247149</v>
+        <v>48.713049630398487</v>
       </c>
       <c r="B18" s="0">
-        <v>2.2029933861605273</v>
+        <v>2.200453930878393</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.711764403232884</v>
+        <v>48.713051571111102</v>
       </c>
       <c r="B19" s="0">
-        <v>2.2029826086666948</v>
+        <v>2.2004239826935743</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.711663005654103</v>
+        <v>48.713024676943</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2031982143734252</v>
+        <v>2.2004412116031715</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.711596539714613</v>
+        <v>48.713042832666915</v>
       </c>
       <c r="B21" s="0">
-        <v>2.2033299339267027</v>
+        <v>2.2004442957352923</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.711648799161736</v>
+        <v>48.713069503290505</v>
       </c>
       <c r="B22" s="0">
-        <v>2.2032483101398799</v>
+        <v>2.200418675423379</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.711539449155332</v>
+        <v>48.713061603181501</v>
       </c>
       <c r="B23" s="0">
-        <v>2.2034787543329979</v>
+        <v>2.2004315053360477</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.711393767975771</v>
+        <v>48.713090653979379</v>
       </c>
       <c r="B24" s="0">
-        <v>2.2037665606614647</v>
+        <v>2.200437111309685</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.711346962489913</v>
+        <v>48.713075413708175</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2038558035616651</v>
+        <v>2.2004090787567998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.711422853806475</v>
+        <v>48.713058022050206</v>
       </c>
       <c r="B26" s="0">
-        <v>2.2037184873160784</v>
+        <v>2.2003420709857564</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.711432540012332</v>
+        <v>48.713030562631246</v>
       </c>
       <c r="B27" s="0">
-        <v>2.2036773238442669</v>
+        <v>2.2002735435236107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.711299319823979</v>
+        <v>48.713010396718438</v>
       </c>
       <c r="B28" s="0">
-        <v>2.2039463471920726</v>
+        <v>2.200204413551019</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.711151002358676</v>
+        <v>48.71296536468067</v>
       </c>
       <c r="B29" s="0">
-        <v>2.2042336474333015</v>
+        <v>2.200129908157086</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.711728592234714</v>
+        <v>48.712873792365116</v>
       </c>
       <c r="B30" s="0">
-        <v>2.2030703596306762</v>
+        <v>2.2000028041507358</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.711703285067699</v>
+        <v>48.7128518302437</v>
       </c>
       <c r="B31" s="0">
-        <v>2.2031359650548224</v>
+        <v>2.1999530481440139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.711935917281586</v>
+        <v>48.712792104094227</v>
       </c>
       <c r="B32" s="0">
-        <v>2.2026502946972477</v>
+        <v>2.1998954467343275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.711707397688784</v>
+        <v>48.712772338397464</v>
       </c>
       <c r="B33" s="0">
-        <v>2.2031128468417025</v>
+        <v>2.1998592285778735</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.711744869470287</v>
+        <v>48.712763618346109</v>
       </c>
       <c r="B34" s="0">
-        <v>2.2030463201457096</v>
+        <v>2.199751218420773</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.711898628451898</v>
+        <v>48.712702648999475</v>
       </c>
       <c r="B35" s="0">
-        <v>2.2027295312784316</v>
+        <v>2.1996805272391531</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.711861230916362</v>
+        <v>48.712685212492893</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2027798106693313</v>
+        <v>2.1997256623014221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.71197395151038</v>
+        <v>48.712699287799374</v>
       </c>
       <c r="B37" s="0">
-        <v>2.2025598019918733</v>
+        <v>2.1998367287918534</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.711646528585</v>
+        <v>48.712732504064142</v>
       </c>
       <c r="B38" s="0">
-        <v>2.2032266675925105</v>
+        <v>2.1998852036811769</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.71204010310705</v>
+        <v>48.71270892750735</v>
       </c>
       <c r="B39" s="0">
-        <v>2.202411100192446</v>
+        <v>2.1998945115812458</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.711961340103109</v>
+        <v>48.712667967003497</v>
       </c>
       <c r="B40" s="0">
-        <v>2.2025920493995814</v>
+        <v>2.1998233047938953</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.712003211719825</v>
+        <v>48.712717084927156</v>
       </c>
       <c r="B41" s="0">
-        <v>2.20248991836668</v>
+        <v>2.1997393052640413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.712038036445804</v>
+        <v>48.712656059162256</v>
       </c>
       <c r="B42" s="0">
-        <v>2.2024472721678921</v>
+        <v>2.1997020911428975</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.712006966916114</v>
+        <v>48.712620127727675</v>
       </c>
       <c r="B43" s="0">
-        <v>2.202513027068993</v>
+        <v>2.1996528492898917</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.712168412673499</v>
+        <v>48.712598947300286</v>
       </c>
       <c r="B44" s="0">
-        <v>2.2021723345738291</v>
+        <v>2.1995605287624387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.712517192228233</v>
+        <v>48.712560399459683</v>
       </c>
       <c r="B45" s="0">
-        <v>2.2014672694193975</v>
+        <v>2.1994948094068616</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.712204095585683</v>
+        <v>48.712561409066964</v>
       </c>
       <c r="B46" s="0">
-        <v>2.2020772828512887</v>
+        <v>2.199517953513352</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.712487442066831</v>
+        <v>48.712588420368206</v>
       </c>
       <c r="B47" s="0">
-        <v>2.2015063473173462</v>
+        <v>2.1995085882574821</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.712554108635011</v>
+        <v>48.7126102842984</v>
       </c>
       <c r="B48" s="0">
-        <v>2.2013533630868492</v>
+        <v>2.1994557600343478</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.71284585059113</v>
+        <v>48.712613370038703</v>
       </c>
       <c r="B49" s="0">
-        <v>2.2007622092571815</v>
+        <v>2.1994438789621622</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.712820677331145</v>
+        <v>48.712586515889257</v>
       </c>
       <c r="B50" s="0">
-        <v>2.2008348094244843</v>
+        <v>2.1994642189083638</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.712914088924187</v>
+        <v>48.712567422185671</v>
       </c>
       <c r="B51" s="0">
-        <v>2.2006477795272237</v>
+        <v>2.1994434080750605</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.712891059445489</v>
+        <v>48.712543513024429</v>
       </c>
       <c r="B52" s="0">
-        <v>2.2006736969915668</v>
+        <v>2.1994990106240926</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.712461662924007</v>
+        <v>48.712542137496428</v>
       </c>
       <c r="B53" s="0">
-        <v>2.2015477992648558</v>
+        <v>2.1995709716857497</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.712462154648449</v>
+        <v>48.712604214781393</v>
       </c>
       <c r="B54" s="0">
-        <v>2.2015278122217543</v>
+        <v>2.1995937313827847</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.712574336257674</v>
+        <v>48.712644425078814</v>
       </c>
       <c r="B55" s="0">
-        <v>2.2013148203942734</v>
+        <v>2.1995983657532894</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.712754084307711</v>
+        <v>48.712641428892056</v>
       </c>
       <c r="B56" s="0">
-        <v>2.2009533258018137</v>
+        <v>2.1996532966816877</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.712713526464192</v>
+        <v>48.712701436724494</v>
       </c>
       <c r="B57" s="0">
-        <v>2.2010225386698803</v>
+        <v>2.1996369468550729</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.712666361580077</v>
+        <v>48.712748784144019</v>
       </c>
       <c r="B58" s="0">
-        <v>2.2011157272253521</v>
+        <v>2.1997116559812584</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.712772928664258</v>
+        <v>48.712816048943068</v>
       </c>
       <c r="B59" s="0">
-        <v>2.2008941378395099</v>
+        <v>2.1997958654382992</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.712694700222329</v>
+        <v>48.712803543599804</v>
       </c>
       <c r="B60" s="0">
-        <v>2.2010669556413416</v>
+        <v>2.1998469129974549</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.712761820257413</v>
+        <v>48.712891152482321</v>
       </c>
       <c r="B61" s="0">
-        <v>2.2009330553339983</v>
+        <v>2.1999763920954365</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.712864799963782</v>
+        <v>48.712937787816685</v>
       </c>
       <c r="B62" s="0">
-        <v>2.2007355732956828</v>
+        <v>2.1999835145354485</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.712822333190537</v>
+        <v>48.712943634269664</v>
       </c>
       <c r="B63" s="0">
-        <v>2.2008338064015578</v>
+        <v>2.200022702192018</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.712933570442274</v>
+        <v>48.713012466294679</v>
       </c>
       <c r="B64" s="0">
-        <v>2.2005747254901431</v>
+        <v>2.2000285799157009</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.712896516601369</v>
+        <v>48.712957784435318</v>
       </c>
       <c r="B65" s="0">
-        <v>2.2006700436906996</v>
+        <v>2.20002113049823</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.71287910237124</v>
+        <v>48.712979710979468</v>
       </c>
       <c r="B66" s="0">
-        <v>2.2007368084377128</v>
+        <v>2.200040207711679</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.712921358735848</v>
+        <v>48.713034430102191</v>
       </c>
       <c r="B67" s="0">
-        <v>2.2006538996312153</v>
+        <v>2.2000958347589905</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.712941552254186</v>
+        <v>48.713131606181555</v>
       </c>
       <c r="B68" s="0">
-        <v>2.2005754731683229</v>
+        <v>2.2001731904987816</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.712908689582157</v>
+        <v>48.713112562358489</v>
       </c>
       <c r="B69" s="0">
-        <v>2.2006884797361597</v>
+        <v>2.2002139648211809</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.712894714290158</v>
+        <v>48.713043491467765</v>
       </c>
       <c r="B70" s="0">
-        <v>2.2006886159574988</v>
+        <v>2.2002155291224983</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.712876604973509</v>
+        <v>48.712996442774944</v>
       </c>
       <c r="B71" s="0">
-        <v>2.2007534307875236</v>
+        <v>2.2001953234697482</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.712843260648192</v>
+        <v>48.713048830710115</v>
       </c>
       <c r="B72" s="0">
-        <v>2.2008126616626638</v>
+        <v>2.2003024526325374</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.712856965921532</v>
+        <v>48.713067159566421</v>
       </c>
       <c r="B73" s="0">
-        <v>2.2007957142645038</v>
+        <v>2.2002939381851419</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.712825962858936</v>
+        <v>48.713069304625755</v>
       </c>
       <c r="B74" s="0">
-        <v>2.200848851044253</v>
+        <v>2.2003160056671254</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.712835742334562</v>
+        <v>48.713125558601348</v>
       </c>
       <c r="B75" s="0">
-        <v>2.2008478663330804</v>
+        <v>2.2003602494888104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.712848761585157</v>
+        <v>48.713132894080602</v>
       </c>
       <c r="B76" s="0">
-        <v>2.2008097407986633</v>
+        <v>2.2004037832952879</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.712822095000441</v>
+        <v>48.71308735344504</v>
       </c>
       <c r="B77" s="0">
-        <v>2.2008576728898177</v>
+        <v>2.2003782618217471</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.712855659398492</v>
+        <v>48.713106855236838</v>
       </c>
       <c r="B78" s="0">
-        <v>2.2007923712133195</v>
+        <v>2.2004117214608674</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.712834809402899</v>
+        <v>48.713171019340571</v>
       </c>
       <c r="B79" s="0">
-        <v>2.2008563439559614</v>
+        <v>2.2004664713284439</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.712833435519031</v>
+        <v>48.71316072065742</v>
       </c>
       <c r="B80" s="0">
-        <v>2.2008517095642595</v>
+        <v>2.2004829613423693</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.712816109321409</v>
+        <v>48.713137796185386</v>
       </c>
       <c r="B81" s="0">
-        <v>2.2008883729727158</v>
+        <v>2.2004871938019663</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.712800809611672</v>
+        <v>48.713154059023864</v>
       </c>
       <c r="B82" s="0">
-        <v>2.2009315027054042</v>
+        <v>2.2004693883323041</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.712802938303561</v>
+        <v>48.713154073427816</v>
       </c>
       <c r="B83" s="0">
-        <v>2.2009141815297144</v>
+        <v>2.2004652990741906</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.712733289353217</v>
+        <v>48.713098123424914</v>
       </c>
       <c r="B84" s="0">
-        <v>2.2010655371015475</v>
+        <v>2.2004762195048824</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.712514397095788</v>
+        <v>48.713016715916687</v>
       </c>
       <c r="B85" s="0">
-        <v>2.2014991967432014</v>
+        <v>2.2004645604119712</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.712617958842166</v>
+        <v>48.712993978996984</v>
       </c>
       <c r="B86" s="0">
-        <v>2.2012839578760817</v>
+        <v>2.2004131972076815</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.712253924616057</v>
+        <v>48.712961466961808</v>
       </c>
       <c r="B87" s="0">
-        <v>2.2020229497235917</v>
+        <v>2.200380422831508</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.712253924616057</v>
+        <v>48.712988195194157</v>
       </c>
       <c r="B88" s="0">
-        <v>2.2020229497235917</v>
+        <v>2.2003565094967912</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.71268032165397</v>
+        <v>48.712957983708407</v>
       </c>
       <c r="B89" s="0">
-        <v>2.2011901218358099</v>
+        <v>2.2002862655340305</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.712051663065594</v>
+        <v>48.712912529288111</v>
       </c>
       <c r="B90" s="0">
-        <v>2.202455783596891</v>
+        <v>2.200238088077116</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.712051663065594</v>
+        <v>48.712922970896543</v>
       </c>
       <c r="B91" s="0">
-        <v>2.202455783596891</v>
+        <v>2.2002550915316537</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.712051663065594</v>
+        <v>48.712902854140104</v>
       </c>
       <c r="B92" s="0">
-        <v>2.202455783596891</v>
+        <v>2.2002738557095039</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.711459374673687</v>
+        <v>48.712933153309493</v>
       </c>
       <c r="B93" s="0">
-        <v>2.2036474053581867</v>
+        <v>2.2002364310790257</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.711471472828293</v>
+        <v>48.712915649256566</v>
       </c>
       <c r="B94" s="0">
-        <v>2.2036496989405157</v>
+        <v>2.200193843623047</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.711610330809222</v>
+        <v>48.712931340477532</v>
       </c>
       <c r="B95" s="0">
-        <v>2.2033488275559563</v>
+        <v>2.2001330173090596</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.711907260392408</v>
+        <v>48.712931561691825</v>
       </c>
       <c r="B96" s="0">
-        <v>2.2027279724433835</v>
+        <v>2.2001561763788406</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.71202287952768</v>
+        <v>48.712942657386172</v>
       </c>
       <c r="B97" s="0">
-        <v>2.2025213502412178</v>
+        <v>2.2001327764480725</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.711479072221692</v>
+        <v>48.71289707483772</v>
       </c>
       <c r="B98" s="0">
-        <v>2.2036161486397354</v>
+        <v>2.2001690849057751</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.711921534579027</v>
+        <v>48.712869014400702</v>
       </c>
       <c r="B99" s="0">
-        <v>2.2027009507762268</v>
+        <v>2.2001923010314912</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.711973107027269</v>
+        <v>48.712840461742808</v>
       </c>
       <c r="B100" s="0">
-        <v>2.2025870746968006</v>
+        <v>2.2002168377288003</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.712137356605908</v>
+        <v>48.712896323822427</v>
       </c>
       <c r="B101" s="0">
-        <v>2.2022573849118956</v>
+        <v>2.2002095857120132</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.712208450036066</v>
+        <v>48.712916491095022</v>
       </c>
       <c r="B102" s="0">
-        <v>2.2021176778426486</v>
+        <v>2.2001974812082579</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.712015741322588</v>
+        <v>48.712933975660676</v>
       </c>
       <c r="B103" s="0">
-        <v>2.2025093010664652</v>
+        <v>2.2001787462957507</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.712208728654694</v>
+        <v>48.713002158829824</v>
       </c>
       <c r="B104" s="0">
-        <v>2.2020892503832688</v>
+        <v>2.2001160336317498</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.712343875347898</v>
+        <v>48.713063829554166</v>
       </c>
       <c r="B105" s="0">
-        <v>2.2018384331439496</v>
+        <v>2.2000462434839476</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.712405182306497</v>
+        <v>48.713154610259551</v>
       </c>
       <c r="B106" s="0">
-        <v>2.2016598162947725</v>
+        <v>2.2000389463599763</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.712254860452603</v>
+        <v>48.713223349520852</v>
       </c>
       <c r="B107" s="0">
-        <v>2.2020351209310443</v>
+        <v>2.200020203578934</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.712667664917945</v>
+        <v>48.713254615387768</v>
       </c>
       <c r="B108" s="0">
-        <v>2.2011709717005878</v>
+        <v>2.200027744572246</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.712466565863565</v>
+        <v>48.713245474292322</v>
       </c>
       <c r="B109" s="0">
-        <v>2.2015753479309144</v>
+        <v>2.1999580958507186</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.712523235651112</v>
+        <v>48.713309842766698</v>
       </c>
       <c r="B110" s="0">
-        <v>2.2014156912593439</v>
+        <v>2.1999594432979324</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.712685072267185</v>
+        <v>48.713315317974093</v>
       </c>
       <c r="B111" s="0">
-        <v>2.201071616376709</v>
+        <v>2.1999657018455281</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.712792460216939</v>
+        <v>48.713373351024394</v>
       </c>
       <c r="B112" s="0">
-        <v>2.2008492717542598</v>
+        <v>2.2000442178241153</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.71255774438486</v>
+        <v>48.713373703948271</v>
       </c>
       <c r="B113" s="0">
-        <v>2.2013456455612603</v>
+        <v>2.2000626699434087</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.712657209432408</v>
+        <v>48.713410998128211</v>
       </c>
       <c r="B114" s="0">
-        <v>2.2011128733220304</v>
+        <v>2.2000350436591112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.712700624700723</v>
+        <v>48.71334646437716</v>
       </c>
       <c r="B115" s="0">
-        <v>2.2010729949938233</v>
+        <v>2.2000296998765179</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.712693505915183</v>
+        <v>48.71328910259416</v>
       </c>
       <c r="B116" s="0">
-        <v>2.2011149049249927</v>
+        <v>2.200043697443633</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.712780516355124</v>
+        <v>48.713255984469129</v>
       </c>
       <c r="B117" s="0">
-        <v>2.2009055987987347</v>
+        <v>2.2000941985066938</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.71262903260358</v>
+        <v>48.71321543529146</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2012478671492812</v>
+        <v>2.2001459522549549</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.712891102490524</v>
+        <v>48.713162375563478</v>
       </c>
       <c r="B119" s="0">
-        <v>2.2006627756167117</v>
+        <v>2.2001857227990356</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.712932702936755</v>
+        <v>48.713151782331913</v>
       </c>
       <c r="B120" s="0">
-        <v>2.2005910393893542</v>
+        <v>2.200255172457263</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.712885427112873</v>
+        <v>48.713088539989315</v>
       </c>
       <c r="B121" s="0">
-        <v>2.200738177513665</v>
+        <v>2.2003030406868165</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.71301255551969</v>
+        <v>48.713064705844886</v>
       </c>
       <c r="B122" s="0">
-        <v>2.2004153827239845</v>
+        <v>2.2003517211329555</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.712872453767005</v>
+        <v>48.713023957381715</v>
       </c>
       <c r="B123" s="0">
-        <v>2.2007690554062145</v>
+        <v>2.2003845526138668</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.712866410306027</v>
+        <v>48.71300964340378</v>
       </c>
       <c r="B124" s="0">
-        <v>2.200776194964615</v>
+        <v>2.2004176107668512</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.712890765817107</v>
+        <v>48.713015508966222</v>
       </c>
       <c r="B125" s="0">
-        <v>2.2007402302477592</v>
+        <v>2.2004354017581873</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.712893822133012</v>
+        <v>48.713000225585226</v>
       </c>
       <c r="B126" s="0">
-        <v>2.2007332444896575</v>
+        <v>2.2004366177191113</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.712890299773854</v>
+        <v>48.712998789950149</v>
       </c>
       <c r="B127" s="0">
-        <v>2.2007173496049819</v>
+        <v>2.2004497051754686</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.712867178043418</v>
+        <v>48.712967175811883</v>
       </c>
       <c r="B128" s="0">
-        <v>2.200774407482847</v>
+        <v>2.2004301323325737</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.712873207384107</v>
+        <v>48.712951792614049</v>
       </c>
       <c r="B129" s="0">
-        <v>2.2007566350676084</v>
+        <v>2.2004176616413855</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.712869464792306</v>
+        <v>48.712934487721959</v>
       </c>
       <c r="B130" s="0">
-        <v>2.2007749663029395</v>
+        <v>2.2003988155400096</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.712881978628964</v>
+        <v>48.71292018284138</v>
       </c>
       <c r="B131" s="0">
-        <v>2.2007500410409611</v>
+        <v>2.2003757774443722</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.712862099494004</v>
+        <v>48.712903390897509</v>
       </c>
       <c r="B132" s="0">
-        <v>2.2007965242581369</v>
+        <v>2.2003616084405171</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.712853328300369</v>
+        <v>48.712895225501157</v>
       </c>
       <c r="B133" s="0">
-        <v>2.2008113767160018</v>
+        <v>2.200340764639269</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.712827368055521</v>
+        <v>48.712926814686732</v>
       </c>
       <c r="B134" s="0">
-        <v>2.2008668661150943</v>
+        <v>2.2003231474159519</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.712836097785875</v>
+        <v>48.712930794249587</v>
       </c>
       <c r="B135" s="0">
-        <v>2.2008468533337782</v>
+        <v>2.2003222926316553</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.712838981789766</v>
+        <v>48.712937570832686</v>
       </c>
       <c r="B136" s="0">
-        <v>2.200861707280295</v>
+        <v>2.200353521092961</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.712807263852923</v>
+        <v>48.712954170566825</v>
       </c>
       <c r="B137" s="0">
-        <v>2.2009176764978209</v>
+        <v>2.2003241511051881</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.712805043361698</v>
+        <v>48.712993061160006</v>
       </c>
       <c r="B138" s="0">
-        <v>2.2009184882522108</v>
+        <v>2.2003374991797799</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.712800085573271</v>
+        <v>48.712984752761997</v>
       </c>
       <c r="B139" s="0">
-        <v>2.2009536094056834</v>
+        <v>2.200210703197377</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.712762416782894</v>
+        <v>48.713027008125394</v>
       </c>
       <c r="B140" s="0">
-        <v>2.2010220987496085</v>
+        <v>2.2001782730226842</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.712300867420993</v>
+        <v>48.713073909354996</v>
       </c>
       <c r="B141" s="0">
-        <v>2.2019554329135827</v>
+        <v>2.2001436970592518</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.7124716888952</v>
+        <v>48.71313301400712</v>
       </c>
       <c r="B142" s="0">
-        <v>2.201606226293209</v>
+        <v>2.2002477492799715</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.711801504162089</v>
+        <v>48.713112490191051</v>
       </c>
       <c r="B143" s="0">
-        <v>2.2029620218598094</v>
+        <v>2.2002766714994269</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.711958298242571</v>
+        <v>48.713119083371986</v>
       </c>
       <c r="B144" s="0">
-        <v>2.2026518139048368</v>
+        <v>2.2002322901768499</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.711859094913706</v>
+        <v>48.713172477656237</v>
       </c>
       <c r="B145" s="0">
-        <v>2.2028599106734625</v>
+        <v>2.2001966616252351</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.711717962565146</v>
+        <v>48.713166511518125</v>
       </c>
       <c r="B146" s="0">
-        <v>2.2031430892531128</v>
+        <v>2.2001716025160865</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.711683925778267</v>
+        <v>48.713213434036177</v>
       </c>
       <c r="B147" s="0">
-        <v>2.2032122670860788</v>
+        <v>2.200144247520722</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.711778832373803</v>
+        <v>48.713256323956294</v>
       </c>
       <c r="B148" s="0">
-        <v>2.2030194237152179</v>
+        <v>2.2001561879113143</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.711549824236983</v>
+        <v>48.713256835670563</v>
       </c>
       <c r="B149" s="0">
-        <v>2.2034843557222796</v>
+        <v>2.200098150182193</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.711789660201767</v>
+        <v>48.713276630497035</v>
       </c>
       <c r="B150" s="0">
-        <v>2.2029917105551049</v>
+        <v>2.2000971797889304</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.711736812962741</v>
+        <v>48.71330150668021</v>
       </c>
       <c r="B151" s="0">
-        <v>2.2030880449654626</v>
+        <v>2.2001057061364073</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.711648109204845</v>
+        <v>48.713329689309681</v>
       </c>
       <c r="B152" s="0">
-        <v>2.20328338779884</v>
+        <v>2.2000950435132016</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.712110301023976</v>
+        <v>48.713361883679944</v>
       </c>
       <c r="B153" s="0">
-        <v>2.2023257033938206</v>
+        <v>2.2000635807092994</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.711878276842548</v>
+        <v>48.713334116472431</v>
       </c>
       <c r="B154" s="0">
-        <v>2.2028204398493885</v>
+        <v>2.2000067940455814</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.712235537616515</v>
+        <v>48.713305734841804</v>
       </c>
       <c r="B155" s="0">
-        <v>2.2020793758114721</v>
+        <v>2.1999844484114033</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.712188256936401</v>
+        <v>48.713303135024326</v>
       </c>
       <c r="B156" s="0">
-        <v>2.2021920459012709</v>
+        <v>2.2000097130764646</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.712446132650051</v>
+        <v>48.713312181917374</v>
       </c>
       <c r="B157" s="0">
-        <v>2.2016384837491256</v>
+        <v>2.2000168499378785</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.712491116519125</v>
+        <v>48.713293382026599</v>
       </c>
       <c r="B158" s="0">
-        <v>2.2015754995444521</v>
+        <v>2.1999655995946896</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.712695169963524</v>
+        <v>48.713325249132893</v>
       </c>
       <c r="B159" s="0">
-        <v>2.201138574248259</v>
+        <v>2.1999666408394569</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.712534718816592</v>
+        <v>48.713310222817036</v>
       </c>
       <c r="B160" s="0">
-        <v>2.2014690700737569</v>
+        <v>2.1999388694245412</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.71250496115222</v>
+        <v>48.713287880934594</v>
       </c>
       <c r="B161" s="0">
-        <v>2.2015256019713099</v>
+        <v>2.1999546111447343</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.712613895458048</v>
+        <v>48.713292652484498</v>
       </c>
       <c r="B162" s="0">
-        <v>2.2013111735368121</v>
+        <v>2.2000232116322653</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.712771819412566</v>
+        <v>48.713280017773954</v>
       </c>
       <c r="B163" s="0">
-        <v>2.2009787612388361</v>
+        <v>2.2000651356444592</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.712435314217757</v>
+        <v>48.713257597112033</v>
       </c>
       <c r="B164" s="0">
-        <v>2.2016542813681883</v>
+        <v>2.2000606701508652</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.712486385574813</v>
+        <v>48.713262960043998</v>
       </c>
       <c r="B165" s="0">
-        <v>2.2015411276902861</v>
+        <v>2.2001214031329766</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.712486385574813</v>
+        <v>48.713253690667358</v>
       </c>
       <c r="B166" s="0">
-        <v>2.2015411276902861</v>
+        <v>2.2001739224571551</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.712600890677401</v>
+        <v>48.713225903356694</v>
       </c>
       <c r="B167" s="0">
-        <v>2.2013167681829411</v>
+        <v>2.2002063302681041</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.712748320264503</v>
+        <v>48.713194638291029</v>
       </c>
       <c r="B168" s="0">
-        <v>2.201017953455314</v>
+        <v>2.2002635990807247</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.712634445325186</v>
+        <v>48.7131724271538</v>
       </c>
       <c r="B169" s="0">
-        <v>2.2012375848427199</v>
+        <v>2.2003227629657451</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.712655315810721</v>
+        <v>48.713175049294762</v>
       </c>
       <c r="B170" s="0">
-        <v>2.2011911851250745</v>
+        <v>2.200375694657533</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.712863619380599</v>
+        <v>48.713153600651168</v>
       </c>
       <c r="B171" s="0">
-        <v>2.2007707614266039</v>
+        <v>2.2003923440719504</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.712787160200442</v>
+        <v>48.713139663383529</v>
       </c>
       <c r="B172" s="0">
-        <v>2.200927237335002</v>
+        <v>2.2004481327214243</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.712974340049613</v>
+        <v>48.713116235732919</v>
       </c>
       <c r="B173" s="0">
-        <v>2.2005370057697049</v>
+        <v>2.2004927020931229</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.713019509349557</v>
+        <v>48.713136286752878</v>
       </c>
       <c r="B174" s="0">
-        <v>2.2004673460159219</v>
+        <v>2.2004739836287528</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.712970648966611</v>
+        <v>48.713131098936742</v>
       </c>
       <c r="B175" s="0">
-        <v>2.2005723569110049</v>
+        <v>2.2005029450564266</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.712952601593685</v>
+        <v>48.713124924547408</v>
       </c>
       <c r="B176" s="0">
-        <v>2.200586557965341</v>
+        <v>2.2005200166523169</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.712925909498985</v>
+        <v>48.712933025761977</v>
       </c>
       <c r="B177" s="0">
-        <v>2.200654940467262</v>
+        <v>2.2006626488935188</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.712859697865163</v>
+        <v>48.713058622363725</v>
       </c>
       <c r="B178" s="0">
-        <v>2.2007960333910774</v>
+        <v>2.2006600584911462</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.712894301425635</v>
+        <v>48.71301871716954</v>
       </c>
       <c r="B179" s="0">
-        <v>2.2007354383376954</v>
+        <v>2.2006805905270972</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.71289929613468</v>
+        <v>48.713028085890592</v>
       </c>
       <c r="B180" s="0">
-        <v>2.2007109478299385</v>
+        <v>2.2006934744787716</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.712862513572773</v>
+        <v>48.713044377344126</v>
       </c>
       <c r="B181" s="0">
-        <v>2.2008108336146539</v>
+        <v>2.2007004385483682</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.712870519509259</v>
+        <v>48.713039066777512</v>
       </c>
       <c r="B182" s="0">
-        <v>2.2007787541988462</v>
+        <v>2.2007240483876767</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.712870477848817</v>
+        <v>48.712992956675741</v>
       </c>
       <c r="B183" s="0">
-        <v>2.2007888404288338</v>
+        <v>2.2007731243597721</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.712865602686257</v>
+        <v>48.712973083658007</v>
       </c>
       <c r="B184" s="0">
-        <v>2.2008077918249951</v>
+        <v>2.2007702136475364</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.712879670036315</v>
+        <v>48.712979213524719</v>
       </c>
       <c r="B185" s="0">
-        <v>2.2007675739019703</v>
+        <v>2.2007682465549019</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.712871912154633</v>
+        <v>48.712963277495455</v>
       </c>
       <c r="B186" s="0">
-        <v>2.2007905150803642</v>
+        <v>2.2007605116770659</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.712876272255997</v>
+        <v>48.712948354954086</v>
       </c>
       <c r="B187" s="0">
-        <v>2.2007913391535308</v>
+        <v>2.2008177065831376</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.712849191448413</v>
+        <v>48.712963441290675</v>
       </c>
       <c r="B188" s="0">
-        <v>2.2008474612165241</v>
+        <v>2.2008440728305674</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.712813433779509</v>
+        <v>48.712957767756159</v>
       </c>
       <c r="B189" s="0">
-        <v>2.2009125693235947</v>
+        <v>2.2008444218259604</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.712748016738488</v>
+        <v>48.712959154607248</v>
       </c>
       <c r="B190" s="0">
-        <v>2.2010474271482643</v>
+        <v>2.2008558978737085</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.712797237727528</v>
+        <v>48.712970264963595</v>
       </c>
       <c r="B191" s="0">
-        <v>2.2009463238262055</v>
+        <v>2.2008507161452138</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.712766368213622</v>
+        <v>48.713003136955571</v>
       </c>
       <c r="B192" s="0">
-        <v>2.2010049354271208</v>
+        <v>2.2008352466813275</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.712487394976591</v>
+        <v>48.713027922449548</v>
       </c>
       <c r="B193" s="0">
-        <v>2.2015647602270256</v>
+        <v>2.2008077348811721</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.712487394976591</v>
+        <v>48.713029829255575</v>
       </c>
       <c r="B194" s="0">
-        <v>2.2015647602270256</v>
+        <v>2.2007039871767078</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.712314055664869</v>
+        <v>48.713024957565096</v>
       </c>
       <c r="B195" s="0">
-        <v>2.2019470505775098</v>
+        <v>2.2006584870880945</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.712245313063001</v>
+        <v>48.713015539298837</v>
       </c>
       <c r="B196" s="0">
-        <v>2.2020839471526998</v>
+        <v>2.2006205956512073</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.711937578754288</v>
+        <v>48.713010548174033</v>
       </c>
       <c r="B197" s="0">
-        <v>2.2027055553111437</v>
+        <v>2.2005670307780405</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.711937578754288</v>
+        <v>48.713000450778019</v>
       </c>
       <c r="B198" s="0">
-        <v>2.2027055553111437</v>
+        <v>2.2004830353115556</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.711937578754288</v>
+        <v>48.71298657480537</v>
       </c>
       <c r="B199" s="0">
-        <v>2.2027055553111437</v>
+        <v>2.2003526732358441</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.711937578754288</v>
+        <v>48.712985274851746</v>
       </c>
       <c r="B200" s="0">
-        <v>2.2027055553111437</v>
+        <v>2.2002522186529601</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.711622724401494</v>
+        <v>48.712976154519687</v>
       </c>
       <c r="B201" s="0">
-        <v>2.2033521108736043</v>
+        <v>2.2001358541339946</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.71186342232464</v>
+        <v>48.713001321018723</v>
       </c>
       <c r="B202" s="0">
-        <v>2.2028564238410011</v>
+        <v>2.2000816689429295</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.71186342232464</v>
+        <v>48.713049080734798</v>
       </c>
       <c r="B203" s="0">
-        <v>2.2028564238410011</v>
+        <v>2.2000826964858966</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.711955458470165</v>
+        <v>48.713060227072219</v>
       </c>
       <c r="B204" s="0">
-        <v>2.2026755898690342</v>
+        <v>2.2000854927310676</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.711955458470165</v>
+        <v>48.713086851780886</v>
       </c>
       <c r="B205" s="0">
-        <v>2.2026755898690342</v>
+        <v>2.2000955389994137</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.711906150506408</v>
+        <v>48.713118114794703</v>
       </c>
       <c r="B206" s="0">
-        <v>2.2027854594390628</v>
+        <v>2.2000906599788634</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.712025552333067</v>
+        <v>48.713122347233373</v>
       </c>
       <c r="B207" s="0">
-        <v>2.2025415043420007</v>
+        <v>2.2001082522570248</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.712043074378976</v>
+        <v>48.713119650925741</v>
       </c>
       <c r="B208" s="0">
-        <v>2.2025127178293897</v>
+        <v>2.2000590288143349</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.712051941797128</v>
+        <v>48.713108233574388</v>
       </c>
       <c r="B209" s="0">
-        <v>2.2024973299654218</v>
+        <v>2.1999969851244603</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.712292838684974</v>
+        <v>48.713067924952476</v>
       </c>
       <c r="B210" s="0">
-        <v>2.2019955091678391</v>
+        <v>2.1999166981420433</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.712085738306548</v>
+        <v>48.71307180236861</v>
       </c>
       <c r="B211" s="0">
-        <v>2.2024096402914344</v>
+        <v>2.1999103727178513</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.712362810696838</v>
+        <v>48.713042114804573</v>
       </c>
       <c r="B212" s="0">
-        <v>2.2018122462497996</v>
+        <v>2.1998265224208864</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.712263843527111</v>
+        <v>48.713056482990638</v>
       </c>
       <c r="B213" s="0">
-        <v>2.2020323831386861</v>
+        <v>2.1998903767986482</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.712698600358856</v>
+        <v>48.713048991237628</v>
       </c>
       <c r="B214" s="0">
-        <v>2.2011279203187622</v>
+        <v>2.1999000285953465</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.712628242700852</v>
+        <v>48.71303189401457</v>
       </c>
       <c r="B215" s="0">
-        <v>2.2012764337077786</v>
+        <v>2.199878302188516</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.712475235494189</v>
+        <v>48.713046852726535</v>
       </c>
       <c r="B216" s="0">
-        <v>2.2015824640696828</v>
+        <v>2.1999309583162701</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.71256699036617</v>
+        <v>48.71300956051946</v>
       </c>
       <c r="B217" s="0">
-        <v>2.2013905519481645</v>
+        <v>2.1998806647361508</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.712527086735875</v>
+        <v>48.713006568830551</v>
       </c>
       <c r="B218" s="0">
-        <v>2.2014827732463216</v>
+        <v>2.1999301944570715</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.712540077720561</v>
+        <v>48.713011428350853</v>
       </c>
       <c r="B219" s="0">
-        <v>2.2014753147057866</v>
+        <v>2.1999656863876775</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.712500682841849</v>
+        <v>48.713047991798319</v>
       </c>
       <c r="B220" s="0">
-        <v>2.2015333452753714</v>
+        <v>2.2000292143152716</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.712667825780542</v>
+        <v>48.713071517337546</v>
       </c>
       <c r="B221" s="0">
-        <v>2.2011727921624056</v>
+        <v>2.2000963637686723</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.712815857599914</v>
+        <v>48.713106995685003</v>
       </c>
       <c r="B222" s="0">
-        <v>2.2008690075363573</v>
+        <v>2.2001138341174542</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.713053957045808</v>
+        <v>48.713100557975949</v>
       </c>
       <c r="B223" s="0">
-        <v>2.2003958325710768</v>
+        <v>2.200135816144912</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.712912338539397</v>
+        <v>48.713049815833905</v>
       </c>
       <c r="B224" s="0">
-        <v>2.2006649465234362</v>
+        <v>2.2001695570924515</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.712989337927674</v>
+        <v>48.713019470391025</v>
       </c>
       <c r="B225" s="0">
-        <v>2.2005098428298204</v>
+        <v>2.2002077126025972</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.713099159334895</v>
+        <v>48.713025591003174</v>
       </c>
       <c r="B226" s="0">
-        <v>2.2002985074018344</v>
+        <v>2.2003065517496405</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.712943010461075</v>
+        <v>48.713002091256883</v>
       </c>
       <c r="B227" s="0">
-        <v>2.2006224176996736</v>
+        <v>2.2003700061582992</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.712893341897917</v>
+        <v>48.713019993279332</v>
       </c>
       <c r="B228" s="0">
-        <v>2.2007415281545235</v>
+        <v>2.2004014614613476</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.712941593549687</v>
+        <v>48.712996928609073</v>
       </c>
       <c r="B229" s="0">
-        <v>2.2006326034121186</v>
+        <v>2.2004392179001333</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.712952434998947</v>
+        <v>48.712995187506316</v>
       </c>
       <c r="B230" s="0">
-        <v>2.2006218490630829</v>
+        <v>2.2004979560909597</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.712895176303718</v>
+        <v>48.712988422229266</v>
       </c>
       <c r="B231" s="0">
-        <v>2.2007323690623872</v>
+        <v>2.2005092903137236</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.712901407641937</v>
+        <v>48.712940873800491</v>
       </c>
       <c r="B232" s="0">
-        <v>2.2007092567861442</v>
+        <v>2.2005027944186404</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.712870601817151</v>
+        <v>48.712901048850057</v>
       </c>
       <c r="B233" s="0">
-        <v>2.200793045330717</v>
+        <v>2.200493309902908</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.712864008517961</v>
+        <v>48.712864323569114</v>
       </c>
       <c r="B234" s="0">
-        <v>2.2008014994932394</v>
+        <v>2.2004955776164001</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.712874586958328</v>
+        <v>48.712829106306131</v>
       </c>
       <c r="B235" s="0">
-        <v>2.2007857720007369</v>
+        <v>2.2004726941063209</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.71286791235584</v>
+        <v>48.712807730519934</v>
       </c>
       <c r="B236" s="0">
-        <v>2.2007875098751009</v>
+        <v>2.2004698217384648</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.71282824303249</v>
+        <v>48.712826620932226</v>
       </c>
       <c r="B237" s="0">
-        <v>2.2008943486977253</v>
+        <v>2.2003783791635132</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.712837225830164</v>
+        <v>48.712844758549387</v>
       </c>
       <c r="B238" s="0">
-        <v>2.2008639049431955</v>
+        <v>2.2003766564100982</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.712844556991684</v>
+        <v>48.712908241637493</v>
       </c>
       <c r="B239" s="0">
-        <v>2.2008540763531723</v>
+        <v>2.2003175781557482</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.712845467208695</v>
+        <v>48.712886397691662</v>
       </c>
       <c r="B240" s="0">
-        <v>2.2008437352744696</v>
+        <v>2.2002984717495049</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.712823719566209</v>
+        <v>48.712832836584376</v>
       </c>
       <c r="B241" s="0">
-        <v>2.2008884449838546</v>
+        <v>2.2002800228252388</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.71282192989753</v>
+        <v>48.71283218086279</v>
       </c>
       <c r="B242" s="0">
-        <v>2.2008949335544576</v>
+        <v>2.2002956570805403</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.712807701741546</v>
+        <v>48.712766687620544</v>
       </c>
       <c r="B243" s="0">
-        <v>2.2009365780967705</v>
+        <v>2.2003383024324501</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.712736729606903</v>
+        <v>48.71269631808201</v>
       </c>
       <c r="B244" s="0">
-        <v>2.2010757027321985</v>
+        <v>2.2004286124446</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.712586459382869</v>
+        <v>48.71273371605006</v>
       </c>
       <c r="B245" s="0">
-        <v>2.2013792220287698</v>
+        <v>2.2003838737794799</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.712145860323588</v>
+        <v>48.712748238443808</v>
       </c>
       <c r="B246" s="0">
-        <v>2.2023021424322882</v>
+        <v>2.2003697329751333</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.712006762891853</v>
+        <v>48.712704061844391</v>
       </c>
       <c r="B247" s="0">
-        <v>2.2025813411521447</v>
+        <v>2.2004224874225558</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.712059801016878</v>
+        <v>48.712696590815597</v>
       </c>
       <c r="B248" s="0">
-        <v>2.2024618486824976</v>
+        <v>2.2003966919226206</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.711837027775942</v>
+        <v>48.712700082522502</v>
       </c>
       <c r="B249" s="0">
-        <v>2.2029555936769003</v>
+        <v>2.2003164851459016</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.711737935824814</v>
+        <v>48.71275518606825</v>
       </c>
       <c r="B250" s="0">
-        <v>2.2031653812311336</v>
+        <v>2.2002489530914882</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.711381836992629</v>
+        <v>48.71285893299936</v>
       </c>
       <c r="B251" s="0">
-        <v>2.2038743515836616</v>
+        <v>2.2001488384419616</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.711678551436378</v>
+        <v>48.712864999343552</v>
       </c>
       <c r="B252" s="0">
-        <v>2.2032645592929874</v>
+        <v>2.20010545842469</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.711952371019351</v>
+        <v>48.712836267361723</v>
       </c>
       <c r="B253" s="0">
-        <v>2.2026971690257193</v>
+        <v>2.2000899357023789</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.711759446166333</v>
+        <v>48.712824748013581</v>
       </c>
       <c r="B254" s="0">
-        <v>2.203090848502669</v>
+        <v>2.2000782640382965</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.711867517361441</v>
+        <v>48.712876491341277</v>
       </c>
       <c r="B255" s="0">
-        <v>2.2028587445864276</v>
+        <v>2.2000431501265028</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.711759614351699</v>
+        <v>48.712856622375384</v>
       </c>
       <c r="B256" s="0">
-        <v>2.2030870021211166</v>
+        <v>2.2000660491793709</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.711936952766052</v>
+        <v>48.712896530565523</v>
       </c>
       <c r="B257" s="0">
-        <v>2.202730037438835</v>
+        <v>2.2000359682075969</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.712079617653103</v>
+        <v>48.712916547408192</v>
       </c>
       <c r="B258" s="0">
-        <v>2.202434533778054</v>
+        <v>2.2000063258556932</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.712002695185326</v>
+        <v>48.712912471017681</v>
       </c>
       <c r="B259" s="0">
-        <v>2.2025903879981121</v>
+        <v>2.2000144445127785</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.712010226588447</v>
+        <v>48.712915596018071</v>
       </c>
       <c r="B260" s="0">
-        <v>2.2025832742922695</v>
+        <v>2.2000164233321966</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.712029010976373</v>
+        <v>48.71292000086838</v>
       </c>
       <c r="B261" s="0">
-        <v>2.202531884771437</v>
+        <v>2.2000477059245767</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.712190601682742</v>
+        <v>48.712940335280699</v>
       </c>
       <c r="B262" s="0">
-        <v>2.2021854099224907</v>
+        <v>2.2000542710458926</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.712125531706427</v>
+        <v>48.712937472455138</v>
       </c>
       <c r="B263" s="0">
-        <v>2.2023342104236643</v>
+        <v>2.2000760888586948</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.71224516223112</v>
+        <v>48.71292596413042</v>
       </c>
       <c r="B264" s="0">
-        <v>2.2020760601715654</v>
+        <v>2.2001042788290945</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.712537952447526</v>
+        <v>48.712932306877342</v>
       </c>
       <c r="B265" s="0">
-        <v>2.2014637134194821</v>
+        <v>2.200115966532544</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.712571590062289</v>
+        <v>48.71294206352961</v>
       </c>
       <c r="B266" s="0">
-        <v>2.2013775749194275</v>
+        <v>2.2001036421970146</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.712467995955272</v>
+        <v>48.712940581938597</v>
       </c>
       <c r="B267" s="0">
-        <v>2.2015873609883001</v>
+        <v>2.2001081604880532</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.712571864894386</v>
+        <v>48.712943410249494</v>
       </c>
       <c r="B268" s="0">
-        <v>2.2013635691944011</v>
+        <v>2.2001134091171459</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.712820310739758</v>
+        <v>48.712954209257738</v>
       </c>
       <c r="B269" s="0">
-        <v>2.200837494399003</v>
+        <v>2.2001301495469101</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.712825330457356</v>
+        <v>48.712961910038693</v>
       </c>
       <c r="B270" s="0">
-        <v>2.2008573258025783</v>
+        <v>2.2001466927943936</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.712897849075773</v>
+        <v>48.712997074315197</v>
       </c>
       <c r="B271" s="0">
-        <v>2.2007069155299952</v>
+        <v>2.2002076175418512</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.712885736234718</v>
+        <v>48.712993823536316</v>
       </c>
       <c r="B272" s="0">
-        <v>2.2007205112656347</v>
+        <v>2.2002019456146171</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.713005383718482</v>
+        <v>48.71299506842616</v>
       </c>
       <c r="B273" s="0">
-        <v>2.2004692058046214</v>
+        <v>2.2002026068385865</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.713055443284233</v>
+        <v>48.712972240067828</v>
       </c>
       <c r="B274" s="0">
-        <v>2.2003556027522659</v>
+        <v>2.2001403388947014</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.712866174489662</v>
+        <v>48.712988221389246</v>
       </c>
       <c r="B275" s="0">
-        <v>2.2007525888491997</v>
+        <v>2.2001770775504848</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.712997033991662</v>
+        <v>48.712982435546159</v>
       </c>
       <c r="B276" s="0">
-        <v>2.2004809449132021</v>
+        <v>2.2001703969430979</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.712954006502265</v>
+        <v>48.712961464765677</v>
       </c>
       <c r="B277" s="0">
-        <v>2.2005888567620873</v>
+        <v>2.2001340995820731</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.712961122802035</v>
+        <v>48.712955864639284</v>
       </c>
       <c r="B278" s="0">
-        <v>2.2005861713443338</v>
+        <v>2.2001275270462033</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.71298679656708</v>
+        <v>48.712953345871284</v>
       </c>
       <c r="B279" s="0">
-        <v>2.2005163551866436</v>
+        <v>2.2001249809243975</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.712905631045345</v>
+        <v>48.712950468248117</v>
       </c>
       <c r="B280" s="0">
-        <v>2.2006854027641567</v>
+        <v>2.2001276134029046</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.712961810374637</v>
+        <v>48.712966758774428</v>
       </c>
       <c r="B281" s="0">
-        <v>2.2005755303610433</v>
+        <v>2.200165576660861</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.712910436596935</v>
+        <v>48.712965958681231</v>
       </c>
       <c r="B282" s="0">
-        <v>2.200692604222176</v>
+        <v>2.2001665722809816</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.712883512162321</v>
+        <v>48.712962667452764</v>
       </c>
       <c r="B283" s="0">
-        <v>2.2007600591805083</v>
+        <v>2.2001548774901503</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.712902013351837</v>
+        <v>48.712959024284203</v>
       </c>
       <c r="B284" s="0">
-        <v>2.2007216939509888</v>
+        <v>2.2001617342778537</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.712927340527806</v>
+        <v>48.712958381640526</v>
       </c>
       <c r="B285" s="0">
-        <v>2.2006532499601916</v>
+        <v>2.200166056254647</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.7128943848913</v>
+        <v>48.712939688640383</v>
       </c>
       <c r="B286" s="0">
-        <v>2.2007411430931523</v>
+        <v>2.2001430073506949</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.712882020758137</v>
+        <v>48.712928048316798</v>
       </c>
       <c r="B287" s="0">
-        <v>2.2007665582542337</v>
+        <v>2.200140050187867</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.712845667719307</v>
+        <v>48.712886007677</v>
       </c>
       <c r="B288" s="0">
-        <v>2.2008387572529946</v>
+        <v>2.2000939721323447</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.712824776207768</v>
+        <v>48.712795756253314</v>
       </c>
       <c r="B289" s="0">
-        <v>2.200878789475472</v>
+        <v>2.2000622245197574</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.712829684066975</v>
+        <v>48.712820386709368</v>
       </c>
       <c r="B290" s="0">
-        <v>2.2008717012911205</v>
+        <v>2.2000786989670438</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.71283669846062</v>
+        <v>48.712794682531232</v>
       </c>
       <c r="B291" s="0">
-        <v>2.2008535518518082</v>
+        <v>2.2000481984507698</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.712830773826589</v>
+        <v>48.712799151358169</v>
       </c>
       <c r="B292" s="0">
-        <v>2.2008516253440917</v>
+        <v>2.1999956968850083</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.712805274706895</v>
+        <v>48.712802214397747</v>
       </c>
       <c r="B293" s="0">
-        <v>2.2009180050507502</v>
+        <v>2.2000286106980385</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.712802944936982</v>
+        <v>48.712804547182188</v>
       </c>
       <c r="B294" s="0">
-        <v>2.2009222676260691</v>
+        <v>2.2000069833476554</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.712569086539546</v>
+        <v>48.712806864842094</v>
       </c>
       <c r="B295" s="0">
-        <v>2.201411403276718</v>
+        <v>2.200012132037386</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.712478239109331</v>
+        <v>48.712790588349691</v>
       </c>
       <c r="B296" s="0">
-        <v>2.2015920256041466</v>
+        <v>2.2000082573237694</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.712406501880985</v>
+        <v>48.712795302307271</v>
       </c>
       <c r="B297" s="0">
-        <v>2.2017506869146728</v>
+        <v>2.2000405213873835</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.712130046817272</v>
+        <v>48.712804029089256</v>
       </c>
       <c r="B298" s="0">
-        <v>2.2023216522443385</v>
+        <v>2.2000076958006289</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.712222752527787</v>
+        <v>48.712776280587534</v>
       </c>
       <c r="B299" s="0">
-        <v>2.2021414781546751</v>
+        <v>2.1999917963487801</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.71210597641528</v>
+        <v>48.712794941926553</v>
       </c>
       <c r="B300" s="0">
-        <v>2.202371222663988</v>
+        <v>2.1999936405205132</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.711833800281056</v>
+        <v>48.712783347863002</v>
       </c>
       <c r="B301" s="0">
-        <v>2.2029385033000217</v>
+        <v>2.1999322152700382</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.711833800281056</v>
+        <v>48.712802953168442</v>
       </c>
       <c r="B302" s="0">
-        <v>2.2029385033000217</v>
+        <v>2.1999126134445231</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.711745364005338</v>
+        <v>48.712830542059187</v>
       </c>
       <c r="B303" s="0">
-        <v>2.2031120238908302</v>
+        <v>2.1999275234506124</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.711741811881758</v>
+        <v>48.712847413201502</v>
       </c>
       <c r="B304" s="0">
-        <v>2.2031131608538219</v>
+        <v>2.199938524514351</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.711909923999961</v>
+        <v>48.712855298752437</v>
       </c>
       <c r="B305" s="0">
-        <v>2.2027834831406645</v>
+        <v>2.1999671982287508</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.711889209125459</v>
+        <v>48.712892863265544</v>
       </c>
       <c r="B306" s="0">
-        <v>2.2028076392609251</v>
+        <v>2.2000467161776971</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.711889209125459</v>
+        <v>48.712932313337611</v>
       </c>
       <c r="B307" s="0">
-        <v>2.2028076392609251</v>
+        <v>2.2000684370642878</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.71185623095765</v>
+        <v>48.712949765085078</v>
       </c>
       <c r="B308" s="0">
-        <v>2.2028868455844717</v>
+        <v>2.2000931889559672</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.711990117478948</v>
+        <v>48.712973946901904</v>
       </c>
       <c r="B309" s="0">
-        <v>2.2026194851861707</v>
+        <v>2.2000967750985811</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.712039331913147</v>
+        <v>48.712989313244172</v>
       </c>
       <c r="B310" s="0">
-        <v>2.2025058651540785</v>
+        <v>2.2001174167349174</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.712295451557111</v>
+        <v>48.712998802815378</v>
       </c>
       <c r="B311" s="0">
-        <v>2.2019907804447891</v>
+        <v>2.2001373434927833</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.712070585198639</v>
+        <v>48.713017378191779</v>
       </c>
       <c r="B312" s="0">
-        <v>2.2024390027982896</v>
+        <v>2.2001219540144112</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.712053319551984</v>
+        <v>48.713028137624249</v>
       </c>
       <c r="B313" s="0">
-        <v>2.202468631714027</v>
+        <v>2.2001011112664335</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.711979998462567</v>
+        <v>48.713049803421278</v>
       </c>
       <c r="B314" s="0">
-        <v>2.2026111255198022</v>
+        <v>2.2000782988439536</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.712423109083908</v>
+        <v>48.713060397408</v>
       </c>
       <c r="B315" s="0">
-        <v>2.2016862586016095</v>
+        <v>2.2000514772466668</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.712640573852013</v>
+        <v>48.713107206466873</v>
       </c>
       <c r="B316" s="0">
-        <v>2.2012538207686689</v>
+        <v>2.2000680761218261</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.712861614390796</v>
+        <v>48.713120343783807</v>
       </c>
       <c r="B317" s="0">
-        <v>2.2007968600234866</v>
+        <v>2.2000786651050204</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.712768723851298</v>
+        <v>48.713137423463948</v>
       </c>
       <c r="B318" s="0">
-        <v>2.2009808278494711</v>
+        <v>2.200079626501199</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.712569168396883</v>
+        <v>48.713122966657998</v>
       </c>
       <c r="B319" s="0">
-        <v>2.2013743521384903</v>
+        <v>2.2000713786882522</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.712895540027297</v>
+        <v>48.713070594905986</v>
       </c>
       <c r="B320" s="0">
-        <v>2.2006998368474817</v>
+        <v>2.2001474713662819</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.712961725902723</v>
+        <v>48.713048798754407</v>
       </c>
       <c r="B321" s="0">
-        <v>2.2005673387912119</v>
+        <v>2.2001644963815687</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.712706538527492</v>
+        <v>48.713050731398482</v>
       </c>
       <c r="B322" s="0">
-        <v>2.2010884841154819</v>
+        <v>2.2001679371062064</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.712703642829332</v>
+        <v>48.713046031461857</v>
       </c>
       <c r="B323" s="0">
-        <v>2.2011097997192115</v>
+        <v>2.2001702182242156</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.712687616680192</v>
+        <v>48.713056981735178</v>
       </c>
       <c r="B324" s="0">
-        <v>2.2011376236713427</v>
+        <v>2.2001674077611639</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.712647523694145</v>
+        <v>48.713043438811098</v>
       </c>
       <c r="B325" s="0">
-        <v>2.2012180191833188</v>
+        <v>2.2001868452925857</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.712720530134185</v>
+        <v>48.713036498711674</v>
       </c>
       <c r="B326" s="0">
-        <v>2.2010677579939642</v>
+        <v>2.2001817004643933</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.712876770193255</v>
+        <v>48.712998209630491</v>
       </c>
       <c r="B327" s="0">
-        <v>2.200723541348721</v>
+        <v>2.2001825284850134</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.71273989092348</v>
+        <v>48.712985556079062</v>
       </c>
       <c r="B328" s="0">
-        <v>2.2010318516793075</v>
+        <v>2.2001639800661099</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.712904786809041</v>
+        <v>48.712961224680157</v>
       </c>
       <c r="B329" s="0">
-        <v>2.2006887450656443</v>
+        <v>2.2001576320796694</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.712950051858783</v>
+        <v>48.712942019617387</v>
       </c>
       <c r="B330" s="0">
-        <v>2.2006050340515455</v>
+        <v>2.2001200782195936</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.712942632528723</v>
+        <v>48.712911203343062</v>
       </c>
       <c r="B331" s="0">
-        <v>2.2006317093487651</v>
+        <v>2.200134514209668</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.712971160533087</v>
+        <v>48.712932132574224</v>
       </c>
       <c r="B332" s="0">
-        <v>2.2005737935287715</v>
+        <v>2.2001138582650928</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.712908152609231</v>
+        <v>48.712918569915594</v>
       </c>
       <c r="B333" s="0">
-        <v>2.2006957333350945</v>
+        <v>2.2001544214625177</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.712895400101722</v>
+        <v>48.71291637617184</v>
       </c>
       <c r="B334" s="0">
-        <v>2.200715336583928</v>
+        <v>2.200159061362355</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.712913906170101</v>
+        <v>48.712954795572905</v>
       </c>
       <c r="B335" s="0">
-        <v>2.2006976032875203</v>
+        <v>2.200153976465105</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.712886601770805</v>
+        <v>48.712946710841656</v>
       </c>
       <c r="B336" s="0">
-        <v>2.2007328136378779</v>
+        <v>2.20021862647934</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.71287544580283</v>
+        <v>48.712958979404</v>
       </c>
       <c r="B337" s="0">
-        <v>2.2007663967026536</v>
+        <v>2.2002494350571538</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.712854600599272</v>
+        <v>48.712927689484907</v>
       </c>
       <c r="B338" s="0">
-        <v>2.2008077157001709</v>
+        <v>2.200301421581738</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.712860684309575</v>
+        <v>48.712898564967475</v>
       </c>
       <c r="B339" s="0">
-        <v>2.200808816384463</v>
+        <v>2.2002962217086362</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.712856347356222</v>
+        <v>48.712926806672058</v>
       </c>
       <c r="B340" s="0">
-        <v>2.2007987480160498</v>
+        <v>2.2003073011413723</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.712840722720387</v>
+        <v>48.712977440603972</v>
       </c>
       <c r="B341" s="0">
-        <v>2.2008355848835843</v>
+        <v>2.2002887601829162</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.71284631620194</v>
+        <v>48.713019956378375</v>
       </c>
       <c r="B342" s="0">
-        <v>2.2008251236631939</v>
+        <v>2.2002974081330864</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.712834906648261</v>
+        <v>48.713027016787279</v>
       </c>
       <c r="B343" s="0">
-        <v>2.2008514715000547</v>
+        <v>2.2002868964236444</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.712845408641329</v>
+        <v>48.713017181619783</v>
       </c>
       <c r="B344" s="0">
-        <v>2.2008303552822701</v>
+        <v>2.2003228376356248</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.712824745873441</v>
+        <v>48.713003326389071</v>
       </c>
       <c r="B345" s="0">
-        <v>2.2008908187730594</v>
+        <v>2.2003682879286743</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.712835345289676</v>
+        <v>48.713024737055918</v>
       </c>
       <c r="B346" s="0">
-        <v>2.2008562258908508</v>
+        <v>2.2003690454745719</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.712766754855153</v>
+        <v>48.712993774414585</v>
       </c>
       <c r="B347" s="0">
-        <v>2.2010100590878832</v>
+        <v>2.2004136213718768</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.71270406110758</v>
+        <v>48.712995856480426</v>
       </c>
       <c r="B348" s="0">
-        <v>2.2011335053713363</v>
+        <v>2.2004605046117747</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.712523492896686</v>
+        <v>48.713008668495149</v>
       </c>
       <c r="B349" s="0">
-        <v>2.2015075201970764</v>
+        <v>2.200453308508735</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.71231812042911</v>
+        <v>48.713022128020874</v>
       </c>
       <c r="B350" s="0">
-        <v>2.2019234903227201</v>
+        <v>2.2004869222969727</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.711900392245468</v>
+        <v>48.713029627097079</v>
       </c>
       <c r="B351" s="0">
-        <v>2.2028087189870513</v>
+        <v>2.2005073361110776</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.711952706741251</v>
+        <v>48.71303096270541</v>
       </c>
       <c r="B352" s="0">
-        <v>2.2026923005016892</v>
+        <v>2.2005503606626018</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.711728869116726</v>
+        <v>48.71305389747193</v>
       </c>
       <c r="B353" s="0">
-        <v>2.203162143913429</v>
+        <v>2.2005915888161725</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.711822424510125</v>
+        <v>48.713057068412304</v>
       </c>
       <c r="B354" s="0">
-        <v>2.2029574931117098</v>
+        <v>2.2005980299472081</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.711892216820679</v>
+        <v>48.713065585721005</v>
       </c>
       <c r="B355" s="0">
-        <v>2.2028199110696138</v>
+        <v>2.2005582435895086</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.711736208790441</v>
+        <v>48.713107516853043</v>
       </c>
       <c r="B356" s="0">
-        <v>2.2031411906656024</v>
+        <v>2.2005722953653373</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.71164709510186</v>
+        <v>48.713096499185944</v>
       </c>
       <c r="B357" s="0">
-        <v>2.2033174040551096</v>
+        <v>2.200596212577659</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.711531594491362</v>
+        <v>48.71309277092903</v>
       </c>
       <c r="B358" s="0">
-        <v>2.2035650071302295</v>
+        <v>2.2006180092539842</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.711786219456549</v>
+        <v>48.713079330882842</v>
       </c>
       <c r="B359" s="0">
-        <v>2.2030298141184343</v>
+        <v>2.2006582638165551</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.712013347515416</v>
+        <v>48.71304482090293</v>
       </c>
       <c r="B360" s="0">
-        <v>2.2025641683001083</v>
+        <v>2.2006339477342585</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.71195391898177</v>
+        <v>48.712977626545744</v>
       </c>
       <c r="B361" s="0">
-        <v>2.2026973366328786</v>
+        <v>2.2005513868415707</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.712169304895305</v>
+        <v>48.712966123210826</v>
       </c>
       <c r="B362" s="0">
-        <v>2.2022380784456561</v>
+        <v>2.2005507574070444</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.711990260103086</v>
+        <v>48.712955355510346</v>
       </c>
       <c r="B363" s="0">
-        <v>2.2026208045569589</v>
+        <v>2.2005852801969321</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.711980169572364</v>
+        <v>48.712969773464444</v>
       </c>
       <c r="B364" s="0">
-        <v>2.2026208340122677</v>
+        <v>2.2005870863448998</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.712254035155382</v>
+        <v>48.712992562353399</v>
       </c>
       <c r="B365" s="0">
-        <v>2.2020728148514408</v>
+        <v>2.2005700115547229</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.712121408107727</v>
+        <v>48.713030739043433</v>
       </c>
       <c r="B366" s="0">
-        <v>2.2023444577499998</v>
+        <v>2.2005224030224042</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.712125162894765</v>
+        <v>48.713038324009318</v>
       </c>
       <c r="B367" s="0">
-        <v>2.2023187919048612</v>
+        <v>2.2004869367243254</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.712378910413037</v>
+        <v>48.713027712705809</v>
       </c>
       <c r="B368" s="0">
-        <v>2.2017917381870862</v>
+        <v>2.2004167338058371</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.712768836024843</v>
+        <v>48.712998421892699</v>
       </c>
       <c r="B369" s="0">
-        <v>2.2009797594100213</v>
+        <v>2.2003659719094326</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.712745773495378</v>
+        <v>48.713008109451124</v>
       </c>
       <c r="B370" s="0">
-        <v>2.2010200800390125</v>
+        <v>2.2003073495915921</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.71251292720121</v>
+        <v>48.712984955679204</v>
       </c>
       <c r="B371" s="0">
-        <v>2.2014911638588019</v>
+        <v>2.2002900169671267</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.712691623921685</v>
+        <v>48.712976075423853</v>
       </c>
       <c r="B372" s="0">
-        <v>2.2011531975887393</v>
+        <v>2.2002607599018522</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.712831717562388</v>
+        <v>48.7129776008316</v>
       </c>
       <c r="B373" s="0">
-        <v>2.2008652338660029</v>
+        <v>2.200257905596732</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.712720054087839</v>
+        <v>48.712959177624391</v>
       </c>
       <c r="B374" s="0">
-        <v>2.2010284012186729</v>
+        <v>2.2002430056657238</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.712663486578592</v>
+        <v>48.712980939656568</v>
       </c>
       <c r="B375" s="0">
-        <v>2.2011498372934208</v>
+        <v>2.2002087240603938</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.712417623000341</v>
+        <v>48.712960021478338</v>
       </c>
       <c r="B376" s="0">
-        <v>2.2017656876619278</v>
+        <v>2.2001772799680142</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.712742521637715</v>
+        <v>48.712950200929001</v>
       </c>
       <c r="B377" s="0">
-        <v>2.2010132112949141</v>
+        <v>2.2001481161355376</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.712790503212069</v>
+        <v>48.712950445429222</v>
       </c>
       <c r="B378" s="0">
-        <v>2.2009118798152718</v>
+        <v>2.2001291786465047</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.712862711258417</v>
+        <v>48.712928370722729</v>
       </c>
       <c r="B379" s="0">
-        <v>2.2007940768713121</v>
+        <v>2.2001293818038961</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.712878304308603</v>
+        <v>48.712898240027279</v>
       </c>
       <c r="B380" s="0">
-        <v>2.2007032509189712</v>
+        <v>2.2001019026456685</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.712722172512009</v>
+        <v>48.712898337924514</v>
       </c>
       <c r="B381" s="0">
-        <v>2.2011218118243052</v>
+        <v>2.2001265932213849</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.71285677349654</v>
+        <v>48.712947868356956</v>
       </c>
       <c r="B382" s="0">
-        <v>2.2008058799751264</v>
+        <v>2.2001908477181562</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.712907400183568</v>
+        <v>48.712946563767296</v>
       </c>
       <c r="B383" s="0">
-        <v>2.2006978766034058</v>
+        <v>2.2002398007684576</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.712912841675625</v>
+        <v>48.712938179946754</v>
       </c>
       <c r="B384" s="0">
-        <v>2.2006961999277559</v>
+        <v>2.2002933678360099</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.712929921840932</v>
+        <v>48.712900501719211</v>
       </c>
       <c r="B385" s="0">
-        <v>2.2006568352334717</v>
+        <v>2.2003300388611922</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>48.712867702335288</v>
+        <v>48.712847106832953</v>
       </c>
       <c r="B386" s="0">
-        <v>2.2007594482803712</v>
+        <v>2.2003914835087515</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>48.712880767546594</v>
+        <v>48.712826685025</v>
       </c>
       <c r="B387" s="0">
-        <v>2.2007492583939126</v>
+        <v>2.2004107449467485</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>48.712901818836933</v>
+        <v>48.712831248063012</v>
       </c>
       <c r="B388" s="0">
-        <v>2.2007127584301616</v>
+        <v>2.200434326973395</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>48.712888893061184</v>
+        <v>48.712802274844201</v>
       </c>
       <c r="B389" s="0">
-        <v>2.20073658616493</v>
+        <v>2.2004380659713827</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>48.712889648966275</v>
+        <v>48.712784914686317</v>
       </c>
       <c r="B390" s="0">
-        <v>2.200739165758157</v>
+        <v>2.2004487993003807</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>48.712870940165189</v>
+        <v>48.712732339024306</v>
       </c>
       <c r="B391" s="0">
-        <v>2.2007715166527984</v>
+        <v>2.2004675775480127</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>48.712872668528291</v>
+        <v>48.712749561455809</v>
       </c>
       <c r="B392" s="0">
-        <v>2.2007891289023514</v>
+        <v>2.2005103852490082</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>48.71287254439833</v>
+        <v>48.712729405700863</v>
       </c>
       <c r="B393" s="0">
-        <v>2.2007821713044415</v>
+        <v>2.2005192268352456</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>48.712853317339324</v>
+        <v>48.712712508059219</v>
       </c>
       <c r="B394" s="0">
-        <v>2.200807434422384</v>
+        <v>2.2004888911859331</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>48.712847653501669</v>
+        <v>48.712702726148479</v>
       </c>
       <c r="B395" s="0">
-        <v>2.2008229889192052</v>
+        <v>2.2004641474395603</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>48.712835957495471</v>
+        <v>48.712729864296883</v>
       </c>
       <c r="B396" s="0">
-        <v>2.2008423336157681</v>
+        <v>2.2004319970646447</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>48.712837413580786</v>
+        <v>48.712740394686122</v>
       </c>
       <c r="B397" s="0">
-        <v>2.2008389138341649</v>
+        <v>2.200396204000334</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>48.712812089224734</v>
+        <v>48.712723164148073</v>
       </c>
       <c r="B398" s="0">
-        <v>2.2009039381854993</v>
+        <v>2.2003416016104014</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>48.712814279238458</v>
+        <v>48.712709897811578</v>
       </c>
       <c r="B399" s="0">
-        <v>2.2008991863583982</v>
+        <v>2.2002948189061584</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>48.712716578871422</v>
+        <v>48.712686624238032</v>
       </c>
       <c r="B400" s="0">
-        <v>2.2010956748665942</v>
+        <v>2.2002411787537879</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>48.712618416964041</v>
+        <v>48.712775995829993</v>
       </c>
       <c r="B401" s="0">
-        <v>2.2012975568456383</v>
+        <v>2.2002375806652115</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>48.712180083993907</v>
+        <v>48.712770360438526</v>
       </c>
       <c r="B402" s="0">
-        <v>2.2022198399846</v>
+        <v>2.2002392012649823</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>48.712298042393456</v>
+        <v>48.712764744804552</v>
       </c>
       <c r="B403" s="0">
-        <v>2.2019852539695326</v>
+        <v>2.2002445037823222</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>48.712071493903991</v>
+        <v>48.712728393095098</v>
       </c>
       <c r="B404" s="0">
-        <v>2.2024623327414092</v>
+        <v>2.2002050669575302</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>48.711888903050443</v>
+        <v>48.712722988944471</v>
       </c>
       <c r="B405" s="0">
-        <v>2.2028389945758749</v>
+        <v>2.2001955084939402</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>48.711842683155929</v>
+        <v>48.712749064653018</v>
       </c>
       <c r="B406" s="0">
-        <v>2.2029341669646643</v>
+        <v>2.2002247429467019</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>48.712023912404923</v>
+        <v>48.712795181965412</v>
       </c>
       <c r="B407" s="0">
-        <v>2.2025545568311968</v>
+        <v>2.2002260242697735</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>48.712101331918198</v>
+        <v>48.712867921555272</v>
       </c>
       <c r="B408" s="0">
-        <v>2.202391675696818</v>
+        <v>2.2002991704534507</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>48.711876840756808</v>
+        <v>48.712903944716409</v>
       </c>
       <c r="B409" s="0">
-        <v>2.2028683497734067</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="0">
-        <v>48.711726346228325</v>
-      </c>
-      <c r="B410" s="0">
-        <v>2.2031807845455291</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="0">
-        <v>48.711601752013053</v>
-      </c>
-      <c r="B411" s="0">
-        <v>2.2034264028352708</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="0">
-        <v>48.711832376201251</v>
-      </c>
-      <c r="B412" s="0">
-        <v>2.2029290019501531</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="0">
-        <v>48.711901574822171</v>
-      </c>
-      <c r="B413" s="0">
-        <v>2.2027950510278678</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="0">
-        <v>48.711927574268856</v>
-      </c>
-      <c r="B414" s="0">
-        <v>2.2027549589079283</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="0">
-        <v>48.712106760561163</v>
-      </c>
-      <c r="B415" s="0">
-        <v>2.2023700658245602</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="0">
-        <v>48.712049327705707</v>
-      </c>
-      <c r="B416" s="0">
-        <v>2.2025002472137438</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="0">
-        <v>48.711950511462796</v>
-      </c>
-      <c r="B417" s="0">
-        <v>2.2027147680538306</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="0">
-        <v>48.712085904532579</v>
-      </c>
-      <c r="B418" s="0">
-        <v>2.2024231716909681</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="0">
-        <v>48.712022234193839</v>
-      </c>
-      <c r="B419" s="0">
-        <v>2.2025475435998203</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="0">
-        <v>48.711877474604954</v>
-      </c>
-      <c r="B420" s="0">
-        <v>2.2028391019837028</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="0">
-        <v>48.712397255978431</v>
-      </c>
-      <c r="B421" s="0">
-        <v>2.2017364795349375</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="0">
-        <v>48.712492528664264</v>
-      </c>
-      <c r="B422" s="0">
-        <v>2.2015247305742891</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="0">
-        <v>48.712598147762783</v>
-      </c>
-      <c r="B423" s="0">
-        <v>2.2013044392147148</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="0">
-        <v>48.712567073556365</v>
-      </c>
-      <c r="B424" s="0">
-        <v>2.2013736928277572</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="0">
-        <v>48.712909918856468</v>
-      </c>
-      <c r="B425" s="0">
-        <v>2.2006366609017314</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="0">
-        <v>48.712866697723619</v>
-      </c>
-      <c r="B426" s="0">
-        <v>2.2007880798835529</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="0">
-        <v>48.712874952921084</v>
-      </c>
-      <c r="B427" s="0">
-        <v>2.2007034019984135</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="0">
-        <v>48.712797822207172</v>
-      </c>
-      <c r="B428" s="0">
-        <v>2.2008605127711367</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="0">
-        <v>48.712907314397697</v>
-      </c>
-      <c r="B429" s="0">
-        <v>2.2006504979986508</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="0">
-        <v>48.712817648122957</v>
-      </c>
-      <c r="B430" s="0">
-        <v>2.2008674511438131</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="0">
-        <v>48.712998826745448</v>
-      </c>
-      <c r="B431" s="0">
-        <v>2.200434254045962</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="0">
-        <v>48.712998826745448</v>
-      </c>
-      <c r="B432" s="0">
-        <v>2.200434254045962</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="0">
-        <v>48.713251571254539</v>
-      </c>
-      <c r="B433" s="0">
-        <v>2.1998135739216007</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="0">
-        <v>48.713040158536359</v>
-      </c>
-      <c r="B434" s="0">
-        <v>2.2004259195513254</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="0">
-        <v>48.713110954961891</v>
-      </c>
-      <c r="B435" s="0">
-        <v>2.2002121848806571</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="0">
-        <v>48.712829903767691</v>
-      </c>
-      <c r="B436" s="0">
-        <v>2.2008499512864801</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="0">
-        <v>48.712837024047786</v>
-      </c>
-      <c r="B437" s="0">
-        <v>2.2008686350382902</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="0">
-        <v>48.713006789361643</v>
-      </c>
-      <c r="B438" s="0">
-        <v>2.2005099444611997</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="0">
-        <v>48.712917064552691</v>
-      </c>
-      <c r="B439" s="0">
-        <v>2.2006868628269425</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="0">
-        <v>48.712842814631308</v>
-      </c>
-      <c r="B440" s="0">
-        <v>2.2008422472857983</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="0">
-        <v>48.71289730020375</v>
-      </c>
-      <c r="B441" s="0">
-        <v>2.2007136267997085</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="0">
-        <v>48.712883486004436</v>
-      </c>
-      <c r="B442" s="0">
-        <v>2.2007659494620651</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="0">
-        <v>48.71286914889204</v>
-      </c>
-      <c r="B443" s="0">
-        <v>2.2007824105984151</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="0">
-        <v>48.712880661461817</v>
-      </c>
-      <c r="B444" s="0">
-        <v>2.2007595456343463</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="0">
-        <v>48.712845379927259</v>
-      </c>
-      <c r="B445" s="0">
-        <v>2.2008315607661824</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="0">
-        <v>48.712845077005362</v>
-      </c>
-      <c r="B446" s="0">
-        <v>2.2008370324033897</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="0">
-        <v>48.712830597987107</v>
-      </c>
-      <c r="B447" s="0">
-        <v>2.2008522062448335</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="0">
-        <v>48.712823719361459</v>
-      </c>
-      <c r="B448" s="0">
-        <v>2.2008791650815831</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="0">
-        <v>48.712844796242763</v>
-      </c>
-      <c r="B449" s="0">
-        <v>2.2008552336358211</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="0">
-        <v>48.712820245179572</v>
-      </c>
-      <c r="B450" s="0">
-        <v>2.2008990892669309</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="0">
-        <v>48.712794728204607</v>
-      </c>
-      <c r="B451" s="0">
-        <v>2.2009537283055676</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="0">
-        <v>48.712793674031218</v>
-      </c>
-      <c r="B452" s="0">
-        <v>2.2009521456888432</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="0">
-        <v>48.712747493003263</v>
-      </c>
-      <c r="B453" s="0">
-        <v>2.2010570394571154</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="0">
-        <v>48.712638405628233</v>
-      </c>
-      <c r="B454" s="0">
-        <v>2.2012884489060451</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="0">
-        <v>48.712303942016824</v>
-      </c>
-      <c r="B455" s="0">
-        <v>2.2019748006984457</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="0">
-        <v>48.712570119624949</v>
-      </c>
-      <c r="B456" s="0">
-        <v>2.2014133344502591</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="0">
-        <v>48.711977005189681</v>
-      </c>
-      <c r="B457" s="0">
-        <v>2.2026699706719093</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="0">
-        <v>48.712139442653012</v>
-      </c>
-      <c r="B458" s="0">
-        <v>2.2023394730116435</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="0">
-        <v>48.711573985620987</v>
-      </c>
-      <c r="B459" s="0">
-        <v>2.2035254939761133</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="0">
-        <v>48.711640934960698</v>
-      </c>
-      <c r="B460" s="0">
-        <v>2.2033610924510327</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="0">
-        <v>48.711783062335428</v>
-      </c>
-      <c r="B461" s="0">
-        <v>2.2030565849473223</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="0">
-        <v>48.711737926875124</v>
-      </c>
-      <c r="B462" s="0">
-        <v>2.203166293214982</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="0">
-        <v>48.711831603984521</v>
-      </c>
-      <c r="B463" s="0">
-        <v>2.2029579526727772</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="0">
-        <v>48.711597518795273</v>
-      </c>
-      <c r="B464" s="0">
-        <v>2.203433234663903</v>
+        <v>2.2002834048605258</v>
       </c>
     </row>
   </sheetData>

--- a/CalculePos_quasi_RTK/PosWGS84_code.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_code.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65,3274 +65,3962 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.713013206816868</v>
+        <v>48.712686557206624</v>
       </c>
       <c r="B1" s="0">
-        <v>2.2000280214173609</v>
+        <v>2.2009344645771445</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.713029113174485</v>
+        <v>48.712689948471102</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2000456980346086</v>
+        <v>2.2009290738129814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.71304700681609</v>
+        <v>48.712674223409572</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2001339036843577</v>
+        <v>2.2009292027164373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.713082592374086</v>
+        <v>48.712666929193645</v>
       </c>
       <c r="B4" s="0">
-        <v>2.2001515668241285</v>
+        <v>2.2009248047618772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.713061007413756</v>
+        <v>48.712647294614712</v>
       </c>
       <c r="B5" s="0">
-        <v>2.2001264128374318</v>
+        <v>2.2009247218058405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.713067354049294</v>
+        <v>48.712635527926338</v>
       </c>
       <c r="B6" s="0">
-        <v>2.2001859882568957</v>
+        <v>2.2009276823608328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.713057542440026</v>
+        <v>48.712630476344117</v>
       </c>
       <c r="B7" s="0">
-        <v>2.2001864405724456</v>
+        <v>2.2009264604795127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.713029555737535</v>
+        <v>48.71262579156263</v>
       </c>
       <c r="B8" s="0">
-        <v>2.2002432125661722</v>
+        <v>2.2009229053809358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.71302140197124</v>
+        <v>48.712611840128019</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2002963125266475</v>
+        <v>2.2009301795760052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.712995653196955</v>
+        <v>48.712608484869456</v>
       </c>
       <c r="B10" s="0">
-        <v>2.2002510584191359</v>
+        <v>2.2009319987269227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.713024503090068</v>
+        <v>48.712605046087646</v>
       </c>
       <c r="B11" s="0">
-        <v>2.2002123870614026</v>
+        <v>2.2009291553592738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.713024121229822</v>
+        <v>48.712599079975405</v>
       </c>
       <c r="B12" s="0">
-        <v>2.2002621077709246</v>
+        <v>2.2009254073219831</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.713050321404914</v>
+        <v>48.712602580384292</v>
       </c>
       <c r="B13" s="0">
-        <v>2.2003127395988624</v>
+        <v>2.2009179925339764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.713076013022402</v>
+        <v>48.712611265277701</v>
       </c>
       <c r="B14" s="0">
-        <v>2.2003583188716025</v>
+        <v>2.2009140223117716</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.713066313870307</v>
+        <v>48.712605562200494</v>
       </c>
       <c r="B15" s="0">
-        <v>2.2003547135585984</v>
+        <v>2.2009103286855409</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.713054559964476</v>
+        <v>48.712603705359783</v>
       </c>
       <c r="B16" s="0">
-        <v>2.200314757466304</v>
+        <v>2.200916688637109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.713025464838132</v>
+        <v>48.712609184107052</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2003743777784024</v>
+        <v>2.2009148100442002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.713049630398487</v>
+        <v>48.712600281043322</v>
       </c>
       <c r="B18" s="0">
-        <v>2.200453930878393</v>
+        <v>2.2009193450681091</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.713051571111102</v>
+        <v>48.712603635142379</v>
       </c>
       <c r="B19" s="0">
-        <v>2.2004239826935743</v>
+        <v>2.2009213907081398</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.713024676943</v>
+        <v>48.712603008139517</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2004412116031715</v>
+        <v>2.2009195642454387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.713042832666915</v>
+        <v>48.71260477694161</v>
       </c>
       <c r="B21" s="0">
-        <v>2.2004442957352923</v>
+        <v>2.2009195027507622</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.713069503290505</v>
+        <v>48.712612262611153</v>
       </c>
       <c r="B22" s="0">
-        <v>2.200418675423379</v>
+        <v>2.2009224537032037</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.713061603181501</v>
+        <v>48.712626361776778</v>
       </c>
       <c r="B23" s="0">
-        <v>2.2004315053360477</v>
+        <v>2.2009198300887221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.713090653979379</v>
+        <v>48.712621624528168</v>
       </c>
       <c r="B24" s="0">
-        <v>2.200437111309685</v>
+        <v>2.2009285302792314</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.713075413708175</v>
+        <v>48.712620953619954</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2004090787567998</v>
+        <v>2.2009370210796289</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.713058022050206</v>
+        <v>48.712635514574366</v>
       </c>
       <c r="B26" s="0">
-        <v>2.2003420709857564</v>
+        <v>2.2009459615620268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.713030562631246</v>
+        <v>48.712645139495571</v>
       </c>
       <c r="B27" s="0">
-        <v>2.2002735435236107</v>
+        <v>2.2009510013740066</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.713010396718438</v>
+        <v>48.712656905830215</v>
       </c>
       <c r="B28" s="0">
-        <v>2.200204413551019</v>
+        <v>2.2009571862921917</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.71296536468067</v>
+        <v>48.712676693527477</v>
       </c>
       <c r="B29" s="0">
-        <v>2.200129908157086</v>
+        <v>2.2009558115219359</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.712873792365116</v>
+        <v>48.712729917188689</v>
       </c>
       <c r="B30" s="0">
-        <v>2.2000028041507358</v>
+        <v>2.2009609829364911</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.7128518302437</v>
+        <v>48.712729917188689</v>
       </c>
       <c r="B31" s="0">
-        <v>2.1999530481440139</v>
+        <v>2.2009609829364911</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.712792104094227</v>
+        <v>48.712729917188689</v>
       </c>
       <c r="B32" s="0">
-        <v>2.1998954467343275</v>
+        <v>2.2009609829364911</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.712772338397464</v>
+        <v>48.712729917188689</v>
       </c>
       <c r="B33" s="0">
-        <v>2.1998592285778735</v>
+        <v>2.2009609829364911</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.712763618346109</v>
+        <v>48.712729917188689</v>
       </c>
       <c r="B34" s="0">
-        <v>2.199751218420773</v>
+        <v>2.2009609829364911</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.712702648999475</v>
+        <v>48.712729917188689</v>
       </c>
       <c r="B35" s="0">
-        <v>2.1996805272391531</v>
+        <v>2.2009609829364911</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.712685212492893</v>
+        <v>48.712729917188689</v>
       </c>
       <c r="B36" s="0">
-        <v>2.1997256623014221</v>
+        <v>2.2009609829364911</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.712699287799374</v>
+        <v>48.712729917188689</v>
       </c>
       <c r="B37" s="0">
-        <v>2.1998367287918534</v>
+        <v>2.2009609829364911</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.712732504064142</v>
+        <v>48.712729917188689</v>
       </c>
       <c r="B38" s="0">
-        <v>2.1998852036811769</v>
+        <v>2.2009609829364911</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.71270892750735</v>
+        <v>48.71240328372236</v>
       </c>
       <c r="B39" s="0">
-        <v>2.1998945115812458</v>
+        <v>2.2008762799166366</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.712667967003497</v>
+        <v>48.712357622880795</v>
       </c>
       <c r="B40" s="0">
-        <v>2.1998233047938953</v>
+        <v>2.2008649228362613</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.712717084927156</v>
+        <v>48.712362893433898</v>
       </c>
       <c r="B41" s="0">
-        <v>2.1997393052640413</v>
+        <v>2.2008713471312862</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.712656059162256</v>
+        <v>48.712371298086119</v>
       </c>
       <c r="B42" s="0">
-        <v>2.1997020911428975</v>
+        <v>2.2008754816518241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.712620127727675</v>
+        <v>48.712355666282221</v>
       </c>
       <c r="B43" s="0">
-        <v>2.1996528492898917</v>
+        <v>2.2008674634209568</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.712598947300286</v>
+        <v>48.712336134391634</v>
       </c>
       <c r="B44" s="0">
-        <v>2.1995605287624387</v>
+        <v>2.2008531320029396</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.712560399459683</v>
+        <v>48.712336974108219</v>
       </c>
       <c r="B45" s="0">
-        <v>2.1994948094068616</v>
+        <v>2.2008596073373137</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.712561409066964</v>
+        <v>48.712315203611055</v>
       </c>
       <c r="B46" s="0">
-        <v>2.199517953513352</v>
+        <v>2.2008474052698155</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.712588420368206</v>
+        <v>48.712315148549287</v>
       </c>
       <c r="B47" s="0">
-        <v>2.1995085882574821</v>
+        <v>2.200844145222852</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.7126102842984</v>
+        <v>48.712314666539683</v>
       </c>
       <c r="B48" s="0">
-        <v>2.1994557600343478</v>
+        <v>2.200843457921958</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.712613370038703</v>
+        <v>48.712311971840705</v>
       </c>
       <c r="B49" s="0">
-        <v>2.1994438789621622</v>
+        <v>2.2008422075259992</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.712586515889257</v>
+        <v>48.712309030223899</v>
       </c>
       <c r="B50" s="0">
-        <v>2.1994642189083638</v>
+        <v>2.2008479586430654</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.712567422185671</v>
+        <v>48.712311186130471</v>
       </c>
       <c r="B51" s="0">
-        <v>2.1994434080750605</v>
+        <v>2.2008450838781797</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.712543513024429</v>
+        <v>48.712320444245698</v>
       </c>
       <c r="B52" s="0">
-        <v>2.1994990106240926</v>
+        <v>2.2008451030823051</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.712542137496428</v>
+        <v>48.712330052169463</v>
       </c>
       <c r="B53" s="0">
-        <v>2.1995709716857497</v>
+        <v>2.2008461367149716</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.712604214781393</v>
+        <v>48.712337009432794</v>
       </c>
       <c r="B54" s="0">
-        <v>2.1995937313827847</v>
+        <v>2.2008512799170417</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.712644425078814</v>
+        <v>48.712343655486329</v>
       </c>
       <c r="B55" s="0">
-        <v>2.1995983657532894</v>
+        <v>2.2008528438537098</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.712641428892056</v>
+        <v>48.712362127328376</v>
       </c>
       <c r="B56" s="0">
-        <v>2.1996532966816877</v>
+        <v>2.2008548002424164</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.712701436724494</v>
+        <v>48.712374491023695</v>
       </c>
       <c r="B57" s="0">
-        <v>2.1996369468550729</v>
+        <v>2.2008500294549376</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.712748784144019</v>
+        <v>48.712390657612325</v>
       </c>
       <c r="B58" s="0">
-        <v>2.1997116559812584</v>
+        <v>2.2008537526749006</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.712816048943068</v>
+        <v>48.712411757401327</v>
       </c>
       <c r="B59" s="0">
-        <v>2.1997958654382992</v>
+        <v>2.2008510549212268</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.712803543599804</v>
+        <v>48.712417599082684</v>
       </c>
       <c r="B60" s="0">
-        <v>2.1998469129974549</v>
+        <v>2.2008600849455968</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.712891152482321</v>
+        <v>48.712419686218411</v>
       </c>
       <c r="B61" s="0">
-        <v>2.1999763920954365</v>
+        <v>2.2008636006334044</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.712937787816685</v>
+        <v>48.712430990196559</v>
       </c>
       <c r="B62" s="0">
-        <v>2.1999835145354485</v>
+        <v>2.2008600030699883</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.712943634269664</v>
+        <v>48.712443017491161</v>
       </c>
       <c r="B63" s="0">
-        <v>2.200022702192018</v>
+        <v>2.2008589352094883</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.713012466294679</v>
+        <v>48.712443416541397</v>
       </c>
       <c r="B64" s="0">
-        <v>2.2000285799157009</v>
+        <v>2.2008713009030259</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.712957784435318</v>
+        <v>48.712453623346384</v>
       </c>
       <c r="B65" s="0">
-        <v>2.20002113049823</v>
+        <v>2.2008741872482691</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.712979710979468</v>
+        <v>48.712461334243749</v>
       </c>
       <c r="B66" s="0">
-        <v>2.200040207711679</v>
+        <v>2.2008711138481059</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.713034430102191</v>
+        <v>48.712461270317583</v>
       </c>
       <c r="B67" s="0">
-        <v>2.2000958347589905</v>
+        <v>2.2008688588418961</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.713131606181555</v>
+        <v>48.712471143063255</v>
       </c>
       <c r="B68" s="0">
-        <v>2.2001731904987816</v>
+        <v>2.200871594990248</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.713112562358489</v>
+        <v>48.712472248188121</v>
       </c>
       <c r="B69" s="0">
-        <v>2.2002139648211809</v>
+        <v>2.2008666681752724</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.713043491467765</v>
+        <v>48.712473577326364</v>
       </c>
       <c r="B70" s="0">
-        <v>2.2002155291224983</v>
+        <v>2.2008644331668412</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.712996442774944</v>
+        <v>48.712477021384011</v>
       </c>
       <c r="B71" s="0">
-        <v>2.2001953234697482</v>
+        <v>2.2008609635049261</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.713048830710115</v>
+        <v>48.712473373989433</v>
       </c>
       <c r="B72" s="0">
-        <v>2.2003024526325374</v>
+        <v>2.2008530341997168</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.713067159566421</v>
+        <v>48.712478877752396</v>
       </c>
       <c r="B73" s="0">
-        <v>2.2002939381851419</v>
+        <v>2.2008679712519572</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.713069304625755</v>
+        <v>48.712478387621609</v>
       </c>
       <c r="B74" s="0">
-        <v>2.2003160056671254</v>
+        <v>2.2008595377906146</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.713125558601348</v>
+        <v>48.712476179547899</v>
       </c>
       <c r="B75" s="0">
-        <v>2.2003602494888104</v>
+        <v>2.2008552431992006</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.713132894080602</v>
+        <v>48.712469143414062</v>
       </c>
       <c r="B76" s="0">
-        <v>2.2004037832952879</v>
+        <v>2.2008602391340597</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.71308735344504</v>
+        <v>48.712465337473581</v>
       </c>
       <c r="B77" s="0">
-        <v>2.2003782618217471</v>
+        <v>2.2008560668614528</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.713106855236838</v>
+        <v>48.712450689086616</v>
       </c>
       <c r="B78" s="0">
-        <v>2.2004117214608674</v>
+        <v>2.2008633420730948</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.713171019340571</v>
+        <v>48.712453728315332</v>
       </c>
       <c r="B79" s="0">
-        <v>2.2004664713284439</v>
+        <v>2.2008627021640224</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.71316072065742</v>
+        <v>48.712446504789419</v>
       </c>
       <c r="B80" s="0">
-        <v>2.2004829613423693</v>
+        <v>2.2008555619651471</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.713137796185386</v>
+        <v>48.712435960516515</v>
       </c>
       <c r="B81" s="0">
-        <v>2.2004871938019663</v>
+        <v>2.2008531818301313</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.713154059023864</v>
+        <v>48.712431633060731</v>
       </c>
       <c r="B82" s="0">
-        <v>2.2004693883323041</v>
+        <v>2.2008552088502289</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.713154073427816</v>
+        <v>48.712426722904255</v>
       </c>
       <c r="B83" s="0">
-        <v>2.2004652990741906</v>
+        <v>2.2008491937925498</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.713098123424914</v>
+        <v>48.712378496368643</v>
       </c>
       <c r="B84" s="0">
-        <v>2.2004762195048824</v>
+        <v>2.200836410602776</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.713016715916687</v>
+        <v>48.712303268327027</v>
       </c>
       <c r="B85" s="0">
-        <v>2.2004645604119712</v>
+        <v>2.2008098392980275</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.712993978996984</v>
+        <v>48.712317742064165</v>
       </c>
       <c r="B86" s="0">
-        <v>2.2004131972076815</v>
+        <v>2.2007999072367404</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.712961466961808</v>
+        <v>48.712376377963821</v>
       </c>
       <c r="B87" s="0">
-        <v>2.200380422831508</v>
+        <v>2.200809597608226</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.712988195194157</v>
+        <v>48.712411998928225</v>
       </c>
       <c r="B88" s="0">
-        <v>2.2003565094967912</v>
+        <v>2.2008196308194496</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.712957983708407</v>
+        <v>48.712472179144214</v>
       </c>
       <c r="B89" s="0">
-        <v>2.2002862655340305</v>
+        <v>2.200844023581114</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.712912529288111</v>
+        <v>48.712487970110281</v>
       </c>
       <c r="B90" s="0">
-        <v>2.200238088077116</v>
+        <v>2.200846870082108</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.712922970896543</v>
+        <v>48.712565996428587</v>
       </c>
       <c r="B91" s="0">
-        <v>2.2002550915316537</v>
+        <v>2.2008594271162036</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.712902854140104</v>
+        <v>48.712586306352065</v>
       </c>
       <c r="B92" s="0">
-        <v>2.2002738557095039</v>
+        <v>2.2008741573286659</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.712933153309493</v>
+        <v>48.71265028523063</v>
       </c>
       <c r="B93" s="0">
-        <v>2.2002364310790257</v>
+        <v>2.2008845921178022</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.712915649256566</v>
+        <v>48.712723090016965</v>
       </c>
       <c r="B94" s="0">
-        <v>2.200193843623047</v>
+        <v>2.2009137830706989</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.712931340477532</v>
+        <v>48.712692506791271</v>
       </c>
       <c r="B95" s="0">
-        <v>2.2001330173090596</v>
+        <v>2.2008958018962281</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.712931561691825</v>
+        <v>48.712715528843972</v>
       </c>
       <c r="B96" s="0">
-        <v>2.2001561763788406</v>
+        <v>2.2009049410275141</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.712942657386172</v>
+        <v>48.712757659886854</v>
       </c>
       <c r="B97" s="0">
-        <v>2.2001327764480725</v>
+        <v>2.2009172325529769</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.71289707483772</v>
+        <v>48.712783258971378</v>
       </c>
       <c r="B98" s="0">
-        <v>2.2001690849057751</v>
+        <v>2.2009205352817802</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.712869014400702</v>
+        <v>48.712796573660043</v>
       </c>
       <c r="B99" s="0">
-        <v>2.2001923010314912</v>
+        <v>2.200930979604419</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.712840461742808</v>
+        <v>48.712841969589228</v>
       </c>
       <c r="B100" s="0">
-        <v>2.2002168377288003</v>
+        <v>2.2009483064698259</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.712896323822427</v>
+        <v>48.712868499487058</v>
       </c>
       <c r="B101" s="0">
-        <v>2.2002095857120132</v>
+        <v>2.2009596952141233</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.712916491095022</v>
+        <v>48.712885571397159</v>
       </c>
       <c r="B102" s="0">
-        <v>2.2001974812082579</v>
+        <v>2.200962891882257</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.712933975660676</v>
+        <v>48.712910840935919</v>
       </c>
       <c r="B103" s="0">
-        <v>2.2001787462957507</v>
+        <v>2.2009666156563141</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.713002158829824</v>
+        <v>48.712918686174341</v>
       </c>
       <c r="B104" s="0">
-        <v>2.2001160336317498</v>
+        <v>2.2009728579340662</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.713063829554166</v>
+        <v>48.712918570402799</v>
       </c>
       <c r="B105" s="0">
-        <v>2.2000462434839476</v>
+        <v>2.2009741011336619</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.713154610259551</v>
+        <v>48.712950371541062</v>
       </c>
       <c r="B106" s="0">
-        <v>2.2000389463599763</v>
+        <v>2.2009729404762117</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.713223349520852</v>
+        <v>48.712942893557376</v>
       </c>
       <c r="B107" s="0">
-        <v>2.200020203578934</v>
+        <v>2.2009795218871466</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.713254615387768</v>
+        <v>48.712943956442864</v>
       </c>
       <c r="B108" s="0">
-        <v>2.200027744572246</v>
+        <v>2.2009676447738045</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.713245474292322</v>
+        <v>48.712938158734069</v>
       </c>
       <c r="B109" s="0">
-        <v>2.1999580958507186</v>
+        <v>2.2009607824601423</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.713309842766698</v>
+        <v>48.712894855524148</v>
       </c>
       <c r="B110" s="0">
-        <v>2.1999594432979324</v>
+        <v>2.2009436199456141</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.713315317974093</v>
+        <v>48.712886873063418</v>
       </c>
       <c r="B111" s="0">
-        <v>2.1999657018455281</v>
+        <v>2.2009417956227866</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.713373351024394</v>
+        <v>48.712846769661375</v>
       </c>
       <c r="B112" s="0">
-        <v>2.2000442178241153</v>
+        <v>2.2009238674944554</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.713373703948271</v>
+        <v>48.712796820101175</v>
       </c>
       <c r="B113" s="0">
-        <v>2.2000626699434087</v>
+        <v>2.2009176278288862</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.713410998128211</v>
+        <v>48.712731673826838</v>
       </c>
       <c r="B114" s="0">
-        <v>2.2000350436591112</v>
+        <v>2.200901128372549</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.71334646437716</v>
+        <v>48.712670747790376</v>
       </c>
       <c r="B115" s="0">
-        <v>2.2000296998765179</v>
+        <v>2.2008902392562288</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.71328910259416</v>
+        <v>48.712564116554674</v>
       </c>
       <c r="B116" s="0">
-        <v>2.200043697443633</v>
+        <v>2.2008627369064939</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.713255984469129</v>
+        <v>48.712457516157826</v>
       </c>
       <c r="B117" s="0">
-        <v>2.2000941985066938</v>
+        <v>2.2008355933649932</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.71321543529146</v>
+        <v>48.712365395858704</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2001459522549549</v>
+        <v>2.2008052726174467</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.713162375563478</v>
+        <v>48.71230807130538</v>
       </c>
       <c r="B119" s="0">
-        <v>2.2001857227990356</v>
+        <v>2.2008068509988639</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.713151782331913</v>
+        <v>48.712275946191298</v>
       </c>
       <c r="B120" s="0">
-        <v>2.200255172457263</v>
+        <v>2.2007916676767234</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.713088539989315</v>
+        <v>48.712258440857362</v>
       </c>
       <c r="B121" s="0">
-        <v>2.2003030406868165</v>
+        <v>2.2008089644622286</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.713064705844886</v>
+        <v>48.712272875694708</v>
       </c>
       <c r="B122" s="0">
-        <v>2.2003517211329555</v>
+        <v>2.200803928266649</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.713023957381715</v>
+        <v>48.712323481428136</v>
       </c>
       <c r="B123" s="0">
-        <v>2.2003845526138668</v>
+        <v>2.2008210614751866</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.71300964340378</v>
+        <v>48.712325983147281</v>
       </c>
       <c r="B124" s="0">
-        <v>2.2004176107668512</v>
+        <v>2.2008185275420833</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.713015508966222</v>
+        <v>48.712376254716332</v>
       </c>
       <c r="B125" s="0">
-        <v>2.2004354017581873</v>
+        <v>2.2008276678090715</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.713000225585226</v>
+        <v>48.712411732875914</v>
       </c>
       <c r="B126" s="0">
-        <v>2.2004366177191113</v>
+        <v>2.2008488281512051</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.712998789950149</v>
+        <v>48.712414926927273</v>
       </c>
       <c r="B127" s="0">
-        <v>2.2004497051754686</v>
+        <v>2.2008542472008874</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.712967175811883</v>
+        <v>48.712437579875271</v>
       </c>
       <c r="B128" s="0">
-        <v>2.2004301323325737</v>
+        <v>2.2008560713305032</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.712951792614049</v>
+        <v>48.712469123335339</v>
       </c>
       <c r="B129" s="0">
-        <v>2.2004176616413855</v>
+        <v>2.2008592479569327</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.712934487721959</v>
+        <v>48.712469672616166</v>
       </c>
       <c r="B130" s="0">
-        <v>2.2003988155400096</v>
+        <v>2.2008621688381731</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.71292018284138</v>
+        <v>48.712448981362598</v>
       </c>
       <c r="B131" s="0">
-        <v>2.2003757774443722</v>
+        <v>2.2008553073240256</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.712903390897509</v>
+        <v>48.71244221135084</v>
       </c>
       <c r="B132" s="0">
-        <v>2.2003616084405171</v>
+        <v>2.2008523616514455</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.712895225501157</v>
+        <v>48.712452944685296</v>
       </c>
       <c r="B133" s="0">
-        <v>2.200340764639269</v>
+        <v>2.2008611537174931</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.712926814686732</v>
+        <v>48.712452944685296</v>
       </c>
       <c r="B134" s="0">
-        <v>2.2003231474159519</v>
+        <v>2.2008611537174931</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.712930794249587</v>
+        <v>48.712452944685296</v>
       </c>
       <c r="B135" s="0">
-        <v>2.2003222926316553</v>
+        <v>2.2008611537174931</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.712937570832686</v>
+        <v>48.712452944685296</v>
       </c>
       <c r="B136" s="0">
-        <v>2.200353521092961</v>
+        <v>2.2008611537174931</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.712954170566825</v>
+        <v>48.712450091904564</v>
       </c>
       <c r="B137" s="0">
-        <v>2.2003241511051881</v>
+        <v>2.2008634993226104</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.712993061160006</v>
+        <v>48.712450091904564</v>
       </c>
       <c r="B138" s="0">
-        <v>2.2003374991797799</v>
+        <v>2.2008634993226104</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.712984752761997</v>
+        <v>48.712451165917692</v>
       </c>
       <c r="B139" s="0">
-        <v>2.200210703197377</v>
+        <v>2.2008651629471805</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.713027008125394</v>
+        <v>48.712451165917692</v>
       </c>
       <c r="B140" s="0">
-        <v>2.2001782730226842</v>
+        <v>2.2008651629471805</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.713073909354996</v>
+        <v>48.712451165917692</v>
       </c>
       <c r="B141" s="0">
-        <v>2.2001436970592518</v>
+        <v>2.2008651629471805</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.71313301400712</v>
+        <v>48.712451165917692</v>
       </c>
       <c r="B142" s="0">
-        <v>2.2002477492799715</v>
+        <v>2.2008651629471805</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.713112490191051</v>
+        <v>48.712451165917692</v>
       </c>
       <c r="B143" s="0">
-        <v>2.2002766714994269</v>
+        <v>2.2008651629471805</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.713119083371986</v>
+        <v>48.712666007856278</v>
       </c>
       <c r="B144" s="0">
-        <v>2.2002322901768499</v>
+        <v>2.2009097315404844</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.713172477656237</v>
+        <v>48.712643619806819</v>
       </c>
       <c r="B145" s="0">
-        <v>2.2001966616252351</v>
+        <v>2.2009118225487825</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.713166511518125</v>
+        <v>48.71262706504092</v>
       </c>
       <c r="B146" s="0">
-        <v>2.2001716025160865</v>
+        <v>2.2009140842669761</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.713213434036177</v>
+        <v>48.712600675427687</v>
       </c>
       <c r="B147" s="0">
-        <v>2.200144247520722</v>
+        <v>2.200901233394148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.713256323956294</v>
+        <v>48.712600675427687</v>
       </c>
       <c r="B148" s="0">
-        <v>2.2001561879113143</v>
+        <v>2.200901233394148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.713256835670563</v>
+        <v>48.712600675427687</v>
       </c>
       <c r="B149" s="0">
-        <v>2.200098150182193</v>
+        <v>2.200901233394148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.713276630497035</v>
+        <v>48.712600675427687</v>
       </c>
       <c r="B150" s="0">
-        <v>2.2000971797889304</v>
+        <v>2.200901233394148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.71330150668021</v>
+        <v>48.712600675427687</v>
       </c>
       <c r="B151" s="0">
-        <v>2.2001057061364073</v>
+        <v>2.200901233394148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.713329689309681</v>
+        <v>48.712600675427687</v>
       </c>
       <c r="B152" s="0">
-        <v>2.2000950435132016</v>
+        <v>2.200901233394148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.713361883679944</v>
+        <v>48.712600675427687</v>
       </c>
       <c r="B153" s="0">
-        <v>2.2000635807092994</v>
+        <v>2.200901233394148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.713334116472431</v>
+        <v>48.712601446270753</v>
       </c>
       <c r="B154" s="0">
-        <v>2.2000067940455814</v>
+        <v>2.2008929335901946</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.713305734841804</v>
+        <v>48.712601446270753</v>
       </c>
       <c r="B155" s="0">
-        <v>2.1999844484114033</v>
+        <v>2.2008929335901946</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.713303135024326</v>
+        <v>48.712601446270753</v>
       </c>
       <c r="B156" s="0">
-        <v>2.2000097130764646</v>
+        <v>2.2008929335901946</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.713312181917374</v>
+        <v>48.712601446270753</v>
       </c>
       <c r="B157" s="0">
-        <v>2.2000168499378785</v>
+        <v>2.2008929335901946</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.713293382026599</v>
+        <v>48.712601446270753</v>
       </c>
       <c r="B158" s="0">
-        <v>2.1999655995946896</v>
+        <v>2.2008929335901946</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.713325249132893</v>
+        <v>48.712601446270753</v>
       </c>
       <c r="B159" s="0">
-        <v>2.1999666408394569</v>
+        <v>2.2008929335901946</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.713310222817036</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B160" s="0">
-        <v>2.1999388694245412</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.713287880934594</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B161" s="0">
-        <v>2.1999546111447343</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.713292652484498</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B162" s="0">
-        <v>2.2000232116322653</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.713280017773954</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B163" s="0">
-        <v>2.2000651356444592</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.713257597112033</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B164" s="0">
-        <v>2.2000606701508652</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.713262960043998</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B165" s="0">
-        <v>2.2001214031329766</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.713253690667358</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B166" s="0">
-        <v>2.2001739224571551</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.713225903356694</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B167" s="0">
-        <v>2.2002063302681041</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.713194638291029</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B168" s="0">
-        <v>2.2002635990807247</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.7131724271538</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B169" s="0">
-        <v>2.2003227629657451</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.713175049294762</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B170" s="0">
-        <v>2.200375694657533</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.713153600651168</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B171" s="0">
-        <v>2.2003923440719504</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.713139663383529</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B172" s="0">
-        <v>2.2004481327214243</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.713116235732919</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B173" s="0">
-        <v>2.2004927020931229</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.713136286752878</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B174" s="0">
-        <v>2.2004739836287528</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.713131098936742</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B175" s="0">
-        <v>2.2005029450564266</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.713124924547408</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B176" s="0">
-        <v>2.2005200166523169</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.712933025761977</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B177" s="0">
-        <v>2.2006626488935188</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.713058622363725</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B178" s="0">
-        <v>2.2006600584911462</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.71301871716954</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B179" s="0">
-        <v>2.2006805905270972</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.713028085890592</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B180" s="0">
-        <v>2.2006934744787716</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.713044377344126</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B181" s="0">
-        <v>2.2007004385483682</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.713039066777512</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B182" s="0">
-        <v>2.2007240483876767</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.712992956675741</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B183" s="0">
-        <v>2.2007731243597721</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.712973083658007</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B184" s="0">
-        <v>2.2007702136475364</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.712979213524719</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B185" s="0">
-        <v>2.2007682465549019</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.712963277495455</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B186" s="0">
-        <v>2.2007605116770659</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.712948354954086</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B187" s="0">
-        <v>2.2008177065831376</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.712963441290675</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B188" s="0">
-        <v>2.2008440728305674</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.712957767756159</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B189" s="0">
-        <v>2.2008444218259604</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.712959154607248</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B190" s="0">
-        <v>2.2008558978737085</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.712970264963595</v>
+        <v>48.712776492976779</v>
       </c>
       <c r="B191" s="0">
-        <v>2.2008507161452138</v>
+        <v>2.2009226815974823</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.713003136955571</v>
+        <v>48.712207698705392</v>
       </c>
       <c r="B192" s="0">
-        <v>2.2008352466813275</v>
+        <v>2.2007839249711974</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.713027922449548</v>
+        <v>48.71224718441102</v>
       </c>
       <c r="B193" s="0">
-        <v>2.2008077348811721</v>
+        <v>2.2007860358483877</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.713029829255575</v>
+        <v>48.712191484755259</v>
       </c>
       <c r="B194" s="0">
-        <v>2.2007039871767078</v>
+        <v>2.2007641462176793</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.713024957565096</v>
+        <v>48.712269262037523</v>
       </c>
       <c r="B195" s="0">
-        <v>2.2006584870880945</v>
+        <v>2.2007788453597592</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.713015539298837</v>
+        <v>48.712283858743661</v>
       </c>
       <c r="B196" s="0">
-        <v>2.2006205956512073</v>
+        <v>2.2007759385890458</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.713010548174033</v>
+        <v>48.712282636913429</v>
       </c>
       <c r="B197" s="0">
-        <v>2.2005670307780405</v>
+        <v>2.2007718895147348</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.713000450778019</v>
+        <v>48.712242510591686</v>
       </c>
       <c r="B198" s="0">
-        <v>2.2004830353115556</v>
+        <v>2.2007638040787674</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.71298657480537</v>
+        <v>48.712275490347011</v>
       </c>
       <c r="B199" s="0">
-        <v>2.2003526732358441</v>
+        <v>2.2007650760960678</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.712985274851746</v>
+        <v>48.71228872325608</v>
       </c>
       <c r="B200" s="0">
-        <v>2.2002522186529601</v>
+        <v>2.2007556142928641</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.712976154519687</v>
+        <v>48.7122801872273</v>
       </c>
       <c r="B201" s="0">
-        <v>2.2001358541339946</v>
+        <v>2.2007649495249684</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.713001321018723</v>
+        <v>48.712290912159951</v>
       </c>
       <c r="B202" s="0">
-        <v>2.2000816689429295</v>
+        <v>2.2007653707865322</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.713049080734798</v>
+        <v>48.712299234287585</v>
       </c>
       <c r="B203" s="0">
-        <v>2.2000826964858966</v>
+        <v>2.2007626827854336</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.713060227072219</v>
+        <v>48.712299513292891</v>
       </c>
       <c r="B204" s="0">
-        <v>2.2000854927310676</v>
+        <v>2.2007608622465025</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.713086851780886</v>
+        <v>48.712312292486232</v>
       </c>
       <c r="B205" s="0">
-        <v>2.2000955389994137</v>
+        <v>2.2007566315729008</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.713118114794703</v>
+        <v>48.712305372332708</v>
       </c>
       <c r="B206" s="0">
-        <v>2.2000906599788634</v>
+        <v>2.2007602789806193</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.713122347233373</v>
+        <v>48.712314832186621</v>
       </c>
       <c r="B207" s="0">
-        <v>2.2001082522570248</v>
+        <v>2.2007518939606299</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.713119650925741</v>
+        <v>48.71232784650622</v>
       </c>
       <c r="B208" s="0">
-        <v>2.2000590288143349</v>
+        <v>2.2007473399383457</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.713108233574388</v>
+        <v>48.712325816977241</v>
       </c>
       <c r="B209" s="0">
-        <v>2.1999969851244603</v>
+        <v>2.2007503744532242</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.713067924952476</v>
+        <v>48.712330678803504</v>
       </c>
       <c r="B210" s="0">
-        <v>2.1999166981420433</v>
+        <v>2.2007522786160383</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.71307180236861</v>
+        <v>48.712341211328287</v>
       </c>
       <c r="B211" s="0">
-        <v>2.1999103727178513</v>
+        <v>2.2007543823303406</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.713042114804573</v>
+        <v>48.712334673534592</v>
       </c>
       <c r="B212" s="0">
-        <v>2.1998265224208864</v>
+        <v>2.2007489901996982</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.713056482990638</v>
+        <v>48.712333165517812</v>
       </c>
       <c r="B213" s="0">
-        <v>2.1998903767986482</v>
+        <v>2.2007435351017732</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.713048991237628</v>
+        <v>48.712339575805849</v>
       </c>
       <c r="B214" s="0">
-        <v>2.1999000285953465</v>
+        <v>2.2007483486452659</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.71303189401457</v>
+        <v>48.712340579386364</v>
       </c>
       <c r="B215" s="0">
-        <v>2.199878302188516</v>
+        <v>2.2007566217746555</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.713046852726535</v>
+        <v>48.712326775632306</v>
       </c>
       <c r="B216" s="0">
-        <v>2.1999309583162701</v>
+        <v>2.2007514757591902</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.71300956051946</v>
+        <v>48.712327153797609</v>
       </c>
       <c r="B217" s="0">
-        <v>2.1998806647361508</v>
+        <v>2.2007473800693052</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.713006568830551</v>
+        <v>48.712335521190624</v>
       </c>
       <c r="B218" s="0">
-        <v>2.1999301944570715</v>
+        <v>2.2007642733088044</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.713011428350853</v>
+        <v>48.712343975905824</v>
       </c>
       <c r="B219" s="0">
-        <v>2.1999656863876775</v>
+        <v>2.2007590433130191</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.713047991798319</v>
+        <v>48.712332730963368</v>
       </c>
       <c r="B220" s="0">
-        <v>2.2000292143152716</v>
+        <v>2.2007718707459842</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.713071517337546</v>
+        <v>48.712335845304231</v>
       </c>
       <c r="B221" s="0">
-        <v>2.2000963637686723</v>
+        <v>2.2007685414685798</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.713106995685003</v>
+        <v>48.712331468296838</v>
       </c>
       <c r="B222" s="0">
-        <v>2.2001138341174542</v>
+        <v>2.2007794161334768</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.713100557975949</v>
+        <v>48.712335325183048</v>
       </c>
       <c r="B223" s="0">
-        <v>2.200135816144912</v>
+        <v>2.2007821087925228</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.713049815833905</v>
+        <v>48.712332238753859</v>
       </c>
       <c r="B224" s="0">
-        <v>2.2001695570924515</v>
+        <v>2.2007898340315015</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.713019470391025</v>
+        <v>48.712327737529236</v>
       </c>
       <c r="B225" s="0">
-        <v>2.2002077126025972</v>
+        <v>2.2007863473274396</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.713025591003174</v>
+        <v>48.712332168363233</v>
       </c>
       <c r="B226" s="0">
-        <v>2.2003065517496405</v>
+        <v>2.2007944592775655</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.713002091256883</v>
+        <v>48.712372298604578</v>
       </c>
       <c r="B227" s="0">
-        <v>2.2003700061582992</v>
+        <v>2.2008039405958133</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.713019993279332</v>
+        <v>48.712333173089562</v>
       </c>
       <c r="B228" s="0">
-        <v>2.2004014614613476</v>
+        <v>2.2007998803240234</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.712996928609073</v>
+        <v>48.712288340131544</v>
       </c>
       <c r="B229" s="0">
-        <v>2.2004392179001333</v>
+        <v>2.2007907144927734</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.712995187506316</v>
+        <v>48.712329525011022</v>
       </c>
       <c r="B230" s="0">
-        <v>2.2004979560909597</v>
+        <v>2.2008043668028772</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.712988422229266</v>
+        <v>48.712300221025267</v>
       </c>
       <c r="B231" s="0">
-        <v>2.2005092903137236</v>
+        <v>2.2007954401635215</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.712940873800491</v>
+        <v>48.712305205624489</v>
       </c>
       <c r="B232" s="0">
-        <v>2.2005027944186404</v>
+        <v>2.2008118903566656</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.712901048850057</v>
+        <v>48.712264401080589</v>
       </c>
       <c r="B233" s="0">
-        <v>2.200493309902908</v>
+        <v>2.2007985758643618</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.712864323569114</v>
+        <v>48.712264401080589</v>
       </c>
       <c r="B234" s="0">
-        <v>2.2004955776164001</v>
+        <v>2.2007985758643618</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.712829106306131</v>
+        <v>48.712130684438542</v>
       </c>
       <c r="B235" s="0">
-        <v>2.2004726941063209</v>
+        <v>2.2007695237919154</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.712807730519934</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B236" s="0">
-        <v>2.2004698217384648</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.712826620932226</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B237" s="0">
-        <v>2.2003783791635132</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.712844758549387</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B238" s="0">
-        <v>2.2003766564100982</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.712908241637493</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B239" s="0">
-        <v>2.2003175781557482</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.712886397691662</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B240" s="0">
-        <v>2.2002984717495049</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.712832836584376</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B241" s="0">
-        <v>2.2002800228252388</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.71283218086279</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B242" s="0">
-        <v>2.2002956570805403</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.712766687620544</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B243" s="0">
-        <v>2.2003383024324501</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.71269631808201</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B244" s="0">
-        <v>2.2004286124446</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.71273371605006</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B245" s="0">
-        <v>2.2003838737794799</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.712748238443808</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B246" s="0">
-        <v>2.2003697329751333</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.712704061844391</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B247" s="0">
-        <v>2.2004224874225558</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.712696590815597</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B248" s="0">
-        <v>2.2003966919226206</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.712700082522502</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B249" s="0">
-        <v>2.2003164851459016</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.71275518606825</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B250" s="0">
-        <v>2.2002489530914882</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.71285893299936</v>
+        <v>48.71211305256</v>
       </c>
       <c r="B251" s="0">
-        <v>2.2001488384419616</v>
+        <v>2.2007793993824021</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.712864999343552</v>
+        <v>48.712446197422615</v>
       </c>
       <c r="B252" s="0">
-        <v>2.20010545842469</v>
+        <v>2.2008902748861043</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.712836267361723</v>
+        <v>48.712451202739409</v>
       </c>
       <c r="B253" s="0">
-        <v>2.2000899357023789</v>
+        <v>2.2008909877782741</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.712824748013581</v>
+        <v>48.712435213694938</v>
       </c>
       <c r="B254" s="0">
-        <v>2.2000782640382965</v>
+        <v>2.2008849806881488</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.712876491341277</v>
+        <v>48.712434557581467</v>
       </c>
       <c r="B255" s="0">
-        <v>2.2000431501265028</v>
+        <v>2.2008799088286191</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.712856622375384</v>
+        <v>48.712465716357229</v>
       </c>
       <c r="B256" s="0">
-        <v>2.2000660491793709</v>
+        <v>2.2008818590329424</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.712896530565523</v>
+        <v>48.712406891581878</v>
       </c>
       <c r="B257" s="0">
-        <v>2.2000359682075969</v>
+        <v>2.2008727809506974</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.712916547408192</v>
+        <v>48.712406813532965</v>
       </c>
       <c r="B258" s="0">
-        <v>2.2000063258556932</v>
+        <v>2.2008731065709952</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.712912471017681</v>
+        <v>48.712406694873479</v>
       </c>
       <c r="B259" s="0">
-        <v>2.2000144445127785</v>
+        <v>2.2008717233531749</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.712915596018071</v>
+        <v>48.712407193720637</v>
       </c>
       <c r="B260" s="0">
-        <v>2.2000164233321966</v>
+        <v>2.2008755862305609</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.71292000086838</v>
+        <v>48.71239704888783</v>
       </c>
       <c r="B261" s="0">
-        <v>2.2000477059245767</v>
+        <v>2.2008804187948607</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.712940335280699</v>
+        <v>48.712393284912437</v>
       </c>
       <c r="B262" s="0">
-        <v>2.2000542710458926</v>
+        <v>2.200874281981672</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.712937472455138</v>
+        <v>48.712400833264248</v>
       </c>
       <c r="B263" s="0">
-        <v>2.2000760888586948</v>
+        <v>2.2008788267747126</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.71292596413042</v>
+        <v>48.712397266063448</v>
       </c>
       <c r="B264" s="0">
-        <v>2.2001042788290945</v>
+        <v>2.2008683523908794</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.712932306877342</v>
+        <v>48.712411792472885</v>
       </c>
       <c r="B265" s="0">
-        <v>2.200115966532544</v>
+        <v>2.200856559068535</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.71294206352961</v>
+        <v>48.712400285411746</v>
       </c>
       <c r="B266" s="0">
-        <v>2.2001036421970146</v>
+        <v>2.2008547210605705</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.712940581938597</v>
+        <v>48.712396641875863</v>
       </c>
       <c r="B267" s="0">
-        <v>2.2001081604880532</v>
+        <v>2.2008479868486859</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.712943410249494</v>
+        <v>48.712388857664131</v>
       </c>
       <c r="B268" s="0">
-        <v>2.2001134091171459</v>
+        <v>2.2008410033923451</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.712954209257738</v>
+        <v>48.712389773883785</v>
       </c>
       <c r="B269" s="0">
-        <v>2.2001301495469101</v>
+        <v>2.2008433042446405</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.712961910038693</v>
+        <v>48.712389179554016</v>
       </c>
       <c r="B270" s="0">
-        <v>2.2001466927943936</v>
+        <v>2.2008360924608863</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.712997074315197</v>
+        <v>48.712386519394059</v>
       </c>
       <c r="B271" s="0">
-        <v>2.2002076175418512</v>
+        <v>2.2008387932884217</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.712993823536316</v>
+        <v>48.712412163719307</v>
       </c>
       <c r="B272" s="0">
-        <v>2.2002019456146171</v>
+        <v>2.2008438359510754</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.71299506842616</v>
+        <v>48.712386752255128</v>
       </c>
       <c r="B273" s="0">
-        <v>2.2002026068385865</v>
+        <v>2.2008429197509867</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.712972240067828</v>
+        <v>48.712394245268463</v>
       </c>
       <c r="B274" s="0">
-        <v>2.2001403388947014</v>
+        <v>2.2008404366449588</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.712988221389246</v>
+        <v>48.712383651362146</v>
       </c>
       <c r="B275" s="0">
-        <v>2.2001770775504848</v>
+        <v>2.2008383379906427</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.712982435546159</v>
+        <v>48.712366290176959</v>
       </c>
       <c r="B276" s="0">
-        <v>2.2001703969430979</v>
+        <v>2.2008315313481535</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.712961464765677</v>
+        <v>48.71240356413049</v>
       </c>
       <c r="B277" s="0">
-        <v>2.2001340995820731</v>
+        <v>2.2008349093777682</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.712955864639284</v>
+        <v>48.712405839301923</v>
       </c>
       <c r="B278" s="0">
-        <v>2.2001275270462033</v>
+        <v>2.2008369649378188</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.712953345871284</v>
+        <v>48.712401243841107</v>
       </c>
       <c r="B279" s="0">
-        <v>2.2001249809243975</v>
+        <v>2.2008295030990932</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.712950468248117</v>
+        <v>48.712408524722832</v>
       </c>
       <c r="B280" s="0">
-        <v>2.2001276134029046</v>
+        <v>2.2008313138733238</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.712966758774428</v>
+        <v>48.712407368623609</v>
       </c>
       <c r="B281" s="0">
-        <v>2.200165576660861</v>
+        <v>2.200828625757207</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.712965958681231</v>
+        <v>48.712415886450373</v>
       </c>
       <c r="B282" s="0">
-        <v>2.2001665722809816</v>
+        <v>2.2008297747984509</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.712962667452764</v>
+        <v>48.712420863933545</v>
       </c>
       <c r="B283" s="0">
-        <v>2.2001548774901503</v>
+        <v>2.2008320049529515</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.712959024284203</v>
+        <v>48.712422103128084</v>
       </c>
       <c r="B284" s="0">
-        <v>2.2001617342778537</v>
+        <v>2.2008304123052853</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.712958381640526</v>
+        <v>48.712439211609969</v>
       </c>
       <c r="B285" s="0">
-        <v>2.200166056254647</v>
+        <v>2.2008279027888933</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.712939688640383</v>
+        <v>48.712431635885416</v>
       </c>
       <c r="B286" s="0">
-        <v>2.2001430073506949</v>
+        <v>2.2008295585467859</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.712928048316798</v>
+        <v>48.712436192829856</v>
       </c>
       <c r="B287" s="0">
-        <v>2.200140050187867</v>
+        <v>2.2008296868161503</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.712886007677</v>
+        <v>48.712436719294217</v>
       </c>
       <c r="B288" s="0">
-        <v>2.2000939721323447</v>
+        <v>2.2008311858357037</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.712795756253314</v>
+        <v>48.712477274103406</v>
       </c>
       <c r="B289" s="0">
-        <v>2.2000622245197574</v>
+        <v>2.2008477350769238</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.712820386709368</v>
+        <v>48.712503067079545</v>
       </c>
       <c r="B290" s="0">
-        <v>2.2000786989670438</v>
+        <v>2.200860097136983</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.712794682531232</v>
+        <v>48.712487939350034</v>
       </c>
       <c r="B291" s="0">
-        <v>2.2000481984507698</v>
+        <v>2.2008396850280842</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.712799151358169</v>
+        <v>48.712513739675636</v>
       </c>
       <c r="B292" s="0">
-        <v>2.1999956968850083</v>
+        <v>2.2008465344832633</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.712802214397747</v>
+        <v>48.712500077599003</v>
       </c>
       <c r="B293" s="0">
-        <v>2.2000286106980385</v>
+        <v>2.2008471323557455</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.712804547182188</v>
+        <v>48.712513125955596</v>
       </c>
       <c r="B294" s="0">
-        <v>2.2000069833476554</v>
+        <v>2.2008543731728909</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.712806864842094</v>
+        <v>48.71248855766413</v>
       </c>
       <c r="B295" s="0">
-        <v>2.200012132037386</v>
+        <v>2.2008478523283466</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.712790588349691</v>
+        <v>48.712486330421534</v>
       </c>
       <c r="B296" s="0">
-        <v>2.2000082573237694</v>
+        <v>2.2008516531889524</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.712795302307271</v>
+        <v>48.712490040376089</v>
       </c>
       <c r="B297" s="0">
-        <v>2.2000405213873835</v>
+        <v>2.2008502254844253</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.712804029089256</v>
+        <v>48.712488976016388</v>
       </c>
       <c r="B298" s="0">
-        <v>2.2000076958006289</v>
+        <v>2.2008495718031975</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.712776280587534</v>
+        <v>48.712489414647436</v>
       </c>
       <c r="B299" s="0">
-        <v>2.1999917963487801</v>
+        <v>2.2008554859313243</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.712794941926553</v>
+        <v>48.71248427787674</v>
       </c>
       <c r="B300" s="0">
-        <v>2.1999936405205132</v>
+        <v>2.2008557131897497</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.712783347863002</v>
+        <v>48.712496148039065</v>
       </c>
       <c r="B301" s="0">
-        <v>2.1999322152700382</v>
+        <v>2.2008529558973446</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.712802953168442</v>
+        <v>48.712536109953902</v>
       </c>
       <c r="B302" s="0">
-        <v>2.1999126134445231</v>
+        <v>2.200851324402485</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.712830542059187</v>
+        <v>48.712539288167015</v>
       </c>
       <c r="B303" s="0">
-        <v>2.1999275234506124</v>
+        <v>2.2008497571044141</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.712847413201502</v>
+        <v>48.712536462316344</v>
       </c>
       <c r="B304" s="0">
-        <v>2.199938524514351</v>
+        <v>2.2008539420195254</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.712855298752437</v>
+        <v>48.712518197410873</v>
       </c>
       <c r="B305" s="0">
-        <v>2.1999671982287508</v>
+        <v>2.2008583779962057</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.712892863265544</v>
+        <v>48.712524462086528</v>
       </c>
       <c r="B306" s="0">
-        <v>2.2000467161776971</v>
+        <v>2.2008635360391709</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.712932313337611</v>
+        <v>48.712520167814368</v>
       </c>
       <c r="B307" s="0">
-        <v>2.2000684370642878</v>
+        <v>2.2008552389366054</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.712949765085078</v>
+        <v>48.712523402972749</v>
       </c>
       <c r="B308" s="0">
-        <v>2.2000931889559672</v>
+        <v>2.2008614238233952</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.712973946901904</v>
+        <v>48.712531976058074</v>
       </c>
       <c r="B309" s="0">
-        <v>2.2000967750985811</v>
+        <v>2.200856879424371</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.712989313244172</v>
+        <v>48.712534609077217</v>
       </c>
       <c r="B310" s="0">
-        <v>2.2001174167349174</v>
+        <v>2.2008568079710722</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.712998802815378</v>
+        <v>48.712529101301584</v>
       </c>
       <c r="B311" s="0">
-        <v>2.2001373434927833</v>
+        <v>2.2008615140751457</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.713017378191779</v>
+        <v>48.712520145835455</v>
       </c>
       <c r="B312" s="0">
-        <v>2.2001219540144112</v>
+        <v>2.20085521390082</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.713028137624249</v>
+        <v>48.71252008010962</v>
       </c>
       <c r="B313" s="0">
-        <v>2.2001011112664335</v>
+        <v>2.2008603357967593</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.713049803421278</v>
+        <v>48.712497669316697</v>
       </c>
       <c r="B314" s="0">
-        <v>2.2000782988439536</v>
+        <v>2.200851953566779</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.713060397408</v>
+        <v>48.712539493511244</v>
       </c>
       <c r="B315" s="0">
-        <v>2.2000514772466668</v>
+        <v>2.2008621612761794</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.713107206466873</v>
+        <v>48.712541493277975</v>
       </c>
       <c r="B316" s="0">
-        <v>2.2000680761218261</v>
+        <v>2.2008598571712588</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.713120343783807</v>
+        <v>48.712521303738861</v>
       </c>
       <c r="B317" s="0">
-        <v>2.2000786651050204</v>
+        <v>2.2008561518790852</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.713137423463948</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B318" s="0">
-        <v>2.200079626501199</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.713122966657998</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B319" s="0">
-        <v>2.2000713786882522</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.713070594905986</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B320" s="0">
-        <v>2.2001474713662819</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.713048798754407</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B321" s="0">
-        <v>2.2001644963815687</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.713050731398482</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B322" s="0">
-        <v>2.2001679371062064</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.713046031461857</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B323" s="0">
-        <v>2.2001702182242156</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.713056981735178</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B324" s="0">
-        <v>2.2001674077611639</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.713043438811098</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B325" s="0">
-        <v>2.2001868452925857</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.713036498711674</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B326" s="0">
-        <v>2.2001817004643933</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.712998209630491</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B327" s="0">
-        <v>2.2001825284850134</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.712985556079062</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B328" s="0">
-        <v>2.2001639800661099</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.712961224680157</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B329" s="0">
-        <v>2.2001576320796694</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.712942019617387</v>
+        <v>48.712524811393188</v>
       </c>
       <c r="B330" s="0">
-        <v>2.2001200782195936</v>
+        <v>2.2008682079175799</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.712911203343062</v>
+        <v>48.712636281256707</v>
       </c>
       <c r="B331" s="0">
-        <v>2.200134514209668</v>
+        <v>2.2008678780444435</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.712932132574224</v>
+        <v>48.712599019018278</v>
       </c>
       <c r="B332" s="0">
-        <v>2.2001138582650928</v>
+        <v>2.200866620471174</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.712918569915594</v>
+        <v>48.712557306131686</v>
       </c>
       <c r="B333" s="0">
-        <v>2.2001544214625177</v>
+        <v>2.2008569400492215</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.71291637617184</v>
+        <v>48.712596942090364</v>
       </c>
       <c r="B334" s="0">
-        <v>2.200159061362355</v>
+        <v>2.2008490733787025</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.712954795572905</v>
+        <v>48.712597730848941</v>
       </c>
       <c r="B335" s="0">
-        <v>2.200153976465105</v>
+        <v>2.2008439056615985</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.712946710841656</v>
+        <v>48.712590023988511</v>
       </c>
       <c r="B336" s="0">
-        <v>2.20021862647934</v>
+        <v>2.2008478105871641</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.712958979404</v>
+        <v>48.712592103178906</v>
       </c>
       <c r="B337" s="0">
-        <v>2.2002494350571538</v>
+        <v>2.2008520417193669</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.712927689484907</v>
+        <v>48.71259036830029</v>
       </c>
       <c r="B338" s="0">
-        <v>2.200301421581738</v>
+        <v>2.2008407472327112</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.712898564967475</v>
+        <v>48.712591799450429</v>
       </c>
       <c r="B339" s="0">
-        <v>2.2002962217086362</v>
+        <v>2.2008350610580814</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.712926806672058</v>
+        <v>48.712586305387852</v>
       </c>
       <c r="B340" s="0">
-        <v>2.2003073011413723</v>
+        <v>2.2008279193319949</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.712977440603972</v>
+        <v>48.71259560006844</v>
       </c>
       <c r="B341" s="0">
-        <v>2.2002887601829162</v>
+        <v>2.2008323725520294</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.713019956378375</v>
+        <v>48.712593820814163</v>
       </c>
       <c r="B342" s="0">
-        <v>2.2002974081330864</v>
+        <v>2.2008190463251451</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.713027016787279</v>
+        <v>48.712598589998606</v>
       </c>
       <c r="B343" s="0">
-        <v>2.2002868964236444</v>
+        <v>2.2008276696139419</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.713017181619783</v>
+        <v>48.712601550437512</v>
       </c>
       <c r="B344" s="0">
-        <v>2.2003228376356248</v>
+        <v>2.2008205608853455</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.713003326389071</v>
+        <v>48.712598341572345</v>
       </c>
       <c r="B345" s="0">
-        <v>2.2003682879286743</v>
+        <v>2.2008177213150306</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.713024737055918</v>
+        <v>48.71260668733008</v>
       </c>
       <c r="B346" s="0">
-        <v>2.2003690454745719</v>
+        <v>2.2008187677523772</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.712993774414585</v>
+        <v>48.712591883324841</v>
       </c>
       <c r="B347" s="0">
-        <v>2.2004136213718768</v>
+        <v>2.200811552986496</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.712995856480426</v>
+        <v>48.712596278956561</v>
       </c>
       <c r="B348" s="0">
-        <v>2.2004605046117747</v>
+        <v>2.200821432613985</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.713008668495149</v>
+        <v>48.71259415312749</v>
       </c>
       <c r="B349" s="0">
-        <v>2.200453308508735</v>
+        <v>2.200820888139126</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.713022128020874</v>
+        <v>48.712636118217034</v>
       </c>
       <c r="B350" s="0">
-        <v>2.2004869222969727</v>
+        <v>2.2008284727150418</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.713029627097079</v>
+        <v>48.712640357491026</v>
       </c>
       <c r="B351" s="0">
-        <v>2.2005073361110776</v>
+        <v>2.2008381887978796</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.71303096270541</v>
+        <v>48.712679037542309</v>
       </c>
       <c r="B352" s="0">
-        <v>2.2005503606626018</v>
+        <v>2.2008365260181972</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.71305389747193</v>
+        <v>48.712613125813583</v>
       </c>
       <c r="B353" s="0">
-        <v>2.2005915888161725</v>
+        <v>2.2008158104458291</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.713057068412304</v>
+        <v>48.712590992503301</v>
       </c>
       <c r="B354" s="0">
-        <v>2.2005980299472081</v>
+        <v>2.2008088743894812</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.713065585721005</v>
+        <v>48.712575095805853</v>
       </c>
       <c r="B355" s="0">
-        <v>2.2005582435895086</v>
+        <v>2.2008070055319133</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.713107516853043</v>
+        <v>48.712585110854995</v>
       </c>
       <c r="B356" s="0">
-        <v>2.2005722953653373</v>
+        <v>2.2008205841672806</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.713096499185944</v>
+        <v>48.712567914452038</v>
       </c>
       <c r="B357" s="0">
-        <v>2.200596212577659</v>
+        <v>2.200816930222973</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.71309277092903</v>
+        <v>48.712571452615102</v>
       </c>
       <c r="B358" s="0">
-        <v>2.2006180092539842</v>
+        <v>2.2008201954273696</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.713079330882842</v>
+        <v>48.712539528105211</v>
       </c>
       <c r="B359" s="0">
-        <v>2.2006582638165551</v>
+        <v>2.2008126779918293</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.71304482090293</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B360" s="0">
-        <v>2.2006339477342585</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.712977626545744</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B361" s="0">
-        <v>2.2005513868415707</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.712966123210826</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B362" s="0">
-        <v>2.2005507574070444</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.712955355510346</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B363" s="0">
-        <v>2.2005852801969321</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.712969773464444</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B364" s="0">
-        <v>2.2005870863448998</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.712992562353399</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B365" s="0">
-        <v>2.2005700115547229</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.713030739043433</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B366" s="0">
-        <v>2.2005224030224042</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.713038324009318</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B367" s="0">
-        <v>2.2004869367243254</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.713027712705809</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B368" s="0">
-        <v>2.2004167338058371</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.712998421892699</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B369" s="0">
-        <v>2.2003659719094326</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.713008109451124</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B370" s="0">
-        <v>2.2003073495915921</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.712984955679204</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B371" s="0">
-        <v>2.2002900169671267</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.712976075423853</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B372" s="0">
-        <v>2.2002607599018522</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.7129776008316</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B373" s="0">
-        <v>2.200257905596732</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.712959177624391</v>
+        <v>48.7125475401416</v>
       </c>
       <c r="B374" s="0">
-        <v>2.2002430056657238</v>
+        <v>2.2008161818874759</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.712980939656568</v>
+        <v>48.712564005976411</v>
       </c>
       <c r="B375" s="0">
-        <v>2.2002087240603938</v>
+        <v>2.2008482746989993</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.712960021478338</v>
+        <v>48.712569763732383</v>
       </c>
       <c r="B376" s="0">
-        <v>2.2001772799680142</v>
+        <v>2.2008605944127702</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.712950200929001</v>
+        <v>48.712697482095592</v>
       </c>
       <c r="B377" s="0">
-        <v>2.2001481161355376</v>
+        <v>2.2008946400812008</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.712950445429222</v>
+        <v>48.712697482095592</v>
       </c>
       <c r="B378" s="0">
-        <v>2.2001291786465047</v>
+        <v>2.2008946400812008</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.712928370722729</v>
+        <v>48.712697482095592</v>
       </c>
       <c r="B379" s="0">
-        <v>2.2001293818038961</v>
+        <v>2.2008946400812008</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.712898240027279</v>
+        <v>48.712697482095592</v>
       </c>
       <c r="B380" s="0">
-        <v>2.2001019026456685</v>
+        <v>2.2008946400812008</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.712898337924514</v>
+        <v>48.712595526846741</v>
       </c>
       <c r="B381" s="0">
-        <v>2.2001265932213849</v>
+        <v>2.2008864182186128</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.712947868356956</v>
+        <v>48.712595526846741</v>
       </c>
       <c r="B382" s="0">
-        <v>2.2001908477181562</v>
+        <v>2.2008864182186128</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.712946563767296</v>
+        <v>48.712595526846741</v>
       </c>
       <c r="B383" s="0">
-        <v>2.2002398007684576</v>
+        <v>2.2008864182186128</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.712938179946754</v>
+        <v>48.712675995390733</v>
       </c>
       <c r="B384" s="0">
-        <v>2.2002933678360099</v>
+        <v>2.2009063179743964</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.712900501719211</v>
+        <v>48.712675995390733</v>
       </c>
       <c r="B385" s="0">
-        <v>2.2003300388611922</v>
+        <v>2.2009063179743964</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>48.712847106832953</v>
+        <v>48.712675995390733</v>
       </c>
       <c r="B386" s="0">
-        <v>2.2003914835087515</v>
+        <v>2.2009063179743964</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>48.712826685025</v>
+        <v>48.712675995390733</v>
       </c>
       <c r="B387" s="0">
-        <v>2.2004107449467485</v>
+        <v>2.2009063179743964</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>48.712831248063012</v>
+        <v>48.712675995390733</v>
       </c>
       <c r="B388" s="0">
-        <v>2.200434326973395</v>
+        <v>2.2009063179743964</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>48.712802274844201</v>
+        <v>48.712675995390733</v>
       </c>
       <c r="B389" s="0">
-        <v>2.2004380659713827</v>
+        <v>2.2009063179743964</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>48.712784914686317</v>
+        <v>48.712602297920441</v>
       </c>
       <c r="B390" s="0">
-        <v>2.2004487993003807</v>
+        <v>2.20087494946352</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>48.712732339024306</v>
+        <v>48.712554684073176</v>
       </c>
       <c r="B391" s="0">
-        <v>2.2004675775480127</v>
+        <v>2.2008686160471891</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>48.712749561455809</v>
+        <v>48.712544085551841</v>
       </c>
       <c r="B392" s="0">
-        <v>2.2005103852490082</v>
+        <v>2.2008711066857463</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>48.712729405700863</v>
+        <v>48.712544464499921</v>
       </c>
       <c r="B393" s="0">
-        <v>2.2005192268352456</v>
+        <v>2.200858936850282</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>48.712712508059219</v>
+        <v>48.712508858700424</v>
       </c>
       <c r="B394" s="0">
-        <v>2.2004888911859331</v>
+        <v>2.2008373277631939</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>48.712702726148479</v>
+        <v>48.712492873976366</v>
       </c>
       <c r="B395" s="0">
-        <v>2.2004641474395603</v>
+        <v>2.2008368325676595</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>48.712729864296883</v>
+        <v>48.712481149227415</v>
       </c>
       <c r="B396" s="0">
-        <v>2.2004319970646447</v>
+        <v>2.2008317037780807</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>48.712740394686122</v>
+        <v>48.712510670056915</v>
       </c>
       <c r="B397" s="0">
-        <v>2.200396204000334</v>
+        <v>2.2008342639501319</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>48.712723164148073</v>
+        <v>48.712508320532152</v>
       </c>
       <c r="B398" s="0">
-        <v>2.2003416016104014</v>
+        <v>2.200831828696884</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>48.712709897811578</v>
+        <v>48.712492471635024</v>
       </c>
       <c r="B399" s="0">
-        <v>2.2002948189061584</v>
+        <v>2.200818842085877</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>48.712686624238032</v>
+        <v>48.712542334347852</v>
       </c>
       <c r="B400" s="0">
-        <v>2.2002411787537879</v>
+        <v>2.2008365820216453</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>48.712775995829993</v>
+        <v>48.712519814033577</v>
       </c>
       <c r="B401" s="0">
-        <v>2.2002375806652115</v>
+        <v>2.200838198272641</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>48.712770360438526</v>
+        <v>48.712509707419066</v>
       </c>
       <c r="B402" s="0">
-        <v>2.2002392012649823</v>
+        <v>2.2008370530928803</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>48.712764744804552</v>
+        <v>48.71254227817456</v>
       </c>
       <c r="B403" s="0">
-        <v>2.2002445037823222</v>
+        <v>2.2008447573717409</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>48.712728393095098</v>
+        <v>48.712523616689936</v>
       </c>
       <c r="B404" s="0">
-        <v>2.2002050669575302</v>
+        <v>2.2008387880951754</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>48.712722988944471</v>
+        <v>48.712568128844808</v>
       </c>
       <c r="B405" s="0">
-        <v>2.2001955084939402</v>
+        <v>2.2008554010358514</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>48.712749064653018</v>
+        <v>48.712600926250836</v>
       </c>
       <c r="B406" s="0">
-        <v>2.2002247429467019</v>
+        <v>2.2008591607756074</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>48.712795181965412</v>
+        <v>48.712577246627653</v>
       </c>
       <c r="B407" s="0">
-        <v>2.2002260242697735</v>
+        <v>2.2008620932704059</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>48.712867921555272</v>
+        <v>48.71253869027084</v>
       </c>
       <c r="B408" s="0">
-        <v>2.2002991704534507</v>
+        <v>2.2008402548405557</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>48.712903944716409</v>
+        <v>48.712515523858407</v>
       </c>
       <c r="B409" s="0">
-        <v>2.2002834048605258</v>
+        <v>2.2008464129022913</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>48.712538459222557</v>
+      </c>
+      <c r="B410" s="0">
+        <v>2.200859913952355</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>48.71249761120221</v>
+      </c>
+      <c r="B411" s="0">
+        <v>2.2008562048156142</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>48.712506076360889</v>
+      </c>
+      <c r="B412" s="0">
+        <v>2.200863421554137</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>48.712513211974923</v>
+      </c>
+      <c r="B413" s="0">
+        <v>2.2008683911104692</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>48.712488929990215</v>
+      </c>
+      <c r="B414" s="0">
+        <v>2.2008779245834136</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>48.712488491553657</v>
+      </c>
+      <c r="B415" s="0">
+        <v>2.2008845041845708</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>48.712474925937954</v>
+      </c>
+      <c r="B416" s="0">
+        <v>2.2008808968414395</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>48.712474925937954</v>
+      </c>
+      <c r="B417" s="0">
+        <v>2.2008808968414395</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>48.712457510568115</v>
+      </c>
+      <c r="B418" s="0">
+        <v>2.2008880349117041</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>48.712444446840145</v>
+      </c>
+      <c r="B419" s="0">
+        <v>2.2008732183987574</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>48.712444446840145</v>
+      </c>
+      <c r="B420" s="0">
+        <v>2.2008732183987574</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>48.712432509318674</v>
+      </c>
+      <c r="B421" s="0">
+        <v>2.2008762443730148</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>48.712452214317672</v>
+      </c>
+      <c r="B422" s="0">
+        <v>2.200884873825022</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>48.712453662155511</v>
+      </c>
+      <c r="B423" s="0">
+        <v>2.2008972893753462</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>48.712435612591648</v>
+      </c>
+      <c r="B424" s="0">
+        <v>2.2009064359045532</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>48.712454505607695</v>
+      </c>
+      <c r="B425" s="0">
+        <v>2.2009208897194643</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>48.712451157056073</v>
+      </c>
+      <c r="B426" s="0">
+        <v>2.2009300004262329</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>48.712463909420876</v>
+      </c>
+      <c r="B427" s="0">
+        <v>2.2009302335153373</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>48.712469364306564</v>
+      </c>
+      <c r="B428" s="0">
+        <v>2.2009278390043119</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>48.712447028551097</v>
+      </c>
+      <c r="B429" s="0">
+        <v>2.2009217041619755</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>48.71246092386292</v>
+      </c>
+      <c r="B430" s="0">
+        <v>2.2009297482093682</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>48.712444637670771</v>
+      </c>
+      <c r="B431" s="0">
+        <v>2.2009168716162013</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>48.712433763032124</v>
+      </c>
+      <c r="B432" s="0">
+        <v>2.200932599687953</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>48.712411251501855</v>
+      </c>
+      <c r="B433" s="0">
+        <v>2.2009217222132</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>48.712426097627386</v>
+      </c>
+      <c r="B434" s="0">
+        <v>2.2009227148654249</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>48.712415141035415</v>
+      </c>
+      <c r="B435" s="0">
+        <v>2.2009167676767585</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>48.712447091836545</v>
+      </c>
+      <c r="B436" s="0">
+        <v>2.200911424980621</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0">
+        <v>48.712454941958775</v>
+      </c>
+      <c r="B437" s="0">
+        <v>2.2009210045818413</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0">
+        <v>48.712404315745623</v>
+      </c>
+      <c r="B438" s="0">
+        <v>2.2009047548051286</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0">
+        <v>48.712342271337597</v>
+      </c>
+      <c r="B439" s="0">
+        <v>2.2008774429534497</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0">
+        <v>48.712340374520124</v>
+      </c>
+      <c r="B440" s="0">
+        <v>2.2008822581764615</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0">
+        <v>48.712340374520124</v>
+      </c>
+      <c r="B441" s="0">
+        <v>2.2008822581764615</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0">
+        <v>48.712340374520124</v>
+      </c>
+      <c r="B442" s="0">
+        <v>2.2008822581764615</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0">
+        <v>48.712340374520124</v>
+      </c>
+      <c r="B443" s="0">
+        <v>2.2008822581764615</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0">
+        <v>48.712340374520124</v>
+      </c>
+      <c r="B444" s="0">
+        <v>2.2008822581764615</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0">
+        <v>48.712340374520124</v>
+      </c>
+      <c r="B445" s="0">
+        <v>2.2008822581764615</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0">
+        <v>48.712340374520124</v>
+      </c>
+      <c r="B446" s="0">
+        <v>2.2008822581764615</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0">
+        <v>48.712340374520124</v>
+      </c>
+      <c r="B447" s="0">
+        <v>2.2008822581764615</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0">
+        <v>48.712432608125482</v>
+      </c>
+      <c r="B448" s="0">
+        <v>2.2008606535736317</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0">
+        <v>48.712438155507563</v>
+      </c>
+      <c r="B449" s="0">
+        <v>2.2008568119847389</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0">
+        <v>48.712450111462161</v>
+      </c>
+      <c r="B450" s="0">
+        <v>2.2008500487120846</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0">
+        <v>48.712350263862696</v>
+      </c>
+      <c r="B451" s="0">
+        <v>2.2008194099961029</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0">
+        <v>48.712350263862696</v>
+      </c>
+      <c r="B452" s="0">
+        <v>2.2008194099961029</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0">
+        <v>48.712350263862696</v>
+      </c>
+      <c r="B453" s="0">
+        <v>2.2008194099961029</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0">
+        <v>48.712350263862696</v>
+      </c>
+      <c r="B454" s="0">
+        <v>2.2008194099961029</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0">
+        <v>48.712350263862696</v>
+      </c>
+      <c r="B455" s="0">
+        <v>2.2008194099961029</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0">
+        <v>48.712350263862696</v>
+      </c>
+      <c r="B456" s="0">
+        <v>2.2008194099961029</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0">
+        <v>48.712345221658651</v>
+      </c>
+      <c r="B457" s="0">
+        <v>2.2007729449310078</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B458" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B459" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B460" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B461" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B462" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B463" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B464" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B465" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B466" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B467" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B468" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B469" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B470" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B471" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B472" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B473" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B474" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B475" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B476" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B477" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B478" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0">
+        <v>48.712352828206349</v>
+      </c>
+      <c r="B479" s="0">
+        <v>2.2007689562826327</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0">
+        <v>48.712828312225575</v>
+      </c>
+      <c r="B480" s="0">
+        <v>2.2008447573071992</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0">
+        <v>48.712827856811899</v>
+      </c>
+      <c r="B481" s="0">
+        <v>2.2008578111014381</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0">
+        <v>48.712762825674517</v>
+      </c>
+      <c r="B482" s="0">
+        <v>2.200854067731882</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0">
+        <v>48.712762825674517</v>
+      </c>
+      <c r="B483" s="0">
+        <v>2.200854067731882</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0">
+        <v>48.712762825674517</v>
+      </c>
+      <c r="B484" s="0">
+        <v>2.200854067731882</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0">
+        <v>48.712762825674517</v>
+      </c>
+      <c r="B485" s="0">
+        <v>2.200854067731882</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0">
+        <v>48.712762825674517</v>
+      </c>
+      <c r="B486" s="0">
+        <v>2.200854067731882</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0">
+        <v>48.712708066300849</v>
+      </c>
+      <c r="B487" s="0">
+        <v>2.2008606412650331</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0">
+        <v>48.712742330834907</v>
+      </c>
+      <c r="B488" s="0">
+        <v>2.2008680956999198</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="0">
+        <v>48.712772495886085</v>
+      </c>
+      <c r="B489" s="0">
+        <v>2.2008722962070997</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0">
+        <v>48.712748727331579</v>
+      </c>
+      <c r="B490" s="0">
+        <v>2.2008708608339633</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="0">
+        <v>48.712748727331579</v>
+      </c>
+      <c r="B491" s="0">
+        <v>2.2008708608339633</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="0">
+        <v>48.712748727331579</v>
+      </c>
+      <c r="B492" s="0">
+        <v>2.2008708608339633</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0">
+        <v>48.712748727331579</v>
+      </c>
+      <c r="B493" s="0">
+        <v>2.2008708608339633</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="0">
+        <v>48.712748727331579</v>
+      </c>
+      <c r="B494" s="0">
+        <v>2.2008708608339633</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="0">
+        <v>48.712748727331579</v>
+      </c>
+      <c r="B495" s="0">
+        <v>2.2008708608339633</v>
       </c>
     </row>
   </sheetData>

--- a/CalculePos_quasi_RTK/PosWGS84_code.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_code.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B495"/>
+  <dimension ref="A1:B464"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65,3962 +65,3714 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.712686557206624</v>
+        <v>48.712740522551904</v>
       </c>
       <c r="B1" s="0">
-        <v>2.2009344645771445</v>
+        <v>2.2006629228722532</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.712689948471102</v>
+        <v>48.712741431948494</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2009290738129814</v>
+        <v>2.2006750747141375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.712674223409572</v>
+        <v>48.712745519251136</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2009292027164373</v>
+        <v>2.2006916095886737</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.712666929193645</v>
+        <v>48.712741337698851</v>
       </c>
       <c r="B4" s="0">
-        <v>2.2009248047618772</v>
+        <v>2.2007001348757589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.712647294614712</v>
+        <v>48.712739282589347</v>
       </c>
       <c r="B5" s="0">
-        <v>2.2009247218058405</v>
+        <v>2.2007004208547949</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.712635527926338</v>
+        <v>48.712738900199653</v>
       </c>
       <c r="B6" s="0">
-        <v>2.2009276823608328</v>
+        <v>2.2007052380176746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.712630476344117</v>
+        <v>48.712734470349382</v>
       </c>
       <c r="B7" s="0">
-        <v>2.2009264604795127</v>
+        <v>2.2007005915711027</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.71262579156263</v>
+        <v>48.712737677645521</v>
       </c>
       <c r="B8" s="0">
-        <v>2.2009229053809358</v>
+        <v>2.200710997408267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.712611840128019</v>
+        <v>48.712739645824826</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2009301795760052</v>
+        <v>2.2006975389664323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.712608484869456</v>
+        <v>48.712736820907011</v>
       </c>
       <c r="B10" s="0">
-        <v>2.2009319987269227</v>
+        <v>2.20068456917988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.712605046087646</v>
+        <v>48.712742205934482</v>
       </c>
       <c r="B11" s="0">
-        <v>2.2009291553592738</v>
+        <v>2.2006847891519068</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.712599079975405</v>
+        <v>48.712747516958849</v>
       </c>
       <c r="B12" s="0">
-        <v>2.2009254073219831</v>
+        <v>2.2006958207473626</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.712602580384292</v>
+        <v>48.712748802504017</v>
       </c>
       <c r="B13" s="0">
-        <v>2.2009179925339764</v>
+        <v>2.2007027324718544</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.712611265277701</v>
+        <v>48.712757534191795</v>
       </c>
       <c r="B14" s="0">
-        <v>2.2009140223117716</v>
+        <v>2.2006979990100284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.712605562200494</v>
+        <v>48.712748398689506</v>
       </c>
       <c r="B15" s="0">
-        <v>2.2009103286855409</v>
+        <v>2.2006966577792859</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.712603705359783</v>
+        <v>48.712746625239234</v>
       </c>
       <c r="B16" s="0">
-        <v>2.200916688637109</v>
+        <v>2.200661764893558</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.712609184107052</v>
+        <v>48.712743390250829</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2009148100442002</v>
+        <v>2.2006403232876326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.712600281043322</v>
+        <v>48.71275642775371</v>
       </c>
       <c r="B18" s="0">
-        <v>2.2009193450681091</v>
+        <v>2.2006689558539341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.712603635142379</v>
+        <v>48.712758763854673</v>
       </c>
       <c r="B19" s="0">
-        <v>2.2009213907081398</v>
+        <v>2.2006773600042431</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.712603008139517</v>
+        <v>48.712756463275845</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2009195642454387</v>
+        <v>2.2006629813608867</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.71260477694161</v>
+        <v>48.712753648307434</v>
       </c>
       <c r="B21" s="0">
-        <v>2.2009195027507622</v>
+        <v>2.2006468592653472</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.712612262611153</v>
+        <v>48.712762193563066</v>
       </c>
       <c r="B22" s="0">
-        <v>2.2009224537032037</v>
+        <v>2.2006663381527583</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.712626361776778</v>
+        <v>48.712759312354528</v>
       </c>
       <c r="B23" s="0">
-        <v>2.2009198300887221</v>
+        <v>2.2006496077977582</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.712621624528168</v>
+        <v>48.7127494416928</v>
       </c>
       <c r="B24" s="0">
-        <v>2.2009285302792314</v>
+        <v>2.2006221375179571</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.712620953619954</v>
+        <v>48.712745629914771</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2009370210796289</v>
+        <v>2.2006113388176831</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.712635514574366</v>
+        <v>48.712753493293782</v>
       </c>
       <c r="B26" s="0">
-        <v>2.2009459615620268</v>
+        <v>2.200631512422742</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.712645139495571</v>
+        <v>48.712741881586645</v>
       </c>
       <c r="B27" s="0">
-        <v>2.2009510013740066</v>
+        <v>2.20063945352035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.712656905830215</v>
+        <v>48.712736381030503</v>
       </c>
       <c r="B28" s="0">
-        <v>2.2009571862921917</v>
+        <v>2.2006118301785205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.712676693527477</v>
+        <v>48.712721931472025</v>
       </c>
       <c r="B29" s="0">
-        <v>2.2009558115219359</v>
+        <v>2.2005881609479277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.712729917188689</v>
+        <v>48.712745937149009</v>
       </c>
       <c r="B30" s="0">
-        <v>2.2009609829364911</v>
+        <v>2.2007092403371011</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.712729917188689</v>
+        <v>48.712749251214262</v>
       </c>
       <c r="B31" s="0">
-        <v>2.2009609829364911</v>
+        <v>2.2007081822808403</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.712729917188689</v>
+        <v>48.712758822468892</v>
       </c>
       <c r="B32" s="0">
-        <v>2.2009609829364911</v>
+        <v>2.2007400525241447</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.712729917188689</v>
+        <v>48.712753390114223</v>
       </c>
       <c r="B33" s="0">
-        <v>2.2009609829364911</v>
+        <v>2.2006845203671062</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.712729917188689</v>
+        <v>48.712759573634116</v>
       </c>
       <c r="B34" s="0">
-        <v>2.2009609829364911</v>
+        <v>2.2006903962214364</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.712729917188689</v>
+        <v>48.712768137782973</v>
       </c>
       <c r="B35" s="0">
-        <v>2.2009609829364911</v>
+        <v>2.2007105089261665</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.712729917188689</v>
+        <v>48.712757765989466</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2009609829364911</v>
+        <v>2.2006978296232336</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.712729917188689</v>
+        <v>48.712774271719233</v>
       </c>
       <c r="B37" s="0">
-        <v>2.2009609829364911</v>
+        <v>2.2007010665684215</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.712729917188689</v>
+        <v>48.712766097864964</v>
       </c>
       <c r="B38" s="0">
-        <v>2.2009609829364911</v>
+        <v>2.2006262504874368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.71240328372236</v>
+        <v>48.712780982686326</v>
       </c>
       <c r="B39" s="0">
-        <v>2.2008762799166366</v>
+        <v>2.2006900720887184</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.712357622880795</v>
+        <v>48.7127871797761</v>
       </c>
       <c r="B40" s="0">
-        <v>2.2008649228362613</v>
+        <v>2.2006734808530291</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.712362893433898</v>
+        <v>48.71279230688517</v>
       </c>
       <c r="B41" s="0">
-        <v>2.2008713471312862</v>
+        <v>2.2006565301037053</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.712371298086119</v>
+        <v>48.712805432100893</v>
       </c>
       <c r="B42" s="0">
-        <v>2.2008754816518241</v>
+        <v>2.2006641258202317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.712355666282221</v>
+        <v>48.712808549544</v>
       </c>
       <c r="B43" s="0">
-        <v>2.2008674634209568</v>
+        <v>2.2006502625573399</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.712336134391634</v>
+        <v>48.712811181100548</v>
       </c>
       <c r="B44" s="0">
-        <v>2.2008531320029396</v>
+        <v>2.2006784779001105</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.712336974108219</v>
+        <v>48.712832271680455</v>
       </c>
       <c r="B45" s="0">
-        <v>2.2008596073373137</v>
+        <v>2.2007349145045221</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.712315203611055</v>
+        <v>48.712814882266521</v>
       </c>
       <c r="B46" s="0">
-        <v>2.2008474052698155</v>
+        <v>2.2006574753211403</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.712315148549287</v>
+        <v>48.712835918233708</v>
       </c>
       <c r="B47" s="0">
-        <v>2.200844145222852</v>
+        <v>2.2006962090511326</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.712314666539683</v>
+        <v>48.712839072849896</v>
       </c>
       <c r="B48" s="0">
-        <v>2.200843457921958</v>
+        <v>2.2006908113481161</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.712311971840705</v>
+        <v>48.712858268980945</v>
       </c>
       <c r="B49" s="0">
-        <v>2.2008422075259992</v>
+        <v>2.2007333329975545</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.712309030223899</v>
+        <v>48.712871437424887</v>
       </c>
       <c r="B50" s="0">
-        <v>2.2008479586430654</v>
+        <v>2.2007167666006988</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.712311186130471</v>
+        <v>48.712882681349925</v>
       </c>
       <c r="B51" s="0">
-        <v>2.2008450838781797</v>
+        <v>2.2007208252699391</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.712320444245698</v>
+        <v>48.712875545263742</v>
       </c>
       <c r="B52" s="0">
-        <v>2.2008451030823051</v>
+        <v>2.2007097823730746</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.712330052169463</v>
+        <v>48.712843071323498</v>
       </c>
       <c r="B53" s="0">
-        <v>2.2008461367149716</v>
+        <v>2.2006605852886452</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.712337009432794</v>
+        <v>48.712810221455811</v>
       </c>
       <c r="B54" s="0">
-        <v>2.2008512799170417</v>
+        <v>2.200718078320385</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.712343655486329</v>
+        <v>48.712827618451627</v>
       </c>
       <c r="B55" s="0">
-        <v>2.2008528438537098</v>
+        <v>2.2007255323701371</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.712362127328376</v>
+        <v>48.712835530140779</v>
       </c>
       <c r="B56" s="0">
-        <v>2.2008548002424164</v>
+        <v>2.2007638141437038</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.712374491023695</v>
+        <v>48.712872532590055</v>
       </c>
       <c r="B57" s="0">
-        <v>2.2008500294549376</v>
+        <v>2.2006525205273029</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.712390657612325</v>
+        <v>48.712891236958981</v>
       </c>
       <c r="B58" s="0">
-        <v>2.2008537526749006</v>
+        <v>2.2005923769244307</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.712411757401327</v>
+        <v>48.712876777869461</v>
       </c>
       <c r="B59" s="0">
-        <v>2.2008510549212268</v>
+        <v>2.2006524267881264</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.712417599082684</v>
+        <v>48.712866264799018</v>
       </c>
       <c r="B60" s="0">
-        <v>2.2008600849455968</v>
+        <v>2.2006675989406279</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.712419686218411</v>
+        <v>48.712860539496859</v>
       </c>
       <c r="B61" s="0">
-        <v>2.2008636006334044</v>
+        <v>2.2007032408939393</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.712430990196559</v>
+        <v>48.712864767477541</v>
       </c>
       <c r="B62" s="0">
-        <v>2.2008600030699883</v>
+        <v>2.2007356489297609</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.712443017491161</v>
+        <v>48.712837324035462</v>
       </c>
       <c r="B63" s="0">
-        <v>2.2008589352094883</v>
+        <v>2.2007989016751837</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.712443416541397</v>
+        <v>48.712813591837339</v>
       </c>
       <c r="B64" s="0">
-        <v>2.2008713009030259</v>
+        <v>2.2008541116409051</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.712453623346384</v>
+        <v>48.712774951242011</v>
       </c>
       <c r="B65" s="0">
-        <v>2.2008741872482691</v>
+        <v>2.2009531506475861</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.712461334243749</v>
+        <v>48.712745727157213</v>
       </c>
       <c r="B66" s="0">
-        <v>2.2008711138481059</v>
+        <v>2.2010474471801129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.712461270317583</v>
+        <v>48.712733970013872</v>
       </c>
       <c r="B67" s="0">
-        <v>2.2008688588418961</v>
+        <v>2.2010903806254141</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.712471143063255</v>
+        <v>48.712735930818944</v>
       </c>
       <c r="B68" s="0">
-        <v>2.200871594990248</v>
+        <v>2.2010544697380854</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.712472248188121</v>
+        <v>48.712752170264366</v>
       </c>
       <c r="B69" s="0">
-        <v>2.2008666681752724</v>
+        <v>2.2010531261541426</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.712473577326364</v>
+        <v>48.71273509712622</v>
       </c>
       <c r="B70" s="0">
-        <v>2.2008644331668412</v>
+        <v>2.2010605146371449</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.712477021384011</v>
+        <v>48.712747347614574</v>
       </c>
       <c r="B71" s="0">
-        <v>2.2008609635049261</v>
+        <v>2.2010546208838675</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.712473373989433</v>
+        <v>48.71273069115778</v>
       </c>
       <c r="B72" s="0">
-        <v>2.2008530341997168</v>
+        <v>2.2010749907265286</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.712478877752396</v>
+        <v>48.712728246309275</v>
       </c>
       <c r="B73" s="0">
-        <v>2.2008679712519572</v>
+        <v>2.201095707294479</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.712478387621609</v>
+        <v>48.71273048944763</v>
       </c>
       <c r="B74" s="0">
-        <v>2.2008595377906146</v>
+        <v>2.201071381516535</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.712476179547899</v>
+        <v>48.712752053776896</v>
       </c>
       <c r="B75" s="0">
-        <v>2.2008552431992006</v>
+        <v>2.2010429468967394</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.712469143414062</v>
+        <v>48.712756671013274</v>
       </c>
       <c r="B76" s="0">
-        <v>2.2008602391340597</v>
+        <v>2.2010244270525798</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.712465337473581</v>
+        <v>48.712763405582379</v>
       </c>
       <c r="B77" s="0">
-        <v>2.2008560668614528</v>
+        <v>2.2009945054299576</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.712450689086616</v>
+        <v>48.712830599349431</v>
       </c>
       <c r="B78" s="0">
-        <v>2.2008633420730948</v>
+        <v>2.2008508036099586</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.712453728315332</v>
+        <v>48.712831724178329</v>
       </c>
       <c r="B79" s="0">
-        <v>2.2008627021640224</v>
+        <v>2.2008635384190698</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.712446504789419</v>
+        <v>48.712847661012369</v>
       </c>
       <c r="B80" s="0">
-        <v>2.2008555619651471</v>
+        <v>2.2008185338846991</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.712435960516515</v>
+        <v>48.712833951136666</v>
       </c>
       <c r="B81" s="0">
-        <v>2.2008531818301313</v>
+        <v>2.2008467597435657</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.712431633060731</v>
+        <v>48.712856517759114</v>
       </c>
       <c r="B82" s="0">
-        <v>2.2008552088502289</v>
+        <v>2.2008015601416173</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.712426722904255</v>
+        <v>48.712827709186357</v>
       </c>
       <c r="B83" s="0">
-        <v>2.2008491937925498</v>
+        <v>2.200856396646933</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.712378496368643</v>
+        <v>48.712818653524835</v>
       </c>
       <c r="B84" s="0">
-        <v>2.200836410602776</v>
+        <v>2.2008663838674498</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.712303268327027</v>
+        <v>48.712779623267075</v>
       </c>
       <c r="B85" s="0">
-        <v>2.2008098392980275</v>
+        <v>2.2008803758406574</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.712317742064165</v>
+        <v>48.712742927280019</v>
       </c>
       <c r="B86" s="0">
-        <v>2.2007999072367404</v>
+        <v>2.2009923563391101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.712376377963821</v>
+        <v>48.712776473063627</v>
       </c>
       <c r="B87" s="0">
-        <v>2.200809597608226</v>
+        <v>2.2008035331584055</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.712411998928225</v>
+        <v>48.712812571254261</v>
       </c>
       <c r="B88" s="0">
-        <v>2.2008196308194496</v>
+        <v>2.2008997281384959</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.712472179144214</v>
+        <v>48.712806735218528</v>
       </c>
       <c r="B89" s="0">
-        <v>2.200844023581114</v>
+        <v>2.2008950657445392</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.712487970110281</v>
+        <v>48.712784027125707</v>
       </c>
       <c r="B90" s="0">
-        <v>2.200846870082108</v>
+        <v>2.2007462816385144</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.712565996428587</v>
+        <v>48.712794662781796</v>
       </c>
       <c r="B91" s="0">
-        <v>2.2008594271162036</v>
+        <v>2.2009559576395175</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.712586306352065</v>
+        <v>48.712805226699778</v>
       </c>
       <c r="B92" s="0">
-        <v>2.2008741573286659</v>
+        <v>2.2009241000917692</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.71265028523063</v>
+        <v>48.712733034036745</v>
       </c>
       <c r="B93" s="0">
-        <v>2.2008845921178022</v>
+        <v>2.2006736377919589</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.712723090016965</v>
+        <v>48.712740479808289</v>
       </c>
       <c r="B94" s="0">
-        <v>2.2009137830706989</v>
+        <v>2.2006865245155654</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.712692506791271</v>
+        <v>48.712742535108873</v>
       </c>
       <c r="B95" s="0">
-        <v>2.2008958018962281</v>
+        <v>2.200704837229222</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.712715528843972</v>
+        <v>48.712769399866779</v>
       </c>
       <c r="B96" s="0">
-        <v>2.2009049410275141</v>
+        <v>2.2007144481890775</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.712757659886854</v>
+        <v>48.712787956472511</v>
       </c>
       <c r="B97" s="0">
-        <v>2.2009172325529769</v>
+        <v>2.2007343472626322</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.712783258971378</v>
+        <v>48.712762869969403</v>
       </c>
       <c r="B98" s="0">
-        <v>2.2009205352817802</v>
+        <v>2.2006173380021505</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.712796573660043</v>
+        <v>48.712782282349927</v>
       </c>
       <c r="B99" s="0">
-        <v>2.200930979604419</v>
+        <v>2.2006901263652678</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.712841969589228</v>
+        <v>48.712784738907054</v>
       </c>
       <c r="B100" s="0">
-        <v>2.2009483064698259</v>
+        <v>2.2006908158129677</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.712868499487058</v>
+        <v>48.712799163222421</v>
       </c>
       <c r="B101" s="0">
-        <v>2.2009596952141233</v>
+        <v>2.2007110225196467</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.712885571397159</v>
+        <v>48.712807662000216</v>
       </c>
       <c r="B102" s="0">
-        <v>2.200962891882257</v>
+        <v>2.2007174428636125</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.712910840935919</v>
+        <v>48.712803903767735</v>
       </c>
       <c r="B103" s="0">
-        <v>2.2009666156563141</v>
+        <v>2.2006673720494918</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.712918686174341</v>
+        <v>48.71281177672455</v>
       </c>
       <c r="B104" s="0">
-        <v>2.2009728579340662</v>
+        <v>2.2006797946208501</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.712918570402799</v>
+        <v>48.712830356596818</v>
       </c>
       <c r="B105" s="0">
-        <v>2.2009741011336619</v>
+        <v>2.2007013129621451</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.712950371541062</v>
+        <v>48.712835519788641</v>
       </c>
       <c r="B106" s="0">
-        <v>2.2009729404762117</v>
+        <v>2.2006538336612551</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.712942893557376</v>
+        <v>48.712829173504311</v>
       </c>
       <c r="B107" s="0">
-        <v>2.2009795218871466</v>
+        <v>2.2006924623553657</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.712943956442864</v>
+        <v>48.712855941550807</v>
       </c>
       <c r="B108" s="0">
-        <v>2.2009676447738045</v>
+        <v>2.200730763023949</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.712938158734069</v>
+        <v>48.71285558744129</v>
       </c>
       <c r="B109" s="0">
-        <v>2.2009607824601423</v>
+        <v>2.2006657021662379</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.712894855524148</v>
+        <v>48.712851565166659</v>
       </c>
       <c r="B110" s="0">
-        <v>2.2009436199456141</v>
+        <v>2.2006478897755319</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.712886873063418</v>
+        <v>48.712855980375529</v>
       </c>
       <c r="B111" s="0">
-        <v>2.2009417956227866</v>
+        <v>2.2006719082604587</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.712846769661375</v>
+        <v>48.712852739661194</v>
       </c>
       <c r="B112" s="0">
-        <v>2.2009238674944554</v>
+        <v>2.2007082813024348</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.712796820101175</v>
+        <v>48.712850553831686</v>
       </c>
       <c r="B113" s="0">
-        <v>2.2009176278288862</v>
+        <v>2.2006607240025131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.712731673826838</v>
+        <v>48.712836482663882</v>
       </c>
       <c r="B114" s="0">
-        <v>2.200901128372549</v>
+        <v>2.2006934896861483</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.712670747790376</v>
+        <v>48.712855775340003</v>
       </c>
       <c r="B115" s="0">
-        <v>2.2008902392562288</v>
+        <v>2.2007100104183808</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.712564116554674</v>
+        <v>48.712860087909256</v>
       </c>
       <c r="B116" s="0">
-        <v>2.2008627369064939</v>
+        <v>2.2007251418786247</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.712457516157826</v>
+        <v>48.712845316163161</v>
       </c>
       <c r="B117" s="0">
-        <v>2.2008355933649932</v>
+        <v>2.200753968388141</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.712365395858704</v>
+        <v>48.712849096058882</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2008052726174467</v>
+        <v>2.2007328799617576</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.71230807130538</v>
+        <v>48.712859122917124</v>
       </c>
       <c r="B119" s="0">
-        <v>2.2008068509988639</v>
+        <v>2.2007376208505063</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.712275946191298</v>
+        <v>48.712853445880882</v>
       </c>
       <c r="B120" s="0">
-        <v>2.2007916676767234</v>
+        <v>2.2007765496508633</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.712258440857362</v>
+        <v>48.712817665680376</v>
       </c>
       <c r="B121" s="0">
-        <v>2.2008089644622286</v>
+        <v>2.2008967940926141</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.712272875694708</v>
+        <v>48.712789249934225</v>
       </c>
       <c r="B122" s="0">
-        <v>2.200803928266649</v>
+        <v>2.2009381473589462</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.712323481428136</v>
+        <v>48.7127770634619</v>
       </c>
       <c r="B123" s="0">
-        <v>2.2008210614751866</v>
+        <v>2.2009923846781585</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.712325983147281</v>
+        <v>48.712776175162446</v>
       </c>
       <c r="B124" s="0">
-        <v>2.2008185275420833</v>
+        <v>2.2009874734497692</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.712376254716332</v>
+        <v>48.71276055686959</v>
       </c>
       <c r="B125" s="0">
-        <v>2.2008276678090715</v>
+        <v>2.2010451308076795</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.712411732875914</v>
+        <v>48.712753876701441</v>
       </c>
       <c r="B126" s="0">
-        <v>2.2008488281512051</v>
+        <v>2.2010609728927104</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.712414926927273</v>
+        <v>48.712722729610995</v>
       </c>
       <c r="B127" s="0">
-        <v>2.2008542472008874</v>
+        <v>2.2011098045931394</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.712437579875271</v>
+        <v>48.712742388937244</v>
       </c>
       <c r="B128" s="0">
-        <v>2.2008560713305032</v>
+        <v>2.201066693232109</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.712469123335339</v>
+        <v>48.712725982069316</v>
       </c>
       <c r="B129" s="0">
-        <v>2.2008592479569327</v>
+        <v>2.2011015017285693</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.712469672616166</v>
+        <v>48.712733137327078</v>
       </c>
       <c r="B130" s="0">
-        <v>2.2008621688381731</v>
+        <v>2.2010943331123269</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.712448981362598</v>
+        <v>48.712752808445764</v>
       </c>
       <c r="B131" s="0">
-        <v>2.2008553073240256</v>
+        <v>2.2010526675652078</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.71244221135084</v>
+        <v>48.712791683486657</v>
       </c>
       <c r="B132" s="0">
-        <v>2.2008523616514455</v>
+        <v>2.200961512955081</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.712452944685296</v>
+        <v>48.71275872343012</v>
       </c>
       <c r="B133" s="0">
-        <v>2.2008611537174931</v>
+        <v>2.2010330601707255</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.712452944685296</v>
+        <v>48.712832645592719</v>
       </c>
       <c r="B134" s="0">
-        <v>2.2008611537174931</v>
+        <v>2.2008544983929452</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.712452944685296</v>
+        <v>48.71286560780824</v>
       </c>
       <c r="B135" s="0">
-        <v>2.2008611537174931</v>
+        <v>2.2007776915320436</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.712452944685296</v>
+        <v>48.712843018533178</v>
       </c>
       <c r="B136" s="0">
-        <v>2.2008611537174931</v>
+        <v>2.2008522456796396</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.712450091904564</v>
+        <v>48.712827220357575</v>
       </c>
       <c r="B137" s="0">
-        <v>2.2008634993226104</v>
+        <v>2.2008708970739339</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.712450091904564</v>
+        <v>48.712832250781219</v>
       </c>
       <c r="B138" s="0">
-        <v>2.2008634993226104</v>
+        <v>2.2008547066696296</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.712451165917692</v>
+        <v>48.712830299497192</v>
       </c>
       <c r="B139" s="0">
-        <v>2.2008651629471805</v>
+        <v>2.2008827737652474</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.712451165917692</v>
+        <v>48.712806346824024</v>
       </c>
       <c r="B140" s="0">
-        <v>2.2008651629471805</v>
+        <v>2.2009190974200568</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.712451165917692</v>
+        <v>48.712782558401216</v>
       </c>
       <c r="B141" s="0">
-        <v>2.2008651629471805</v>
+        <v>2.2008259471859368</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.712451165917692</v>
+        <v>48.712790423841696</v>
       </c>
       <c r="B142" s="0">
-        <v>2.2008651629471805</v>
+        <v>2.2008587774425639</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.712451165917692</v>
+        <v>48.712770361235634</v>
       </c>
       <c r="B143" s="0">
-        <v>2.2008651629471805</v>
+        <v>2.2006898568619247</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.712666007856278</v>
+        <v>48.712758469064291</v>
       </c>
       <c r="B144" s="0">
-        <v>2.2009097315404844</v>
+        <v>2.2007750849332566</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.712643619806819</v>
+        <v>48.712758768813536</v>
       </c>
       <c r="B145" s="0">
-        <v>2.2009118225487825</v>
+        <v>2.2007496329057079</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.71262706504092</v>
+        <v>48.712710151257767</v>
       </c>
       <c r="B146" s="0">
-        <v>2.2009140842669761</v>
+        <v>2.2008156244692754</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.712600675427687</v>
+        <v>48.712756796739242</v>
       </c>
       <c r="B147" s="0">
-        <v>2.200901233394148</v>
+        <v>2.2006953220954912</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.712600675427687</v>
+        <v>48.712744507512497</v>
       </c>
       <c r="B148" s="0">
-        <v>2.200901233394148</v>
+        <v>2.2007537615987372</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.712600675427687</v>
+        <v>48.712741482466249</v>
       </c>
       <c r="B149" s="0">
-        <v>2.200901233394148</v>
+        <v>2.2006882751665571</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.712600675427687</v>
+        <v>48.712761562505335</v>
       </c>
       <c r="B150" s="0">
-        <v>2.200901233394148</v>
+        <v>2.2007110487404118</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.712600675427687</v>
+        <v>48.712759843604701</v>
       </c>
       <c r="B151" s="0">
-        <v>2.200901233394148</v>
+        <v>2.2006872052598743</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.712600675427687</v>
+        <v>48.712765369536264</v>
       </c>
       <c r="B152" s="0">
-        <v>2.200901233394148</v>
+        <v>2.2006611972001857</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.712600675427687</v>
+        <v>48.712784590626292</v>
       </c>
       <c r="B153" s="0">
-        <v>2.200901233394148</v>
+        <v>2.2007429998687567</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.712601446270753</v>
+        <v>48.712788933601935</v>
       </c>
       <c r="B154" s="0">
-        <v>2.2008929335901946</v>
+        <v>2.2006827678625585</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.712601446270753</v>
+        <v>48.712805537126613</v>
       </c>
       <c r="B155" s="0">
-        <v>2.2008929335901946</v>
+        <v>2.2007412328752141</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.712601446270753</v>
+        <v>48.712813229166187</v>
       </c>
       <c r="B156" s="0">
-        <v>2.2008929335901946</v>
+        <v>2.2007247272899857</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.712601446270753</v>
+        <v>48.712824700381155</v>
       </c>
       <c r="B157" s="0">
-        <v>2.2008929335901946</v>
+        <v>2.200749594216703</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.712601446270753</v>
+        <v>48.712840883013144</v>
       </c>
       <c r="B158" s="0">
-        <v>2.2008929335901946</v>
+        <v>2.200754166909523</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.712601446270753</v>
+        <v>48.712852383612237</v>
       </c>
       <c r="B159" s="0">
-        <v>2.2008929335901946</v>
+        <v>2.2007693666038777</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712851761888409</v>
       </c>
       <c r="B160" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2007244532844266</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712852978539658</v>
       </c>
       <c r="B161" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2007081703623719</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.712776492976779</v>
+        <v>48.71286565740165</v>
       </c>
       <c r="B162" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2007197777769774</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712876001056991</v>
       </c>
       <c r="B163" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2007340139661746</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712865213120587</v>
       </c>
       <c r="B164" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2006442735711835</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712862429968894</v>
       </c>
       <c r="B165" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2006575712719876</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712889689469613</v>
       </c>
       <c r="B166" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2007277865534021</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712859113668266</v>
       </c>
       <c r="B167" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2007099436431949</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.712776492976779</v>
+        <v>48.71285625291106</v>
       </c>
       <c r="B168" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2007642895381152</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712847237194779</v>
       </c>
       <c r="B169" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2007374405651712</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.712776492976779</v>
+        <v>48.71285643070997</v>
       </c>
       <c r="B170" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2007184468415524</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712875314388462</v>
       </c>
       <c r="B171" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.200743268835498</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712868358780767</v>
       </c>
       <c r="B172" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.200736340777095</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712865216914672</v>
       </c>
       <c r="B173" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2007935750075212</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712851699459854</v>
       </c>
       <c r="B174" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2008619311370783</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712834603654599</v>
       </c>
       <c r="B175" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2008922767330841</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.712776492976779</v>
+        <v>48.71280050724117</v>
       </c>
       <c r="B176" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2009442470167877</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712800703811844</v>
       </c>
       <c r="B177" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2009494174604689</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712771332949856</v>
       </c>
       <c r="B178" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2010038790555555</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712747893853383</v>
       </c>
       <c r="B179" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2010798356151429</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712728903279618</v>
       </c>
       <c r="B180" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2011117986259041</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712736378482127</v>
       </c>
       <c r="B181" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2011075910670543</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712714885694865</v>
       </c>
       <c r="B182" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2011449427717662</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712727011762532</v>
       </c>
       <c r="B183" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2011264270035542</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.712776492976779</v>
+        <v>48.71273169671494</v>
       </c>
       <c r="B184" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2011229080133727</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712771602477687</v>
       </c>
       <c r="B185" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2010219066203009</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712858688704131</v>
       </c>
       <c r="B186" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2008216385500399</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712861336156287</v>
       </c>
       <c r="B187" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2008264964265276</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712851295994263</v>
       </c>
       <c r="B188" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2008425070498774</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712847082617266</v>
       </c>
       <c r="B189" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2008333526410233</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712818107946028</v>
       </c>
       <c r="B190" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2008824045567623</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.712776492976779</v>
+        <v>48.712840701160545</v>
       </c>
       <c r="B191" s="0">
-        <v>2.2009226815974823</v>
+        <v>2.2008439851948349</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.712207698705392</v>
+        <v>48.712809384120369</v>
       </c>
       <c r="B192" s="0">
-        <v>2.2007839249711974</v>
+        <v>2.2009036426807378</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.71224718441102</v>
+        <v>48.712807364357012</v>
       </c>
       <c r="B193" s="0">
-        <v>2.2007860358483877</v>
+        <v>2.2008112506147173</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.712191484755259</v>
+        <v>48.712813350255175</v>
       </c>
       <c r="B194" s="0">
-        <v>2.2007641462176793</v>
+        <v>2.2009019503917418</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.712269262037523</v>
+        <v>48.712805101745964</v>
       </c>
       <c r="B195" s="0">
-        <v>2.2007788453597592</v>
+        <v>2.2007904891042216</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.712283858743661</v>
+        <v>48.712786022857067</v>
       </c>
       <c r="B196" s="0">
-        <v>2.2007759385890458</v>
+        <v>2.2008103152918097</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.712282636913429</v>
+        <v>48.712758584324092</v>
       </c>
       <c r="B197" s="0">
-        <v>2.2007718895147348</v>
+        <v>2.2007715584011054</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.712242510591686</v>
+        <v>48.712814764783104</v>
       </c>
       <c r="B198" s="0">
-        <v>2.2007638040787674</v>
+        <v>2.2009384946742689</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.712275490347011</v>
+        <v>48.712821087086539</v>
       </c>
       <c r="B199" s="0">
-        <v>2.2007650760960678</v>
+        <v>2.2009073735128792</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.71228872325608</v>
+        <v>48.712795900334122</v>
       </c>
       <c r="B200" s="0">
-        <v>2.2007556142928641</v>
+        <v>2.2009368783123811</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.7122801872273</v>
+        <v>48.712744168214037</v>
       </c>
       <c r="B201" s="0">
-        <v>2.2007649495249684</v>
+        <v>2.2007095827232361</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.712290912159951</v>
+        <v>48.712757998931032</v>
       </c>
       <c r="B202" s="0">
-        <v>2.2007653707865322</v>
+        <v>2.2007482949960617</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.712299234287585</v>
+        <v>48.712827524342956</v>
       </c>
       <c r="B203" s="0">
-        <v>2.2007626827854336</v>
+        <v>2.2008867919157056</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.712299513292891</v>
+        <v>48.712779377261015</v>
       </c>
       <c r="B204" s="0">
-        <v>2.2007608622465025</v>
+        <v>2.2007336603482317</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.712312292486232</v>
+        <v>48.712835827559218</v>
       </c>
       <c r="B205" s="0">
-        <v>2.2007566315729008</v>
+        <v>2.2008710572781354</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.712305372332708</v>
+        <v>48.712792679441456</v>
       </c>
       <c r="B206" s="0">
-        <v>2.2007602789806193</v>
+        <v>2.2006956379095666</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.712314832186621</v>
+        <v>48.712807927517204</v>
       </c>
       <c r="B207" s="0">
-        <v>2.2007518939606299</v>
+        <v>2.2006970538936486</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.71232784650622</v>
+        <v>48.712815356158167</v>
       </c>
       <c r="B208" s="0">
-        <v>2.2007473399383457</v>
+        <v>2.2006919200844242</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.712325816977241</v>
+        <v>48.712824271064719</v>
       </c>
       <c r="B209" s="0">
-        <v>2.2007503744532242</v>
+        <v>2.2006762779344813</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.712330678803504</v>
+        <v>48.712840031056324</v>
       </c>
       <c r="B210" s="0">
-        <v>2.2007522786160383</v>
+        <v>2.2007051900209747</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.712341211328287</v>
+        <v>48.712833778014385</v>
       </c>
       <c r="B211" s="0">
-        <v>2.2007543823303406</v>
+        <v>2.2006455826631255</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.712334673534592</v>
+        <v>48.712842011152908</v>
       </c>
       <c r="B212" s="0">
-        <v>2.2007489901996982</v>
+        <v>2.200682077669128</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.712333165517812</v>
+        <v>48.712848908873419</v>
       </c>
       <c r="B213" s="0">
-        <v>2.2007435351017732</v>
+        <v>2.2006524361735531</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.712339575805849</v>
+        <v>48.712869903975531</v>
       </c>
       <c r="B214" s="0">
-        <v>2.2007483486452659</v>
+        <v>2.2007238431550324</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.712340579386364</v>
+        <v>48.712876498109502</v>
       </c>
       <c r="B215" s="0">
-        <v>2.2007566217746555</v>
+        <v>2.2006907960079234</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.712326775632306</v>
+        <v>48.712864846107827</v>
       </c>
       <c r="B216" s="0">
-        <v>2.2007514757591902</v>
+        <v>2.2006633013913364</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.712327153797609</v>
+        <v>48.712850510214338</v>
       </c>
       <c r="B217" s="0">
-        <v>2.2007473800693052</v>
+        <v>2.2007216239683118</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.712335521190624</v>
+        <v>48.712827488152023</v>
       </c>
       <c r="B218" s="0">
-        <v>2.2007642733088044</v>
+        <v>2.2007739630509113</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.712343975905824</v>
+        <v>48.712882635475417</v>
       </c>
       <c r="B219" s="0">
-        <v>2.2007590433130191</v>
+        <v>2.2006669714428906</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.712332730963368</v>
+        <v>48.712874479419696</v>
       </c>
       <c r="B220" s="0">
-        <v>2.2007718707459842</v>
+        <v>2.2006512199959274</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.712335845304231</v>
+        <v>48.712854972353377</v>
       </c>
       <c r="B221" s="0">
-        <v>2.2007685414685798</v>
+        <v>2.20073110775648</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.712331468296838</v>
+        <v>48.712895849281047</v>
       </c>
       <c r="B222" s="0">
-        <v>2.2007794161334768</v>
+        <v>2.2006802037239663</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.712335325183048</v>
+        <v>48.712918065961553</v>
       </c>
       <c r="B223" s="0">
-        <v>2.2007821087925228</v>
+        <v>2.2007166020979607</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.712332238753859</v>
+        <v>48.712897517458245</v>
       </c>
       <c r="B224" s="0">
-        <v>2.2007898340315015</v>
+        <v>2.2006999340431288</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.712327737529236</v>
+        <v>48.712886656154851</v>
       </c>
       <c r="B225" s="0">
-        <v>2.2007863473274396</v>
+        <v>2.2007522582551151</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.712332168363233</v>
+        <v>48.712831044628707</v>
       </c>
       <c r="B226" s="0">
-        <v>2.2007944592775655</v>
+        <v>2.2009315318037626</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.712372298604578</v>
+        <v>48.712791297824751</v>
       </c>
       <c r="B227" s="0">
-        <v>2.2008039405958133</v>
+        <v>2.2009806390756825</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.712333173089562</v>
+        <v>48.712780379799007</v>
       </c>
       <c r="B228" s="0">
-        <v>2.2007998803240234</v>
+        <v>2.2010082717711668</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.712288340131544</v>
+        <v>48.71276740578795</v>
       </c>
       <c r="B229" s="0">
-        <v>2.2007907144927734</v>
+        <v>2.2010439540508848</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.712329525011022</v>
+        <v>48.712760551894945</v>
       </c>
       <c r="B230" s="0">
-        <v>2.2008043668028772</v>
+        <v>2.2010750217066275</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.712300221025267</v>
+        <v>48.712742777175898</v>
       </c>
       <c r="B231" s="0">
-        <v>2.2007954401635215</v>
+        <v>2.2010923181393101</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.712305205624489</v>
+        <v>48.712755090672971</v>
       </c>
       <c r="B232" s="0">
-        <v>2.2008118903566656</v>
+        <v>2.2010548668060932</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.712264401080589</v>
+        <v>48.712765071443315</v>
       </c>
       <c r="B233" s="0">
-        <v>2.2007985758643618</v>
+        <v>2.2010423330972997</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.712264401080589</v>
+        <v>48.712746752311425</v>
       </c>
       <c r="B234" s="0">
-        <v>2.2007985758643618</v>
+        <v>2.2010785069235359</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.712130684438542</v>
+        <v>48.712820995700675</v>
       </c>
       <c r="B235" s="0">
-        <v>2.2007695237919154</v>
+        <v>2.2009123864703026</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.71211305256</v>
+        <v>48.712847195683629</v>
       </c>
       <c r="B236" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2008364587098028</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.71211305256</v>
+        <v>48.712847916925014</v>
       </c>
       <c r="B237" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2008478603698087</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.71211305256</v>
+        <v>48.712866869423451</v>
       </c>
       <c r="B238" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2007938534475286</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.71211305256</v>
+        <v>48.71286761460631</v>
       </c>
       <c r="B239" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2007995843066826</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.71211305256</v>
+        <v>48.712855082594189</v>
       </c>
       <c r="B240" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2008210095624756</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.71211305256</v>
+        <v>48.712839467375268</v>
       </c>
       <c r="B241" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2008512227509196</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.71211305256</v>
+        <v>48.712855811713361</v>
       </c>
       <c r="B242" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.200814843016905</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.71211305256</v>
+        <v>48.712813106474407</v>
       </c>
       <c r="B243" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2009238013737282</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.71211305256</v>
+        <v>48.712839957452367</v>
       </c>
       <c r="B244" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2008316555793606</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.71211305256</v>
+        <v>48.712797176617251</v>
       </c>
       <c r="B245" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2008810192674875</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.71211305256</v>
+        <v>48.712781521727663</v>
       </c>
       <c r="B246" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2007991480927078</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.71211305256</v>
+        <v>48.712783784599118</v>
       </c>
       <c r="B247" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2007439789538963</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.71211305256</v>
+        <v>48.712771046132623</v>
       </c>
       <c r="B248" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2007798978940696</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.71211305256</v>
+        <v>48.712762306024253</v>
       </c>
       <c r="B249" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2007673573474595</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.71211305256</v>
+        <v>48.712763809928774</v>
       </c>
       <c r="B250" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.2007390719263813</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.71211305256</v>
+        <v>48.712746183790983</v>
       </c>
       <c r="B251" s="0">
-        <v>2.2007793993824021</v>
+        <v>2.20064731486878</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.712446197422615</v>
+        <v>48.712743134497167</v>
       </c>
       <c r="B252" s="0">
-        <v>2.2008902748861043</v>
+        <v>2.2007463374124274</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.712451202739409</v>
+        <v>48.712777825467562</v>
       </c>
       <c r="B253" s="0">
-        <v>2.2008909877782741</v>
+        <v>2.2007444339402635</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.712435213694938</v>
+        <v>48.71276429898478</v>
       </c>
       <c r="B254" s="0">
-        <v>2.2008849806881488</v>
+        <v>2.2007135628965613</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.712434557581467</v>
+        <v>48.712776726734042</v>
       </c>
       <c r="B255" s="0">
-        <v>2.2008799088286191</v>
+        <v>2.2007075682866932</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.712465716357229</v>
+        <v>48.712776855092848</v>
       </c>
       <c r="B256" s="0">
-        <v>2.2008818590329424</v>
+        <v>2.2006800601579668</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.712406891581878</v>
+        <v>48.71279521487952</v>
       </c>
       <c r="B257" s="0">
-        <v>2.2008727809506974</v>
+        <v>2.2006991045251882</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.712406813532965</v>
+        <v>48.712809199308005</v>
       </c>
       <c r="B258" s="0">
-        <v>2.2008731065709952</v>
+        <v>2.2007079688606148</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.712406694873479</v>
+        <v>48.712806782257537</v>
       </c>
       <c r="B259" s="0">
-        <v>2.2008717233531749</v>
+        <v>2.2006873729079093</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.712407193720637</v>
+        <v>48.712817416634138</v>
       </c>
       <c r="B260" s="0">
-        <v>2.2008755862305609</v>
+        <v>2.2006727780596029</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.71239704888783</v>
+        <v>48.712819274928108</v>
       </c>
       <c r="B261" s="0">
-        <v>2.2008804187948607</v>
+        <v>2.2006613140209193</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.712393284912437</v>
+        <v>48.712826510649236</v>
       </c>
       <c r="B262" s="0">
-        <v>2.200874281981672</v>
+        <v>2.2006800843641439</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.712400833264248</v>
+        <v>48.712834194553366</v>
       </c>
       <c r="B263" s="0">
-        <v>2.2008788267747126</v>
+        <v>2.2006565459743297</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.712397266063448</v>
+        <v>48.712842254474459</v>
       </c>
       <c r="B264" s="0">
-        <v>2.2008683523908794</v>
+        <v>2.2006624172810074</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.712411792472885</v>
+        <v>48.712859471100146</v>
       </c>
       <c r="B265" s="0">
-        <v>2.200856559068535</v>
+        <v>2.2007024417862637</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.712400285411746</v>
+        <v>48.712865589552607</v>
       </c>
       <c r="B266" s="0">
-        <v>2.2008547210605705</v>
+        <v>2.2006814106425527</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.712396641875863</v>
+        <v>48.712863156810386</v>
       </c>
       <c r="B267" s="0">
-        <v>2.2008479868486859</v>
+        <v>2.2006515923545575</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.712388857664131</v>
+        <v>48.712862476273216</v>
       </c>
       <c r="B268" s="0">
-        <v>2.2008410033923451</v>
+        <v>2.2006753299793811</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.712389773883785</v>
+        <v>48.712863804985496</v>
       </c>
       <c r="B269" s="0">
-        <v>2.2008433042446405</v>
+        <v>2.200734481216962</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.712389179554016</v>
+        <v>48.712845690361</v>
       </c>
       <c r="B270" s="0">
-        <v>2.2008360924608863</v>
+        <v>2.2008091014470206</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.712386519394059</v>
+        <v>48.712861328797125</v>
       </c>
       <c r="B271" s="0">
-        <v>2.2008387932884217</v>
+        <v>2.200793423596485</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.712412163719307</v>
+        <v>48.712889558477706</v>
       </c>
       <c r="B272" s="0">
-        <v>2.2008438359510754</v>
+        <v>2.2007114566105557</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.712386752255128</v>
+        <v>48.712887205052041</v>
       </c>
       <c r="B273" s="0">
-        <v>2.2008429197509867</v>
+        <v>2.2007491843520626</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.712394245268463</v>
+        <v>48.71287768498366</v>
       </c>
       <c r="B274" s="0">
-        <v>2.2008404366449588</v>
+        <v>2.2007767622769858</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.712383651362146</v>
+        <v>48.712864774795769</v>
       </c>
       <c r="B275" s="0">
-        <v>2.2008383379906427</v>
+        <v>2.20075590532841</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.712366290176959</v>
+        <v>48.712862182742569</v>
       </c>
       <c r="B276" s="0">
-        <v>2.2008315313481535</v>
+        <v>2.2008004892854758</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.71240356413049</v>
+        <v>48.712873617504762</v>
       </c>
       <c r="B277" s="0">
-        <v>2.2008349093777682</v>
+        <v>2.2007793599837324</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.712405839301923</v>
+        <v>48.712864733585924</v>
       </c>
       <c r="B278" s="0">
-        <v>2.2008369649378188</v>
+        <v>2.2008146070734642</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.712401243841107</v>
+        <v>48.712843791237567</v>
       </c>
       <c r="B279" s="0">
-        <v>2.2008295030990932</v>
+        <v>2.2008552915825601</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.712408524722832</v>
+        <v>48.712816823318001</v>
       </c>
       <c r="B280" s="0">
-        <v>2.2008313138733238</v>
+        <v>2.2008958994239833</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.712407368623609</v>
+        <v>48.712799836890561</v>
       </c>
       <c r="B281" s="0">
-        <v>2.200828625757207</v>
+        <v>2.2009594750848045</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.712415886450373</v>
+        <v>48.712761740520499</v>
       </c>
       <c r="B282" s="0">
-        <v>2.2008297747984509</v>
+        <v>2.2010450989674655</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.712420863933545</v>
+        <v>48.712735010175528</v>
       </c>
       <c r="B283" s="0">
-        <v>2.2008320049529515</v>
+        <v>2.2011121171941008</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.712422103128084</v>
+        <v>48.712736709972404</v>
       </c>
       <c r="B284" s="0">
-        <v>2.2008304123052853</v>
+        <v>2.2011136107359697</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.712439211609969</v>
+        <v>48.712738976627655</v>
       </c>
       <c r="B285" s="0">
-        <v>2.2008279027888933</v>
+        <v>2.2010998721860298</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.712431635885416</v>
+        <v>48.712824812296624</v>
       </c>
       <c r="B286" s="0">
-        <v>2.2008295585467859</v>
+        <v>2.2009061155578102</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.712436192829856</v>
+        <v>48.712863474496899</v>
       </c>
       <c r="B287" s="0">
-        <v>2.2008296868161503</v>
+        <v>2.2008105387324699</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.712436719294217</v>
+        <v>48.712873858015705</v>
       </c>
       <c r="B288" s="0">
-        <v>2.2008311858357037</v>
+        <v>2.2007719024406702</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.712477274103406</v>
+        <v>48.71284920521979</v>
       </c>
       <c r="B289" s="0">
-        <v>2.2008477350769238</v>
+        <v>2.200820850891227</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.712503067079545</v>
+        <v>48.712854761132228</v>
       </c>
       <c r="B290" s="0">
-        <v>2.200860097136983</v>
+        <v>2.2008122216448287</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.712487939350034</v>
+        <v>48.71285117323265</v>
       </c>
       <c r="B291" s="0">
-        <v>2.2008396850280842</v>
+        <v>2.2008192171701442</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.712513739675636</v>
+        <v>48.71281407242094</v>
       </c>
       <c r="B292" s="0">
-        <v>2.2008465344832633</v>
+        <v>2.2008912443235547</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.712500077599003</v>
+        <v>48.712823033624048</v>
       </c>
       <c r="B293" s="0">
-        <v>2.2008471323557455</v>
+        <v>2.2008758746357349</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.712513125955596</v>
+        <v>48.712829168399722</v>
       </c>
       <c r="B294" s="0">
-        <v>2.2008543731728909</v>
+        <v>2.2008600521007726</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.71248855766413</v>
+        <v>48.71280976390608</v>
       </c>
       <c r="B295" s="0">
-        <v>2.2008478523283466</v>
+        <v>2.2008403590528416</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.712486330421534</v>
+        <v>48.712796010641888</v>
       </c>
       <c r="B296" s="0">
-        <v>2.2008516531889524</v>
+        <v>2.2008380150285829</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.712490040376089</v>
+        <v>48.712791779122</v>
       </c>
       <c r="B297" s="0">
-        <v>2.2008502254844253</v>
+        <v>2.2008364393711313</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.712488976016388</v>
+        <v>48.712770726108914</v>
       </c>
       <c r="B298" s="0">
-        <v>2.2008495718031975</v>
+        <v>2.2008012578126115</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.712489414647436</v>
+        <v>48.712797220083367</v>
       </c>
       <c r="B299" s="0">
-        <v>2.2008554859313243</v>
+        <v>2.2007781144539793</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.71248427787674</v>
+        <v>48.712757985368626</v>
       </c>
       <c r="B300" s="0">
-        <v>2.2008557131897497</v>
+        <v>2.2008237364306513</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.712496148039065</v>
+        <v>48.712749057192781</v>
       </c>
       <c r="B301" s="0">
-        <v>2.2008529558973446</v>
+        <v>2.2007660951299153</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.712536109953902</v>
+        <v>48.7128033898843</v>
       </c>
       <c r="B302" s="0">
-        <v>2.200851324402485</v>
+        <v>2.2009452323910348</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.712539288167015</v>
+        <v>48.712744935412516</v>
       </c>
       <c r="B303" s="0">
-        <v>2.2008497571044141</v>
+        <v>2.2007391804637537</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.712536462316344</v>
+        <v>48.71273686359622</v>
       </c>
       <c r="B304" s="0">
-        <v>2.2008539420195254</v>
+        <v>2.2007508898999464</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.712518197410873</v>
+        <v>48.712761516419761</v>
       </c>
       <c r="B305" s="0">
-        <v>2.2008583779962057</v>
+        <v>2.20076164205837</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.712524462086528</v>
+        <v>48.712766558018771</v>
       </c>
       <c r="B306" s="0">
-        <v>2.2008635360391709</v>
+        <v>2.2007245084990159</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.712520167814368</v>
+        <v>48.71282152782922</v>
       </c>
       <c r="B307" s="0">
-        <v>2.2008552389366054</v>
+        <v>2.2008936577623079</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.712523402972749</v>
+        <v>48.712777147866397</v>
       </c>
       <c r="B308" s="0">
-        <v>2.2008614238233952</v>
+        <v>2.2006999824110016</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.712531976058074</v>
+        <v>48.71279553474465</v>
       </c>
       <c r="B309" s="0">
-        <v>2.200856879424371</v>
+        <v>2.200706759609639</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.712534609077217</v>
+        <v>48.71279778993884</v>
       </c>
       <c r="B310" s="0">
-        <v>2.2008568079710722</v>
+        <v>2.2007045372083431</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.712529101301584</v>
+        <v>48.712818845026312</v>
       </c>
       <c r="B311" s="0">
-        <v>2.2008615140751457</v>
+        <v>2.2007476360817337</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.712520145835455</v>
+        <v>48.712805961837688</v>
       </c>
       <c r="B312" s="0">
-        <v>2.20085521390082</v>
+        <v>2.2006922610883914</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.71252008010962</v>
+        <v>48.71280955611951</v>
       </c>
       <c r="B313" s="0">
-        <v>2.2008603357967593</v>
+        <v>2.2006722239341738</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.712497669316697</v>
+        <v>48.7128102373145</v>
       </c>
       <c r="B314" s="0">
-        <v>2.200851953566779</v>
+        <v>2.2006388030909974</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.712539493511244</v>
+        <v>48.712835650417126</v>
       </c>
       <c r="B315" s="0">
-        <v>2.2008621612761794</v>
+        <v>2.2007061433163853</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.712541493277975</v>
+        <v>48.712861511621299</v>
       </c>
       <c r="B316" s="0">
-        <v>2.2008598571712588</v>
+        <v>2.2007288791948088</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.712521303738861</v>
+        <v>48.712879812210481</v>
       </c>
       <c r="B317" s="0">
-        <v>2.2008561518790852</v>
+        <v>2.2007536194088586</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.712524811393188</v>
+        <v>48.712878782903459</v>
       </c>
       <c r="B318" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2007192955291402</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.712524811393188</v>
+        <v>48.712865034175913</v>
       </c>
       <c r="B319" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2006712475266928</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.712524811393188</v>
+        <v>48.712886348743993</v>
       </c>
       <c r="B320" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2007216809473222</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.712524811393188</v>
+        <v>48.712889141158115</v>
       </c>
       <c r="B321" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2007398559227629</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.712524811393188</v>
+        <v>48.71289748234129</v>
       </c>
       <c r="B322" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2006346288518785</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.712524811393188</v>
+        <v>48.712896794425227</v>
       </c>
       <c r="B323" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2006506676067974</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.712524811393188</v>
+        <v>48.712879184616646</v>
       </c>
       <c r="B324" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2006822272337891</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.712524811393188</v>
+        <v>48.71287673572364</v>
       </c>
       <c r="B325" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2006731007201941</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.712524811393188</v>
+        <v>48.712907343448535</v>
       </c>
       <c r="B326" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2006236063581919</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.712524811393188</v>
+        <v>48.71286943662934</v>
       </c>
       <c r="B327" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2007409781975413</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.712524811393188</v>
+        <v>48.712898788074526</v>
       </c>
       <c r="B328" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2006540229432572</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.712524811393188</v>
+        <v>48.71278985053965</v>
       </c>
       <c r="B329" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2009620602283895</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.712524811393188</v>
+        <v>48.712726576024402</v>
       </c>
       <c r="B330" s="0">
-        <v>2.2008682079175799</v>
+        <v>2.2011364859581346</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.712636281256707</v>
+        <v>48.712734511026554</v>
       </c>
       <c r="B331" s="0">
-        <v>2.2008678780444435</v>
+        <v>2.2011266780365362</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.712599019018278</v>
+        <v>48.712718131864051</v>
       </c>
       <c r="B332" s="0">
-        <v>2.200866620471174</v>
+        <v>2.2011756016355948</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.712557306131686</v>
+        <v>48.712687749631243</v>
       </c>
       <c r="B333" s="0">
-        <v>2.2008569400492215</v>
+        <v>2.2012199755018136</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.712596942090364</v>
+        <v>48.712691649168789</v>
       </c>
       <c r="B334" s="0">
-        <v>2.2008490733787025</v>
+        <v>2.2012000014377597</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.712597730848941</v>
+        <v>48.712693721574368</v>
       </c>
       <c r="B335" s="0">
-        <v>2.2008439056615985</v>
+        <v>2.2012213919312633</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.712590023988511</v>
+        <v>48.712690092740857</v>
       </c>
       <c r="B336" s="0">
-        <v>2.2008478105871641</v>
+        <v>2.201200310753825</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.712592103178906</v>
+        <v>48.71271953690021</v>
       </c>
       <c r="B337" s="0">
-        <v>2.2008520417193669</v>
+        <v>2.2011373291264098</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.71259036830029</v>
+        <v>48.712805596582058</v>
       </c>
       <c r="B338" s="0">
-        <v>2.2008407472327112</v>
+        <v>2.2009243118417841</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.712591799450429</v>
+        <v>48.712836480260918</v>
       </c>
       <c r="B339" s="0">
-        <v>2.2008350610580814</v>
+        <v>2.2008664091676438</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.712586305387852</v>
+        <v>48.712850818289461</v>
       </c>
       <c r="B340" s="0">
-        <v>2.2008279193319949</v>
+        <v>2.2008119050977335</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.71259560006844</v>
+        <v>48.712855985035986</v>
       </c>
       <c r="B341" s="0">
-        <v>2.2008323725520294</v>
+        <v>2.2007992641159713</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.712593820814163</v>
+        <v>48.712846207669252</v>
       </c>
       <c r="B342" s="0">
-        <v>2.2008190463251451</v>
+        <v>2.2008253819617711</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.712598589998606</v>
+        <v>48.712857599632471</v>
       </c>
       <c r="B343" s="0">
-        <v>2.2008276696139419</v>
+        <v>2.2007974607724567</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.712601550437512</v>
+        <v>48.712848578621134</v>
       </c>
       <c r="B344" s="0">
-        <v>2.2008205608853455</v>
+        <v>2.2008228100647296</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.712598341572345</v>
+        <v>48.712843369231223</v>
       </c>
       <c r="B345" s="0">
-        <v>2.2008177213150306</v>
+        <v>2.2008464886037427</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.71260668733008</v>
+        <v>48.712813514923809</v>
       </c>
       <c r="B346" s="0">
-        <v>2.2008187677523772</v>
+        <v>2.2009081930567449</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.712591883324841</v>
+        <v>48.712835881225359</v>
       </c>
       <c r="B347" s="0">
-        <v>2.200811552986496</v>
+        <v>2.2008454939569813</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.712596278956561</v>
+        <v>48.7128233709321</v>
       </c>
       <c r="B348" s="0">
-        <v>2.200821432613985</v>
+        <v>2.2008494545598913</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.71259415312749</v>
+        <v>48.712804805219662</v>
       </c>
       <c r="B349" s="0">
-        <v>2.200820888139126</v>
+        <v>2.2008377397033421</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.712636118217034</v>
+        <v>48.712776343877515</v>
       </c>
       <c r="B350" s="0">
-        <v>2.2008284727150418</v>
+        <v>2.2008324405188415</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.712640357491026</v>
+        <v>48.712753948233953</v>
       </c>
       <c r="B351" s="0">
-        <v>2.2008381887978796</v>
+        <v>2.2007762707427796</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.712679037542309</v>
+        <v>48.712756615252253</v>
       </c>
       <c r="B352" s="0">
-        <v>2.2008365260181972</v>
+        <v>2.2007779497240447</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.712613125813583</v>
+        <v>48.712741788305984</v>
       </c>
       <c r="B353" s="0">
-        <v>2.2008158104458291</v>
+        <v>2.2007499468345602</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.712590992503301</v>
+        <v>48.712745074753471</v>
       </c>
       <c r="B354" s="0">
-        <v>2.2008088743894812</v>
+        <v>2.2007601239993226</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.712575095805853</v>
+        <v>48.712754886170671</v>
       </c>
       <c r="B355" s="0">
-        <v>2.2008070055319133</v>
+        <v>2.2007652621519393</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.712585110854995</v>
+        <v>48.712748083415505</v>
       </c>
       <c r="B356" s="0">
-        <v>2.2008205841672806</v>
+        <v>2.2007310403985843</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.712567914452038</v>
+        <v>48.712740808831875</v>
       </c>
       <c r="B357" s="0">
-        <v>2.200816930222973</v>
+        <v>2.2007121733183563</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.712571452615102</v>
+        <v>48.712736780709193</v>
       </c>
       <c r="B358" s="0">
-        <v>2.2008201954273696</v>
+        <v>2.2006940868141336</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.712539528105211</v>
+        <v>48.712757669675298</v>
       </c>
       <c r="B359" s="0">
-        <v>2.2008126779918293</v>
+        <v>2.2007155249479311</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712777844232363</v>
       </c>
       <c r="B360" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2007427817887004</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712781500490841</v>
       </c>
       <c r="B361" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2007255385814166</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712797211064142</v>
       </c>
       <c r="B362" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2007419260428209</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712797229293948</v>
       </c>
       <c r="B363" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2006978836540507</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712791156588615</v>
       </c>
       <c r="B364" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2006882229892311</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712819804868261</v>
       </c>
       <c r="B365" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2007244732918507</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712816986898091</v>
       </c>
       <c r="B366" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2006866634441411</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712819690034614</v>
       </c>
       <c r="B367" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2006634040347981</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712841072307739</v>
       </c>
       <c r="B368" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2006901121060083</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712869419431406</v>
       </c>
       <c r="B369" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2007399877328626</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712874476149075</v>
       </c>
       <c r="B370" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2007132593649712</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712866963075776</v>
       </c>
       <c r="B371" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.200647116177509</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712878120090842</v>
       </c>
       <c r="B372" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.200708548801575</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712892527438349</v>
       </c>
       <c r="B373" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2007202402461208</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.7125475401416</v>
+        <v>48.712872409238138</v>
       </c>
       <c r="B374" s="0">
-        <v>2.2008161818874759</v>
+        <v>2.2006651083870561</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.712564005976411</v>
+        <v>48.712865935829164</v>
       </c>
       <c r="B375" s="0">
-        <v>2.2008482746989993</v>
+        <v>2.2006670672584479</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.712569763732383</v>
+        <v>48.712866701053336</v>
       </c>
       <c r="B376" s="0">
-        <v>2.2008605944127702</v>
+        <v>2.2006947455343151</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.712697482095592</v>
+        <v>48.712890921369286</v>
       </c>
       <c r="B377" s="0">
-        <v>2.2008946400812008</v>
+        <v>2.2006592882058245</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.712697482095592</v>
+        <v>48.712892114113899</v>
       </c>
       <c r="B378" s="0">
-        <v>2.2008946400812008</v>
+        <v>2.200669530367442</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.712697482095592</v>
+        <v>48.712862711258417</v>
       </c>
       <c r="B379" s="0">
-        <v>2.2008946400812008</v>
+        <v>2.2007940768713121</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.712697482095592</v>
+        <v>48.712900872572433</v>
       </c>
       <c r="B380" s="0">
-        <v>2.2008946400812008</v>
+        <v>2.2006494174836684</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.712595526846741</v>
+        <v>48.71284221198308</v>
       </c>
       <c r="B381" s="0">
-        <v>2.2008864182186128</v>
+        <v>2.2008354612378609</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.712595526846741</v>
+        <v>48.712846070614951</v>
       </c>
       <c r="B382" s="0">
-        <v>2.2008864182186128</v>
+        <v>2.2008314130054614</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.712595526846741</v>
+        <v>48.712833178878832</v>
       </c>
       <c r="B383" s="0">
-        <v>2.2008864182186128</v>
+        <v>2.2008749509790411</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.712675995390733</v>
+        <v>48.712803532910968</v>
       </c>
       <c r="B384" s="0">
-        <v>2.2009063179743964</v>
+        <v>2.2009569992144966</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.712675995390733</v>
+        <v>48.712788697561898</v>
       </c>
       <c r="B385" s="0">
-        <v>2.2009063179743964</v>
+        <v>2.2009938009473213</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>48.712675995390733</v>
+        <v>48.712761608958573</v>
       </c>
       <c r="B386" s="0">
-        <v>2.2009063179743964</v>
+        <v>2.2010126045328757</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>48.712675995390733</v>
+        <v>48.712754312440595</v>
       </c>
       <c r="B387" s="0">
-        <v>2.2009063179743964</v>
+        <v>2.2010510181233052</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>48.712675995390733</v>
+        <v>48.71276785112412</v>
       </c>
       <c r="B388" s="0">
-        <v>2.2009063179743964</v>
+        <v>2.2010324640213068</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>48.712675995390733</v>
+        <v>48.712768627131332</v>
       </c>
       <c r="B389" s="0">
-        <v>2.2009063179743964</v>
+        <v>2.2010236095828568</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>48.712602297920441</v>
+        <v>48.712781309511271</v>
       </c>
       <c r="B390" s="0">
-        <v>2.20087494946352</v>
+        <v>2.2009977405715917</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>48.712554684073176</v>
+        <v>48.712801449220869</v>
       </c>
       <c r="B391" s="0">
-        <v>2.2008686160471891</v>
+        <v>2.2009373808637167</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>48.712544085551841</v>
+        <v>48.712852839854435</v>
       </c>
       <c r="B392" s="0">
-        <v>2.2008711066857463</v>
+        <v>2.2008364596465033</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>48.712544464499921</v>
+        <v>48.712864858742897</v>
       </c>
       <c r="B393" s="0">
-        <v>2.200858936850282</v>
+        <v>2.2008005178998</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>48.712508858700424</v>
+        <v>48.712853878155578</v>
       </c>
       <c r="B394" s="0">
-        <v>2.2008373277631939</v>
+        <v>2.2008060956107727</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>48.712492873976366</v>
+        <v>48.712851645124879</v>
       </c>
       <c r="B395" s="0">
-        <v>2.2008368325676595</v>
+        <v>2.2008134593631543</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>48.712481149227415</v>
+        <v>48.712828329452989</v>
       </c>
       <c r="B396" s="0">
-        <v>2.2008317037780807</v>
+        <v>2.200860545719709</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>48.712510670056915</v>
+        <v>48.71283337030679</v>
       </c>
       <c r="B397" s="0">
-        <v>2.2008342639501319</v>
+        <v>2.2008485677756728</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>48.712508320532152</v>
+        <v>48.712811652856161</v>
       </c>
       <c r="B398" s="0">
-        <v>2.200831828696884</v>
+        <v>2.2009049801387954</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>48.712492471635024</v>
+        <v>48.712830571931093</v>
       </c>
       <c r="B399" s="0">
-        <v>2.200818842085877</v>
+        <v>2.200860280741018</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>48.712542334347852</v>
+        <v>48.712827001803554</v>
       </c>
       <c r="B400" s="0">
-        <v>2.2008365820216453</v>
+        <v>2.2008319799931981</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>48.712519814033577</v>
+        <v>48.712816906666738</v>
       </c>
       <c r="B401" s="0">
-        <v>2.200838198272641</v>
+        <v>2.200823529831518</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>48.712509707419066</v>
+        <v>48.712784139245976</v>
       </c>
       <c r="B402" s="0">
-        <v>2.2008370530928803</v>
+        <v>2.2007771958946987</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>48.71254227817456</v>
+        <v>48.712790539431424</v>
       </c>
       <c r="B403" s="0">
-        <v>2.2008447573717409</v>
+        <v>2.2008089712590895</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>48.712523616689936</v>
+        <v>48.712758003384465</v>
       </c>
       <c r="B404" s="0">
-        <v>2.2008387880951754</v>
+        <v>2.2008225931500745</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>48.712568128844808</v>
+        <v>48.712740765136495</v>
       </c>
       <c r="B405" s="0">
-        <v>2.2008554010358514</v>
+        <v>2.2008042078449917</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>48.712600926250836</v>
+        <v>48.712739761772667</v>
       </c>
       <c r="B406" s="0">
-        <v>2.2008591607756074</v>
+        <v>2.2007912594918757</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>48.712577246627653</v>
+        <v>48.712746640432023</v>
       </c>
       <c r="B407" s="0">
-        <v>2.2008620932704059</v>
+        <v>2.2008280261849538</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>48.71253869027084</v>
+        <v>48.712749352702907</v>
       </c>
       <c r="B408" s="0">
-        <v>2.2008402548405557</v>
+        <v>2.200843524821456</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>48.712515523858407</v>
+        <v>48.712760819117435</v>
       </c>
       <c r="B409" s="0">
-        <v>2.2008464129022913</v>
+        <v>2.2007563843452749</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>48.712538459222557</v>
+        <v>48.712754933321527</v>
       </c>
       <c r="B410" s="0">
-        <v>2.200859913952355</v>
+        <v>2.2007232033816861</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>48.71249761120221</v>
+        <v>48.712741380741527</v>
       </c>
       <c r="B411" s="0">
-        <v>2.2008562048156142</v>
+        <v>2.2007033741384841</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>48.712506076360889</v>
+        <v>48.712752589438786</v>
       </c>
       <c r="B412" s="0">
-        <v>2.200863421554137</v>
+        <v>2.200730106472188</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>48.712513211974923</v>
+        <v>48.712770041941042</v>
       </c>
       <c r="B413" s="0">
-        <v>2.2008683911104692</v>
+        <v>2.2007196876253325</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>48.712488929990215</v>
+        <v>48.71277750453244</v>
       </c>
       <c r="B414" s="0">
-        <v>2.2008779245834136</v>
+        <v>2.2007237815910745</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>48.712488491553657</v>
+        <v>48.712794384813073</v>
       </c>
       <c r="B415" s="0">
-        <v>2.2008845041845708</v>
+        <v>2.2007266699741024</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>48.712474925937954</v>
+        <v>48.712797719109496</v>
       </c>
       <c r="B416" s="0">
-        <v>2.2008808968414395</v>
+        <v>2.2007115273103341</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>48.712474925937954</v>
+        <v>48.712803141700398</v>
       </c>
       <c r="B417" s="0">
-        <v>2.2008808968414395</v>
+        <v>2.2006768050146413</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>48.712457510568115</v>
+        <v>48.712813402926876</v>
       </c>
       <c r="B418" s="0">
-        <v>2.2008880349117041</v>
+        <v>2.2006841973520119</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>48.712444446840145</v>
+        <v>48.712811556541219</v>
       </c>
       <c r="B419" s="0">
-        <v>2.2008732183987574</v>
+        <v>2.200660690355603</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>48.712444446840145</v>
+        <v>48.712803842947125</v>
       </c>
       <c r="B420" s="0">
-        <v>2.2008732183987574</v>
+        <v>2.2006245350748008</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>48.712432509318674</v>
+        <v>48.712834341581505</v>
       </c>
       <c r="B421" s="0">
-        <v>2.2008762443730148</v>
+        <v>2.2006915120884489</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>48.712452214317672</v>
+        <v>48.712844307614382</v>
       </c>
       <c r="B422" s="0">
-        <v>2.200884873825022</v>
+        <v>2.2006836627615671</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>48.712453662155511</v>
+        <v>48.712858019746569</v>
       </c>
       <c r="B423" s="0">
-        <v>2.2008972893753462</v>
+        <v>2.2006830761380027</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>48.712435612591648</v>
+        <v>48.712865650582863</v>
       </c>
       <c r="B424" s="0">
-        <v>2.2009064359045532</v>
+        <v>2.2006597472646097</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>48.712454505607695</v>
+        <v>48.712888677437938</v>
       </c>
       <c r="B425" s="0">
-        <v>2.2009208897194643</v>
+        <v>2.2006874558758303</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>48.712451157056073</v>
+        <v>48.712912054066578</v>
       </c>
       <c r="B426" s="0">
-        <v>2.2009300004262329</v>
+        <v>2.2006796130570434</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>48.712463909420876</v>
+        <v>48.712873703830248</v>
       </c>
       <c r="B427" s="0">
-        <v>2.2009302335153373</v>
+        <v>2.2007063892826562</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>48.712469364306564</v>
+        <v>48.712872829459975</v>
       </c>
       <c r="B428" s="0">
-        <v>2.2009278390043119</v>
+        <v>2.2006811188575859</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>48.712447028551097</v>
+        <v>48.712906694489533</v>
       </c>
       <c r="B429" s="0">
-        <v>2.2009217041619755</v>
+        <v>2.2006519807094134</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>48.71246092386292</v>
+        <v>48.712908356902005</v>
       </c>
       <c r="B430" s="0">
-        <v>2.2009297482093682</v>
+        <v>2.2006504812654284</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>48.712444637670771</v>
+        <v>48.712895639214303</v>
       </c>
       <c r="B431" s="0">
-        <v>2.2009168716162013</v>
+        <v>2.2006810871273368</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>48.712433763032124</v>
+        <v>48.712878786229147</v>
       </c>
       <c r="B432" s="0">
-        <v>2.200932599687953</v>
+        <v>2.2007843819288326</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>48.712411251501855</v>
+        <v>48.712877765075511</v>
       </c>
       <c r="B433" s="0">
-        <v>2.2009217222132</v>
+        <v>2.2007078525860617</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>48.712426097627386</v>
+        <v>48.712842357301042</v>
       </c>
       <c r="B434" s="0">
-        <v>2.2009227148654249</v>
+        <v>2.200899148342482</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>48.712415141035415</v>
+        <v>48.712837839829859</v>
       </c>
       <c r="B435" s="0">
-        <v>2.2009167676767585</v>
+        <v>2.200865635310056</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>48.712447091836545</v>
+        <v>48.712786206681088</v>
       </c>
       <c r="B436" s="0">
-        <v>2.200911424980621</v>
+        <v>2.2009545041954857</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>48.712454941958775</v>
+        <v>48.712778670183489</v>
       </c>
       <c r="B437" s="0">
-        <v>2.2009210045818413</v>
+        <v>2.2010082638501642</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>48.712404315745623</v>
+        <v>48.712802873821353</v>
       </c>
       <c r="B438" s="0">
-        <v>2.2009047548051286</v>
+        <v>2.200997900866438</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>48.712342271337597</v>
+        <v>48.7127919013408</v>
       </c>
       <c r="B439" s="0">
-        <v>2.2008774429534497</v>
+        <v>2.2009863847203675</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>48.712340374520124</v>
+        <v>48.712766465566268</v>
       </c>
       <c r="B440" s="0">
-        <v>2.2008822581764615</v>
+        <v>2.2010249632290302</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>48.712340374520124</v>
+        <v>48.712760529726083</v>
       </c>
       <c r="B441" s="0">
-        <v>2.2008822581764615</v>
+        <v>2.201040958670967</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>48.712340374520124</v>
+        <v>48.712761713183845</v>
       </c>
       <c r="B442" s="0">
-        <v>2.2008822581764615</v>
+        <v>2.2010574020616671</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>48.712340374520124</v>
+        <v>48.712769109043499</v>
       </c>
       <c r="B443" s="0">
-        <v>2.2008822581764615</v>
+        <v>2.2010218595914144</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>48.712340374520124</v>
+        <v>48.712844331924174</v>
       </c>
       <c r="B444" s="0">
-        <v>2.2008822581764615</v>
+        <v>2.2008465064523084</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>48.712340374520124</v>
+        <v>48.71284059531105</v>
       </c>
       <c r="B445" s="0">
-        <v>2.2008822581764615</v>
+        <v>2.2008430141141591</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>48.712340374520124</v>
+        <v>48.71288034473541</v>
       </c>
       <c r="B446" s="0">
-        <v>2.2008822581764615</v>
+        <v>2.2007526045777821</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>48.712340374520124</v>
+        <v>48.712849720886858</v>
       </c>
       <c r="B447" s="0">
-        <v>2.2008822581764615</v>
+        <v>2.20080642544497</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>48.712432608125482</v>
+        <v>48.71283873822231</v>
       </c>
       <c r="B448" s="0">
-        <v>2.2008606535736317</v>
+        <v>2.2008432077003248</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>48.712438155507563</v>
+        <v>48.712863413107165</v>
       </c>
       <c r="B449" s="0">
-        <v>2.2008568119847389</v>
+        <v>2.2008106598102732</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>48.712450111462161</v>
+        <v>48.712840555788773</v>
       </c>
       <c r="B450" s="0">
-        <v>2.2008500487120846</v>
+        <v>2.2008504577759269</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>48.712350263862696</v>
+        <v>48.712846213975126</v>
       </c>
       <c r="B451" s="0">
-        <v>2.2008194099961029</v>
+        <v>2.2008304452360261</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>48.712350263862696</v>
+        <v>48.712835855634026</v>
       </c>
       <c r="B452" s="0">
-        <v>2.2008194099961029</v>
+        <v>2.2008511364821093</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>48.712350263862696</v>
+        <v>48.712801586221651</v>
       </c>
       <c r="B453" s="0">
-        <v>2.2008194099961029</v>
+        <v>2.2009275003167925</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>48.712350263862696</v>
+        <v>48.712838180859002</v>
       </c>
       <c r="B454" s="0">
-        <v>2.2008194099961029</v>
+        <v>2.2008100163618027</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>48.712350263862696</v>
+        <v>48.712779234941827</v>
       </c>
       <c r="B455" s="0">
-        <v>2.2008194099961029</v>
+        <v>2.2008365008538529</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>48.712350263862696</v>
+        <v>48.712786114011181</v>
       </c>
       <c r="B456" s="0">
-        <v>2.2008194099961029</v>
+        <v>2.2008960097226531</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>48.712345221658651</v>
+        <v>48.712768407014075</v>
       </c>
       <c r="B457" s="0">
-        <v>2.2007729449310078</v>
+        <v>2.2007744404161689</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>48.712352828206349</v>
+        <v>48.712770357120981</v>
       </c>
       <c r="B458" s="0">
-        <v>2.2007689562826327</v>
+        <v>2.2008282528182464</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>48.712352828206349</v>
+        <v>48.712736428732171</v>
       </c>
       <c r="B459" s="0">
-        <v>2.2007689562826327</v>
+        <v>2.2007410269006771</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>48.712352828206349</v>
+        <v>48.712716756838496</v>
       </c>
       <c r="B460" s="0">
-        <v>2.2007689562826327</v>
+        <v>2.2007839810773917</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>48.712352828206349</v>
+        <v>48.712734331096513</v>
       </c>
       <c r="B461" s="0">
-        <v>2.2007689562826327</v>
+        <v>2.2007777133726187</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>48.712352828206349</v>
+        <v>48.712740142231951</v>
       </c>
       <c r="B462" s="0">
-        <v>2.2007689562826327</v>
+        <v>2.2007652596671967</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>48.712352828206349</v>
+        <v>48.712733748394456</v>
       </c>
       <c r="B463" s="0">
-        <v>2.2007689562826327</v>
+        <v>2.2007965487902492</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>48.712352828206349</v>
+        <v>48.712711619280306</v>
       </c>
       <c r="B464" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B465" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B466" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B467" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B468" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B469" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B470" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B471" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B472" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B473" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B474" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B475" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B476" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B477" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B478" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="0">
-        <v>48.712352828206349</v>
-      </c>
-      <c r="B479" s="0">
-        <v>2.2007689562826327</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="0">
-        <v>48.712828312225575</v>
-      </c>
-      <c r="B480" s="0">
-        <v>2.2008447573071992</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="0">
-        <v>48.712827856811899</v>
-      </c>
-      <c r="B481" s="0">
-        <v>2.2008578111014381</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="0">
-        <v>48.712762825674517</v>
-      </c>
-      <c r="B482" s="0">
-        <v>2.200854067731882</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="0">
-        <v>48.712762825674517</v>
-      </c>
-      <c r="B483" s="0">
-        <v>2.200854067731882</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="0">
-        <v>48.712762825674517</v>
-      </c>
-      <c r="B484" s="0">
-        <v>2.200854067731882</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="0">
-        <v>48.712762825674517</v>
-      </c>
-      <c r="B485" s="0">
-        <v>2.200854067731882</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="0">
-        <v>48.712762825674517</v>
-      </c>
-      <c r="B486" s="0">
-        <v>2.200854067731882</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="0">
-        <v>48.712708066300849</v>
-      </c>
-      <c r="B487" s="0">
-        <v>2.2008606412650331</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="0">
-        <v>48.712742330834907</v>
-      </c>
-      <c r="B488" s="0">
-        <v>2.2008680956999198</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="0">
-        <v>48.712772495886085</v>
-      </c>
-      <c r="B489" s="0">
-        <v>2.2008722962070997</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="0">
-        <v>48.712748727331579</v>
-      </c>
-      <c r="B490" s="0">
-        <v>2.2008708608339633</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="0">
-        <v>48.712748727331579</v>
-      </c>
-      <c r="B491" s="0">
-        <v>2.2008708608339633</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="0">
-        <v>48.712748727331579</v>
-      </c>
-      <c r="B492" s="0">
-        <v>2.2008708608339633</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="0">
-        <v>48.712748727331579</v>
-      </c>
-      <c r="B493" s="0">
-        <v>2.2008708608339633</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="0">
-        <v>48.712748727331579</v>
-      </c>
-      <c r="B494" s="0">
-        <v>2.2008708608339633</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="0">
-        <v>48.712748727331579</v>
-      </c>
-      <c r="B495" s="0">
-        <v>2.2008708608339633</v>
+        <v>2.2007639052375874</v>
       </c>
     </row>
   </sheetData>

--- a/CalculePos_quasi_RTK/PosWGS84_code.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_code.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B464"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65,3714 +65,3082 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.712740522551904</v>
+        <v>48.713132338642929</v>
       </c>
       <c r="B1" s="0">
-        <v>2.2006629228722532</v>
+        <v>2.2198924041120667</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.712741431948494</v>
+        <v>48.713129575064329</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2006750747141375</v>
+        <v>2.2198919685034415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.712745519251136</v>
+        <v>48.713133351786986</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2006916095886737</v>
+        <v>2.2198969768223114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.712741337698851</v>
+        <v>48.713131628588819</v>
       </c>
       <c r="B4" s="0">
-        <v>2.2007001348757589</v>
+        <v>2.2199007342104236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.712739282589347</v>
+        <v>48.713131759763186</v>
       </c>
       <c r="B5" s="0">
-        <v>2.2007004208547949</v>
+        <v>2.2198964201167777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.712738900199653</v>
+        <v>48.713132038127362</v>
       </c>
       <c r="B6" s="0">
-        <v>2.2007052380176746</v>
+        <v>2.2198919376097135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.712734470349382</v>
+        <v>48.713132365634955</v>
       </c>
       <c r="B7" s="0">
-        <v>2.2007005915711027</v>
+        <v>2.2198950939818274</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.712737677645521</v>
+        <v>48.713129381929107</v>
       </c>
       <c r="B8" s="0">
-        <v>2.200710997408267</v>
+        <v>2.2199002461562678</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.712739645824826</v>
+        <v>48.713130997346028</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2006975389664323</v>
+        <v>2.2198959302173558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.712736820907011</v>
+        <v>48.713133352322984</v>
       </c>
       <c r="B10" s="0">
-        <v>2.20068456917988</v>
+        <v>2.2198894546855144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.712742205934482</v>
+        <v>48.713135433727544</v>
       </c>
       <c r="B11" s="0">
-        <v>2.2006847891519068</v>
+        <v>2.219899111641594</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.712747516958849</v>
+        <v>48.713132795087994</v>
       </c>
       <c r="B12" s="0">
-        <v>2.2006958207473626</v>
+        <v>2.2198961932100807</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.712748802504017</v>
+        <v>48.713135612332508</v>
       </c>
       <c r="B13" s="0">
-        <v>2.2007027324718544</v>
+        <v>2.2198944102231346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.712757534191795</v>
+        <v>48.71313313255817</v>
       </c>
       <c r="B14" s="0">
-        <v>2.2006979990100284</v>
+        <v>2.2198987468341569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.712748398689506</v>
+        <v>48.713125820594811</v>
       </c>
       <c r="B15" s="0">
-        <v>2.2006966577792859</v>
+        <v>2.2198995020719057</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.712746625239234</v>
+        <v>48.713124741794566</v>
       </c>
       <c r="B16" s="0">
-        <v>2.200661764893558</v>
+        <v>2.2198964110675341</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.712743390250829</v>
+        <v>48.713120173623544</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2006403232876326</v>
+        <v>2.2198904834151359</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.71275642775371</v>
+        <v>48.713122780122724</v>
       </c>
       <c r="B18" s="0">
-        <v>2.2006689558539341</v>
+        <v>2.2198930540448942</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.712758763854673</v>
+        <v>48.713117265735988</v>
       </c>
       <c r="B19" s="0">
-        <v>2.2006773600042431</v>
+        <v>2.2198907392975467</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.712756463275845</v>
+        <v>48.713116139313613</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2006629813608867</v>
+        <v>2.2198936989571143</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.712753648307434</v>
+        <v>48.713108989485903</v>
       </c>
       <c r="B21" s="0">
-        <v>2.2006468592653472</v>
+        <v>2.219893397309912</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.712762193563066</v>
+        <v>48.713109224808385</v>
       </c>
       <c r="B22" s="0">
-        <v>2.2006663381527583</v>
+        <v>2.2198950172154688</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.712759312354528</v>
+        <v>48.713113660307045</v>
       </c>
       <c r="B23" s="0">
-        <v>2.2006496077977582</v>
+        <v>2.2198932732277292</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.7127494416928</v>
+        <v>48.713110090142486</v>
       </c>
       <c r="B24" s="0">
-        <v>2.2006221375179571</v>
+        <v>2.2198968462498185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.712745629914771</v>
+        <v>48.713102901300921</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2006113388176831</v>
+        <v>2.2199007129194848</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.712753493293782</v>
+        <v>48.713107425856798</v>
       </c>
       <c r="B26" s="0">
-        <v>2.200631512422742</v>
+        <v>2.2198939535781776</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.712741881586645</v>
+        <v>48.713109546342224</v>
       </c>
       <c r="B27" s="0">
-        <v>2.20063945352035</v>
+        <v>2.2198897439057119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.712736381030503</v>
+        <v>48.713108136692803</v>
       </c>
       <c r="B28" s="0">
-        <v>2.2006118301785205</v>
+        <v>2.2198942305585159</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.712721931472025</v>
+        <v>48.713109283534131</v>
       </c>
       <c r="B29" s="0">
-        <v>2.2005881609479277</v>
+        <v>2.2198948184091005</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.712745937149009</v>
+        <v>48.713111388615651</v>
       </c>
       <c r="B30" s="0">
-        <v>2.2007092403371011</v>
+        <v>2.2198933595759698</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.712749251214262</v>
+        <v>48.713114603191407</v>
       </c>
       <c r="B31" s="0">
-        <v>2.2007081822808403</v>
+        <v>2.219896433182301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.712758822468892</v>
+        <v>48.713102554977432</v>
       </c>
       <c r="B32" s="0">
-        <v>2.2007400525241447</v>
+        <v>2.2198931008548573</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.712753390114223</v>
+        <v>48.713104807224887</v>
       </c>
       <c r="B33" s="0">
-        <v>2.2006845203671062</v>
+        <v>2.2198964179280831</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.712759573634116</v>
+        <v>48.713111469705552</v>
       </c>
       <c r="B34" s="0">
-        <v>2.2006903962214364</v>
+        <v>2.219896818525708</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.712768137782973</v>
+        <v>48.713111618284224</v>
       </c>
       <c r="B35" s="0">
-        <v>2.2007105089261665</v>
+        <v>2.2198998853922665</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.712757765989466</v>
+        <v>48.713111653306299</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2006978296232336</v>
+        <v>2.2198997547642452</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.712774271719233</v>
+        <v>48.713108215934618</v>
       </c>
       <c r="B37" s="0">
-        <v>2.2007010665684215</v>
+        <v>2.2198985645593465</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.712766097864964</v>
+        <v>48.713106386957911</v>
       </c>
       <c r="B38" s="0">
-        <v>2.2006262504874368</v>
+        <v>2.2198984387609544</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.712780982686326</v>
+        <v>48.713111654983393</v>
       </c>
       <c r="B39" s="0">
-        <v>2.2006900720887184</v>
+        <v>2.2199087059990967</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.7127871797761</v>
+        <v>48.713108691251264</v>
       </c>
       <c r="B40" s="0">
-        <v>2.2006734808530291</v>
+        <v>2.2199051802231633</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.71279230688517</v>
+        <v>48.713112947774249</v>
       </c>
       <c r="B41" s="0">
-        <v>2.2006565301037053</v>
+        <v>2.2199027940178846</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.712805432100893</v>
+        <v>48.713112949881776</v>
       </c>
       <c r="B42" s="0">
-        <v>2.2006641258202317</v>
+        <v>2.2199055815052695</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.712808549544</v>
+        <v>48.713117841755398</v>
       </c>
       <c r="B43" s="0">
-        <v>2.2006502625573399</v>
+        <v>2.2199052554924279</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.712811181100548</v>
+        <v>48.71312378104912</v>
       </c>
       <c r="B44" s="0">
-        <v>2.2006784779001105</v>
+        <v>2.2199038874263728</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.712832271680455</v>
+        <v>48.713126494199813</v>
       </c>
       <c r="B45" s="0">
-        <v>2.2007349145045221</v>
+        <v>2.219907036720683</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.712814882266521</v>
+        <v>48.713127920041821</v>
       </c>
       <c r="B46" s="0">
-        <v>2.2006574753211403</v>
+        <v>2.2199017012109117</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.712835918233708</v>
+        <v>48.713127177538731</v>
       </c>
       <c r="B47" s="0">
-        <v>2.2006962090511326</v>
+        <v>2.2198944678515593</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.712839072849896</v>
+        <v>48.713135418685049</v>
       </c>
       <c r="B48" s="0">
-        <v>2.2006908113481161</v>
+        <v>2.2198862054971169</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.712858268980945</v>
+        <v>48.713134592454601</v>
       </c>
       <c r="B49" s="0">
-        <v>2.2007333329975545</v>
+        <v>2.2198898084067</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.712871437424887</v>
+        <v>48.713134223671347</v>
       </c>
       <c r="B50" s="0">
-        <v>2.2007167666006988</v>
+        <v>2.2198888082751238</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.712882681349925</v>
+        <v>48.713133550947774</v>
       </c>
       <c r="B51" s="0">
-        <v>2.2007208252699391</v>
+        <v>2.21988415903814</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.712875545263742</v>
+        <v>48.713137972370376</v>
       </c>
       <c r="B52" s="0">
-        <v>2.2007097823730746</v>
+        <v>2.219884789895231</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.712843071323498</v>
+        <v>48.713136970319873</v>
       </c>
       <c r="B53" s="0">
-        <v>2.2006605852886452</v>
+        <v>2.2198838541978874</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.712810221455811</v>
+        <v>48.713134003374762</v>
       </c>
       <c r="B54" s="0">
-        <v>2.200718078320385</v>
+        <v>2.2198890443048014</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.712827618451627</v>
+        <v>48.713128334152131</v>
       </c>
       <c r="B55" s="0">
-        <v>2.2007255323701371</v>
+        <v>2.219890495942892</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.712835530140779</v>
+        <v>48.713135733798318</v>
       </c>
       <c r="B56" s="0">
-        <v>2.2007638141437038</v>
+        <v>2.2198939283982178</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.712872532590055</v>
+        <v>48.713131805324004</v>
       </c>
       <c r="B57" s="0">
-        <v>2.2006525205273029</v>
+        <v>2.2198918373265233</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.712891236958981</v>
+        <v>48.713137145024767</v>
       </c>
       <c r="B58" s="0">
-        <v>2.2005923769244307</v>
+        <v>2.2198951521400598</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.712876777869461</v>
+        <v>48.713139857063339</v>
       </c>
       <c r="B59" s="0">
-        <v>2.2006524267881264</v>
+        <v>2.2198930728083344</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.712866264799018</v>
+        <v>48.713137752171825</v>
       </c>
       <c r="B60" s="0">
-        <v>2.2006675989406279</v>
+        <v>2.2198946390815606</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.712860539496859</v>
+        <v>48.713136091367709</v>
       </c>
       <c r="B61" s="0">
-        <v>2.2007032408939393</v>
+        <v>2.2199024924820003</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.712864767477541</v>
+        <v>48.713134096564296</v>
       </c>
       <c r="B62" s="0">
-        <v>2.2007356489297609</v>
+        <v>2.2198959582179478</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.712837324035462</v>
+        <v>48.71313379885293</v>
       </c>
       <c r="B63" s="0">
-        <v>2.2007989016751837</v>
+        <v>2.2198882332044967</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.712813591837339</v>
+        <v>48.713132789610178</v>
       </c>
       <c r="B64" s="0">
-        <v>2.2008541116409051</v>
+        <v>2.219889983648748</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.712774951242011</v>
+        <v>48.713130159694572</v>
       </c>
       <c r="B65" s="0">
-        <v>2.2009531506475861</v>
+        <v>2.2198883831651277</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.712745727157213</v>
+        <v>48.71312998453945</v>
       </c>
       <c r="B66" s="0">
-        <v>2.2010474471801129</v>
+        <v>2.2198850975634894</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.712733970013872</v>
+        <v>48.713123830172933</v>
       </c>
       <c r="B67" s="0">
-        <v>2.2010903806254141</v>
+        <v>2.2198904874583199</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.712735930818944</v>
+        <v>48.713130029658061</v>
       </c>
       <c r="B68" s="0">
-        <v>2.2010544697380854</v>
+        <v>2.2198840059058846</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.712752170264366</v>
+        <v>48.713131333870891</v>
       </c>
       <c r="B69" s="0">
-        <v>2.2010531261541426</v>
+        <v>2.2198818916043415</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.71273509712622</v>
+        <v>48.713129443100151</v>
       </c>
       <c r="B70" s="0">
-        <v>2.2010605146371449</v>
+        <v>2.2198823882075058</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.712747347614574</v>
+        <v>48.713134784361877</v>
       </c>
       <c r="B71" s="0">
-        <v>2.2010546208838675</v>
+        <v>2.2198869912429808</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.71273069115778</v>
+        <v>48.713142278050341</v>
       </c>
       <c r="B72" s="0">
-        <v>2.2010749907265286</v>
+        <v>2.2198788790780659</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.712728246309275</v>
+        <v>48.713135800045443</v>
       </c>
       <c r="B73" s="0">
-        <v>2.201095707294479</v>
+        <v>2.2198880868065425</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.71273048944763</v>
+        <v>48.713135147653283</v>
       </c>
       <c r="B74" s="0">
-        <v>2.201071381516535</v>
+        <v>2.219888518364022</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.712752053776896</v>
+        <v>48.713143369478935</v>
       </c>
       <c r="B75" s="0">
-        <v>2.2010429468967394</v>
+        <v>2.219889801498987</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.712756671013274</v>
+        <v>48.713139537640139</v>
       </c>
       <c r="B76" s="0">
-        <v>2.2010244270525798</v>
+        <v>2.2198918044816729</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.712763405582379</v>
+        <v>48.713136963629708</v>
       </c>
       <c r="B77" s="0">
-        <v>2.2009945054299576</v>
+        <v>2.2198912833786944</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.712830599349431</v>
+        <v>48.713136259390431</v>
       </c>
       <c r="B78" s="0">
-        <v>2.2008508036099586</v>
+        <v>2.219891386272661</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.712831724178329</v>
+        <v>48.713133697494918</v>
       </c>
       <c r="B79" s="0">
-        <v>2.2008635384190698</v>
+        <v>2.2198842316805427</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.712847661012369</v>
+        <v>48.713131224178582</v>
       </c>
       <c r="B80" s="0">
-        <v>2.2008185338846991</v>
+        <v>2.2198865848901415</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.712833951136666</v>
+        <v>48.713132646343311</v>
       </c>
       <c r="B81" s="0">
-        <v>2.2008467597435657</v>
+        <v>2.2198897307196903</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.712856517759114</v>
+        <v>48.713136219231856</v>
       </c>
       <c r="B82" s="0">
-        <v>2.2008015601416173</v>
+        <v>2.2198949924179496</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.712827709186357</v>
+        <v>48.71314690140769</v>
       </c>
       <c r="B83" s="0">
-        <v>2.200856396646933</v>
+        <v>2.2198880584354805</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.712818653524835</v>
+        <v>48.713144773974754</v>
       </c>
       <c r="B84" s="0">
-        <v>2.2008663838674498</v>
+        <v>2.2198810473149466</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.712779623267075</v>
+        <v>48.713142048097957</v>
       </c>
       <c r="B85" s="0">
-        <v>2.2008803758406574</v>
+        <v>2.2198815099189289</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.712742927280019</v>
+        <v>48.713143599288223</v>
       </c>
       <c r="B86" s="0">
-        <v>2.2009923563391101</v>
+        <v>2.2198901987098951</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.712776473063627</v>
+        <v>48.713144379215798</v>
       </c>
       <c r="B87" s="0">
-        <v>2.2008035331584055</v>
+        <v>2.2198935995941462</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.712812571254261</v>
+        <v>48.71313811463348</v>
       </c>
       <c r="B88" s="0">
-        <v>2.2008997281384959</v>
+        <v>2.2198933376924841</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.712806735218528</v>
+        <v>48.713137753916364</v>
       </c>
       <c r="B89" s="0">
-        <v>2.2008950657445392</v>
+        <v>2.2198941231424829</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.712784027125707</v>
+        <v>48.713135067284952</v>
       </c>
       <c r="B90" s="0">
-        <v>2.2007462816385144</v>
+        <v>2.219897445508269</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.712794662781796</v>
+        <v>48.713136620079524</v>
       </c>
       <c r="B91" s="0">
-        <v>2.2009559576395175</v>
+        <v>2.2198954444097367</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.712805226699778</v>
+        <v>48.713136401024031</v>
       </c>
       <c r="B92" s="0">
-        <v>2.2009241000917692</v>
+        <v>2.2198970278221277</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.712733034036745</v>
+        <v>48.71314148904672</v>
       </c>
       <c r="B93" s="0">
-        <v>2.2006736377919589</v>
+        <v>2.2199015841126983</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.712740479808289</v>
+        <v>48.713137710159593</v>
       </c>
       <c r="B94" s="0">
-        <v>2.2006865245155654</v>
+        <v>2.219891956718326</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.712742535108873</v>
+        <v>48.713140173757743</v>
       </c>
       <c r="B95" s="0">
-        <v>2.200704837229222</v>
+        <v>2.2198941359294029</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.712769399866779</v>
+        <v>48.713137077612267</v>
       </c>
       <c r="B96" s="0">
-        <v>2.2007144481890775</v>
+        <v>2.2198938504044734</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.712787956472511</v>
+        <v>48.713128485549021</v>
       </c>
       <c r="B97" s="0">
-        <v>2.2007343472626322</v>
+        <v>2.2199015152981607</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.712762869969403</v>
+        <v>48.713126834578013</v>
       </c>
       <c r="B98" s="0">
-        <v>2.2006173380021505</v>
+        <v>2.2198937252448521</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.712782282349927</v>
+        <v>48.713127513510756</v>
       </c>
       <c r="B99" s="0">
-        <v>2.2006901263652678</v>
+        <v>2.2198889076025776</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.712784738907054</v>
+        <v>48.713123839856955</v>
       </c>
       <c r="B100" s="0">
-        <v>2.2006908158129677</v>
+        <v>2.21988915332649</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.712799163222421</v>
+        <v>48.71312115167239</v>
       </c>
       <c r="B101" s="0">
-        <v>2.2007110225196467</v>
+        <v>2.2198907792739768</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.712807662000216</v>
+        <v>48.71312224712559</v>
       </c>
       <c r="B102" s="0">
-        <v>2.2007174428636125</v>
+        <v>2.2198885495149527</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.712803903767735</v>
+        <v>48.713123314097359</v>
       </c>
       <c r="B103" s="0">
-        <v>2.2006673720494918</v>
+        <v>2.2198898764791046</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.71281177672455</v>
+        <v>48.713125872560326</v>
       </c>
       <c r="B104" s="0">
-        <v>2.2006797946208501</v>
+        <v>2.2198889211304218</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.712830356596818</v>
+        <v>48.713126349856118</v>
       </c>
       <c r="B105" s="0">
-        <v>2.2007013129621451</v>
+        <v>2.2198852256388784</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.712835519788641</v>
+        <v>48.713124710276361</v>
       </c>
       <c r="B106" s="0">
-        <v>2.2006538336612551</v>
+        <v>2.2198837653876056</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.712829173504311</v>
+        <v>48.713129121224554</v>
       </c>
       <c r="B107" s="0">
-        <v>2.2006924623553657</v>
+        <v>2.2198829079265843</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.712855941550807</v>
+        <v>48.713130929368219</v>
       </c>
       <c r="B108" s="0">
-        <v>2.200730763023949</v>
+        <v>2.2198821409547001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.71285558744129</v>
+        <v>48.713132719967753</v>
       </c>
       <c r="B109" s="0">
-        <v>2.2006657021662379</v>
+        <v>2.2198871014236277</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.712851565166659</v>
+        <v>48.713131251600338</v>
       </c>
       <c r="B110" s="0">
-        <v>2.2006478897755319</v>
+        <v>2.2198826064572605</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.712855980375529</v>
+        <v>48.713133818235619</v>
       </c>
       <c r="B111" s="0">
-        <v>2.2006719082604587</v>
+        <v>2.219882349973171</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.712852739661194</v>
+        <v>48.713133396716707</v>
       </c>
       <c r="B112" s="0">
-        <v>2.2007082813024348</v>
+        <v>2.2198797543891686</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.712850553831686</v>
+        <v>48.71313668940433</v>
       </c>
       <c r="B113" s="0">
-        <v>2.2006607240025131</v>
+        <v>2.2198771591196174</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.712836482663882</v>
+        <v>48.713137586233472</v>
       </c>
       <c r="B114" s="0">
-        <v>2.2006934896861483</v>
+        <v>2.2198859876952137</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.712855775340003</v>
+        <v>48.713141785514175</v>
       </c>
       <c r="B115" s="0">
-        <v>2.2007100104183808</v>
+        <v>2.2198857724833823</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.712860087909256</v>
+        <v>48.713139158563109</v>
       </c>
       <c r="B116" s="0">
-        <v>2.2007251418786247</v>
+        <v>2.2198832453489983</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.712845316163161</v>
+        <v>48.713140632806144</v>
       </c>
       <c r="B117" s="0">
-        <v>2.200753968388141</v>
+        <v>2.2198817294851536</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.712849096058882</v>
+        <v>48.713138755608973</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2007328799617576</v>
+        <v>2.2198830583619174</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.712859122917124</v>
+        <v>48.713139234011848</v>
       </c>
       <c r="B119" s="0">
-        <v>2.2007376208505063</v>
+        <v>2.2198839052484325</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.712853445880882</v>
+        <v>48.713143665645653</v>
       </c>
       <c r="B120" s="0">
-        <v>2.2007765496508633</v>
+        <v>2.2198843133364941</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.712817665680376</v>
+        <v>48.713136677838087</v>
       </c>
       <c r="B121" s="0">
-        <v>2.2008967940926141</v>
+        <v>2.2198794089760274</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.712789249934225</v>
+        <v>48.713137671429394</v>
       </c>
       <c r="B122" s="0">
-        <v>2.2009381473589462</v>
+        <v>2.2198776835585781</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.7127770634619</v>
+        <v>48.713139520669046</v>
       </c>
       <c r="B123" s="0">
-        <v>2.2009923846781585</v>
+        <v>2.2198761393059643</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.712776175162446</v>
+        <v>48.713142193747494</v>
       </c>
       <c r="B124" s="0">
-        <v>2.2009874734497692</v>
+        <v>2.219877436871688</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.71276055686959</v>
+        <v>48.713141336885293</v>
       </c>
       <c r="B125" s="0">
-        <v>2.2010451308076795</v>
+        <v>2.219878583402787</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.712753876701441</v>
+        <v>48.713136542204609</v>
       </c>
       <c r="B126" s="0">
-        <v>2.2010609728927104</v>
+        <v>2.2198791470129509</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.712722729610995</v>
+        <v>48.713139528322707</v>
       </c>
       <c r="B127" s="0">
-        <v>2.2011098045931394</v>
+        <v>2.2198779973133158</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.712742388937244</v>
+        <v>48.713140165582786</v>
       </c>
       <c r="B128" s="0">
-        <v>2.201066693232109</v>
+        <v>2.2198820080308481</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.712725982069316</v>
+        <v>48.713139859015612</v>
       </c>
       <c r="B129" s="0">
-        <v>2.2011015017285693</v>
+        <v>2.2198825872054715</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.712733137327078</v>
+        <v>48.713146401201911</v>
       </c>
       <c r="B130" s="0">
-        <v>2.2010943331123269</v>
+        <v>2.2198837267651732</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.712752808445764</v>
+        <v>48.713146615198681</v>
       </c>
       <c r="B131" s="0">
-        <v>2.2010526675652078</v>
+        <v>2.2198845361403827</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.712791683486657</v>
+        <v>48.713147401212609</v>
       </c>
       <c r="B132" s="0">
-        <v>2.200961512955081</v>
+        <v>2.2198877178037257</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.71275872343012</v>
+        <v>48.713155663486567</v>
       </c>
       <c r="B133" s="0">
-        <v>2.2010330601707255</v>
+        <v>2.2198872906053375</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.712832645592719</v>
+        <v>48.713157428009708</v>
       </c>
       <c r="B134" s="0">
-        <v>2.2008544983929452</v>
+        <v>2.2198836366130466</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.71286560780824</v>
+        <v>48.713157752153066</v>
       </c>
       <c r="B135" s="0">
-        <v>2.2007776915320436</v>
+        <v>2.2198813459440414</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.712843018533178</v>
+        <v>48.713160154762584</v>
       </c>
       <c r="B136" s="0">
-        <v>2.2008522456796396</v>
+        <v>2.2198751306128553</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.712827220357575</v>
+        <v>48.713162266153503</v>
       </c>
       <c r="B137" s="0">
-        <v>2.2008708970739339</v>
+        <v>2.2198740312422536</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.712832250781219</v>
+        <v>48.71315880754107</v>
       </c>
       <c r="B138" s="0">
-        <v>2.2008547066696296</v>
+        <v>2.219879027395347</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.712830299497192</v>
+        <v>48.713159243919037</v>
       </c>
       <c r="B139" s="0">
-        <v>2.2008827737652474</v>
+        <v>2.2198751940300343</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.712806346824024</v>
+        <v>48.713161646283339</v>
       </c>
       <c r="B140" s="0">
-        <v>2.2009190974200568</v>
+        <v>2.2198762189470354</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.712782558401216</v>
+        <v>48.713151737209863</v>
       </c>
       <c r="B141" s="0">
-        <v>2.2008259471859368</v>
+        <v>2.2198752390970666</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.712790423841696</v>
+        <v>48.713155833948406</v>
       </c>
       <c r="B142" s="0">
-        <v>2.2008587774425639</v>
+        <v>2.2198691116962048</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.712770361235634</v>
+        <v>48.713159029502769</v>
       </c>
       <c r="B143" s="0">
-        <v>2.2006898568619247</v>
+        <v>2.2198749496112233</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.712758469064291</v>
+        <v>48.713155663316947</v>
       </c>
       <c r="B144" s="0">
-        <v>2.2007750849332566</v>
+        <v>2.2198744178717984</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.712758768813536</v>
+        <v>48.713158054929203</v>
       </c>
       <c r="B145" s="0">
-        <v>2.2007496329057079</v>
+        <v>2.2198786139707853</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.712710151257767</v>
+        <v>48.713159630117779</v>
       </c>
       <c r="B146" s="0">
-        <v>2.2008156244692754</v>
+        <v>2.2198777173972086</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.712756796739242</v>
+        <v>48.713153764358488</v>
       </c>
       <c r="B147" s="0">
-        <v>2.2006953220954912</v>
+        <v>2.2198804242170698</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.712744507512497</v>
+        <v>48.713157973392697</v>
       </c>
       <c r="B148" s="0">
-        <v>2.2007537615987372</v>
+        <v>2.2198802768519306</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.712741482466249</v>
+        <v>48.71315672212981</v>
       </c>
       <c r="B149" s="0">
-        <v>2.2006882751665571</v>
+        <v>2.2198819061436015</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.712761562505335</v>
+        <v>48.713153219405967</v>
       </c>
       <c r="B150" s="0">
-        <v>2.2007110487404118</v>
+        <v>2.2198818460620058</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.712759843604701</v>
+        <v>48.713147445565298</v>
       </c>
       <c r="B151" s="0">
-        <v>2.2006872052598743</v>
+        <v>2.2198780146141499</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.712765369536264</v>
+        <v>48.713145631541572</v>
       </c>
       <c r="B152" s="0">
-        <v>2.2006611972001857</v>
+        <v>2.2198842630177405</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.712784590626292</v>
+        <v>48.713146761466938</v>
       </c>
       <c r="B153" s="0">
-        <v>2.2007429998687567</v>
+        <v>2.2198843065641603</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.712788933601935</v>
+        <v>48.713146216048344</v>
       </c>
       <c r="B154" s="0">
-        <v>2.2006827678625585</v>
+        <v>2.2198874664942832</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.712805537126613</v>
+        <v>48.713144551998461</v>
       </c>
       <c r="B155" s="0">
-        <v>2.2007412328752141</v>
+        <v>2.2198804617246242</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.712813229166187</v>
+        <v>48.713141382045698</v>
       </c>
       <c r="B156" s="0">
-        <v>2.2007247272899857</v>
+        <v>2.2198798173793897</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.712824700381155</v>
+        <v>48.713141695636232</v>
       </c>
       <c r="B157" s="0">
-        <v>2.200749594216703</v>
+        <v>2.2198893672747575</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.712840883013144</v>
+        <v>48.713139290131906</v>
       </c>
       <c r="B158" s="0">
-        <v>2.200754166909523</v>
+        <v>2.2198854254986888</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.712852383612237</v>
+        <v>48.713139465686709</v>
       </c>
       <c r="B159" s="0">
-        <v>2.2007693666038777</v>
+        <v>2.2198809586667672</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.712851761888409</v>
+        <v>48.713148132561266</v>
       </c>
       <c r="B160" s="0">
-        <v>2.2007244532844266</v>
+        <v>2.2198815357081609</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.712852978539658</v>
+        <v>48.713144237036261</v>
       </c>
       <c r="B161" s="0">
-        <v>2.2007081703623719</v>
+        <v>2.2198892081542256</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.71286565740165</v>
+        <v>48.713144685673043</v>
       </c>
       <c r="B162" s="0">
-        <v>2.2007197777769774</v>
+        <v>2.2198876756442041</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.712876001056991</v>
+        <v>48.713140184128719</v>
       </c>
       <c r="B163" s="0">
-        <v>2.2007340139661746</v>
+        <v>2.2198868535931631</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.712865213120587</v>
+        <v>48.71314121660577</v>
       </c>
       <c r="B164" s="0">
-        <v>2.2006442735711835</v>
+        <v>2.2198811990856937</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.712862429968894</v>
+        <v>48.713141386738641</v>
       </c>
       <c r="B165" s="0">
-        <v>2.2006575712719876</v>
+        <v>2.2198785664349257</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.712889689469613</v>
+        <v>48.713144019998211</v>
       </c>
       <c r="B166" s="0">
-        <v>2.2007277865534021</v>
+        <v>2.2198794045374761</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.712859113668266</v>
+        <v>48.71313987813371</v>
       </c>
       <c r="B167" s="0">
-        <v>2.2007099436431949</v>
+        <v>2.2198833252549686</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.71285625291106</v>
+        <v>48.713140932929783</v>
       </c>
       <c r="B168" s="0">
-        <v>2.2007642895381152</v>
+        <v>2.219879087818621</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.712847237194779</v>
+        <v>48.71313584794526</v>
       </c>
       <c r="B169" s="0">
-        <v>2.2007374405651712</v>
+        <v>2.2198845011858372</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.71285643070997</v>
+        <v>48.713137095789691</v>
       </c>
       <c r="B170" s="0">
-        <v>2.2007184468415524</v>
+        <v>2.2198800774800906</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.712875314388462</v>
+        <v>48.71313403245582</v>
       </c>
       <c r="B171" s="0">
-        <v>2.200743268835498</v>
+        <v>2.2198860454895146</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.712868358780767</v>
+        <v>48.713132859914026</v>
       </c>
       <c r="B172" s="0">
-        <v>2.200736340777095</v>
+        <v>2.2198824044321817</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.712865216914672</v>
+        <v>48.713131976547885</v>
       </c>
       <c r="B173" s="0">
-        <v>2.2007935750075212</v>
+        <v>2.2198766941106025</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.712851699459854</v>
+        <v>48.713129226313996</v>
       </c>
       <c r="B174" s="0">
-        <v>2.2008619311370783</v>
+        <v>2.2198826008713182</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.712834603654599</v>
+        <v>48.713123734252015</v>
       </c>
       <c r="B175" s="0">
-        <v>2.2008922767330841</v>
+        <v>2.2198820243539412</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.71280050724117</v>
+        <v>48.713123844279764</v>
       </c>
       <c r="B176" s="0">
-        <v>2.2009442470167877</v>
+        <v>2.2198793702996436</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.712800703811844</v>
+        <v>48.713120670968578</v>
       </c>
       <c r="B177" s="0">
-        <v>2.2009494174604689</v>
+        <v>2.2198704258832929</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.712771332949856</v>
+        <v>48.71311620030906</v>
       </c>
       <c r="B178" s="0">
-        <v>2.2010038790555555</v>
+        <v>2.2198745016417543</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.712747893853383</v>
+        <v>48.7131109906707</v>
       </c>
       <c r="B179" s="0">
-        <v>2.2010798356151429</v>
+        <v>2.2198722047273591</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.712728903279618</v>
+        <v>48.71310823414543</v>
       </c>
       <c r="B180" s="0">
-        <v>2.2011117986259041</v>
+        <v>2.2198704657174937</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.712736378482127</v>
+        <v>48.713115553837234</v>
       </c>
       <c r="B181" s="0">
-        <v>2.2011075910670543</v>
+        <v>2.2198744862623885</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.712714885694865</v>
+        <v>48.713112392302953</v>
       </c>
       <c r="B182" s="0">
-        <v>2.2011449427717662</v>
+        <v>2.2198728796511356</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.712727011762532</v>
+        <v>48.713107078443123</v>
       </c>
       <c r="B183" s="0">
-        <v>2.2011264270035542</v>
+        <v>2.2198800190327903</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.71273169671494</v>
+        <v>48.713105691557672</v>
       </c>
       <c r="B184" s="0">
-        <v>2.2011229080133727</v>
+        <v>2.2198836455176259</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.712771602477687</v>
+        <v>48.713110206252139</v>
       </c>
       <c r="B185" s="0">
-        <v>2.2010219066203009</v>
+        <v>2.2198808246915629</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.712858688704131</v>
+        <v>48.713106503463088</v>
       </c>
       <c r="B186" s="0">
-        <v>2.2008216385500399</v>
+        <v>2.2198874315845618</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.712861336156287</v>
+        <v>48.71310444684422</v>
       </c>
       <c r="B187" s="0">
-        <v>2.2008264964265276</v>
+        <v>2.2198848367534154</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.712851295994263</v>
+        <v>48.713112002790965</v>
       </c>
       <c r="B188" s="0">
-        <v>2.2008425070498774</v>
+        <v>2.2198821852475423</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.712847082617266</v>
+        <v>48.713110436499001</v>
       </c>
       <c r="B189" s="0">
-        <v>2.2008333526410233</v>
+        <v>2.2198814175311168</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.712818107946028</v>
+        <v>48.713110729423995</v>
       </c>
       <c r="B190" s="0">
-        <v>2.2008824045567623</v>
+        <v>2.2198803378185921</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.712840701160545</v>
+        <v>48.713105235989737</v>
       </c>
       <c r="B191" s="0">
-        <v>2.2008439851948349</v>
+        <v>2.2198790116866176</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.712809384120369</v>
+        <v>48.713110900130381</v>
       </c>
       <c r="B192" s="0">
-        <v>2.2009036426807378</v>
+        <v>2.2198881516016735</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.712807364357012</v>
+        <v>48.713115220821571</v>
       </c>
       <c r="B193" s="0">
-        <v>2.2008112506147173</v>
+        <v>2.2198827001917358</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.712813350255175</v>
+        <v>48.713116603659309</v>
       </c>
       <c r="B194" s="0">
-        <v>2.2009019503917418</v>
+        <v>2.2198907235973118</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.712805101745964</v>
+        <v>48.713121295486367</v>
       </c>
       <c r="B195" s="0">
-        <v>2.2007904891042216</v>
+        <v>2.2198937079114471</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.712786022857067</v>
+        <v>48.713117610722954</v>
       </c>
       <c r="B196" s="0">
-        <v>2.2008103152918097</v>
+        <v>2.2198951945120649</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.712758584324092</v>
+        <v>48.71312642423316</v>
       </c>
       <c r="B197" s="0">
-        <v>2.2007715584011054</v>
+        <v>2.2199015972533389</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.712814764783104</v>
+        <v>48.713128373916035</v>
       </c>
       <c r="B198" s="0">
-        <v>2.2009384946742689</v>
+        <v>2.219892656727295</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.712821087086539</v>
+        <v>48.713128618627138</v>
       </c>
       <c r="B199" s="0">
-        <v>2.2009073735128792</v>
+        <v>2.2198914817561768</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.712795900334122</v>
+        <v>48.713136760494862</v>
       </c>
       <c r="B200" s="0">
-        <v>2.2009368783123811</v>
+        <v>2.2198883873148914</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.712744168214037</v>
+        <v>48.713136487385853</v>
       </c>
       <c r="B201" s="0">
-        <v>2.2007095827232361</v>
+        <v>2.21989485373761</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.712757998931032</v>
+        <v>48.713136219578018</v>
       </c>
       <c r="B202" s="0">
-        <v>2.2007482949960617</v>
+        <v>2.2198965548670242</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.712827524342956</v>
+        <v>48.713138873728966</v>
       </c>
       <c r="B203" s="0">
-        <v>2.2008867919157056</v>
+        <v>2.2198904290713917</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.712779377261015</v>
+        <v>48.713141358078502</v>
       </c>
       <c r="B204" s="0">
-        <v>2.2007336603482317</v>
+        <v>2.2198921075483535</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.712835827559218</v>
+        <v>48.713138273667312</v>
       </c>
       <c r="B205" s="0">
-        <v>2.2008710572781354</v>
+        <v>2.2198930733241835</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.712792679441456</v>
+        <v>48.713134767146329</v>
       </c>
       <c r="B206" s="0">
-        <v>2.2006956379095666</v>
+        <v>2.2198973812623613</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.712807927517204</v>
+        <v>48.713134281773769</v>
       </c>
       <c r="B207" s="0">
-        <v>2.2006970538936486</v>
+        <v>2.2199007011842058</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.712815356158167</v>
+        <v>48.713129347652739</v>
       </c>
       <c r="B208" s="0">
-        <v>2.2006919200844242</v>
+        <v>2.2198979920302784</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.712824271064719</v>
+        <v>48.713130469377184</v>
       </c>
       <c r="B209" s="0">
-        <v>2.2006762779344813</v>
+        <v>2.2198947247760139</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.712840031056324</v>
+        <v>48.713130790220234</v>
       </c>
       <c r="B210" s="0">
-        <v>2.2007051900209747</v>
+        <v>2.2199024921303785</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.712833778014385</v>
+        <v>48.713134212579909</v>
       </c>
       <c r="B211" s="0">
-        <v>2.2006455826631255</v>
+        <v>2.2199027040719352</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.712842011152908</v>
+        <v>48.713131923451812</v>
       </c>
       <c r="B212" s="0">
-        <v>2.200682077669128</v>
+        <v>2.2199101781860273</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.712848908873419</v>
+        <v>48.71312886221174</v>
       </c>
       <c r="B213" s="0">
-        <v>2.2006524361735531</v>
+        <v>2.2199069148421922</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.712869903975531</v>
+        <v>48.713132908360976</v>
       </c>
       <c r="B214" s="0">
-        <v>2.2007238431550324</v>
+        <v>2.2199057772033299</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.712876498109502</v>
+        <v>48.713135478040279</v>
       </c>
       <c r="B215" s="0">
-        <v>2.2006907960079234</v>
+        <v>2.2199133061858909</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.712864846107827</v>
+        <v>48.713128406993199</v>
       </c>
       <c r="B216" s="0">
-        <v>2.2006633013913364</v>
+        <v>2.2199149965261884</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.712850510214338</v>
+        <v>48.713133437281471</v>
       </c>
       <c r="B217" s="0">
-        <v>2.2007216239683118</v>
+        <v>2.2199096629173196</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.712827488152023</v>
+        <v>48.713131811589392</v>
       </c>
       <c r="B218" s="0">
-        <v>2.2007739630509113</v>
+        <v>2.2199138566871644</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.712882635475417</v>
+        <v>48.713127256040266</v>
       </c>
       <c r="B219" s="0">
-        <v>2.2006669714428906</v>
+        <v>2.2199133813844463</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.712874479419696</v>
+        <v>48.713130146568403</v>
       </c>
       <c r="B220" s="0">
-        <v>2.2006512199959274</v>
+        <v>2.2199148373176847</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.712854972353377</v>
+        <v>48.713126572460808</v>
       </c>
       <c r="B221" s="0">
-        <v>2.20073110775648</v>
+        <v>2.2199177017724265</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.712895849281047</v>
+        <v>48.71312883608902</v>
       </c>
       <c r="B222" s="0">
-        <v>2.2006802037239663</v>
+        <v>2.2199140038649827</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.712918065961553</v>
+        <v>48.713125785494114</v>
       </c>
       <c r="B223" s="0">
-        <v>2.2007166020979607</v>
+        <v>2.2199180257925604</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.712897517458245</v>
+        <v>48.713126868653319</v>
       </c>
       <c r="B224" s="0">
-        <v>2.2006999340431288</v>
+        <v>2.2199213497334744</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.712886656154851</v>
+        <v>48.713125570385415</v>
       </c>
       <c r="B225" s="0">
-        <v>2.2007522582551151</v>
+        <v>2.2199153391432787</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.712831044628707</v>
+        <v>48.713127646813184</v>
       </c>
       <c r="B226" s="0">
-        <v>2.2009315318037626</v>
+        <v>2.2199109354717006</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.712791297824751</v>
+        <v>48.71312608378819</v>
       </c>
       <c r="B227" s="0">
-        <v>2.2009806390756825</v>
+        <v>2.2199186130219761</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.712780379799007</v>
+        <v>48.713128050223006</v>
       </c>
       <c r="B228" s="0">
-        <v>2.2010082717711668</v>
+        <v>2.2199131171865862</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.71276740578795</v>
+        <v>48.713133697195246</v>
       </c>
       <c r="B229" s="0">
-        <v>2.2010439540508848</v>
+        <v>2.2199127831937444</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.712760551894945</v>
+        <v>48.71313363428964</v>
       </c>
       <c r="B230" s="0">
-        <v>2.2010750217066275</v>
+        <v>2.2199110976041001</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.712742777175898</v>
+        <v>48.713137973909866</v>
       </c>
       <c r="B231" s="0">
-        <v>2.2010923181393101</v>
+        <v>2.2199066396919633</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.712755090672971</v>
+        <v>48.713136540017217</v>
       </c>
       <c r="B232" s="0">
-        <v>2.2010548668060932</v>
+        <v>2.2199078360480304</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.712765071443315</v>
+        <v>48.713136546596083</v>
       </c>
       <c r="B233" s="0">
-        <v>2.2010423330972997</v>
+        <v>2.2198962498698354</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.712746752311425</v>
+        <v>48.713133441126026</v>
       </c>
       <c r="B234" s="0">
-        <v>2.2010785069235359</v>
+        <v>2.2198978695386087</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.712820995700675</v>
+        <v>48.713137065279128</v>
       </c>
       <c r="B235" s="0">
-        <v>2.2009123864703026</v>
+        <v>2.2198928279353121</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.712847195683629</v>
+        <v>48.713133409944589</v>
       </c>
       <c r="B236" s="0">
-        <v>2.2008364587098028</v>
+        <v>2.2198924420198756</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.712847916925014</v>
+        <v>48.713131668164586</v>
       </c>
       <c r="B237" s="0">
-        <v>2.2008478603698087</v>
+        <v>2.219892887804455</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.712866869423451</v>
+        <v>48.713129817520397</v>
       </c>
       <c r="B238" s="0">
-        <v>2.2007938534475286</v>
+        <v>2.2199004533371891</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.71286761460631</v>
+        <v>48.713132946291353</v>
       </c>
       <c r="B239" s="0">
-        <v>2.2007995843066826</v>
+        <v>2.2198909957150694</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.712855082594189</v>
+        <v>48.71313189396453</v>
       </c>
       <c r="B240" s="0">
-        <v>2.2008210095624756</v>
+        <v>2.2198865515780959</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.712839467375268</v>
+        <v>48.713135736237611</v>
       </c>
       <c r="B241" s="0">
-        <v>2.2008512227509196</v>
+        <v>2.2198829744300652</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.712855811713361</v>
+        <v>48.713129872365286</v>
       </c>
       <c r="B242" s="0">
-        <v>2.200814843016905</v>
+        <v>2.2198860638305225</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.712813106474407</v>
+        <v>48.713133403872433</v>
       </c>
       <c r="B243" s="0">
-        <v>2.2009238013737282</v>
+        <v>2.2198831699759518</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.712839957452367</v>
+        <v>48.713131866280015</v>
       </c>
       <c r="B244" s="0">
-        <v>2.2008316555793606</v>
+        <v>2.2198822351135794</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.712797176617251</v>
+        <v>48.713129141004806</v>
       </c>
       <c r="B245" s="0">
-        <v>2.2008810192674875</v>
+        <v>2.2198861027987897</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.712781521727663</v>
+        <v>48.713132255547073</v>
       </c>
       <c r="B246" s="0">
-        <v>2.2007991480927078</v>
+        <v>2.2198828427352693</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.712783784599118</v>
+        <v>48.713133696488754</v>
       </c>
       <c r="B247" s="0">
-        <v>2.2007439789538963</v>
+        <v>2.219878798908379</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.712771046132623</v>
+        <v>48.713133319464546</v>
       </c>
       <c r="B248" s="0">
-        <v>2.2007798978940696</v>
+        <v>2.2198879224741863</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.712762306024253</v>
+        <v>48.713127536992978</v>
       </c>
       <c r="B249" s="0">
-        <v>2.2007673573474595</v>
+        <v>2.2198773104860754</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.712763809928774</v>
+        <v>48.713127406511468</v>
       </c>
       <c r="B250" s="0">
-        <v>2.2007390719263813</v>
+        <v>2.2198844103971567</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.712746183790983</v>
+        <v>48.713127237523857</v>
       </c>
       <c r="B251" s="0">
-        <v>2.20064731486878</v>
+        <v>2.2198854190549775</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.712743134497167</v>
+        <v>48.713122557483238</v>
       </c>
       <c r="B252" s="0">
-        <v>2.2007463374124274</v>
+        <v>2.2198840135577642</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.712777825467562</v>
+        <v>48.713119258815894</v>
       </c>
       <c r="B253" s="0">
-        <v>2.2007444339402635</v>
+        <v>2.2198894239063613</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.71276429898478</v>
+        <v>48.713122146032561</v>
       </c>
       <c r="B254" s="0">
-        <v>2.2007135628965613</v>
+        <v>2.2198790977471377</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.712776726734042</v>
+        <v>48.713117874675618</v>
       </c>
       <c r="B255" s="0">
-        <v>2.2007075682866932</v>
+        <v>2.2198859879601489</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.712776855092848</v>
+        <v>48.7131140630785</v>
       </c>
       <c r="B256" s="0">
-        <v>2.2006800601579668</v>
+        <v>2.2198923765684207</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.71279521487952</v>
+        <v>48.713116127247822</v>
       </c>
       <c r="B257" s="0">
-        <v>2.2006991045251882</v>
+        <v>2.2198990740475293</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.712809199308005</v>
+        <v>48.713116105661058</v>
       </c>
       <c r="B258" s="0">
-        <v>2.2007079688606148</v>
+        <v>2.2199032521773709</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.712806782257537</v>
+        <v>48.713109054439265</v>
       </c>
       <c r="B259" s="0">
-        <v>2.2006873729079093</v>
+        <v>2.2199044137889747</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.712817416634138</v>
+        <v>48.71311550382363</v>
       </c>
       <c r="B260" s="0">
-        <v>2.2006727780596029</v>
+        <v>2.2199046800308437</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.712819274928108</v>
+        <v>48.713116829450229</v>
       </c>
       <c r="B261" s="0">
-        <v>2.2006613140209193</v>
+        <v>2.2199011789830201</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.712826510649236</v>
+        <v>48.713113034028538</v>
       </c>
       <c r="B262" s="0">
-        <v>2.2006800843641439</v>
+        <v>2.219906253877693</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.712834194553366</v>
+        <v>48.713110214019764</v>
       </c>
       <c r="B263" s="0">
-        <v>2.2006565459743297</v>
+        <v>2.2199081371874319</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.712842254474459</v>
+        <v>48.713116687771276</v>
       </c>
       <c r="B264" s="0">
-        <v>2.2006624172810074</v>
+        <v>2.2199045260085626</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.712859471100146</v>
+        <v>48.713114785143787</v>
       </c>
       <c r="B265" s="0">
-        <v>2.2007024417862637</v>
+        <v>2.219900841515646</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.712865589552607</v>
+        <v>48.713126114015374</v>
       </c>
       <c r="B266" s="0">
-        <v>2.2006814106425527</v>
+        <v>2.2198994050941394</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.712863156810386</v>
+        <v>48.713122330048542</v>
       </c>
       <c r="B267" s="0">
-        <v>2.2006515923545575</v>
+        <v>2.2198955300872703</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.712862476273216</v>
+        <v>48.713121790655059</v>
       </c>
       <c r="B268" s="0">
-        <v>2.2006753299793811</v>
+        <v>2.219897672943604</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.712863804985496</v>
+        <v>48.713121051259748</v>
       </c>
       <c r="B269" s="0">
-        <v>2.200734481216962</v>
+        <v>2.2199071691343311</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.712845690361</v>
+        <v>48.713120169895355</v>
       </c>
       <c r="B270" s="0">
-        <v>2.2008091014470206</v>
+        <v>2.2199160805382143</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.712861328797125</v>
+        <v>48.713117779870338</v>
       </c>
       <c r="B271" s="0">
-        <v>2.200793423596485</v>
+        <v>2.2199175553951278</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.712889558477706</v>
+        <v>48.713120395282736</v>
       </c>
       <c r="B272" s="0">
-        <v>2.2007114566105557</v>
+        <v>2.2199161266256318</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.712887205052041</v>
+        <v>48.713119835727362</v>
       </c>
       <c r="B273" s="0">
-        <v>2.2007491843520626</v>
+        <v>2.2199139361019875</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.71287768498366</v>
+        <v>48.71312044208301</v>
       </c>
       <c r="B274" s="0">
-        <v>2.2007767622769858</v>
+        <v>2.2199081410465382</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.712864774795769</v>
+        <v>48.713119133182602</v>
       </c>
       <c r="B275" s="0">
-        <v>2.20075590532841</v>
+        <v>2.2199135194301269</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.712862182742569</v>
+        <v>48.713112427697567</v>
       </c>
       <c r="B276" s="0">
-        <v>2.2008004892854758</v>
+        <v>2.2199128323887947</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.712873617504762</v>
+        <v>48.713112936563071</v>
       </c>
       <c r="B277" s="0">
-        <v>2.2007793599837324</v>
+        <v>2.2199082252688216</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.712864733585924</v>
+        <v>48.713115770123608</v>
       </c>
       <c r="B278" s="0">
-        <v>2.2008146070734642</v>
+        <v>2.2199098564026203</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.712843791237567</v>
+        <v>48.713123588999856</v>
       </c>
       <c r="B279" s="0">
-        <v>2.2008552915825601</v>
+        <v>2.219905153753285</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.712816823318001</v>
+        <v>48.713121560583659</v>
       </c>
       <c r="B280" s="0">
-        <v>2.2008958994239833</v>
+        <v>2.219901622923643</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.712799836890561</v>
+        <v>48.713126112575559</v>
       </c>
       <c r="B281" s="0">
-        <v>2.2009594750848045</v>
+        <v>2.2199049635852148</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.712761740520499</v>
+        <v>48.713127123496996</v>
       </c>
       <c r="B282" s="0">
-        <v>2.2010450989674655</v>
+        <v>2.2198999861762689</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.712735010175528</v>
+        <v>48.713123147592931</v>
       </c>
       <c r="B283" s="0">
-        <v>2.2011121171941008</v>
+        <v>2.2198925128280074</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.712736709972404</v>
+        <v>48.713116666889178</v>
       </c>
       <c r="B284" s="0">
-        <v>2.2011136107359697</v>
+        <v>2.2198925964278531</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.712738976627655</v>
+        <v>48.713116442144397</v>
       </c>
       <c r="B285" s="0">
-        <v>2.2010998721860298</v>
+        <v>2.2198915198519837</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.712824812296624</v>
+        <v>48.713114767379089</v>
       </c>
       <c r="B286" s="0">
-        <v>2.2009061155578102</v>
+        <v>2.2198892854524677</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.712863474496899</v>
+        <v>48.713111798147402</v>
       </c>
       <c r="B287" s="0">
-        <v>2.2008105387324699</v>
+        <v>2.2198960214927426</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.712873858015705</v>
+        <v>48.713111462343441</v>
       </c>
       <c r="B288" s="0">
-        <v>2.2007719024406702</v>
+        <v>2.2198943112097465</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.71284920521979</v>
+        <v>48.713109106632786</v>
       </c>
       <c r="B289" s="0">
-        <v>2.200820850891227</v>
+        <v>2.2198928884929696</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.712854761132228</v>
+        <v>48.71311548956831</v>
       </c>
       <c r="B290" s="0">
-        <v>2.2008122216448287</v>
+        <v>2.2198879333004324</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.71285117323265</v>
+        <v>48.713111007467717</v>
       </c>
       <c r="B291" s="0">
-        <v>2.2008192171701442</v>
+        <v>2.2198873813073385</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.71281407242094</v>
+        <v>48.713110174094631</v>
       </c>
       <c r="B292" s="0">
-        <v>2.2008912443235547</v>
+        <v>2.2198811581203577</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.712823033624048</v>
+        <v>48.713109523925063</v>
       </c>
       <c r="B293" s="0">
-        <v>2.2008758746357349</v>
+        <v>2.2198786094730507</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.712829168399722</v>
+        <v>48.713111794945377</v>
       </c>
       <c r="B294" s="0">
-        <v>2.2008600521007726</v>
+        <v>2.2198741302364526</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.71280976390608</v>
+        <v>48.713109290880304</v>
       </c>
       <c r="B295" s="0">
-        <v>2.2008403590528416</v>
+        <v>2.2198780035673518</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.712796010641888</v>
+        <v>48.713112144335987</v>
       </c>
       <c r="B296" s="0">
-        <v>2.2008380150285829</v>
+        <v>2.2198755326859696</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.712791779122</v>
+        <v>48.713108897573804</v>
       </c>
       <c r="B297" s="0">
-        <v>2.2008364393711313</v>
+        <v>2.2198754013507553</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.712770726108914</v>
+        <v>48.713109071262231</v>
       </c>
       <c r="B298" s="0">
-        <v>2.2008012578126115</v>
+        <v>2.2198761365347091</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.712797220083367</v>
+        <v>48.713112189133355</v>
       </c>
       <c r="B299" s="0">
-        <v>2.2007781144539793</v>
+        <v>2.2198793943887778</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.712757985368626</v>
+        <v>48.71311510128929</v>
       </c>
       <c r="B300" s="0">
-        <v>2.2008237364306513</v>
+        <v>2.2198735918453827</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.712749057192781</v>
+        <v>48.713119447623797</v>
       </c>
       <c r="B301" s="0">
-        <v>2.2007660951299153</v>
+        <v>2.21986150513216</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.7128033898843</v>
+        <v>48.71311849210219</v>
       </c>
       <c r="B302" s="0">
-        <v>2.2009452323910348</v>
+        <v>2.2198636380039938</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.712744935412516</v>
+        <v>48.713119275508248</v>
       </c>
       <c r="B303" s="0">
-        <v>2.2007391804637537</v>
+        <v>2.2198708845787873</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.71273686359622</v>
+        <v>48.713119378466068</v>
       </c>
       <c r="B304" s="0">
-        <v>2.2007508898999464</v>
+        <v>2.2198714729972404</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.712761516419761</v>
+        <v>48.713122149146706</v>
       </c>
       <c r="B305" s="0">
-        <v>2.20076164205837</v>
+        <v>2.2198801055814013</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.712766558018771</v>
+        <v>48.713125488885481</v>
       </c>
       <c r="B306" s="0">
-        <v>2.2007245084990159</v>
+        <v>2.2198717830989772</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.71282152782922</v>
+        <v>48.713120022772465</v>
       </c>
       <c r="B307" s="0">
-        <v>2.2008936577623079</v>
+        <v>2.2198770863716422</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.712777147866397</v>
+        <v>48.713121145629223</v>
       </c>
       <c r="B308" s="0">
-        <v>2.2006999824110016</v>
+        <v>2.219880539890525</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.71279553474465</v>
+        <v>48.713125526205609</v>
       </c>
       <c r="B309" s="0">
-        <v>2.200706759609639</v>
+        <v>2.2198823415789661</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.71279778993884</v>
+        <v>48.71313288585587</v>
       </c>
       <c r="B310" s="0">
-        <v>2.2007045372083431</v>
+        <v>2.2198878761563998</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.712818845026312</v>
+        <v>48.713137634238173</v>
       </c>
       <c r="B311" s="0">
-        <v>2.2007476360817337</v>
+        <v>2.2198859250145544</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.712805961837688</v>
+        <v>48.713132052984896</v>
       </c>
       <c r="B312" s="0">
-        <v>2.2006922610883914</v>
+        <v>2.2198826085620404</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.71280955611951</v>
+        <v>48.713144460071874</v>
       </c>
       <c r="B313" s="0">
-        <v>2.2006722239341738</v>
+        <v>2.2198848977272663</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.7128102373145</v>
+        <v>48.713148403357522</v>
       </c>
       <c r="B314" s="0">
-        <v>2.2006388030909974</v>
+        <v>2.2198866699423996</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.712835650417126</v>
+        <v>48.713147371545887</v>
       </c>
       <c r="B315" s="0">
-        <v>2.2007061433163853</v>
+        <v>2.2198859433061786</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.712861511621299</v>
+        <v>48.713138554402839</v>
       </c>
       <c r="B316" s="0">
-        <v>2.2007288791948088</v>
+        <v>2.2198825986805426</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.712879812210481</v>
+        <v>48.71313753129219</v>
       </c>
       <c r="B317" s="0">
-        <v>2.2007536194088586</v>
+        <v>2.2198806204282611</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.712878782903459</v>
+        <v>48.713138886204448</v>
       </c>
       <c r="B318" s="0">
-        <v>2.2007192955291402</v>
+        <v>2.2198814926809112</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.712865034175913</v>
+        <v>48.71313588490996</v>
       </c>
       <c r="B319" s="0">
-        <v>2.2006712475266928</v>
+        <v>2.2198825103348208</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.712886348743993</v>
+        <v>48.713135512863282</v>
       </c>
       <c r="B320" s="0">
-        <v>2.2007216809473222</v>
+        <v>2.2198792838077797</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.712889141158115</v>
+        <v>48.713136949711618</v>
       </c>
       <c r="B321" s="0">
-        <v>2.2007398559227629</v>
+        <v>2.2198812972343993</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.71289748234129</v>
+        <v>48.713132639249054</v>
       </c>
       <c r="B322" s="0">
-        <v>2.2006346288518785</v>
+        <v>2.2198813528720911</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.712896794425227</v>
+        <v>48.713135026334498</v>
       </c>
       <c r="B323" s="0">
-        <v>2.2006506676067974</v>
+        <v>2.219890778605595</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.712879184616646</v>
+        <v>48.713131739555472</v>
       </c>
       <c r="B324" s="0">
-        <v>2.2006822272337891</v>
+        <v>2.219888500239473</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.71287673572364</v>
+        <v>48.713133436902737</v>
       </c>
       <c r="B325" s="0">
-        <v>2.2006731007201941</v>
+        <v>2.2198912840574909</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.712907343448535</v>
+        <v>48.713135878359822</v>
       </c>
       <c r="B326" s="0">
-        <v>2.2006236063581919</v>
+        <v>2.2198907425386665</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.71286943662934</v>
+        <v>48.713137188860237</v>
       </c>
       <c r="B327" s="0">
-        <v>2.2007409781975413</v>
+        <v>2.2198870118901501</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.712898788074526</v>
+        <v>48.71313192564508</v>
       </c>
       <c r="B328" s="0">
-        <v>2.2006540229432572</v>
+        <v>2.2198914093463511</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.71278985053965</v>
+        <v>48.713132782104637</v>
       </c>
       <c r="B329" s="0">
-        <v>2.2009620602283895</v>
+        <v>2.2198963972816887</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.712726576024402</v>
+        <v>48.713129905337482</v>
       </c>
       <c r="B330" s="0">
-        <v>2.2011364859581346</v>
+        <v>2.2198947039424222</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.712734511026554</v>
+        <v>48.713130394666763</v>
       </c>
       <c r="B331" s="0">
-        <v>2.2011266780365362</v>
+        <v>2.2198881769968954</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.712718131864051</v>
+        <v>48.713130806483889</v>
       </c>
       <c r="B332" s="0">
-        <v>2.2011756016355948</v>
+        <v>2.2198972847565539</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.712687749631243</v>
+        <v>48.713120470888605</v>
       </c>
       <c r="B333" s="0">
-        <v>2.2012199755018136</v>
+        <v>2.2198975687590683</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.712691649168789</v>
+        <v>48.713125422081141</v>
       </c>
       <c r="B334" s="0">
-        <v>2.2012000014377597</v>
+        <v>2.2198985315736879</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.712693721574368</v>
+        <v>48.71312490526546</v>
       </c>
       <c r="B335" s="0">
-        <v>2.2012213919312633</v>
+        <v>2.2199007585500761</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.712690092740857</v>
+        <v>48.713126711012478</v>
       </c>
       <c r="B336" s="0">
-        <v>2.201200310753825</v>
+        <v>2.2199067699994015</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.71271953690021</v>
+        <v>48.713124088622806</v>
       </c>
       <c r="B337" s="0">
-        <v>2.2011373291264098</v>
+        <v>2.2198979790256259</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.712805596582058</v>
+        <v>48.713126081804376</v>
       </c>
       <c r="B338" s="0">
-        <v>2.2009243118417841</v>
+        <v>2.2199108171434072</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.712836480260918</v>
+        <v>48.713128489295151</v>
       </c>
       <c r="B339" s="0">
-        <v>2.2008664091676438</v>
+        <v>2.2199158144468325</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.712850818289461</v>
+        <v>48.7131260673508</v>
       </c>
       <c r="B340" s="0">
-        <v>2.2008119050977335</v>
+        <v>2.2199131188764807</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.712855985035986</v>
+        <v>48.713126996562657</v>
       </c>
       <c r="B341" s="0">
-        <v>2.2007992641159713</v>
+        <v>2.2199063848368379</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.712846207669252</v>
+        <v>48.713118626985775</v>
       </c>
       <c r="B342" s="0">
-        <v>2.2008253819617711</v>
+        <v>2.2199050882599769</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.712857599632471</v>
+        <v>48.713121443003125</v>
       </c>
       <c r="B343" s="0">
-        <v>2.2007974607724567</v>
+        <v>2.2199029105548989</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.712848578621134</v>
+        <v>48.713123335891382</v>
       </c>
       <c r="B344" s="0">
-        <v>2.2008228100647296</v>
+        <v>2.2199054203238013</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.712843369231223</v>
+        <v>48.713117716056814</v>
       </c>
       <c r="B345" s="0">
-        <v>2.2008464886037427</v>
+        <v>2.219901988781956</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.712813514923809</v>
+        <v>48.713115068195755</v>
       </c>
       <c r="B346" s="0">
-        <v>2.2009081930567449</v>
+        <v>2.2198991661782439</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.712835881225359</v>
+        <v>48.713113956652215</v>
       </c>
       <c r="B347" s="0">
-        <v>2.2008454939569813</v>
+        <v>2.219905010408326</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.7128233709321</v>
+        <v>48.713119973625531</v>
       </c>
       <c r="B348" s="0">
-        <v>2.2008494545598913</v>
+        <v>2.2199048153997199</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.712804805219662</v>
+        <v>48.713120640182005</v>
       </c>
       <c r="B349" s="0">
-        <v>2.2008377397033421</v>
+        <v>2.2199036048318774</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.712776343877515</v>
+        <v>48.713119629504355</v>
       </c>
       <c r="B350" s="0">
-        <v>2.2008324405188415</v>
+        <v>2.2199120479242898</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.712753948233953</v>
+        <v>48.713115827928263</v>
       </c>
       <c r="B351" s="0">
-        <v>2.2007762707427796</v>
+        <v>2.2199119494873534</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.712756615252253</v>
+        <v>48.713117244523339</v>
       </c>
       <c r="B352" s="0">
-        <v>2.2007779497240447</v>
+        <v>2.2199045870619374</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.712741788305984</v>
+        <v>48.713113975917551</v>
       </c>
       <c r="B353" s="0">
-        <v>2.2007499468345602</v>
+        <v>2.2199021122730782</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.712745074753471</v>
+        <v>48.713114991244353</v>
       </c>
       <c r="B354" s="0">
-        <v>2.2007601239993226</v>
+        <v>2.2198987983732628</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.712754886170671</v>
+        <v>48.713116521112127</v>
       </c>
       <c r="B355" s="0">
-        <v>2.2007652621519393</v>
+        <v>2.2199013318917982</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.712748083415505</v>
+        <v>48.713113319434378</v>
       </c>
       <c r="B356" s="0">
-        <v>2.2007310403985843</v>
+        <v>2.2199036592604968</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.712740808831875</v>
+        <v>48.713119823947707</v>
       </c>
       <c r="B357" s="0">
-        <v>2.2007121733183563</v>
+        <v>2.2199046045378617</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.712736780709193</v>
+        <v>48.713115729414177</v>
       </c>
       <c r="B358" s="0">
-        <v>2.2006940868141336</v>
+        <v>2.21990863357646</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.712757669675298</v>
+        <v>48.71311346341394</v>
       </c>
       <c r="B359" s="0">
-        <v>2.2007155249479311</v>
+        <v>2.2199049551798833</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.712777844232363</v>
+        <v>48.713119158326933</v>
       </c>
       <c r="B360" s="0">
-        <v>2.2007427817887004</v>
+        <v>2.2199005818122521</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.712781500490841</v>
+        <v>48.713116899539479</v>
       </c>
       <c r="B361" s="0">
-        <v>2.2007255385814166</v>
+        <v>2.2199024981432558</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.712797211064142</v>
+        <v>48.713121342860589</v>
       </c>
       <c r="B362" s="0">
-        <v>2.2007419260428209</v>
+        <v>2.2199011415013739</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.712797229293948</v>
+        <v>48.713118477937577</v>
       </c>
       <c r="B363" s="0">
-        <v>2.2006978836540507</v>
+        <v>2.2198997125091373</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.712791156588615</v>
+        <v>48.713116399291316</v>
       </c>
       <c r="B364" s="0">
-        <v>2.2006882229892311</v>
+        <v>2.2199057835362517</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.712819804868261</v>
+        <v>48.713117506461437</v>
       </c>
       <c r="B365" s="0">
-        <v>2.2007244732918507</v>
+        <v>2.2199015352550071</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.712816986898091</v>
+        <v>48.713121312756499</v>
       </c>
       <c r="B366" s="0">
-        <v>2.2006866634441411</v>
+        <v>2.2199116695343042</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.712819690034614</v>
+        <v>48.713125533107046</v>
       </c>
       <c r="B367" s="0">
-        <v>2.2006634040347981</v>
+        <v>2.2199072157591178</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.712841072307739</v>
+        <v>48.713119837022482</v>
       </c>
       <c r="B368" s="0">
-        <v>2.2006901121060083</v>
+        <v>2.2199113203432974</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.712869419431406</v>
+        <v>48.713122292264231</v>
       </c>
       <c r="B369" s="0">
-        <v>2.2007399877328626</v>
+        <v>2.2199147250751969</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.712874476149075</v>
+        <v>48.713123647766317</v>
       </c>
       <c r="B370" s="0">
-        <v>2.2007132593649712</v>
+        <v>2.2199150699064347</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.712866963075776</v>
+        <v>48.713122287738898</v>
       </c>
       <c r="B371" s="0">
-        <v>2.200647116177509</v>
+        <v>2.2199218263509932</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.712878120090842</v>
+        <v>48.713122793292683</v>
       </c>
       <c r="B372" s="0">
-        <v>2.200708548801575</v>
+        <v>2.2199174028745676</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.712892527438349</v>
+        <v>48.713119775594827</v>
       </c>
       <c r="B373" s="0">
-        <v>2.2007202402461208</v>
+        <v>2.2199207567293588</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.712872409238138</v>
+        <v>48.713121058242138</v>
       </c>
       <c r="B374" s="0">
-        <v>2.2006651083870561</v>
+        <v>2.2199153873733675</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.712865935829164</v>
+        <v>48.713128099357064</v>
       </c>
       <c r="B375" s="0">
-        <v>2.2006670672584479</v>
+        <v>2.2199155330933809</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.712866701053336</v>
+        <v>48.713125228024637</v>
       </c>
       <c r="B376" s="0">
-        <v>2.2006947455343151</v>
+        <v>2.2199133458396623</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.712890921369286</v>
+        <v>48.71313047197237</v>
       </c>
       <c r="B377" s="0">
-        <v>2.2006592882058245</v>
+        <v>2.2199089523227444</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.712892114113899</v>
+        <v>48.713131711039743</v>
       </c>
       <c r="B378" s="0">
-        <v>2.200669530367442</v>
+        <v>2.2199107047004367</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.712862711258417</v>
+        <v>48.713127956189766</v>
       </c>
       <c r="B379" s="0">
-        <v>2.2007940768713121</v>
+        <v>2.2199102819821399</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.712900872572433</v>
+        <v>48.713123920199806</v>
       </c>
       <c r="B380" s="0">
-        <v>2.2006494174836684</v>
+        <v>2.2199103728613272</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.71284221198308</v>
+        <v>48.713124646387101</v>
       </c>
       <c r="B381" s="0">
-        <v>2.2008354612378609</v>
+        <v>2.2199047914671595</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.712846070614951</v>
+        <v>48.713124428231581</v>
       </c>
       <c r="B382" s="0">
-        <v>2.2008314130054614</v>
+        <v>2.2199010094940523</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.712833178878832</v>
+        <v>48.713126551589198</v>
       </c>
       <c r="B383" s="0">
-        <v>2.2008749509790411</v>
+        <v>2.2199000901837898</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.712803532910968</v>
+        <v>48.713126537882317</v>
       </c>
       <c r="B384" s="0">
-        <v>2.2009569992144966</v>
+        <v>2.2199018387784331</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.712788697561898</v>
+        <v>48.713124830560204</v>
       </c>
       <c r="B385" s="0">
-        <v>2.2009938009473213</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="0">
-        <v>48.712761608958573</v>
-      </c>
-      <c r="B386" s="0">
-        <v>2.2010126045328757</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="0">
-        <v>48.712754312440595</v>
-      </c>
-      <c r="B387" s="0">
-        <v>2.2010510181233052</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="0">
-        <v>48.71276785112412</v>
-      </c>
-      <c r="B388" s="0">
-        <v>2.2010324640213068</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="0">
-        <v>48.712768627131332</v>
-      </c>
-      <c r="B389" s="0">
-        <v>2.2010236095828568</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="0">
-        <v>48.712781309511271</v>
-      </c>
-      <c r="B390" s="0">
-        <v>2.2009977405715917</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="0">
-        <v>48.712801449220869</v>
-      </c>
-      <c r="B391" s="0">
-        <v>2.2009373808637167</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="0">
-        <v>48.712852839854435</v>
-      </c>
-      <c r="B392" s="0">
-        <v>2.2008364596465033</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="0">
-        <v>48.712864858742897</v>
-      </c>
-      <c r="B393" s="0">
-        <v>2.2008005178998</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="0">
-        <v>48.712853878155578</v>
-      </c>
-      <c r="B394" s="0">
-        <v>2.2008060956107727</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="0">
-        <v>48.712851645124879</v>
-      </c>
-      <c r="B395" s="0">
-        <v>2.2008134593631543</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="0">
-        <v>48.712828329452989</v>
-      </c>
-      <c r="B396" s="0">
-        <v>2.200860545719709</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="0">
-        <v>48.71283337030679</v>
-      </c>
-      <c r="B397" s="0">
-        <v>2.2008485677756728</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="0">
-        <v>48.712811652856161</v>
-      </c>
-      <c r="B398" s="0">
-        <v>2.2009049801387954</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="0">
-        <v>48.712830571931093</v>
-      </c>
-      <c r="B399" s="0">
-        <v>2.200860280741018</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="0">
-        <v>48.712827001803554</v>
-      </c>
-      <c r="B400" s="0">
-        <v>2.2008319799931981</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="0">
-        <v>48.712816906666738</v>
-      </c>
-      <c r="B401" s="0">
-        <v>2.200823529831518</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="0">
-        <v>48.712784139245976</v>
-      </c>
-      <c r="B402" s="0">
-        <v>2.2007771958946987</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="0">
-        <v>48.712790539431424</v>
-      </c>
-      <c r="B403" s="0">
-        <v>2.2008089712590895</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="0">
-        <v>48.712758003384465</v>
-      </c>
-      <c r="B404" s="0">
-        <v>2.2008225931500745</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="0">
-        <v>48.712740765136495</v>
-      </c>
-      <c r="B405" s="0">
-        <v>2.2008042078449917</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="0">
-        <v>48.712739761772667</v>
-      </c>
-      <c r="B406" s="0">
-        <v>2.2007912594918757</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="0">
-        <v>48.712746640432023</v>
-      </c>
-      <c r="B407" s="0">
-        <v>2.2008280261849538</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="0">
-        <v>48.712749352702907</v>
-      </c>
-      <c r="B408" s="0">
-        <v>2.200843524821456</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="0">
-        <v>48.712760819117435</v>
-      </c>
-      <c r="B409" s="0">
-        <v>2.2007563843452749</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="0">
-        <v>48.712754933321527</v>
-      </c>
-      <c r="B410" s="0">
-        <v>2.2007232033816861</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="0">
-        <v>48.712741380741527</v>
-      </c>
-      <c r="B411" s="0">
-        <v>2.2007033741384841</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="0">
-        <v>48.712752589438786</v>
-      </c>
-      <c r="B412" s="0">
-        <v>2.200730106472188</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="0">
-        <v>48.712770041941042</v>
-      </c>
-      <c r="B413" s="0">
-        <v>2.2007196876253325</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="0">
-        <v>48.71277750453244</v>
-      </c>
-      <c r="B414" s="0">
-        <v>2.2007237815910745</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="0">
-        <v>48.712794384813073</v>
-      </c>
-      <c r="B415" s="0">
-        <v>2.2007266699741024</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="0">
-        <v>48.712797719109496</v>
-      </c>
-      <c r="B416" s="0">
-        <v>2.2007115273103341</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="0">
-        <v>48.712803141700398</v>
-      </c>
-      <c r="B417" s="0">
-        <v>2.2006768050146413</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="0">
-        <v>48.712813402926876</v>
-      </c>
-      <c r="B418" s="0">
-        <v>2.2006841973520119</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="0">
-        <v>48.712811556541219</v>
-      </c>
-      <c r="B419" s="0">
-        <v>2.200660690355603</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="0">
-        <v>48.712803842947125</v>
-      </c>
-      <c r="B420" s="0">
-        <v>2.2006245350748008</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="0">
-        <v>48.712834341581505</v>
-      </c>
-      <c r="B421" s="0">
-        <v>2.2006915120884489</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="0">
-        <v>48.712844307614382</v>
-      </c>
-      <c r="B422" s="0">
-        <v>2.2006836627615671</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="0">
-        <v>48.712858019746569</v>
-      </c>
-      <c r="B423" s="0">
-        <v>2.2006830761380027</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="0">
-        <v>48.712865650582863</v>
-      </c>
-      <c r="B424" s="0">
-        <v>2.2006597472646097</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="0">
-        <v>48.712888677437938</v>
-      </c>
-      <c r="B425" s="0">
-        <v>2.2006874558758303</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="0">
-        <v>48.712912054066578</v>
-      </c>
-      <c r="B426" s="0">
-        <v>2.2006796130570434</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="0">
-        <v>48.712873703830248</v>
-      </c>
-      <c r="B427" s="0">
-        <v>2.2007063892826562</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="0">
-        <v>48.712872829459975</v>
-      </c>
-      <c r="B428" s="0">
-        <v>2.2006811188575859</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="0">
-        <v>48.712906694489533</v>
-      </c>
-      <c r="B429" s="0">
-        <v>2.2006519807094134</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="0">
-        <v>48.712908356902005</v>
-      </c>
-      <c r="B430" s="0">
-        <v>2.2006504812654284</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="0">
-        <v>48.712895639214303</v>
-      </c>
-      <c r="B431" s="0">
-        <v>2.2006810871273368</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="0">
-        <v>48.712878786229147</v>
-      </c>
-      <c r="B432" s="0">
-        <v>2.2007843819288326</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="0">
-        <v>48.712877765075511</v>
-      </c>
-      <c r="B433" s="0">
-        <v>2.2007078525860617</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="0">
-        <v>48.712842357301042</v>
-      </c>
-      <c r="B434" s="0">
-        <v>2.200899148342482</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="0">
-        <v>48.712837839829859</v>
-      </c>
-      <c r="B435" s="0">
-        <v>2.200865635310056</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="0">
-        <v>48.712786206681088</v>
-      </c>
-      <c r="B436" s="0">
-        <v>2.2009545041954857</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="0">
-        <v>48.712778670183489</v>
-      </c>
-      <c r="B437" s="0">
-        <v>2.2010082638501642</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="0">
-        <v>48.712802873821353</v>
-      </c>
-      <c r="B438" s="0">
-        <v>2.200997900866438</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="0">
-        <v>48.7127919013408</v>
-      </c>
-      <c r="B439" s="0">
-        <v>2.2009863847203675</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="0">
-        <v>48.712766465566268</v>
-      </c>
-      <c r="B440" s="0">
-        <v>2.2010249632290302</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="0">
-        <v>48.712760529726083</v>
-      </c>
-      <c r="B441" s="0">
-        <v>2.201040958670967</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="0">
-        <v>48.712761713183845</v>
-      </c>
-      <c r="B442" s="0">
-        <v>2.2010574020616671</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="0">
-        <v>48.712769109043499</v>
-      </c>
-      <c r="B443" s="0">
-        <v>2.2010218595914144</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="0">
-        <v>48.712844331924174</v>
-      </c>
-      <c r="B444" s="0">
-        <v>2.2008465064523084</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="0">
-        <v>48.71284059531105</v>
-      </c>
-      <c r="B445" s="0">
-        <v>2.2008430141141591</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="0">
-        <v>48.71288034473541</v>
-      </c>
-      <c r="B446" s="0">
-        <v>2.2007526045777821</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="0">
-        <v>48.712849720886858</v>
-      </c>
-      <c r="B447" s="0">
-        <v>2.20080642544497</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="0">
-        <v>48.71283873822231</v>
-      </c>
-      <c r="B448" s="0">
-        <v>2.2008432077003248</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="0">
-        <v>48.712863413107165</v>
-      </c>
-      <c r="B449" s="0">
-        <v>2.2008106598102732</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="0">
-        <v>48.712840555788773</v>
-      </c>
-      <c r="B450" s="0">
-        <v>2.2008504577759269</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="0">
-        <v>48.712846213975126</v>
-      </c>
-      <c r="B451" s="0">
-        <v>2.2008304452360261</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="0">
-        <v>48.712835855634026</v>
-      </c>
-      <c r="B452" s="0">
-        <v>2.2008511364821093</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="0">
-        <v>48.712801586221651</v>
-      </c>
-      <c r="B453" s="0">
-        <v>2.2009275003167925</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="0">
-        <v>48.712838180859002</v>
-      </c>
-      <c r="B454" s="0">
-        <v>2.2008100163618027</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="0">
-        <v>48.712779234941827</v>
-      </c>
-      <c r="B455" s="0">
-        <v>2.2008365008538529</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="0">
-        <v>48.712786114011181</v>
-      </c>
-      <c r="B456" s="0">
-        <v>2.2008960097226531</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="0">
-        <v>48.712768407014075</v>
-      </c>
-      <c r="B457" s="0">
-        <v>2.2007744404161689</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="0">
-        <v>48.712770357120981</v>
-      </c>
-      <c r="B458" s="0">
-        <v>2.2008282528182464</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="0">
-        <v>48.712736428732171</v>
-      </c>
-      <c r="B459" s="0">
-        <v>2.2007410269006771</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="0">
-        <v>48.712716756838496</v>
-      </c>
-      <c r="B460" s="0">
-        <v>2.2007839810773917</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="0">
-        <v>48.712734331096513</v>
-      </c>
-      <c r="B461" s="0">
-        <v>2.2007777133726187</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="0">
-        <v>48.712740142231951</v>
-      </c>
-      <c r="B462" s="0">
-        <v>2.2007652596671967</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="0">
-        <v>48.712733748394456</v>
-      </c>
-      <c r="B463" s="0">
-        <v>2.2007965487902492</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="0">
-        <v>48.712711619280306</v>
-      </c>
-      <c r="B464" s="0">
-        <v>2.2007639052375874</v>
+        <v>2.2198997603536266</v>
       </c>
     </row>
   </sheetData>

--- a/CalculePos_quasi_RTK/PosWGS84_code.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_code.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B385"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65,3082 +65,3274 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.713132338642929</v>
+        <v>48.713013206816868</v>
       </c>
       <c r="B1" s="0">
-        <v>2.2198924041120667</v>
+        <v>2.2000280214173609</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.713129575064329</v>
+        <v>48.713029113174485</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2198919685034415</v>
+        <v>2.2000456980346086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.713133351786986</v>
+        <v>48.71304700681609</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2198969768223114</v>
+        <v>2.2001339036843577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.713131628588819</v>
+        <v>48.713082592374086</v>
       </c>
       <c r="B4" s="0">
-        <v>2.2199007342104236</v>
+        <v>2.2001515668241285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.713131759763186</v>
+        <v>48.713061007413756</v>
       </c>
       <c r="B5" s="0">
-        <v>2.2198964201167777</v>
+        <v>2.2001264128374318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.713132038127362</v>
+        <v>48.713067354049294</v>
       </c>
       <c r="B6" s="0">
-        <v>2.2198919376097135</v>
+        <v>2.2001859882568957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.713132365634955</v>
+        <v>48.713057542440026</v>
       </c>
       <c r="B7" s="0">
-        <v>2.2198950939818274</v>
+        <v>2.2001864405724456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.713129381929107</v>
+        <v>48.713029555737535</v>
       </c>
       <c r="B8" s="0">
-        <v>2.2199002461562678</v>
+        <v>2.2002432125661722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.713130997346028</v>
+        <v>48.71302140197124</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2198959302173558</v>
+        <v>2.2002963125266475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.713133352322984</v>
+        <v>48.712995653196955</v>
       </c>
       <c r="B10" s="0">
-        <v>2.2198894546855144</v>
+        <v>2.2002510584191359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.713135433727544</v>
+        <v>48.713024503090068</v>
       </c>
       <c r="B11" s="0">
-        <v>2.219899111641594</v>
+        <v>2.2002123870614026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.713132795087994</v>
+        <v>48.713024121229822</v>
       </c>
       <c r="B12" s="0">
-        <v>2.2198961932100807</v>
+        <v>2.2002621077709246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.713135612332508</v>
+        <v>48.713050321404914</v>
       </c>
       <c r="B13" s="0">
-        <v>2.2198944102231346</v>
+        <v>2.2003127395988624</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.71313313255817</v>
+        <v>48.713076013022402</v>
       </c>
       <c r="B14" s="0">
-        <v>2.2198987468341569</v>
+        <v>2.2003583188716025</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.713125820594811</v>
+        <v>48.713066313870307</v>
       </c>
       <c r="B15" s="0">
-        <v>2.2198995020719057</v>
+        <v>2.2003547135585984</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.713124741794566</v>
+        <v>48.713054559964476</v>
       </c>
       <c r="B16" s="0">
-        <v>2.2198964110675341</v>
+        <v>2.200314757466304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.713120173623544</v>
+        <v>48.713025464838132</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2198904834151359</v>
+        <v>2.2003743777784024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.713122780122724</v>
+        <v>48.713049630398487</v>
       </c>
       <c r="B18" s="0">
-        <v>2.2198930540448942</v>
+        <v>2.200453930878393</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.713117265735988</v>
+        <v>48.713051571111102</v>
       </c>
       <c r="B19" s="0">
-        <v>2.2198907392975467</v>
+        <v>2.2004239826935743</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.713116139313613</v>
+        <v>48.713024676943</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2198936989571143</v>
+        <v>2.2004412116031715</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.713108989485903</v>
+        <v>48.713042832666915</v>
       </c>
       <c r="B21" s="0">
-        <v>2.219893397309912</v>
+        <v>2.2004442957352923</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.713109224808385</v>
+        <v>48.713069503290505</v>
       </c>
       <c r="B22" s="0">
-        <v>2.2198950172154688</v>
+        <v>2.200418675423379</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.713113660307045</v>
+        <v>48.713061603181501</v>
       </c>
       <c r="B23" s="0">
-        <v>2.2198932732277292</v>
+        <v>2.2004315053360477</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.713110090142486</v>
+        <v>48.713090653979379</v>
       </c>
       <c r="B24" s="0">
-        <v>2.2198968462498185</v>
+        <v>2.200437111309685</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.713102901300921</v>
+        <v>48.713075413708175</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2199007129194848</v>
+        <v>2.2004090787567998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.713107425856798</v>
+        <v>48.713058022050206</v>
       </c>
       <c r="B26" s="0">
-        <v>2.2198939535781776</v>
+        <v>2.2003420709857564</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.713109546342224</v>
+        <v>48.713030562631246</v>
       </c>
       <c r="B27" s="0">
-        <v>2.2198897439057119</v>
+        <v>2.2002735435236107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.713108136692803</v>
+        <v>48.713010396718438</v>
       </c>
       <c r="B28" s="0">
-        <v>2.2198942305585159</v>
+        <v>2.200204413551019</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.713109283534131</v>
+        <v>48.71296536468067</v>
       </c>
       <c r="B29" s="0">
-        <v>2.2198948184091005</v>
+        <v>2.200129908157086</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.713111388615651</v>
+        <v>48.712873792365116</v>
       </c>
       <c r="B30" s="0">
-        <v>2.2198933595759698</v>
+        <v>2.2000028041507358</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.713114603191407</v>
+        <v>48.7128518302437</v>
       </c>
       <c r="B31" s="0">
-        <v>2.219896433182301</v>
+        <v>2.1999530481440139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.713102554977432</v>
+        <v>48.712792104094227</v>
       </c>
       <c r="B32" s="0">
-        <v>2.2198931008548573</v>
+        <v>2.1998954467343275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.713104807224887</v>
+        <v>48.712772338397464</v>
       </c>
       <c r="B33" s="0">
-        <v>2.2198964179280831</v>
+        <v>2.1998592285778735</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.713111469705552</v>
+        <v>48.712763618346109</v>
       </c>
       <c r="B34" s="0">
-        <v>2.219896818525708</v>
+        <v>2.199751218420773</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.713111618284224</v>
+        <v>48.712702648999475</v>
       </c>
       <c r="B35" s="0">
-        <v>2.2198998853922665</v>
+        <v>2.1996805272391531</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.713111653306299</v>
+        <v>48.712685212492893</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2198997547642452</v>
+        <v>2.1997256623014221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.713108215934618</v>
+        <v>48.712699287799374</v>
       </c>
       <c r="B37" s="0">
-        <v>2.2198985645593465</v>
+        <v>2.1998367287918534</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.713106386957911</v>
+        <v>48.712732504064142</v>
       </c>
       <c r="B38" s="0">
-        <v>2.2198984387609544</v>
+        <v>2.1998852036811769</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.713111654983393</v>
+        <v>48.71270892750735</v>
       </c>
       <c r="B39" s="0">
-        <v>2.2199087059990967</v>
+        <v>2.1998945115812458</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.713108691251264</v>
+        <v>48.712667967003497</v>
       </c>
       <c r="B40" s="0">
-        <v>2.2199051802231633</v>
+        <v>2.1998233047938953</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.713112947774249</v>
+        <v>48.712717084927156</v>
       </c>
       <c r="B41" s="0">
-        <v>2.2199027940178846</v>
+        <v>2.1997393052640413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.713112949881776</v>
+        <v>48.712656059162256</v>
       </c>
       <c r="B42" s="0">
-        <v>2.2199055815052695</v>
+        <v>2.1997020911428975</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.713117841755398</v>
+        <v>48.712620127727675</v>
       </c>
       <c r="B43" s="0">
-        <v>2.2199052554924279</v>
+        <v>2.1996528492898917</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.71312378104912</v>
+        <v>48.712598947300286</v>
       </c>
       <c r="B44" s="0">
-        <v>2.2199038874263728</v>
+        <v>2.1995605287624387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.713126494199813</v>
+        <v>48.712560399459683</v>
       </c>
       <c r="B45" s="0">
-        <v>2.219907036720683</v>
+        <v>2.1994948094068616</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.713127920041821</v>
+        <v>48.712561409066964</v>
       </c>
       <c r="B46" s="0">
-        <v>2.2199017012109117</v>
+        <v>2.199517953513352</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.713127177538731</v>
+        <v>48.712588420368206</v>
       </c>
       <c r="B47" s="0">
-        <v>2.2198944678515593</v>
+        <v>2.1995085882574821</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.713135418685049</v>
+        <v>48.7126102842984</v>
       </c>
       <c r="B48" s="0">
-        <v>2.2198862054971169</v>
+        <v>2.1994557600343478</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.713134592454601</v>
+        <v>48.712613370038703</v>
       </c>
       <c r="B49" s="0">
-        <v>2.2198898084067</v>
+        <v>2.1994438789621622</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.713134223671347</v>
+        <v>48.712586515889257</v>
       </c>
       <c r="B50" s="0">
-        <v>2.2198888082751238</v>
+        <v>2.1994642189083638</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.713133550947774</v>
+        <v>48.712567422185671</v>
       </c>
       <c r="B51" s="0">
-        <v>2.21988415903814</v>
+        <v>2.1994434080750605</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.713137972370376</v>
+        <v>48.712543513024429</v>
       </c>
       <c r="B52" s="0">
-        <v>2.219884789895231</v>
+        <v>2.1994990106240926</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.713136970319873</v>
+        <v>48.712542137496428</v>
       </c>
       <c r="B53" s="0">
-        <v>2.2198838541978874</v>
+        <v>2.1995709716857497</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.713134003374762</v>
+        <v>48.712604214781393</v>
       </c>
       <c r="B54" s="0">
-        <v>2.2198890443048014</v>
+        <v>2.1995937313827847</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.713128334152131</v>
+        <v>48.712644425078814</v>
       </c>
       <c r="B55" s="0">
-        <v>2.219890495942892</v>
+        <v>2.1995983657532894</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.713135733798318</v>
+        <v>48.712641428892056</v>
       </c>
       <c r="B56" s="0">
-        <v>2.2198939283982178</v>
+        <v>2.1996532966816877</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.713131805324004</v>
+        <v>48.712701436724494</v>
       </c>
       <c r="B57" s="0">
-        <v>2.2198918373265233</v>
+        <v>2.1996369468550729</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.713137145024767</v>
+        <v>48.712748784144019</v>
       </c>
       <c r="B58" s="0">
-        <v>2.2198951521400598</v>
+        <v>2.1997116559812584</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.713139857063339</v>
+        <v>48.712816048943068</v>
       </c>
       <c r="B59" s="0">
-        <v>2.2198930728083344</v>
+        <v>2.1997958654382992</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.713137752171825</v>
+        <v>48.712803543599804</v>
       </c>
       <c r="B60" s="0">
-        <v>2.2198946390815606</v>
+        <v>2.1998469129974549</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.713136091367709</v>
+        <v>48.712891152482321</v>
       </c>
       <c r="B61" s="0">
-        <v>2.2199024924820003</v>
+        <v>2.1999763920954365</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.713134096564296</v>
+        <v>48.712937787816685</v>
       </c>
       <c r="B62" s="0">
-        <v>2.2198959582179478</v>
+        <v>2.1999835145354485</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.71313379885293</v>
+        <v>48.712943634269664</v>
       </c>
       <c r="B63" s="0">
-        <v>2.2198882332044967</v>
+        <v>2.200022702192018</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.713132789610178</v>
+        <v>48.713012466294679</v>
       </c>
       <c r="B64" s="0">
-        <v>2.219889983648748</v>
+        <v>2.2000285799157009</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.713130159694572</v>
+        <v>48.712957784435318</v>
       </c>
       <c r="B65" s="0">
-        <v>2.2198883831651277</v>
+        <v>2.20002113049823</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.71312998453945</v>
+        <v>48.712979710979468</v>
       </c>
       <c r="B66" s="0">
-        <v>2.2198850975634894</v>
+        <v>2.200040207711679</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.713123830172933</v>
+        <v>48.713034430102191</v>
       </c>
       <c r="B67" s="0">
-        <v>2.2198904874583199</v>
+        <v>2.2000958347589905</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.713130029658061</v>
+        <v>48.713131606181555</v>
       </c>
       <c r="B68" s="0">
-        <v>2.2198840059058846</v>
+        <v>2.2001731904987816</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.713131333870891</v>
+        <v>48.713112562358489</v>
       </c>
       <c r="B69" s="0">
-        <v>2.2198818916043415</v>
+        <v>2.2002139648211809</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.713129443100151</v>
+        <v>48.713043491467765</v>
       </c>
       <c r="B70" s="0">
-        <v>2.2198823882075058</v>
+        <v>2.2002155291224983</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.713134784361877</v>
+        <v>48.712996442774944</v>
       </c>
       <c r="B71" s="0">
-        <v>2.2198869912429808</v>
+        <v>2.2001953234697482</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.713142278050341</v>
+        <v>48.713048830710115</v>
       </c>
       <c r="B72" s="0">
-        <v>2.2198788790780659</v>
+        <v>2.2003024526325374</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.713135800045443</v>
+        <v>48.713067159566421</v>
       </c>
       <c r="B73" s="0">
-        <v>2.2198880868065425</v>
+        <v>2.2002939381851419</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.713135147653283</v>
+        <v>48.713069304625755</v>
       </c>
       <c r="B74" s="0">
-        <v>2.219888518364022</v>
+        <v>2.2003160056671254</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.713143369478935</v>
+        <v>48.713125558601348</v>
       </c>
       <c r="B75" s="0">
-        <v>2.219889801498987</v>
+        <v>2.2003602494888104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.713139537640139</v>
+        <v>48.713132894080602</v>
       </c>
       <c r="B76" s="0">
-        <v>2.2198918044816729</v>
+        <v>2.2004037832952879</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.713136963629708</v>
+        <v>48.71308735344504</v>
       </c>
       <c r="B77" s="0">
-        <v>2.2198912833786944</v>
+        <v>2.2003782618217471</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.713136259390431</v>
+        <v>48.713106855236838</v>
       </c>
       <c r="B78" s="0">
-        <v>2.219891386272661</v>
+        <v>2.2004117214608674</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.713133697494918</v>
+        <v>48.713171019340571</v>
       </c>
       <c r="B79" s="0">
-        <v>2.2198842316805427</v>
+        <v>2.2004664713284439</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.713131224178582</v>
+        <v>48.71316072065742</v>
       </c>
       <c r="B80" s="0">
-        <v>2.2198865848901415</v>
+        <v>2.2004829613423693</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.713132646343311</v>
+        <v>48.713137796185386</v>
       </c>
       <c r="B81" s="0">
-        <v>2.2198897307196903</v>
+        <v>2.2004871938019663</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.713136219231856</v>
+        <v>48.713154059023864</v>
       </c>
       <c r="B82" s="0">
-        <v>2.2198949924179496</v>
+        <v>2.2004693883323041</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.71314690140769</v>
+        <v>48.713154073427816</v>
       </c>
       <c r="B83" s="0">
-        <v>2.2198880584354805</v>
+        <v>2.2004652990741906</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.713144773974754</v>
+        <v>48.713098123424914</v>
       </c>
       <c r="B84" s="0">
-        <v>2.2198810473149466</v>
+        <v>2.2004762195048824</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.713142048097957</v>
+        <v>48.713016715916687</v>
       </c>
       <c r="B85" s="0">
-        <v>2.2198815099189289</v>
+        <v>2.2004645604119712</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.713143599288223</v>
+        <v>48.712993978996984</v>
       </c>
       <c r="B86" s="0">
-        <v>2.2198901987098951</v>
+        <v>2.2004131972076815</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.713144379215798</v>
+        <v>48.712961466961808</v>
       </c>
       <c r="B87" s="0">
-        <v>2.2198935995941462</v>
+        <v>2.200380422831508</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.71313811463348</v>
+        <v>48.712988195194157</v>
       </c>
       <c r="B88" s="0">
-        <v>2.2198933376924841</v>
+        <v>2.2003565094967912</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.713137753916364</v>
+        <v>48.712957983708407</v>
       </c>
       <c r="B89" s="0">
-        <v>2.2198941231424829</v>
+        <v>2.2002862655340305</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.713135067284952</v>
+        <v>48.712912529288111</v>
       </c>
       <c r="B90" s="0">
-        <v>2.219897445508269</v>
+        <v>2.200238088077116</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.713136620079524</v>
+        <v>48.712922970896543</v>
       </c>
       <c r="B91" s="0">
-        <v>2.2198954444097367</v>
+        <v>2.2002550915316537</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.713136401024031</v>
+        <v>48.712902854140104</v>
       </c>
       <c r="B92" s="0">
-        <v>2.2198970278221277</v>
+        <v>2.2002738557095039</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.71314148904672</v>
+        <v>48.712933153309493</v>
       </c>
       <c r="B93" s="0">
-        <v>2.2199015841126983</v>
+        <v>2.2002364310790257</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.713137710159593</v>
+        <v>48.712915649256566</v>
       </c>
       <c r="B94" s="0">
-        <v>2.219891956718326</v>
+        <v>2.200193843623047</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.713140173757743</v>
+        <v>48.712931340477532</v>
       </c>
       <c r="B95" s="0">
-        <v>2.2198941359294029</v>
+        <v>2.2001330173090596</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.713137077612267</v>
+        <v>48.712931561691825</v>
       </c>
       <c r="B96" s="0">
-        <v>2.2198938504044734</v>
+        <v>2.2001561763788406</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.713128485549021</v>
+        <v>48.712942657386172</v>
       </c>
       <c r="B97" s="0">
-        <v>2.2199015152981607</v>
+        <v>2.2001327764480725</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.713126834578013</v>
+        <v>48.71289707483772</v>
       </c>
       <c r="B98" s="0">
-        <v>2.2198937252448521</v>
+        <v>2.2001690849057751</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.713127513510756</v>
+        <v>48.712869014400702</v>
       </c>
       <c r="B99" s="0">
-        <v>2.2198889076025776</v>
+        <v>2.2001923010314912</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.713123839856955</v>
+        <v>48.712840461742808</v>
       </c>
       <c r="B100" s="0">
-        <v>2.21988915332649</v>
+        <v>2.2002168377288003</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.71312115167239</v>
+        <v>48.712896323822427</v>
       </c>
       <c r="B101" s="0">
-        <v>2.2198907792739768</v>
+        <v>2.2002095857120132</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.71312224712559</v>
+        <v>48.712916491095022</v>
       </c>
       <c r="B102" s="0">
-        <v>2.2198885495149527</v>
+        <v>2.2001974812082579</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.713123314097359</v>
+        <v>48.712933975660676</v>
       </c>
       <c r="B103" s="0">
-        <v>2.2198898764791046</v>
+        <v>2.2001787462957507</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.713125872560326</v>
+        <v>48.713002158829824</v>
       </c>
       <c r="B104" s="0">
-        <v>2.2198889211304218</v>
+        <v>2.2001160336317498</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.713126349856118</v>
+        <v>48.713063829554166</v>
       </c>
       <c r="B105" s="0">
-        <v>2.2198852256388784</v>
+        <v>2.2000462434839476</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.713124710276361</v>
+        <v>48.713154610259551</v>
       </c>
       <c r="B106" s="0">
-        <v>2.2198837653876056</v>
+        <v>2.2000389463599763</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.713129121224554</v>
+        <v>48.713223349520852</v>
       </c>
       <c r="B107" s="0">
-        <v>2.2198829079265843</v>
+        <v>2.200020203578934</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.713130929368219</v>
+        <v>48.713254615387768</v>
       </c>
       <c r="B108" s="0">
-        <v>2.2198821409547001</v>
+        <v>2.200027744572246</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.713132719967753</v>
+        <v>48.713245474292322</v>
       </c>
       <c r="B109" s="0">
-        <v>2.2198871014236277</v>
+        <v>2.1999580958507186</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.713131251600338</v>
+        <v>48.713309842766698</v>
       </c>
       <c r="B110" s="0">
-        <v>2.2198826064572605</v>
+        <v>2.1999594432979324</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.713133818235619</v>
+        <v>48.713315317974093</v>
       </c>
       <c r="B111" s="0">
-        <v>2.219882349973171</v>
+        <v>2.1999657018455281</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.713133396716707</v>
+        <v>48.713373351024394</v>
       </c>
       <c r="B112" s="0">
-        <v>2.2198797543891686</v>
+        <v>2.2000442178241153</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.71313668940433</v>
+        <v>48.713373703948271</v>
       </c>
       <c r="B113" s="0">
-        <v>2.2198771591196174</v>
+        <v>2.2000626699434087</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.713137586233472</v>
+        <v>48.713410998128211</v>
       </c>
       <c r="B114" s="0">
-        <v>2.2198859876952137</v>
+        <v>2.2000350436591112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.713141785514175</v>
+        <v>48.71334646437716</v>
       </c>
       <c r="B115" s="0">
-        <v>2.2198857724833823</v>
+        <v>2.2000296998765179</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.713139158563109</v>
+        <v>48.71328910259416</v>
       </c>
       <c r="B116" s="0">
-        <v>2.2198832453489983</v>
+        <v>2.200043697443633</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.713140632806144</v>
+        <v>48.713255984469129</v>
       </c>
       <c r="B117" s="0">
-        <v>2.2198817294851536</v>
+        <v>2.2000941985066938</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.713138755608973</v>
+        <v>48.71321543529146</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2198830583619174</v>
+        <v>2.2001459522549549</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.713139234011848</v>
+        <v>48.713162375563478</v>
       </c>
       <c r="B119" s="0">
-        <v>2.2198839052484325</v>
+        <v>2.2001857227990356</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.713143665645653</v>
+        <v>48.713151782331913</v>
       </c>
       <c r="B120" s="0">
-        <v>2.2198843133364941</v>
+        <v>2.200255172457263</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.713136677838087</v>
+        <v>48.713088539989315</v>
       </c>
       <c r="B121" s="0">
-        <v>2.2198794089760274</v>
+        <v>2.2003030406868165</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.713137671429394</v>
+        <v>48.713064705844886</v>
       </c>
       <c r="B122" s="0">
-        <v>2.2198776835585781</v>
+        <v>2.2003517211329555</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.713139520669046</v>
+        <v>48.713023957381715</v>
       </c>
       <c r="B123" s="0">
-        <v>2.2198761393059643</v>
+        <v>2.2003845526138668</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.713142193747494</v>
+        <v>48.71300964340378</v>
       </c>
       <c r="B124" s="0">
-        <v>2.219877436871688</v>
+        <v>2.2004176107668512</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.713141336885293</v>
+        <v>48.713015508966222</v>
       </c>
       <c r="B125" s="0">
-        <v>2.219878583402787</v>
+        <v>2.2004354017581873</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.713136542204609</v>
+        <v>48.713000225585226</v>
       </c>
       <c r="B126" s="0">
-        <v>2.2198791470129509</v>
+        <v>2.2004366177191113</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.713139528322707</v>
+        <v>48.712998789950149</v>
       </c>
       <c r="B127" s="0">
-        <v>2.2198779973133158</v>
+        <v>2.2004497051754686</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.713140165582786</v>
+        <v>48.712967175811883</v>
       </c>
       <c r="B128" s="0">
-        <v>2.2198820080308481</v>
+        <v>2.2004301323325737</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.713139859015612</v>
+        <v>48.712951792614049</v>
       </c>
       <c r="B129" s="0">
-        <v>2.2198825872054715</v>
+        <v>2.2004176616413855</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.713146401201911</v>
+        <v>48.712934487721959</v>
       </c>
       <c r="B130" s="0">
-        <v>2.2198837267651732</v>
+        <v>2.2003988155400096</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.713146615198681</v>
+        <v>48.71292018284138</v>
       </c>
       <c r="B131" s="0">
-        <v>2.2198845361403827</v>
+        <v>2.2003757774443722</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.713147401212609</v>
+        <v>48.712903390897509</v>
       </c>
       <c r="B132" s="0">
-        <v>2.2198877178037257</v>
+        <v>2.2003616084405171</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.713155663486567</v>
+        <v>48.712895225501157</v>
       </c>
       <c r="B133" s="0">
-        <v>2.2198872906053375</v>
+        <v>2.200340764639269</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.713157428009708</v>
+        <v>48.712926814686732</v>
       </c>
       <c r="B134" s="0">
-        <v>2.2198836366130466</v>
+        <v>2.2003231474159519</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.713157752153066</v>
+        <v>48.712930794249587</v>
       </c>
       <c r="B135" s="0">
-        <v>2.2198813459440414</v>
+        <v>2.2003222926316553</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.713160154762584</v>
+        <v>48.712937570832686</v>
       </c>
       <c r="B136" s="0">
-        <v>2.2198751306128553</v>
+        <v>2.200353521092961</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.713162266153503</v>
+        <v>48.712954170566825</v>
       </c>
       <c r="B137" s="0">
-        <v>2.2198740312422536</v>
+        <v>2.2003241511051881</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.71315880754107</v>
+        <v>48.712993061160006</v>
       </c>
       <c r="B138" s="0">
-        <v>2.219879027395347</v>
+        <v>2.2003374991797799</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.713159243919037</v>
+        <v>48.712984752761997</v>
       </c>
       <c r="B139" s="0">
-        <v>2.2198751940300343</v>
+        <v>2.200210703197377</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.713161646283339</v>
+        <v>48.713027008125394</v>
       </c>
       <c r="B140" s="0">
-        <v>2.2198762189470354</v>
+        <v>2.2001782730226842</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.713151737209863</v>
+        <v>48.713073909354996</v>
       </c>
       <c r="B141" s="0">
-        <v>2.2198752390970666</v>
+        <v>2.2001436970592518</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.713155833948406</v>
+        <v>48.71313301400712</v>
       </c>
       <c r="B142" s="0">
-        <v>2.2198691116962048</v>
+        <v>2.2002477492799715</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.713159029502769</v>
+        <v>48.713112490191051</v>
       </c>
       <c r="B143" s="0">
-        <v>2.2198749496112233</v>
+        <v>2.2002766714994269</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.713155663316947</v>
+        <v>48.713119083371986</v>
       </c>
       <c r="B144" s="0">
-        <v>2.2198744178717984</v>
+        <v>2.2002322901768499</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.713158054929203</v>
+        <v>48.713172477656237</v>
       </c>
       <c r="B145" s="0">
-        <v>2.2198786139707853</v>
+        <v>2.2001966616252351</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.713159630117779</v>
+        <v>48.713166511518125</v>
       </c>
       <c r="B146" s="0">
-        <v>2.2198777173972086</v>
+        <v>2.2001716025160865</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.713153764358488</v>
+        <v>48.713213434036177</v>
       </c>
       <c r="B147" s="0">
-        <v>2.2198804242170698</v>
+        <v>2.200144247520722</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.713157973392697</v>
+        <v>48.713256323956294</v>
       </c>
       <c r="B148" s="0">
-        <v>2.2198802768519306</v>
+        <v>2.2001561879113143</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.71315672212981</v>
+        <v>48.713256835670563</v>
       </c>
       <c r="B149" s="0">
-        <v>2.2198819061436015</v>
+        <v>2.200098150182193</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.713153219405967</v>
+        <v>48.713276630497035</v>
       </c>
       <c r="B150" s="0">
-        <v>2.2198818460620058</v>
+        <v>2.2000971797889304</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.713147445565298</v>
+        <v>48.71330150668021</v>
       </c>
       <c r="B151" s="0">
-        <v>2.2198780146141499</v>
+        <v>2.2001057061364073</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.713145631541572</v>
+        <v>48.713329689309681</v>
       </c>
       <c r="B152" s="0">
-        <v>2.2198842630177405</v>
+        <v>2.2000950435132016</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.713146761466938</v>
+        <v>48.713361883679944</v>
       </c>
       <c r="B153" s="0">
-        <v>2.2198843065641603</v>
+        <v>2.2000635807092994</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.713146216048344</v>
+        <v>48.713334116472431</v>
       </c>
       <c r="B154" s="0">
-        <v>2.2198874664942832</v>
+        <v>2.2000067940455814</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.713144551998461</v>
+        <v>48.713305734841804</v>
       </c>
       <c r="B155" s="0">
-        <v>2.2198804617246242</v>
+        <v>2.1999844484114033</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.713141382045698</v>
+        <v>48.713303135024326</v>
       </c>
       <c r="B156" s="0">
-        <v>2.2198798173793897</v>
+        <v>2.2000097130764646</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.713141695636232</v>
+        <v>48.713312181917374</v>
       </c>
       <c r="B157" s="0">
-        <v>2.2198893672747575</v>
+        <v>2.2000168499378785</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.713139290131906</v>
+        <v>48.713293382026599</v>
       </c>
       <c r="B158" s="0">
-        <v>2.2198854254986888</v>
+        <v>2.1999655995946896</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.713139465686709</v>
+        <v>48.713325249132893</v>
       </c>
       <c r="B159" s="0">
-        <v>2.2198809586667672</v>
+        <v>2.1999666408394569</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.713148132561266</v>
+        <v>48.713310222817036</v>
       </c>
       <c r="B160" s="0">
-        <v>2.2198815357081609</v>
+        <v>2.1999388694245412</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.713144237036261</v>
+        <v>48.713287880934594</v>
       </c>
       <c r="B161" s="0">
-        <v>2.2198892081542256</v>
+        <v>2.1999546111447343</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.713144685673043</v>
+        <v>48.713292652484498</v>
       </c>
       <c r="B162" s="0">
-        <v>2.2198876756442041</v>
+        <v>2.2000232116322653</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.713140184128719</v>
+        <v>48.713280017773954</v>
       </c>
       <c r="B163" s="0">
-        <v>2.2198868535931631</v>
+        <v>2.2000651356444592</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.71314121660577</v>
+        <v>48.713257597112033</v>
       </c>
       <c r="B164" s="0">
-        <v>2.2198811990856937</v>
+        <v>2.2000606701508652</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.713141386738641</v>
+        <v>48.713262960043998</v>
       </c>
       <c r="B165" s="0">
-        <v>2.2198785664349257</v>
+        <v>2.2001214031329766</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.713144019998211</v>
+        <v>48.713253690667358</v>
       </c>
       <c r="B166" s="0">
-        <v>2.2198794045374761</v>
+        <v>2.2001739224571551</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.71313987813371</v>
+        <v>48.713225903356694</v>
       </c>
       <c r="B167" s="0">
-        <v>2.2198833252549686</v>
+        <v>2.2002063302681041</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.713140932929783</v>
+        <v>48.713194638291029</v>
       </c>
       <c r="B168" s="0">
-        <v>2.219879087818621</v>
+        <v>2.2002635990807247</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.71313584794526</v>
+        <v>48.7131724271538</v>
       </c>
       <c r="B169" s="0">
-        <v>2.2198845011858372</v>
+        <v>2.2003227629657451</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.713137095789691</v>
+        <v>48.713175049294762</v>
       </c>
       <c r="B170" s="0">
-        <v>2.2198800774800906</v>
+        <v>2.200375694657533</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.71313403245582</v>
+        <v>48.713153600651168</v>
       </c>
       <c r="B171" s="0">
-        <v>2.2198860454895146</v>
+        <v>2.2003923440719504</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.713132859914026</v>
+        <v>48.713139663383529</v>
       </c>
       <c r="B172" s="0">
-        <v>2.2198824044321817</v>
+        <v>2.2004481327214243</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.713131976547885</v>
+        <v>48.713116235732919</v>
       </c>
       <c r="B173" s="0">
-        <v>2.2198766941106025</v>
+        <v>2.2004927020931229</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.713129226313996</v>
+        <v>48.713136286752878</v>
       </c>
       <c r="B174" s="0">
-        <v>2.2198826008713182</v>
+        <v>2.2004739836287528</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.713123734252015</v>
+        <v>48.713131098936742</v>
       </c>
       <c r="B175" s="0">
-        <v>2.2198820243539412</v>
+        <v>2.2005029450564266</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.713123844279764</v>
+        <v>48.713124924547408</v>
       </c>
       <c r="B176" s="0">
-        <v>2.2198793702996436</v>
+        <v>2.2005200166523169</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.713120670968578</v>
+        <v>48.712933025761977</v>
       </c>
       <c r="B177" s="0">
-        <v>2.2198704258832929</v>
+        <v>2.2006626488935188</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.71311620030906</v>
+        <v>48.713058622363725</v>
       </c>
       <c r="B178" s="0">
-        <v>2.2198745016417543</v>
+        <v>2.2006600584911462</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.7131109906707</v>
+        <v>48.71301871716954</v>
       </c>
       <c r="B179" s="0">
-        <v>2.2198722047273591</v>
+        <v>2.2006805905270972</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.71310823414543</v>
+        <v>48.713028085890592</v>
       </c>
       <c r="B180" s="0">
-        <v>2.2198704657174937</v>
+        <v>2.2006934744787716</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.713115553837234</v>
+        <v>48.713044377344126</v>
       </c>
       <c r="B181" s="0">
-        <v>2.2198744862623885</v>
+        <v>2.2007004385483682</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.713112392302953</v>
+        <v>48.713039066777512</v>
       </c>
       <c r="B182" s="0">
-        <v>2.2198728796511356</v>
+        <v>2.2007240483876767</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.713107078443123</v>
+        <v>48.712992956675741</v>
       </c>
       <c r="B183" s="0">
-        <v>2.2198800190327903</v>
+        <v>2.2007731243597721</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.713105691557672</v>
+        <v>48.712973083658007</v>
       </c>
       <c r="B184" s="0">
-        <v>2.2198836455176259</v>
+        <v>2.2007702136475364</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.713110206252139</v>
+        <v>48.712979213524719</v>
       </c>
       <c r="B185" s="0">
-        <v>2.2198808246915629</v>
+        <v>2.2007682465549019</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.713106503463088</v>
+        <v>48.712963277495455</v>
       </c>
       <c r="B186" s="0">
-        <v>2.2198874315845618</v>
+        <v>2.2007605116770659</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.71310444684422</v>
+        <v>48.712948354954086</v>
       </c>
       <c r="B187" s="0">
-        <v>2.2198848367534154</v>
+        <v>2.2008177065831376</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.713112002790965</v>
+        <v>48.712963441290675</v>
       </c>
       <c r="B188" s="0">
-        <v>2.2198821852475423</v>
+        <v>2.2008440728305674</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.713110436499001</v>
+        <v>48.712957767756159</v>
       </c>
       <c r="B189" s="0">
-        <v>2.2198814175311168</v>
+        <v>2.2008444218259604</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.713110729423995</v>
+        <v>48.712959154607248</v>
       </c>
       <c r="B190" s="0">
-        <v>2.2198803378185921</v>
+        <v>2.2008558978737085</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.713105235989737</v>
+        <v>48.712970264963595</v>
       </c>
       <c r="B191" s="0">
-        <v>2.2198790116866176</v>
+        <v>2.2008507161452138</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.713110900130381</v>
+        <v>48.713003136955571</v>
       </c>
       <c r="B192" s="0">
-        <v>2.2198881516016735</v>
+        <v>2.2008352466813275</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.713115220821571</v>
+        <v>48.713027922449548</v>
       </c>
       <c r="B193" s="0">
-        <v>2.2198827001917358</v>
+        <v>2.2008077348811721</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.713116603659309</v>
+        <v>48.713029829255575</v>
       </c>
       <c r="B194" s="0">
-        <v>2.2198907235973118</v>
+        <v>2.2007039871767078</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.713121295486367</v>
+        <v>48.713024957565096</v>
       </c>
       <c r="B195" s="0">
-        <v>2.2198937079114471</v>
+        <v>2.2006584870880945</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.713117610722954</v>
+        <v>48.713015539298837</v>
       </c>
       <c r="B196" s="0">
-        <v>2.2198951945120649</v>
+        <v>2.2006205956512073</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.71312642423316</v>
+        <v>48.713010548174033</v>
       </c>
       <c r="B197" s="0">
-        <v>2.2199015972533389</v>
+        <v>2.2005670307780405</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.713128373916035</v>
+        <v>48.713000450778019</v>
       </c>
       <c r="B198" s="0">
-        <v>2.219892656727295</v>
+        <v>2.2004830353115556</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.713128618627138</v>
+        <v>48.71298657480537</v>
       </c>
       <c r="B199" s="0">
-        <v>2.2198914817561768</v>
+        <v>2.2003526732358441</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.713136760494862</v>
+        <v>48.712985274851746</v>
       </c>
       <c r="B200" s="0">
-        <v>2.2198883873148914</v>
+        <v>2.2002522186529601</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.713136487385853</v>
+        <v>48.712976154519687</v>
       </c>
       <c r="B201" s="0">
-        <v>2.21989485373761</v>
+        <v>2.2001358541339946</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.713136219578018</v>
+        <v>48.713001321018723</v>
       </c>
       <c r="B202" s="0">
-        <v>2.2198965548670242</v>
+        <v>2.2000816689429295</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.713138873728966</v>
+        <v>48.713049080734798</v>
       </c>
       <c r="B203" s="0">
-        <v>2.2198904290713917</v>
+        <v>2.2000826964858966</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.713141358078502</v>
+        <v>48.713060227072219</v>
       </c>
       <c r="B204" s="0">
-        <v>2.2198921075483535</v>
+        <v>2.2000854927310676</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.713138273667312</v>
+        <v>48.713086851780886</v>
       </c>
       <c r="B205" s="0">
-        <v>2.2198930733241835</v>
+        <v>2.2000955389994137</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.713134767146329</v>
+        <v>48.713118114794703</v>
       </c>
       <c r="B206" s="0">
-        <v>2.2198973812623613</v>
+        <v>2.2000906599788634</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.713134281773769</v>
+        <v>48.713122347233373</v>
       </c>
       <c r="B207" s="0">
-        <v>2.2199007011842058</v>
+        <v>2.2001082522570248</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.713129347652739</v>
+        <v>48.713119650925741</v>
       </c>
       <c r="B208" s="0">
-        <v>2.2198979920302784</v>
+        <v>2.2000590288143349</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.713130469377184</v>
+        <v>48.713108233574388</v>
       </c>
       <c r="B209" s="0">
-        <v>2.2198947247760139</v>
+        <v>2.1999969851244603</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.713130790220234</v>
+        <v>48.713067924952476</v>
       </c>
       <c r="B210" s="0">
-        <v>2.2199024921303785</v>
+        <v>2.1999166981420433</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.713134212579909</v>
+        <v>48.71307180236861</v>
       </c>
       <c r="B211" s="0">
-        <v>2.2199027040719352</v>
+        <v>2.1999103727178513</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.713131923451812</v>
+        <v>48.713042114804573</v>
       </c>
       <c r="B212" s="0">
-        <v>2.2199101781860273</v>
+        <v>2.1998265224208864</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.71312886221174</v>
+        <v>48.713056482990638</v>
       </c>
       <c r="B213" s="0">
-        <v>2.2199069148421922</v>
+        <v>2.1998903767986482</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.713132908360976</v>
+        <v>48.713048991237628</v>
       </c>
       <c r="B214" s="0">
-        <v>2.2199057772033299</v>
+        <v>2.1999000285953465</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.713135478040279</v>
+        <v>48.71303189401457</v>
       </c>
       <c r="B215" s="0">
-        <v>2.2199133061858909</v>
+        <v>2.199878302188516</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.713128406993199</v>
+        <v>48.713046852726535</v>
       </c>
       <c r="B216" s="0">
-        <v>2.2199149965261884</v>
+        <v>2.1999309583162701</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.713133437281471</v>
+        <v>48.71300956051946</v>
       </c>
       <c r="B217" s="0">
-        <v>2.2199096629173196</v>
+        <v>2.1998806647361508</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.713131811589392</v>
+        <v>48.713006568830551</v>
       </c>
       <c r="B218" s="0">
-        <v>2.2199138566871644</v>
+        <v>2.1999301944570715</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.713127256040266</v>
+        <v>48.713011428350853</v>
       </c>
       <c r="B219" s="0">
-        <v>2.2199133813844463</v>
+        <v>2.1999656863876775</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.713130146568403</v>
+        <v>48.713047991798319</v>
       </c>
       <c r="B220" s="0">
-        <v>2.2199148373176847</v>
+        <v>2.2000292143152716</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.713126572460808</v>
+        <v>48.713071517337546</v>
       </c>
       <c r="B221" s="0">
-        <v>2.2199177017724265</v>
+        <v>2.2000963637686723</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.71312883608902</v>
+        <v>48.713106995685003</v>
       </c>
       <c r="B222" s="0">
-        <v>2.2199140038649827</v>
+        <v>2.2001138341174542</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.713125785494114</v>
+        <v>48.713100557975949</v>
       </c>
       <c r="B223" s="0">
-        <v>2.2199180257925604</v>
+        <v>2.200135816144912</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.713126868653319</v>
+        <v>48.713049815833905</v>
       </c>
       <c r="B224" s="0">
-        <v>2.2199213497334744</v>
+        <v>2.2001695570924515</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.713125570385415</v>
+        <v>48.713019470391025</v>
       </c>
       <c r="B225" s="0">
-        <v>2.2199153391432787</v>
+        <v>2.2002077126025972</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.713127646813184</v>
+        <v>48.713025591003174</v>
       </c>
       <c r="B226" s="0">
-        <v>2.2199109354717006</v>
+        <v>2.2003065517496405</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.71312608378819</v>
+        <v>48.713002091256883</v>
       </c>
       <c r="B227" s="0">
-        <v>2.2199186130219761</v>
+        <v>2.2003700061582992</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.713128050223006</v>
+        <v>48.713019993279332</v>
       </c>
       <c r="B228" s="0">
-        <v>2.2199131171865862</v>
+        <v>2.2004014614613476</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.713133697195246</v>
+        <v>48.712996928609073</v>
       </c>
       <c r="B229" s="0">
-        <v>2.2199127831937444</v>
+        <v>2.2004392179001333</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.71313363428964</v>
+        <v>48.712995187506316</v>
       </c>
       <c r="B230" s="0">
-        <v>2.2199110976041001</v>
+        <v>2.2004979560909597</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.713137973909866</v>
+        <v>48.712988422229266</v>
       </c>
       <c r="B231" s="0">
-        <v>2.2199066396919633</v>
+        <v>2.2005092903137236</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.713136540017217</v>
+        <v>48.712940873800491</v>
       </c>
       <c r="B232" s="0">
-        <v>2.2199078360480304</v>
+        <v>2.2005027944186404</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.713136546596083</v>
+        <v>48.712901048850057</v>
       </c>
       <c r="B233" s="0">
-        <v>2.2198962498698354</v>
+        <v>2.200493309902908</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.713133441126026</v>
+        <v>48.712864323569114</v>
       </c>
       <c r="B234" s="0">
-        <v>2.2198978695386087</v>
+        <v>2.2004955776164001</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.713137065279128</v>
+        <v>48.712829106306131</v>
       </c>
       <c r="B235" s="0">
-        <v>2.2198928279353121</v>
+        <v>2.2004726941063209</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.713133409944589</v>
+        <v>48.712807730519934</v>
       </c>
       <c r="B236" s="0">
-        <v>2.2198924420198756</v>
+        <v>2.2004698217384648</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.713131668164586</v>
+        <v>48.712826620932226</v>
       </c>
       <c r="B237" s="0">
-        <v>2.219892887804455</v>
+        <v>2.2003783791635132</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.713129817520397</v>
+        <v>48.712844758549387</v>
       </c>
       <c r="B238" s="0">
-        <v>2.2199004533371891</v>
+        <v>2.2003766564100982</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.713132946291353</v>
+        <v>48.712908241637493</v>
       </c>
       <c r="B239" s="0">
-        <v>2.2198909957150694</v>
+        <v>2.2003175781557482</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.71313189396453</v>
+        <v>48.712886397691662</v>
       </c>
       <c r="B240" s="0">
-        <v>2.2198865515780959</v>
+        <v>2.2002984717495049</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.713135736237611</v>
+        <v>48.712832836584376</v>
       </c>
       <c r="B241" s="0">
-        <v>2.2198829744300652</v>
+        <v>2.2002800228252388</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.713129872365286</v>
+        <v>48.71283218086279</v>
       </c>
       <c r="B242" s="0">
-        <v>2.2198860638305225</v>
+        <v>2.2002956570805403</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.713133403872433</v>
+        <v>48.712766687620544</v>
       </c>
       <c r="B243" s="0">
-        <v>2.2198831699759518</v>
+        <v>2.2003383024324501</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.713131866280015</v>
+        <v>48.71269631808201</v>
       </c>
       <c r="B244" s="0">
-        <v>2.2198822351135794</v>
+        <v>2.2004286124446</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.713129141004806</v>
+        <v>48.71273371605006</v>
       </c>
       <c r="B245" s="0">
-        <v>2.2198861027987897</v>
+        <v>2.2003838737794799</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.713132255547073</v>
+        <v>48.712748238443808</v>
       </c>
       <c r="B246" s="0">
-        <v>2.2198828427352693</v>
+        <v>2.2003697329751333</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.713133696488754</v>
+        <v>48.712704061844391</v>
       </c>
       <c r="B247" s="0">
-        <v>2.219878798908379</v>
+        <v>2.2004224874225558</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.713133319464546</v>
+        <v>48.712696590815597</v>
       </c>
       <c r="B248" s="0">
-        <v>2.2198879224741863</v>
+        <v>2.2003966919226206</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.713127536992978</v>
+        <v>48.712700082522502</v>
       </c>
       <c r="B249" s="0">
-        <v>2.2198773104860754</v>
+        <v>2.2003164851459016</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.713127406511468</v>
+        <v>48.71275518606825</v>
       </c>
       <c r="B250" s="0">
-        <v>2.2198844103971567</v>
+        <v>2.2002489530914882</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.713127237523857</v>
+        <v>48.71285893299936</v>
       </c>
       <c r="B251" s="0">
-        <v>2.2198854190549775</v>
+        <v>2.2001488384419616</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.713122557483238</v>
+        <v>48.712864999343552</v>
       </c>
       <c r="B252" s="0">
-        <v>2.2198840135577642</v>
+        <v>2.20010545842469</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.713119258815894</v>
+        <v>48.712836267361723</v>
       </c>
       <c r="B253" s="0">
-        <v>2.2198894239063613</v>
+        <v>2.2000899357023789</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.713122146032561</v>
+        <v>48.712824748013581</v>
       </c>
       <c r="B254" s="0">
-        <v>2.2198790977471377</v>
+        <v>2.2000782640382965</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.713117874675618</v>
+        <v>48.712876491341277</v>
       </c>
       <c r="B255" s="0">
-        <v>2.2198859879601489</v>
+        <v>2.2000431501265028</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.7131140630785</v>
+        <v>48.712856622375384</v>
       </c>
       <c r="B256" s="0">
-        <v>2.2198923765684207</v>
+        <v>2.2000660491793709</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.713116127247822</v>
+        <v>48.712896530565523</v>
       </c>
       <c r="B257" s="0">
-        <v>2.2198990740475293</v>
+        <v>2.2000359682075969</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.713116105661058</v>
+        <v>48.712916547408192</v>
       </c>
       <c r="B258" s="0">
-        <v>2.2199032521773709</v>
+        <v>2.2000063258556932</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.713109054439265</v>
+        <v>48.712912471017681</v>
       </c>
       <c r="B259" s="0">
-        <v>2.2199044137889747</v>
+        <v>2.2000144445127785</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.71311550382363</v>
+        <v>48.712915596018071</v>
       </c>
       <c r="B260" s="0">
-        <v>2.2199046800308437</v>
+        <v>2.2000164233321966</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.713116829450229</v>
+        <v>48.71292000086838</v>
       </c>
       <c r="B261" s="0">
-        <v>2.2199011789830201</v>
+        <v>2.2000477059245767</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.713113034028538</v>
+        <v>48.712940335280699</v>
       </c>
       <c r="B262" s="0">
-        <v>2.219906253877693</v>
+        <v>2.2000542710458926</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.713110214019764</v>
+        <v>48.712937472455138</v>
       </c>
       <c r="B263" s="0">
-        <v>2.2199081371874319</v>
+        <v>2.2000760888586948</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.713116687771276</v>
+        <v>48.71292596413042</v>
       </c>
       <c r="B264" s="0">
-        <v>2.2199045260085626</v>
+        <v>2.2001042788290945</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.713114785143787</v>
+        <v>48.712932306877342</v>
       </c>
       <c r="B265" s="0">
-        <v>2.219900841515646</v>
+        <v>2.200115966532544</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.713126114015374</v>
+        <v>48.71294206352961</v>
       </c>
       <c r="B266" s="0">
-        <v>2.2198994050941394</v>
+        <v>2.2001036421970146</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.713122330048542</v>
+        <v>48.712940581938597</v>
       </c>
       <c r="B267" s="0">
-        <v>2.2198955300872703</v>
+        <v>2.2001081604880532</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.713121790655059</v>
+        <v>48.712943410249494</v>
       </c>
       <c r="B268" s="0">
-        <v>2.219897672943604</v>
+        <v>2.2001134091171459</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.713121051259748</v>
+        <v>48.712954209257738</v>
       </c>
       <c r="B269" s="0">
-        <v>2.2199071691343311</v>
+        <v>2.2001301495469101</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.713120169895355</v>
+        <v>48.712961910038693</v>
       </c>
       <c r="B270" s="0">
-        <v>2.2199160805382143</v>
+        <v>2.2001466927943936</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.713117779870338</v>
+        <v>48.712997074315197</v>
       </c>
       <c r="B271" s="0">
-        <v>2.2199175553951278</v>
+        <v>2.2002076175418512</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.713120395282736</v>
+        <v>48.712993823536316</v>
       </c>
       <c r="B272" s="0">
-        <v>2.2199161266256318</v>
+        <v>2.2002019456146171</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.713119835727362</v>
+        <v>48.71299506842616</v>
       </c>
       <c r="B273" s="0">
-        <v>2.2199139361019875</v>
+        <v>2.2002026068385865</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.71312044208301</v>
+        <v>48.712972240067828</v>
       </c>
       <c r="B274" s="0">
-        <v>2.2199081410465382</v>
+        <v>2.2001403388947014</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.713119133182602</v>
+        <v>48.712988221389246</v>
       </c>
       <c r="B275" s="0">
-        <v>2.2199135194301269</v>
+        <v>2.2001770775504848</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.713112427697567</v>
+        <v>48.712982435546159</v>
       </c>
       <c r="B276" s="0">
-        <v>2.2199128323887947</v>
+        <v>2.2001703969430979</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.713112936563071</v>
+        <v>48.712961464765677</v>
       </c>
       <c r="B277" s="0">
-        <v>2.2199082252688216</v>
+        <v>2.2001340995820731</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.713115770123608</v>
+        <v>48.712955864639284</v>
       </c>
       <c r="B278" s="0">
-        <v>2.2199098564026203</v>
+        <v>2.2001275270462033</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.713123588999856</v>
+        <v>48.712953345871284</v>
       </c>
       <c r="B279" s="0">
-        <v>2.219905153753285</v>
+        <v>2.2001249809243975</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.713121560583659</v>
+        <v>48.712950468248117</v>
       </c>
       <c r="B280" s="0">
-        <v>2.219901622923643</v>
+        <v>2.2001276134029046</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.713126112575559</v>
+        <v>48.712966758774428</v>
       </c>
       <c r="B281" s="0">
-        <v>2.2199049635852148</v>
+        <v>2.200165576660861</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.713127123496996</v>
+        <v>48.712965958681231</v>
       </c>
       <c r="B282" s="0">
-        <v>2.2198999861762689</v>
+        <v>2.2001665722809816</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.713123147592931</v>
+        <v>48.712962667452764</v>
       </c>
       <c r="B283" s="0">
-        <v>2.2198925128280074</v>
+        <v>2.2001548774901503</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.713116666889178</v>
+        <v>48.712959024284203</v>
       </c>
       <c r="B284" s="0">
-        <v>2.2198925964278531</v>
+        <v>2.2001617342778537</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.713116442144397</v>
+        <v>48.712958381640526</v>
       </c>
       <c r="B285" s="0">
-        <v>2.2198915198519837</v>
+        <v>2.200166056254647</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.713114767379089</v>
+        <v>48.712939688640383</v>
       </c>
       <c r="B286" s="0">
-        <v>2.2198892854524677</v>
+        <v>2.2001430073506949</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.713111798147402</v>
+        <v>48.712928048316798</v>
       </c>
       <c r="B287" s="0">
-        <v>2.2198960214927426</v>
+        <v>2.200140050187867</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.713111462343441</v>
+        <v>48.712886007677</v>
       </c>
       <c r="B288" s="0">
-        <v>2.2198943112097465</v>
+        <v>2.2000939721323447</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.713109106632786</v>
+        <v>48.712795756253314</v>
       </c>
       <c r="B289" s="0">
-        <v>2.2198928884929696</v>
+        <v>2.2000622245197574</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.71311548956831</v>
+        <v>48.712820386709368</v>
       </c>
       <c r="B290" s="0">
-        <v>2.2198879333004324</v>
+        <v>2.2000786989670438</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.713111007467717</v>
+        <v>48.712794682531232</v>
       </c>
       <c r="B291" s="0">
-        <v>2.2198873813073385</v>
+        <v>2.2000481984507698</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.713110174094631</v>
+        <v>48.712799151358169</v>
       </c>
       <c r="B292" s="0">
-        <v>2.2198811581203577</v>
+        <v>2.1999956968850083</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.713109523925063</v>
+        <v>48.712802214397747</v>
       </c>
       <c r="B293" s="0">
-        <v>2.2198786094730507</v>
+        <v>2.2000286106980385</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.713111794945377</v>
+        <v>48.712804547182188</v>
       </c>
       <c r="B294" s="0">
-        <v>2.2198741302364526</v>
+        <v>2.2000069833476554</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.713109290880304</v>
+        <v>48.712806864842094</v>
       </c>
       <c r="B295" s="0">
-        <v>2.2198780035673518</v>
+        <v>2.200012132037386</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.713112144335987</v>
+        <v>48.712790588349691</v>
       </c>
       <c r="B296" s="0">
-        <v>2.2198755326859696</v>
+        <v>2.2000082573237694</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.713108897573804</v>
+        <v>48.712795302307271</v>
       </c>
       <c r="B297" s="0">
-        <v>2.2198754013507553</v>
+        <v>2.2000405213873835</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.713109071262231</v>
+        <v>48.712804029089256</v>
       </c>
       <c r="B298" s="0">
-        <v>2.2198761365347091</v>
+        <v>2.2000076958006289</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.713112189133355</v>
+        <v>48.712776280587534</v>
       </c>
       <c r="B299" s="0">
-        <v>2.2198793943887778</v>
+        <v>2.1999917963487801</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.71311510128929</v>
+        <v>48.712794941926553</v>
       </c>
       <c r="B300" s="0">
-        <v>2.2198735918453827</v>
+        <v>2.1999936405205132</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.713119447623797</v>
+        <v>48.712783347863002</v>
       </c>
       <c r="B301" s="0">
-        <v>2.21986150513216</v>
+        <v>2.1999322152700382</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.71311849210219</v>
+        <v>48.712802953168442</v>
       </c>
       <c r="B302" s="0">
-        <v>2.2198636380039938</v>
+        <v>2.1999126134445231</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.713119275508248</v>
+        <v>48.712830542059187</v>
       </c>
       <c r="B303" s="0">
-        <v>2.2198708845787873</v>
+        <v>2.1999275234506124</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.713119378466068</v>
+        <v>48.712847413201502</v>
       </c>
       <c r="B304" s="0">
-        <v>2.2198714729972404</v>
+        <v>2.199938524514351</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.713122149146706</v>
+        <v>48.712855298752437</v>
       </c>
       <c r="B305" s="0">
-        <v>2.2198801055814013</v>
+        <v>2.1999671982287508</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.713125488885481</v>
+        <v>48.712892863265544</v>
       </c>
       <c r="B306" s="0">
-        <v>2.2198717830989772</v>
+        <v>2.2000467161776971</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.713120022772465</v>
+        <v>48.712932313337611</v>
       </c>
       <c r="B307" s="0">
-        <v>2.2198770863716422</v>
+        <v>2.2000684370642878</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.713121145629223</v>
+        <v>48.712949765085078</v>
       </c>
       <c r="B308" s="0">
-        <v>2.219880539890525</v>
+        <v>2.2000931889559672</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.713125526205609</v>
+        <v>48.712973946901904</v>
       </c>
       <c r="B309" s="0">
-        <v>2.2198823415789661</v>
+        <v>2.2000967750985811</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.71313288585587</v>
+        <v>48.712989313244172</v>
       </c>
       <c r="B310" s="0">
-        <v>2.2198878761563998</v>
+        <v>2.2001174167349174</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.713137634238173</v>
+        <v>48.712998802815378</v>
       </c>
       <c r="B311" s="0">
-        <v>2.2198859250145544</v>
+        <v>2.2001373434927833</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.713132052984896</v>
+        <v>48.713017378191779</v>
       </c>
       <c r="B312" s="0">
-        <v>2.2198826085620404</v>
+        <v>2.2001219540144112</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.713144460071874</v>
+        <v>48.713028137624249</v>
       </c>
       <c r="B313" s="0">
-        <v>2.2198848977272663</v>
+        <v>2.2001011112664335</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.713148403357522</v>
+        <v>48.713049803421278</v>
       </c>
       <c r="B314" s="0">
-        <v>2.2198866699423996</v>
+        <v>2.2000782988439536</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.713147371545887</v>
+        <v>48.713060397408</v>
       </c>
       <c r="B315" s="0">
-        <v>2.2198859433061786</v>
+        <v>2.2000514772466668</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.713138554402839</v>
+        <v>48.713107206466873</v>
       </c>
       <c r="B316" s="0">
-        <v>2.2198825986805426</v>
+        <v>2.2000680761218261</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.71313753129219</v>
+        <v>48.713120343783807</v>
       </c>
       <c r="B317" s="0">
-        <v>2.2198806204282611</v>
+        <v>2.2000786651050204</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.713138886204448</v>
+        <v>48.713137423463948</v>
       </c>
       <c r="B318" s="0">
-        <v>2.2198814926809112</v>
+        <v>2.200079626501199</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.71313588490996</v>
+        <v>48.713122966657998</v>
       </c>
       <c r="B319" s="0">
-        <v>2.2198825103348208</v>
+        <v>2.2000713786882522</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.713135512863282</v>
+        <v>48.713070594905986</v>
       </c>
       <c r="B320" s="0">
-        <v>2.2198792838077797</v>
+        <v>2.2001474713662819</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.713136949711618</v>
+        <v>48.713048798754407</v>
       </c>
       <c r="B321" s="0">
-        <v>2.2198812972343993</v>
+        <v>2.2001644963815687</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.713132639249054</v>
+        <v>48.713050731398482</v>
       </c>
       <c r="B322" s="0">
-        <v>2.2198813528720911</v>
+        <v>2.2001679371062064</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.713135026334498</v>
+        <v>48.713046031461857</v>
       </c>
       <c r="B323" s="0">
-        <v>2.219890778605595</v>
+        <v>2.2001702182242156</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.713131739555472</v>
+        <v>48.713056981735178</v>
       </c>
       <c r="B324" s="0">
-        <v>2.219888500239473</v>
+        <v>2.2001674077611639</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.713133436902737</v>
+        <v>48.713043438811098</v>
       </c>
       <c r="B325" s="0">
-        <v>2.2198912840574909</v>
+        <v>2.2001868452925857</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.713135878359822</v>
+        <v>48.713036498711674</v>
       </c>
       <c r="B326" s="0">
-        <v>2.2198907425386665</v>
+        <v>2.2001817004643933</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.713137188860237</v>
+        <v>48.712998209630491</v>
       </c>
       <c r="B327" s="0">
-        <v>2.2198870118901501</v>
+        <v>2.2001825284850134</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.71313192564508</v>
+        <v>48.712985556079062</v>
       </c>
       <c r="B328" s="0">
-        <v>2.2198914093463511</v>
+        <v>2.2001639800661099</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.713132782104637</v>
+        <v>48.712961224680157</v>
       </c>
       <c r="B329" s="0">
-        <v>2.2198963972816887</v>
+        <v>2.2001576320796694</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.713129905337482</v>
+        <v>48.712942019617387</v>
       </c>
       <c r="B330" s="0">
-        <v>2.2198947039424222</v>
+        <v>2.2001200782195936</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.713130394666763</v>
+        <v>48.712911203343062</v>
       </c>
       <c r="B331" s="0">
-        <v>2.2198881769968954</v>
+        <v>2.200134514209668</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.713130806483889</v>
+        <v>48.712932132574224</v>
       </c>
       <c r="B332" s="0">
-        <v>2.2198972847565539</v>
+        <v>2.2001138582650928</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.713120470888605</v>
+        <v>48.712918569915594</v>
       </c>
       <c r="B333" s="0">
-        <v>2.2198975687590683</v>
+        <v>2.2001544214625177</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.713125422081141</v>
+        <v>48.71291637617184</v>
       </c>
       <c r="B334" s="0">
-        <v>2.2198985315736879</v>
+        <v>2.200159061362355</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.71312490526546</v>
+        <v>48.712954795572905</v>
       </c>
       <c r="B335" s="0">
-        <v>2.2199007585500761</v>
+        <v>2.200153976465105</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.713126711012478</v>
+        <v>48.712946710841656</v>
       </c>
       <c r="B336" s="0">
-        <v>2.2199067699994015</v>
+        <v>2.20021862647934</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.713124088622806</v>
+        <v>48.712958979404</v>
       </c>
       <c r="B337" s="0">
-        <v>2.2198979790256259</v>
+        <v>2.2002494350571538</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.713126081804376</v>
+        <v>48.712927689484907</v>
       </c>
       <c r="B338" s="0">
-        <v>2.2199108171434072</v>
+        <v>2.200301421581738</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.713128489295151</v>
+        <v>48.712898564967475</v>
       </c>
       <c r="B339" s="0">
-        <v>2.2199158144468325</v>
+        <v>2.2002962217086362</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.7131260673508</v>
+        <v>48.712926806672058</v>
       </c>
       <c r="B340" s="0">
-        <v>2.2199131188764807</v>
+        <v>2.2003073011413723</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.713126996562657</v>
+        <v>48.712977440603972</v>
       </c>
       <c r="B341" s="0">
-        <v>2.2199063848368379</v>
+        <v>2.2002887601829162</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.713118626985775</v>
+        <v>48.713019956378375</v>
       </c>
       <c r="B342" s="0">
-        <v>2.2199050882599769</v>
+        <v>2.2002974081330864</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.713121443003125</v>
+        <v>48.713027016787279</v>
       </c>
       <c r="B343" s="0">
-        <v>2.2199029105548989</v>
+        <v>2.2002868964236444</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.713123335891382</v>
+        <v>48.713017181619783</v>
       </c>
       <c r="B344" s="0">
-        <v>2.2199054203238013</v>
+        <v>2.2003228376356248</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.713117716056814</v>
+        <v>48.713003326389071</v>
       </c>
       <c r="B345" s="0">
-        <v>2.219901988781956</v>
+        <v>2.2003682879286743</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.713115068195755</v>
+        <v>48.713024737055918</v>
       </c>
       <c r="B346" s="0">
-        <v>2.2198991661782439</v>
+        <v>2.2003690454745719</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.713113956652215</v>
+        <v>48.712993774414585</v>
       </c>
       <c r="B347" s="0">
-        <v>2.219905010408326</v>
+        <v>2.2004136213718768</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.713119973625531</v>
+        <v>48.712995856480426</v>
       </c>
       <c r="B348" s="0">
-        <v>2.2199048153997199</v>
+        <v>2.2004605046117747</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.713120640182005</v>
+        <v>48.713008668495149</v>
       </c>
       <c r="B349" s="0">
-        <v>2.2199036048318774</v>
+        <v>2.200453308508735</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.713119629504355</v>
+        <v>48.713022128020874</v>
       </c>
       <c r="B350" s="0">
-        <v>2.2199120479242898</v>
+        <v>2.2004869222969727</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.713115827928263</v>
+        <v>48.713029627097079</v>
       </c>
       <c r="B351" s="0">
-        <v>2.2199119494873534</v>
+        <v>2.2005073361110776</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.713117244523339</v>
+        <v>48.71303096270541</v>
       </c>
       <c r="B352" s="0">
-        <v>2.2199045870619374</v>
+        <v>2.2005503606626018</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.713113975917551</v>
+        <v>48.71305389747193</v>
       </c>
       <c r="B353" s="0">
-        <v>2.2199021122730782</v>
+        <v>2.2005915888161725</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.713114991244353</v>
+        <v>48.713057068412304</v>
       </c>
       <c r="B354" s="0">
-        <v>2.2198987983732628</v>
+        <v>2.2005980299472081</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.713116521112127</v>
+        <v>48.713065585721005</v>
       </c>
       <c r="B355" s="0">
-        <v>2.2199013318917982</v>
+        <v>2.2005582435895086</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.713113319434378</v>
+        <v>48.713107516853043</v>
       </c>
       <c r="B356" s="0">
-        <v>2.2199036592604968</v>
+        <v>2.2005722953653373</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.713119823947707</v>
+        <v>48.713096499185944</v>
       </c>
       <c r="B357" s="0">
-        <v>2.2199046045378617</v>
+        <v>2.200596212577659</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.713115729414177</v>
+        <v>48.71309277092903</v>
       </c>
       <c r="B358" s="0">
-        <v>2.21990863357646</v>
+        <v>2.2006180092539842</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.71311346341394</v>
+        <v>48.713079330882842</v>
       </c>
       <c r="B359" s="0">
-        <v>2.2199049551798833</v>
+        <v>2.2006582638165551</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.713119158326933</v>
+        <v>48.71304482090293</v>
       </c>
       <c r="B360" s="0">
-        <v>2.2199005818122521</v>
+        <v>2.2006339477342585</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.713116899539479</v>
+        <v>48.712977626545744</v>
       </c>
       <c r="B361" s="0">
-        <v>2.2199024981432558</v>
+        <v>2.2005513868415707</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.713121342860589</v>
+        <v>48.712966123210826</v>
       </c>
       <c r="B362" s="0">
-        <v>2.2199011415013739</v>
+        <v>2.2005507574070444</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.713118477937577</v>
+        <v>48.712955355510346</v>
       </c>
       <c r="B363" s="0">
-        <v>2.2198997125091373</v>
+        <v>2.2005852801969321</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.713116399291316</v>
+        <v>48.712969773464444</v>
       </c>
       <c r="B364" s="0">
-        <v>2.2199057835362517</v>
+        <v>2.2005870863448998</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.713117506461437</v>
+        <v>48.712992562353399</v>
       </c>
       <c r="B365" s="0">
-        <v>2.2199015352550071</v>
+        <v>2.2005700115547229</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.713121312756499</v>
+        <v>48.713030739043433</v>
       </c>
       <c r="B366" s="0">
-        <v>2.2199116695343042</v>
+        <v>2.2005224030224042</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.713125533107046</v>
+        <v>48.713038324009318</v>
       </c>
       <c r="B367" s="0">
-        <v>2.2199072157591178</v>
+        <v>2.2004869367243254</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.713119837022482</v>
+        <v>48.713027712705809</v>
       </c>
       <c r="B368" s="0">
-        <v>2.2199113203432974</v>
+        <v>2.2004167338058371</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.713122292264231</v>
+        <v>48.712998421892699</v>
       </c>
       <c r="B369" s="0">
-        <v>2.2199147250751969</v>
+        <v>2.2003659719094326</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.713123647766317</v>
+        <v>48.713008109451124</v>
       </c>
       <c r="B370" s="0">
-        <v>2.2199150699064347</v>
+        <v>2.2003073495915921</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.713122287738898</v>
+        <v>48.712984955679204</v>
       </c>
       <c r="B371" s="0">
-        <v>2.2199218263509932</v>
+        <v>2.2002900169671267</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.713122793292683</v>
+        <v>48.712976075423853</v>
       </c>
       <c r="B372" s="0">
-        <v>2.2199174028745676</v>
+        <v>2.2002607599018522</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.713119775594827</v>
+        <v>48.7129776008316</v>
       </c>
       <c r="B373" s="0">
-        <v>2.2199207567293588</v>
+        <v>2.200257905596732</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.713121058242138</v>
+        <v>48.712959177624391</v>
       </c>
       <c r="B374" s="0">
-        <v>2.2199153873733675</v>
+        <v>2.2002430056657238</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.713128099357064</v>
+        <v>48.712980939656568</v>
       </c>
       <c r="B375" s="0">
-        <v>2.2199155330933809</v>
+        <v>2.2002087240603938</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.713125228024637</v>
+        <v>48.712960021478338</v>
       </c>
       <c r="B376" s="0">
-        <v>2.2199133458396623</v>
+        <v>2.2001772799680142</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.71313047197237</v>
+        <v>48.712950200929001</v>
       </c>
       <c r="B377" s="0">
-        <v>2.2199089523227444</v>
+        <v>2.2001481161355376</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.713131711039743</v>
+        <v>48.712950445429222</v>
       </c>
       <c r="B378" s="0">
-        <v>2.2199107047004367</v>
+        <v>2.2001291786465047</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.713127956189766</v>
+        <v>48.712928370722729</v>
       </c>
       <c r="B379" s="0">
-        <v>2.2199102819821399</v>
+        <v>2.2001293818038961</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.713123920199806</v>
+        <v>48.712898240027279</v>
       </c>
       <c r="B380" s="0">
-        <v>2.2199103728613272</v>
+        <v>2.2001019026456685</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.713124646387101</v>
+        <v>48.712898337924514</v>
       </c>
       <c r="B381" s="0">
-        <v>2.2199047914671595</v>
+        <v>2.2001265932213849</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.713124428231581</v>
+        <v>48.712947868356956</v>
       </c>
       <c r="B382" s="0">
-        <v>2.2199010094940523</v>
+        <v>2.2001908477181562</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.713126551589198</v>
+        <v>48.712946563767296</v>
       </c>
       <c r="B383" s="0">
-        <v>2.2199000901837898</v>
+        <v>2.2002398007684576</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.713126537882317</v>
+        <v>48.712938179946754</v>
       </c>
       <c r="B384" s="0">
-        <v>2.2199018387784331</v>
+        <v>2.2002933678360099</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.713124830560204</v>
+        <v>48.712900501719211</v>
       </c>
       <c r="B385" s="0">
-        <v>2.2198997603536266</v>
+        <v>2.2003300388611922</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0">
+        <v>48.712847106832953</v>
+      </c>
+      <c r="B386" s="0">
+        <v>2.2003914835087515</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0">
+        <v>48.712826685025</v>
+      </c>
+      <c r="B387" s="0">
+        <v>2.2004107449467485</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0">
+        <v>48.712831248063012</v>
+      </c>
+      <c r="B388" s="0">
+        <v>2.200434326973395</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0">
+        <v>48.712802274844201</v>
+      </c>
+      <c r="B389" s="0">
+        <v>2.2004380659713827</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0">
+        <v>48.712784914686317</v>
+      </c>
+      <c r="B390" s="0">
+        <v>2.2004487993003807</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0">
+        <v>48.712732339024306</v>
+      </c>
+      <c r="B391" s="0">
+        <v>2.2004675775480127</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0">
+        <v>48.712749561455809</v>
+      </c>
+      <c r="B392" s="0">
+        <v>2.2005103852490082</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0">
+        <v>48.712729405700863</v>
+      </c>
+      <c r="B393" s="0">
+        <v>2.2005192268352456</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0">
+        <v>48.712712508059219</v>
+      </c>
+      <c r="B394" s="0">
+        <v>2.2004888911859331</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0">
+        <v>48.712702726148479</v>
+      </c>
+      <c r="B395" s="0">
+        <v>2.2004641474395603</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0">
+        <v>48.712729864296883</v>
+      </c>
+      <c r="B396" s="0">
+        <v>2.2004319970646447</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0">
+        <v>48.712740394686122</v>
+      </c>
+      <c r="B397" s="0">
+        <v>2.200396204000334</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0">
+        <v>48.712723164148073</v>
+      </c>
+      <c r="B398" s="0">
+        <v>2.2003416016104014</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0">
+        <v>48.712709897811578</v>
+      </c>
+      <c r="B399" s="0">
+        <v>2.2002948189061584</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0">
+        <v>48.712686624238032</v>
+      </c>
+      <c r="B400" s="0">
+        <v>2.2002411787537879</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>48.712775995829993</v>
+      </c>
+      <c r="B401" s="0">
+        <v>2.2002375806652115</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>48.712770360438526</v>
+      </c>
+      <c r="B402" s="0">
+        <v>2.2002392012649823</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>48.712764744804552</v>
+      </c>
+      <c r="B403" s="0">
+        <v>2.2002445037823222</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>48.712728393095098</v>
+      </c>
+      <c r="B404" s="0">
+        <v>2.2002050669575302</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>48.712722988944471</v>
+      </c>
+      <c r="B405" s="0">
+        <v>2.2001955084939402</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>48.712749064653018</v>
+      </c>
+      <c r="B406" s="0">
+        <v>2.2002247429467019</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>48.712795181965412</v>
+      </c>
+      <c r="B407" s="0">
+        <v>2.2002260242697735</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>48.712867921555272</v>
+      </c>
+      <c r="B408" s="0">
+        <v>2.2002991704534507</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>48.712903944716409</v>
+      </c>
+      <c r="B409" s="0">
+        <v>2.2002834048605258</v>
       </c>
     </row>
   </sheetData>
